--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3352C4-0373-C94E-9962-DA5D1447E607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81325D4-4EA5-3C46-89EA-BDC2525FD9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1820" windowWidth="27140" windowHeight="17760" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="336">
   <si>
     <t>Scene</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>ctNPC</t>
-  </si>
-  <si>
-    <t>Chaper Tower Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the Chapel Tower. You should click the ‘Find Out More’ button to investigate this tower. Take your time to wander through the passageways, and then when you are ready to delve deeper into the castle's history, click the 'Inside Chapel Tower' button to be teleported inside the Chapel Tower. I will meet you there. </t>
@@ -988,13 +985,76 @@
   </si>
   <si>
     <t xml:space="preserve">Cipio Castell </t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
+  </si>
+  <si>
+    <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
+  </si>
+  <si>
+    <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
+  </si>
+  <si>
+    <t>tp @p 9969 80 10242 facing 9972 81 10244</t>
+  </si>
+  <si>
+    <t>tp @p 9958 80 10198 facing 9961 81 10201</t>
+  </si>
+  <si>
+    <t>tp @p 10030 80 10267 facing 10034 81 10269</t>
+  </si>
+  <si>
+    <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
+  </si>
+  <si>
+    <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
+  </si>
+  <si>
+    <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
+  </si>
+  <si>
+    <t>tp @p 10133 43 10186 facing 10134 43 10183</t>
+  </si>
+  <si>
+    <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
+  </si>
+  <si>
+    <t>tp @p 10137 58 10176</t>
+  </si>
+  <si>
+    <t>Chapel Tower Custodian</t>
+  </si>
+  <si>
+    <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp @p 10094 45 10241 </t>
+  </si>
+  <si>
+    <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
+  </si>
+  <si>
+    <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
+  </si>
+  <si>
+    <t>tp @p 9858 29 10268 facing 9854 29 10271</t>
+  </si>
+  <si>
+    <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+  </si>
+  <si>
+    <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1059,6 +1119,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1083,10 +1151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1110,8 +1179,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1446,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R12" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,28 +1602,28 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -1587,7 +1658,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1601,29 +1672,31 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="13" t="s">
+        <v>315</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1633,19 +1706,19 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="V4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1664,20 +1737,23 @@
       <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S5" t="s">
+        <v>204</v>
+      </c>
+      <c r="T5" t="s">
         <v>205</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>206</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>207</v>
-      </c>
-      <c r="V5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1699,14 +1775,17 @@
       <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="S6" t="s">
+        <v>208</v>
+      </c>
+      <c r="T6" t="s">
         <v>209</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>210</v>
-      </c>
-      <c r="U6" t="s">
-        <v>211</v>
       </c>
       <c r="V6" t="s">
         <v>30</v>
@@ -1731,17 +1810,20 @@
       <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="J7" t="s">
+        <v>317</v>
+      </c>
       <c r="S7" t="s">
+        <v>211</v>
+      </c>
+      <c r="T7" t="s">
         <v>212</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>210</v>
+      </c>
+      <c r="V7" t="s">
         <v>213</v>
-      </c>
-      <c r="U7" t="s">
-        <v>211</v>
-      </c>
-      <c r="V7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1763,17 +1845,20 @@
       <c r="I8" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="J8" t="s">
+        <v>316</v>
+      </c>
       <c r="S8" t="s">
+        <v>214</v>
+      </c>
+      <c r="T8" t="s">
         <v>215</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>210</v>
+      </c>
+      <c r="V8" t="s">
         <v>216</v>
-      </c>
-      <c r="U8" t="s">
-        <v>211</v>
-      </c>
-      <c r="V8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1795,17 +1880,20 @@
       <c r="I9" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="J9" t="s">
+        <v>320</v>
+      </c>
       <c r="S9" t="s">
+        <v>217</v>
+      </c>
+      <c r="T9" t="s">
         <v>218</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>210</v>
+      </c>
+      <c r="V9" t="s">
         <v>219</v>
-      </c>
-      <c r="U9" t="s">
-        <v>211</v>
-      </c>
-      <c r="V9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1827,17 +1915,20 @@
       <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
       <c r="S10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T10" t="s">
         <v>221</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>210</v>
+      </c>
+      <c r="V10" t="s">
         <v>222</v>
-      </c>
-      <c r="U10" t="s">
-        <v>211</v>
-      </c>
-      <c r="V10" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1859,17 +1950,20 @@
       <c r="I11" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="J11" t="s">
+        <v>318</v>
+      </c>
       <c r="S11" t="s">
+        <v>223</v>
+      </c>
+      <c r="T11" t="s">
         <v>224</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>210</v>
+      </c>
+      <c r="V11" t="s">
         <v>225</v>
-      </c>
-      <c r="U11" t="s">
-        <v>211</v>
-      </c>
-      <c r="V11" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1891,17 +1985,20 @@
       <c r="I12" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J12" t="s">
+        <v>321</v>
+      </c>
       <c r="S12" t="s">
+        <v>226</v>
+      </c>
+      <c r="T12" t="s">
         <v>227</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
+        <v>210</v>
+      </c>
+      <c r="V12" t="s">
         <v>228</v>
-      </c>
-      <c r="U12" t="s">
-        <v>211</v>
-      </c>
-      <c r="V12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1923,17 +2020,20 @@
       <c r="I13" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="J13" t="s">
+        <v>322</v>
+      </c>
       <c r="S13" t="s">
+        <v>229</v>
+      </c>
+      <c r="T13" t="s">
         <v>230</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>210</v>
+      </c>
+      <c r="V13" t="s">
         <v>231</v>
-      </c>
-      <c r="U13" t="s">
-        <v>211</v>
-      </c>
-      <c r="V13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1955,17 +2055,20 @@
       <c r="I14" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J14" t="s">
+        <v>323</v>
+      </c>
       <c r="S14" t="s">
+        <v>232</v>
+      </c>
+      <c r="T14" t="s">
         <v>233</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>210</v>
+      </c>
+      <c r="V14" t="s">
         <v>234</v>
-      </c>
-      <c r="U14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1985,13 +2088,13 @@
         <v>29</v>
       </c>
       <c r="S15" t="s">
+        <v>235</v>
+      </c>
+      <c r="T15" t="s">
         <v>236</v>
       </c>
-      <c r="T15" t="s">
-        <v>237</v>
-      </c>
       <c r="U15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -2011,13 +2114,13 @@
         <v>29</v>
       </c>
       <c r="S16" t="s">
+        <v>237</v>
+      </c>
+      <c r="T16" t="s">
         <v>238</v>
       </c>
-      <c r="T16" t="s">
-        <v>239</v>
-      </c>
       <c r="U16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -2039,17 +2142,20 @@
       <c r="I17" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="J17" t="s">
+        <v>324</v>
+      </c>
       <c r="S17" t="s">
+        <v>239</v>
+      </c>
+      <c r="T17" t="s">
         <v>240</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V17" t="s">
         <v>241</v>
-      </c>
-      <c r="U17" t="s">
-        <v>211</v>
-      </c>
-      <c r="V17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -2071,17 +2177,20 @@
       <c r="I18" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="J18" t="s">
+        <v>325</v>
+      </c>
       <c r="S18" t="s">
+        <v>242</v>
+      </c>
+      <c r="T18" t="s">
         <v>243</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
+        <v>210</v>
+      </c>
+      <c r="V18" t="s">
         <v>244</v>
-      </c>
-      <c r="U18" t="s">
-        <v>211</v>
-      </c>
-      <c r="V18" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -2092,616 +2201,640 @@
         <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>326</v>
       </c>
       <c r="S19" t="s">
+        <v>245</v>
+      </c>
+      <c r="T19" t="s">
         <v>246</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>210</v>
+      </c>
+      <c r="V19" t="s">
         <v>247</v>
-      </c>
-      <c r="U19" t="s">
-        <v>211</v>
-      </c>
-      <c r="V19" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>327</v>
       </c>
       <c r="S20" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" t="s">
         <v>249</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>210</v>
+      </c>
+      <c r="V20" t="s">
         <v>250</v>
-      </c>
-      <c r="U20" t="s">
-        <v>211</v>
-      </c>
-      <c r="V20" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>329</v>
       </c>
       <c r="S21" t="s">
+        <v>251</v>
+      </c>
+      <c r="T21" t="s">
         <v>252</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>210</v>
+      </c>
+      <c r="V21" t="s">
         <v>253</v>
-      </c>
-      <c r="U21" t="s">
-        <v>211</v>
-      </c>
-      <c r="V21" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S22" t="s">
+        <v>254</v>
+      </c>
+      <c r="T22" t="s">
         <v>255</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" t="s">
         <v>256</v>
-      </c>
-      <c r="U22" t="s">
-        <v>211</v>
-      </c>
-      <c r="V22" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S23" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23" t="s">
         <v>258</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>210</v>
+      </c>
+      <c r="V23" t="s">
         <v>259</v>
-      </c>
-      <c r="U23" t="s">
-        <v>211</v>
-      </c>
-      <c r="V23" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="J24" t="s">
+        <v>330</v>
       </c>
       <c r="S24" t="s">
+        <v>260</v>
+      </c>
+      <c r="T24" t="s">
         <v>261</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
+        <v>210</v>
+      </c>
+      <c r="V24" t="s">
         <v>262</v>
-      </c>
-      <c r="U24" t="s">
-        <v>211</v>
-      </c>
-      <c r="V24" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>331</v>
       </c>
       <c r="S25" t="s">
+        <v>263</v>
+      </c>
+      <c r="T25" t="s">
         <v>264</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
+        <v>210</v>
+      </c>
+      <c r="V25" t="s">
         <v>265</v>
-      </c>
-      <c r="U25" t="s">
-        <v>211</v>
-      </c>
-      <c r="V25" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>125</v>
+      <c r="H26" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="S26" t="s">
+        <v>266</v>
+      </c>
+      <c r="T26" t="s">
         <v>267</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>268</v>
-      </c>
-      <c r="U26" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="J27" t="s">
+        <v>333</v>
       </c>
       <c r="S27" t="s">
+        <v>269</v>
+      </c>
+      <c r="T27" t="s">
         <v>270</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
+        <v>210</v>
+      </c>
+      <c r="V27" t="s">
         <v>271</v>
-      </c>
-      <c r="U27" t="s">
-        <v>211</v>
-      </c>
-      <c r="V27" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S28" t="s">
+        <v>272</v>
+      </c>
+      <c r="T28" t="s">
         <v>273</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
+        <v>210</v>
+      </c>
+      <c r="V28" t="s">
         <v>274</v>
-      </c>
-      <c r="U28" t="s">
-        <v>211</v>
-      </c>
-      <c r="V28" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="K29" t="s">
         <v>141</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>142</v>
       </c>
-      <c r="M29" t="s">
-        <v>143</v>
-      </c>
       <c r="S29" t="s">
+        <v>275</v>
+      </c>
+      <c r="T29" t="s">
         <v>276</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>278</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>279</v>
       </c>
-      <c r="W29" t="s">
-        <v>280</v>
-      </c>
       <c r="X29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="S30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T30" t="s">
+        <v>282</v>
+      </c>
+      <c r="U30" t="s">
         <v>283</v>
       </c>
-      <c r="U30" t="s">
-        <v>284</v>
-      </c>
       <c r="V30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" t="s">
         <v>156</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>157</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>158</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>159</v>
       </c>
-      <c r="Q32" t="s">
-        <v>160</v>
-      </c>
       <c r="S32" t="s">
+        <v>284</v>
+      </c>
+      <c r="T32" t="s">
         <v>285</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>287</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>288</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>289</v>
       </c>
-      <c r="X32" t="s">
-        <v>290</v>
-      </c>
       <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z32" t="s">
         <v>293</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" t="s">
         <v>166</v>
       </c>
-      <c r="K33" t="s">
-        <v>167</v>
-      </c>
       <c r="S33" t="s">
+        <v>294</v>
+      </c>
+      <c r="T33" t="s">
         <v>295</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>296</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>297</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>298</v>
-      </c>
-      <c r="W33" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="S34" t="s">
+        <v>299</v>
+      </c>
+      <c r="T34" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="U34" t="s">
         <v>301</v>
-      </c>
-      <c r="U34" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="S35" t="s">
+        <v>302</v>
+      </c>
+      <c r="T35" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="U35" t="s">
         <v>304</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>305</v>
-      </c>
-      <c r="V35" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" t="s">
         <v>184</v>
       </c>
-      <c r="K36" t="s">
-        <v>185</v>
-      </c>
       <c r="S36" t="s">
+        <v>306</v>
+      </c>
+      <c r="T36" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="U36" t="s">
         <v>308</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>309</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>310</v>
-      </c>
-      <c r="W36" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="S37" t="s">
+        <v>311</v>
+      </c>
+      <c r="T37" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="T37" s="12" t="s">
+      <c r="U37" t="s">
         <v>313</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>314</v>
       </c>
-      <c r="V37" t="s">
-        <v>315</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{8688BC59-06A3-C64E-A435-83422EE8EF2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81325D4-4EA5-3C46-89EA-BDC2525FD9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F8D88E-93E1-3F4B-A662-C3AB601B95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="348">
   <si>
     <t>Scene</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>South-West Tower Custodian</t>
-  </si>
-  <si>
-    <t>Click the' Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
   </si>
   <si>
     <t>Chapel</t>
@@ -1048,6 +1045,45 @@
   </si>
   <si>
     <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+  </si>
+  <si>
+    <t>Misc NPCS</t>
+  </si>
+  <si>
+    <t>dragonNPC</t>
+  </si>
+  <si>
+    <t>dragonNPC1</t>
+  </si>
+  <si>
+    <t>Hidden Dragon</t>
+  </si>
+  <si>
+    <t>Rawr</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>secretNPC1</t>
+  </si>
+  <si>
+    <t>secretNPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon </t>
+  </si>
+  <si>
+    <t>Well done! You found the hidden dragon in Conwy. Make sure you take a picture and put it in your workbook.</t>
+  </si>
+  <si>
+    <t>Will Do</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=secretNPC] @p secretNPC1</t>
+  </si>
+  <si>
+    <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1565,7 @@
     <col min="4" max="4" width="61" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="20.33203125" customWidth="1"/>
@@ -1602,28 +1638,28 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
@@ -1658,7 +1694,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1672,16 +1708,16 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1689,14 +1725,14 @@
         <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1706,19 +1742,19 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="V4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1738,22 +1774,22 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="S5" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" t="s">
         <v>204</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>205</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>206</v>
-      </c>
-      <c r="V5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1776,16 +1812,16 @@
         <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S6" t="s">
+        <v>207</v>
+      </c>
+      <c r="T6" t="s">
         <v>208</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>209</v>
-      </c>
-      <c r="U6" t="s">
-        <v>210</v>
       </c>
       <c r="V6" t="s">
         <v>30</v>
@@ -1811,19 +1847,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S7" t="s">
+        <v>210</v>
+      </c>
+      <c r="T7" t="s">
         <v>211</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>209</v>
+      </c>
+      <c r="V7" t="s">
         <v>212</v>
-      </c>
-      <c r="U7" t="s">
-        <v>210</v>
-      </c>
-      <c r="V7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1846,19 +1882,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" t="s">
         <v>214</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>209</v>
+      </c>
+      <c r="V8" t="s">
         <v>215</v>
-      </c>
-      <c r="U8" t="s">
-        <v>210</v>
-      </c>
-      <c r="V8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1881,19 +1917,19 @@
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S9" t="s">
+        <v>216</v>
+      </c>
+      <c r="T9" t="s">
         <v>217</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>209</v>
+      </c>
+      <c r="V9" t="s">
         <v>218</v>
-      </c>
-      <c r="U9" t="s">
-        <v>210</v>
-      </c>
-      <c r="V9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1916,19 +1952,19 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S10" t="s">
+        <v>219</v>
+      </c>
+      <c r="T10" t="s">
         <v>220</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>209</v>
+      </c>
+      <c r="V10" t="s">
         <v>221</v>
-      </c>
-      <c r="U10" t="s">
-        <v>210</v>
-      </c>
-      <c r="V10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1942,893 +1978,935 @@
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T11" t="s">
         <v>223</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>209</v>
+      </c>
+      <c r="V11" t="s">
         <v>224</v>
-      </c>
-      <c r="U11" t="s">
-        <v>210</v>
-      </c>
-      <c r="V11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S12" t="s">
+        <v>225</v>
+      </c>
+      <c r="T12" t="s">
         <v>226</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
+        <v>209</v>
+      </c>
+      <c r="V12" t="s">
         <v>227</v>
-      </c>
-      <c r="U12" t="s">
-        <v>210</v>
-      </c>
-      <c r="V12" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S13" t="s">
+        <v>228</v>
+      </c>
+      <c r="T13" t="s">
         <v>229</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>209</v>
+      </c>
+      <c r="V13" t="s">
         <v>230</v>
-      </c>
-      <c r="U13" t="s">
-        <v>210</v>
-      </c>
-      <c r="V13" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S14" t="s">
+        <v>231</v>
+      </c>
+      <c r="T14" t="s">
         <v>232</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>209</v>
+      </c>
+      <c r="V14" t="s">
         <v>233</v>
-      </c>
-      <c r="U14" t="s">
-        <v>210</v>
-      </c>
-      <c r="V14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S15" t="s">
+        <v>234</v>
+      </c>
+      <c r="T15" t="s">
         <v>235</v>
       </c>
-      <c r="T15" t="s">
-        <v>236</v>
-      </c>
       <c r="U15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S16" t="s">
+        <v>236</v>
+      </c>
+      <c r="T16" t="s">
         <v>237</v>
       </c>
-      <c r="T16" t="s">
-        <v>238</v>
-      </c>
       <c r="U16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T17" t="s">
         <v>239</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>209</v>
+      </c>
+      <c r="V17" t="s">
         <v>240</v>
-      </c>
-      <c r="U17" t="s">
-        <v>210</v>
-      </c>
-      <c r="V17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S18" t="s">
+        <v>241</v>
+      </c>
+      <c r="T18" t="s">
         <v>242</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
+        <v>209</v>
+      </c>
+      <c r="V18" t="s">
         <v>243</v>
-      </c>
-      <c r="U18" t="s">
-        <v>210</v>
-      </c>
-      <c r="V18" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S19" t="s">
+        <v>244</v>
+      </c>
+      <c r="T19" t="s">
         <v>245</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>209</v>
+      </c>
+      <c r="V19" t="s">
         <v>246</v>
-      </c>
-      <c r="U19" t="s">
-        <v>210</v>
-      </c>
-      <c r="V19" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S20" t="s">
+        <v>247</v>
+      </c>
+      <c r="T20" t="s">
         <v>248</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>209</v>
+      </c>
+      <c r="V20" t="s">
         <v>249</v>
-      </c>
-      <c r="U20" t="s">
-        <v>210</v>
-      </c>
-      <c r="V20" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S21" t="s">
+        <v>250</v>
+      </c>
+      <c r="T21" t="s">
         <v>251</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>209</v>
+      </c>
+      <c r="V21" t="s">
         <v>252</v>
-      </c>
-      <c r="U21" t="s">
-        <v>210</v>
-      </c>
-      <c r="V21" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S22" t="s">
+        <v>253</v>
+      </c>
+      <c r="T22" t="s">
         <v>254</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
+        <v>209</v>
+      </c>
+      <c r="V22" t="s">
         <v>255</v>
-      </c>
-      <c r="U22" t="s">
-        <v>210</v>
-      </c>
-      <c r="V22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S23" t="s">
+        <v>256</v>
+      </c>
+      <c r="T23" t="s">
         <v>257</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>209</v>
+      </c>
+      <c r="V23" t="s">
         <v>258</v>
-      </c>
-      <c r="U23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V23" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S24" t="s">
+        <v>259</v>
+      </c>
+      <c r="T24" t="s">
         <v>260</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
+        <v>209</v>
+      </c>
+      <c r="V24" t="s">
         <v>261</v>
-      </c>
-      <c r="U24" t="s">
-        <v>210</v>
-      </c>
-      <c r="V24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S25" t="s">
+        <v>262</v>
+      </c>
+      <c r="T25" t="s">
         <v>263</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
+        <v>209</v>
+      </c>
+      <c r="V25" t="s">
         <v>264</v>
-      </c>
-      <c r="U25" t="s">
-        <v>210</v>
-      </c>
-      <c r="V25" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S26" t="s">
+        <v>265</v>
+      </c>
+      <c r="T26" t="s">
         <v>266</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>267</v>
-      </c>
-      <c r="U26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S27" t="s">
+        <v>268</v>
+      </c>
+      <c r="T27" t="s">
         <v>269</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
+        <v>209</v>
+      </c>
+      <c r="V27" t="s">
         <v>270</v>
-      </c>
-      <c r="U27" t="s">
-        <v>210</v>
-      </c>
-      <c r="V27" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S28" t="s">
+        <v>271</v>
+      </c>
+      <c r="T28" t="s">
         <v>272</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
+        <v>209</v>
+      </c>
+      <c r="V28" t="s">
         <v>273</v>
-      </c>
-      <c r="U28" t="s">
-        <v>210</v>
-      </c>
-      <c r="V28" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="G29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="K29" t="s">
         <v>140</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>141</v>
       </c>
-      <c r="M29" t="s">
-        <v>142</v>
-      </c>
       <c r="S29" t="s">
+        <v>274</v>
+      </c>
+      <c r="T29" t="s">
         <v>275</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>276</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>278</v>
       </c>
-      <c r="W29" t="s">
-        <v>279</v>
-      </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="S30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T30" t="s">
+        <v>281</v>
+      </c>
+      <c r="U30" t="s">
         <v>282</v>
       </c>
-      <c r="U30" t="s">
-        <v>283</v>
-      </c>
       <c r="V30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" t="s">
         <v>155</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>156</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>157</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>158</v>
       </c>
-      <c r="Q32" t="s">
-        <v>159</v>
-      </c>
       <c r="S32" t="s">
+        <v>283</v>
+      </c>
+      <c r="T32" t="s">
         <v>284</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>285</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>287</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>288</v>
       </c>
-      <c r="X32" t="s">
-        <v>289</v>
-      </c>
       <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z32" t="s">
         <v>292</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="K33" t="s">
         <v>165</v>
       </c>
-      <c r="K33" t="s">
-        <v>166</v>
-      </c>
       <c r="S33" t="s">
+        <v>293</v>
+      </c>
+      <c r="T33" t="s">
         <v>294</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>295</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>296</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>297</v>
-      </c>
-      <c r="W33" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="S34" t="s">
+        <v>298</v>
+      </c>
+      <c r="T34" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="U34" t="s">
         <v>300</v>
-      </c>
-      <c r="U34" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="S35" t="s">
+        <v>301</v>
+      </c>
+      <c r="T35" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="U35" t="s">
         <v>303</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>304</v>
-      </c>
-      <c r="V35" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="K36" t="s">
         <v>183</v>
       </c>
-      <c r="K36" t="s">
-        <v>184</v>
-      </c>
       <c r="S36" t="s">
+        <v>305</v>
+      </c>
+      <c r="T36" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="U36" t="s">
         <v>307</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>308</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>309</v>
-      </c>
-      <c r="W36" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="S37" t="s">
+        <v>310</v>
+      </c>
+      <c r="T37" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="T37" s="12" t="s">
+      <c r="U37" t="s">
         <v>312</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>313</v>
       </c>
-      <c r="V37" t="s">
-        <v>314</v>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F8D88E-93E1-3F4B-A662-C3AB601B95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E18332-DC59-5641-86C8-ABE013399389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="20040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1002,9 +1002,6 @@
     <t>tp @p 9958 80 10198 facing 9961 81 10201</t>
   </si>
   <si>
-    <t>tp @p 10030 80 10267 facing 10034 81 10269</t>
-  </si>
-  <si>
     <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
   </si>
   <si>
@@ -1084,6 +1081,9 @@
   </si>
   <si>
     <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
+  </si>
+  <si>
+    <t>tp @p 10025 57 10266 facing 10024 57 10267</t>
   </si>
 </sst>
 </file>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1774,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1812,7 +1812,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S6" t="s">
         <v>207</v>
@@ -1978,7 +1978,7 @@
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
@@ -2022,7 +2022,7 @@
         <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="S12" t="s">
         <v>225</v>
@@ -2057,7 +2057,7 @@
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S13" t="s">
         <v>228</v>
@@ -2092,7 +2092,7 @@
         <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S14" t="s">
         <v>231</v>
@@ -2179,7 +2179,7 @@
         <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S17" t="s">
         <v>238</v>
@@ -2214,7 +2214,7 @@
         <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S18" t="s">
         <v>241</v>
@@ -2237,7 +2237,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>90</v>
@@ -2249,7 +2249,7 @@
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S19" t="s">
         <v>244</v>
@@ -2272,7 +2272,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>93</v>
@@ -2284,7 +2284,7 @@
         <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S20" t="s">
         <v>247</v>
@@ -2319,7 +2319,7 @@
         <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S21" t="s">
         <v>250</v>
@@ -2418,7 +2418,7 @@
         <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S24" t="s">
         <v>259</v>
@@ -2453,7 +2453,7 @@
         <v>118</v>
       </c>
       <c r="J25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S25" t="s">
         <v>262</v>
@@ -2485,7 +2485,7 @@
         <v>123</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S26" t="s">
         <v>265</v>
@@ -2517,7 +2517,7 @@
         <v>128</v>
       </c>
       <c r="J27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S27" t="s">
         <v>268</v>
@@ -2869,44 +2869,44 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E18332-DC59-5641-86C8-ABE013399389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AB531-F674-C24A-8A61-8F38F16FAC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="20040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="1100" yWindow="1240" windowWidth="33220" windowHeight="20040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="352">
   <si>
     <t>Scene</t>
   </si>
@@ -1084,6 +1084,18 @@
   </si>
   <si>
     <t>tp @p 10025 57 10266 facing 10024 57 10267</t>
+  </si>
+  <si>
+    <t>tp @p 79934 -42 80019 facing 79934 -42 80016</t>
+  </si>
+  <si>
+    <t>dragonNPC2</t>
+  </si>
+  <si>
+    <t>Keep an eye out for me! I am hidden somewhere at every site. If you can find me, take a picture of me and put it into your workbook.</t>
+  </si>
+  <si>
+    <t>Thanks!</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1757,516 +1769,513 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" t="s">
-        <v>203</v>
-      </c>
-      <c r="T5" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" t="s">
-        <v>205</v>
-      </c>
-      <c r="V5" t="s">
-        <v>206</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="S6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="T6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="U6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>316</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="S7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="U7" t="s">
         <v>209</v>
       </c>
       <c r="V7" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="U8" t="s">
         <v>209</v>
       </c>
       <c r="V8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="T9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="U9" t="s">
         <v>209</v>
       </c>
       <c r="V9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U10" t="s">
         <v>209</v>
       </c>
       <c r="V10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>346</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="U11" t="s">
         <v>209</v>
       </c>
       <c r="V11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="S12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="U12" t="s">
         <v>209</v>
       </c>
       <c r="V12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="S13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="T13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U13" t="s">
         <v>209</v>
       </c>
       <c r="V13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="U14" t="s">
         <v>209</v>
       </c>
       <c r="V14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>321</v>
+      </c>
       <c r="S15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="U15" t="s">
         <v>209</v>
       </c>
+      <c r="V15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U16" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" t="s">
-        <v>322</v>
-      </c>
       <c r="S17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U17" t="s">
         <v>209</v>
       </c>
-      <c r="V17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U18" t="s">
         <v>209</v>
       </c>
       <c r="V18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>326</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="U19" t="s">
         <v>209</v>
       </c>
       <c r="V19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>89</v>
@@ -2275,637 +2284,672 @@
         <v>326</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="T20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="U20" t="s">
         <v>209</v>
       </c>
       <c r="V20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="T21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U21" t="s">
         <v>209</v>
       </c>
       <c r="V21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>327</v>
       </c>
       <c r="S22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="U22" t="s">
         <v>209</v>
       </c>
       <c r="V22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="U23" t="s">
         <v>209</v>
       </c>
       <c r="V23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" t="s">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="S24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U24" t="s">
         <v>209</v>
       </c>
       <c r="V24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U25" t="s">
         <v>209</v>
       </c>
       <c r="V25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" t="s">
+        <v>329</v>
+      </c>
+      <c r="S26" t="s">
+        <v>262</v>
+      </c>
+      <c r="T26" t="s">
+        <v>263</v>
+      </c>
+      <c r="U26" t="s">
+        <v>209</v>
+      </c>
+      <c r="V26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S27" t="s">
         <v>265</v>
       </c>
-      <c r="T26" t="s">
+      <c r="T27" t="s">
         <v>266</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" t="s">
-        <v>331</v>
-      </c>
-      <c r="S27" t="s">
-        <v>268</v>
-      </c>
-      <c r="T27" t="s">
-        <v>269</v>
-      </c>
-      <c r="U27" t="s">
-        <v>209</v>
-      </c>
-      <c r="V27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
+        <v>331</v>
       </c>
       <c r="S28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="T28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U28" t="s">
         <v>209</v>
       </c>
       <c r="V28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S29" t="s">
+        <v>271</v>
+      </c>
+      <c r="T29" t="s">
+        <v>272</v>
+      </c>
+      <c r="U29" t="s">
+        <v>209</v>
+      </c>
+      <c r="V29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>140</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>141</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S30" t="s">
         <v>274</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T30" t="s">
         <v>275</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U30" t="s">
         <v>276</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V30" t="s">
         <v>277</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W30" t="s">
         <v>278</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>141</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>281</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>282</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>155</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>156</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O33" t="s">
         <v>157</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q33" t="s">
         <v>158</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S33" t="s">
         <v>283</v>
       </c>
-      <c r="T32" t="s">
+      <c r="T33" t="s">
         <v>284</v>
       </c>
-      <c r="U32" t="s">
+      <c r="U33" t="s">
         <v>285</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="W33" t="s">
         <v>287</v>
       </c>
-      <c r="X32" t="s">
+      <c r="X33" t="s">
         <v>288</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y33" t="s">
         <v>291</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Z33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>165</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S34" t="s">
         <v>293</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T34" t="s">
         <v>294</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U34" t="s">
         <v>295</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V34" t="s">
         <v>296</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S35" t="s">
         <v>298</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T35" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S36" t="s">
         <v>301</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T36" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="U35" t="s">
+      <c r="U36" t="s">
         <v>303</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>183</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S37" t="s">
         <v>305</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T37" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="U36" t="s">
+      <c r="U37" t="s">
         <v>307</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V37" t="s">
         <v>308</v>
       </c>
-      <c r="W36" t="s">
+      <c r="W37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S38" t="s">
         <v>310</v>
       </c>
-      <c r="T37" s="12" t="s">
+      <c r="T38" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="U37" t="s">
+      <c r="U38" t="s">
         <v>312</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V38" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>344</v>
       </c>
     </row>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2AB531-F674-C24A-8A61-8F38F16FAC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856A32A-B449-4C44-B64C-E55FF3A3937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1240" windowWidth="33220" windowHeight="20040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="-18340" yWindow="-19780" windowWidth="30280" windowHeight="19040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="396">
   <si>
     <t>Scene</t>
   </si>
@@ -984,9 +984,6 @@
     <t xml:space="preserve">Cipio Castell </t>
   </si>
   <si>
-    <t>https://google.com</t>
-  </si>
-  <si>
     <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
   </si>
   <si>
@@ -1096,6 +1093,141 @@
   </si>
   <si>
     <t>Thanks!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=MlzTMeEtZbI</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=03QngMoJ3pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8VnNMdrF8xQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4MR0oEiq7pA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=RpqqINFdVhg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=oYB2UeXA75k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=I9MGNyv2tfE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m072INWcFXU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wcp6sMJGSiY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6QjdNgVNl3Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rAUH5OxitHg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=-VNjPjVOSBk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=C0t6duLUpXk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wyhtG0XJlR0 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=8IRhOP6QlAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XPeHvT114Jw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lb1Sn3CXvqM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=O9FxxAnED94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g-rLr7Xl36s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=M5QJdQC93JY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=MvMeRIXN7ZQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Q1d-5AelzCU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BMyyKu5FZtI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XEWl_ZHleYw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UD8oBbkY954 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=IRXZIDdQFiM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=np6VMf7puhY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=cjw8XsGHscA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=gN0kMp1CAkw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=LsVC2Nm6MJs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=eHNU8VzL5l0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=U2YBGPeKxaQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ONzrxHcTG9w </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=W0rGmmGmP8U </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=H5CZJ9YOR3M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=nPhdQqyLyzo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6h3nrSTeXMQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ls6s-ipIoIU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=KyfXVZ2Sz0U </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=kqEl5tOswhU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=SC5YhDa2c7Y </t>
   </si>
 </sst>
 </file>
@@ -1563,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,15 +1718,15 @@
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" customWidth="1"/>
     <col min="20" max="20" width="73.1640625" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" customWidth="1"/>
-    <col min="23" max="23" width="21" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" customWidth="1"/>
-    <col min="25" max="25" width="23.1640625" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" customWidth="1"/>
+    <col min="21" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="26" width="21" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1659,22 +1791,27 @@
         <v>196</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="4"/>
+      <c r="Y1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1699,12 +1836,15 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>148</v>
       </c>
@@ -1718,7 +1858,7 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>142</v>
       </c>
@@ -1737,12 +1877,14 @@
         <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="13" t="s">
+        <v>354</v>
+      </c>
       <c r="K4" s="2" t="s">
         <v>193</v>
       </c>
@@ -1762,30 +1904,36 @@
       <c r="U4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="8"/>
@@ -1797,8 +1945,9 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1815,13 +1964,13 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S6" t="s">
         <v>203</v>
@@ -1832,11 +1981,11 @@
       <c r="U6" t="s">
         <v>205</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1852,11 +2001,14 @@
       <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>356</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S7" t="s">
         <v>207</v>
@@ -1867,11 +2019,11 @@
       <c r="U7" t="s">
         <v>209</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1887,11 +2039,14 @@
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>357</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
         <v>210</v>
@@ -1902,11 +2057,11 @@
       <c r="U8" t="s">
         <v>209</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1922,11 +2077,14 @@
       <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S9" t="s">
         <v>213</v>
@@ -1937,11 +2095,11 @@
       <c r="U9" t="s">
         <v>209</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -1957,11 +2115,14 @@
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>359</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S10" t="s">
         <v>216</v>
@@ -1972,11 +2133,11 @@
       <c r="U10" t="s">
         <v>209</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1992,11 +2153,14 @@
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H11" s="13" t="s">
+        <v>360</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S11" t="s">
         <v>219</v>
@@ -2007,11 +2171,11 @@
       <c r="U11" t="s">
         <v>209</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2022,16 +2186,19 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S12" t="s">
         <v>222</v>
@@ -2042,11 +2209,11 @@
       <c r="U12" t="s">
         <v>209</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2062,11 +2229,14 @@
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H13" s="13" t="s">
+        <v>362</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S13" t="s">
         <v>225</v>
@@ -2077,11 +2247,11 @@
       <c r="U13" t="s">
         <v>209</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -2097,11 +2267,14 @@
       <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>363</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S14" t="s">
         <v>228</v>
@@ -2112,11 +2285,11 @@
       <c r="U14" t="s">
         <v>209</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2132,11 +2305,14 @@
       <c r="G15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H15" s="13" t="s">
+        <v>364</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S15" t="s">
         <v>231</v>
@@ -2147,11 +2323,11 @@
       <c r="U15" t="s">
         <v>209</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -2167,6 +2343,9 @@
       <c r="G16" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H16" s="13" t="s">
+        <v>365</v>
+      </c>
       <c r="S16" t="s">
         <v>234</v>
       </c>
@@ -2177,7 +2356,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -2193,6 +2372,9 @@
       <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H17" s="13" t="s">
+        <v>366</v>
+      </c>
       <c r="S17" t="s">
         <v>236</v>
       </c>
@@ -2203,7 +2385,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2219,11 +2401,14 @@
       <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H18" s="13" t="s">
+        <v>367</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S18" t="s">
         <v>238</v>
@@ -2234,11 +2419,11 @@
       <c r="U18" t="s">
         <v>209</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -2254,11 +2439,14 @@
       <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H19" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="I19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S19" t="s">
         <v>241</v>
@@ -2269,11 +2457,11 @@
       <c r="U19" t="s">
         <v>209</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>88</v>
       </c>
@@ -2281,7 +2469,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -2289,11 +2477,14 @@
       <c r="G20" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H20" s="13" t="s">
+        <v>369</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S20" t="s">
         <v>244</v>
@@ -2304,11 +2495,11 @@
       <c r="U20" t="s">
         <v>209</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -2316,7 +2507,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>93</v>
@@ -2324,11 +2515,14 @@
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H21" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S21" t="s">
         <v>247</v>
@@ -2339,11 +2533,11 @@
       <c r="U21" t="s">
         <v>209</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -2359,11 +2553,14 @@
       <c r="G22" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H22" s="13" t="s">
+        <v>371</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S22" t="s">
         <v>250</v>
@@ -2374,11 +2571,11 @@
       <c r="U22" t="s">
         <v>209</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -2394,6 +2591,9 @@
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H23" s="13" t="s">
+        <v>372</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>104</v>
       </c>
@@ -2406,11 +2606,11 @@
       <c r="U23" t="s">
         <v>209</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -2426,6 +2626,9 @@
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H24" s="13" t="s">
+        <v>373</v>
+      </c>
       <c r="I24" s="2" t="s">
         <v>107</v>
       </c>
@@ -2438,11 +2641,11 @@
       <c r="U24" t="s">
         <v>209</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2458,11 +2661,14 @@
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H25" s="13" t="s">
+        <v>374</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S25" t="s">
         <v>259</v>
@@ -2473,11 +2679,11 @@
       <c r="U25" t="s">
         <v>209</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>114</v>
       </c>
@@ -2493,11 +2699,14 @@
       <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H26" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="I26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S26" t="s">
         <v>262</v>
@@ -2508,11 +2717,11 @@
       <c r="U26" t="s">
         <v>209</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
@@ -2529,7 +2738,7 @@
         <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S27" t="s">
         <v>265</v>
@@ -2541,7 +2750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2557,11 +2766,14 @@
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H28" s="13" t="s">
+        <v>376</v>
+      </c>
       <c r="I28" s="2" t="s">
         <v>128</v>
       </c>
       <c r="J28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S28" t="s">
         <v>268</v>
@@ -2572,11 +2784,11 @@
       <c r="U28" t="s">
         <v>209</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>129</v>
       </c>
@@ -2592,6 +2804,9 @@
       <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="H29" s="13" t="s">
+        <v>377</v>
+      </c>
       <c r="I29" s="2" t="s">
         <v>133</v>
       </c>
@@ -2604,11 +2819,11 @@
       <c r="U29" t="s">
         <v>209</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>134</v>
       </c>
@@ -2624,6 +2839,9 @@
       <c r="G30" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="H30" s="13" t="s">
+        <v>378</v>
+      </c>
       <c r="I30" s="2" t="s">
         <v>139</v>
       </c>
@@ -2642,17 +2860,17 @@
       <c r="U30" t="s">
         <v>276</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>277</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
         <v>278</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AA30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>190</v>
       </c>
@@ -2680,16 +2898,16 @@
       <c r="U31" t="s">
         <v>282</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>149</v>
       </c>
@@ -2705,21 +2923,39 @@
       <c r="G33" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="H33" s="13" t="s">
+        <v>379</v>
+      </c>
       <c r="I33" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="J33" s="13" t="s">
+        <v>380</v>
+      </c>
       <c r="K33" t="s">
         <v>155</v>
       </c>
+      <c r="L33" s="13" t="s">
+        <v>381</v>
+      </c>
       <c r="M33" t="s">
         <v>156</v>
       </c>
+      <c r="N33" s="13" t="s">
+        <v>382</v>
+      </c>
       <c r="O33" t="s">
         <v>157</v>
       </c>
+      <c r="P33" s="13" t="s">
+        <v>383</v>
+      </c>
       <c r="Q33" t="s">
         <v>158</v>
       </c>
+      <c r="R33" s="13" t="s">
+        <v>384</v>
+      </c>
       <c r="S33" t="s">
         <v>283</v>
       </c>
@@ -2729,23 +2965,23 @@
       <c r="U33" t="s">
         <v>285</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>286</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Y33" t="s">
         <v>287</v>
       </c>
-      <c r="X33" t="s">
+      <c r="AA33" t="s">
         <v>288</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="AB33" t="s">
         <v>291</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AC33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
@@ -2761,12 +2997,21 @@
       <c r="G34" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="H34" s="13" t="s">
+        <v>385</v>
+      </c>
       <c r="I34" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="J34" s="13" t="s">
+        <v>386</v>
+      </c>
       <c r="K34" t="s">
         <v>165</v>
       </c>
+      <c r="L34" s="13" t="s">
+        <v>387</v>
+      </c>
       <c r="S34" t="s">
         <v>293</v>
       </c>
@@ -2776,14 +3021,14 @@
       <c r="U34" t="s">
         <v>295</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>296</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Y34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2799,6 +3044,9 @@
       <c r="G35" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="H35" s="13" t="s">
+        <v>388</v>
+      </c>
       <c r="S35" t="s">
         <v>298</v>
       </c>
@@ -2809,7 +3057,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>171</v>
       </c>
@@ -2825,9 +3073,15 @@
       <c r="G36" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="H36" s="13" t="s">
+        <v>389</v>
+      </c>
       <c r="I36" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="J36" s="13" t="s">
+        <v>390</v>
+      </c>
       <c r="S36" t="s">
         <v>301</v>
       </c>
@@ -2837,11 +3091,11 @@
       <c r="U36" t="s">
         <v>303</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>177</v>
       </c>
@@ -2857,12 +3111,21 @@
       <c r="G37" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="H37" s="13" t="s">
+        <v>391</v>
+      </c>
       <c r="I37" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="J37" s="13" t="s">
+        <v>392</v>
+      </c>
       <c r="K37" t="s">
         <v>183</v>
       </c>
+      <c r="L37" s="13" t="s">
+        <v>393</v>
+      </c>
       <c r="S37" t="s">
         <v>305</v>
       </c>
@@ -2872,14 +3135,14 @@
       <c r="U37" t="s">
         <v>307</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>308</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Y37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>185</v>
       </c>
@@ -2895,9 +3158,15 @@
       <c r="G38" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="H38" s="13" t="s">
+        <v>394</v>
+      </c>
       <c r="I38" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="J38" s="13" t="s">
+        <v>395</v>
+      </c>
       <c r="S38" t="s">
         <v>310</v>
       </c>
@@ -2907,55 +3176,96 @@
       <c r="U38" t="s">
         <v>312</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C40" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{8688BC59-06A3-C64E-A435-83422EE8EF2F}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{CB0E2FA7-990C-544A-AB38-C578C4ED0224}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{19DF376E-0E50-BF43-9AC2-6F6E18526AB5}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{6ED180AA-865C-B64D-802E-CF2990903242}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{CDA56810-D724-F046-A298-03D637EED047}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{036E62D4-8043-FF42-9240-ADFFBD28D964}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{C355839B-DF2A-BE45-BAA7-0924ED22CED6}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{1399D2AF-A8FB-6C45-8299-6020BEEB49B3}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{FD89D7C4-897B-484F-993B-07180C2090BE}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{2193C485-639B-CB4E-8D01-EBD225FC9144}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{1BC0A689-64A6-224A-991A-E013A382A311}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{1855C654-9695-D340-BC7E-02A8C0DA898D}"/>
+    <hyperlink ref="H17" r:id="rId13" xr:uid="{1555EC8A-9FEC-C747-92C1-C53D22C491E3}"/>
+    <hyperlink ref="H18" r:id="rId14" xr:uid="{2004E3F9-7A19-7549-AFB6-11C0F9F9F6E7}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{9E01EF23-44F7-FE48-8E62-984DA4CECCCC}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{F48DCB1B-7A3B-CB42-9281-A275D60C93C0}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{BAE93280-C49E-9649-8D09-C9EAF015993E}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{53B13E68-0126-2141-896B-EA7CC6AEA85A}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{95826310-2D58-BC49-B0AA-00451E1CEDF9}"/>
+    <hyperlink ref="H24" r:id="rId20" xr:uid="{ED05672C-8075-D544-8CEB-6A6AF0543D84}"/>
+    <hyperlink ref="H25" r:id="rId21" xr:uid="{A5522963-86CD-FA46-97D8-57C7F4D216A7}"/>
+    <hyperlink ref="H26" r:id="rId22" xr:uid="{121558A3-D45D-FE47-822C-311DAA560099}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{969F6074-EF7A-2C4C-A801-2AA70C5A885B}"/>
+    <hyperlink ref="H29" r:id="rId24" xr:uid="{24073DB6-8FF1-C240-8E28-D429CAF7D11B}"/>
+    <hyperlink ref="H30" r:id="rId25" xr:uid="{89065165-5FA0-A641-9ACE-CE2515F67C38}"/>
+    <hyperlink ref="H33" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
+    <hyperlink ref="J33" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
+    <hyperlink ref="L33" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
+    <hyperlink ref="N33" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
+    <hyperlink ref="P33" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
+    <hyperlink ref="R33" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
+    <hyperlink ref="H34" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
+    <hyperlink ref="L34" r:id="rId34" xr:uid="{92D62CD1-E1B9-DA4C-91CA-43214C66E039}"/>
+    <hyperlink ref="H35" r:id="rId35" xr:uid="{3882926F-9DDD-A84D-80A4-DD80D12A732C}"/>
+    <hyperlink ref="H36" r:id="rId36" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
+    <hyperlink ref="J36" r:id="rId37" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
+    <hyperlink ref="H37" r:id="rId38" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J37" r:id="rId39" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L37" r:id="rId40" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H38" r:id="rId41" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J38" r:id="rId42" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856A32A-B449-4C44-B64C-E55FF3A3937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06442561-06B5-394B-9E3E-37DB4CE70EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18340" yWindow="-19780" windowWidth="30280" windowHeight="19040" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="-18780" yWindow="-19680" windowWidth="36880" windowHeight="19380" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="422">
   <si>
     <t>Scene</t>
   </si>
@@ -437,9 +437,6 @@
     <t xml:space="preserve">You are about to embark on a walk of the Conwy Castle Wall Walk!  Before you head out, make sure to click the 'Find Out More' button. This will give you all the information you need to make the most of your walk! Once you've seen the land and the town below, click the 'Town Wall' button to teleport. </t>
   </si>
   <si>
-    <t>Town Hall</t>
-  </si>
-  <si>
     <t>twNPC1</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
   </si>
   <si>
     <t>CadwCymruGalleri</t>
-  </si>
-  <si>
-    <t>Visit the Galler</t>
   </si>
   <si>
     <t>NPC Name Welsh</t>
@@ -1023,18 +1017,12 @@
     <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
   </si>
   <si>
-    <t xml:space="preserve">tp @p 10094 45 10241 </t>
-  </si>
-  <si>
     <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
   </si>
   <si>
     <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
   </si>
   <si>
-    <t>tp @p 9858 29 10268 facing 9854 29 10271</t>
-  </si>
-  <si>
     <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
   </si>
   <si>
@@ -1203,9 +1191,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ONzrxHcTG9w </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=W0rGmmGmP8U </t>
   </si>
   <si>
@@ -1228,13 +1213,113 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=SC5YhDa2c7Y </t>
+  </si>
+  <si>
+    <t>Queen's Chamber Custodian</t>
+  </si>
+  <si>
+    <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
+  </si>
+  <si>
+    <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
+  </si>
+  <si>
+    <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
+  </si>
+  <si>
+    <t>tp @p 9531 29 10251 facing 9536 29 10251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8abdKAJcd5o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JiboQeuNw3U </t>
+  </si>
+  <si>
+    <t>dvlNPC2</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Come back once you have finished your tour of Conwy!</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>mmbNPC2</t>
+  </si>
+  <si>
+    <t>sgNPC2</t>
+  </si>
+  <si>
+    <t>ffqNPC2</t>
+  </si>
+  <si>
+    <t>flfNPC2</t>
+  </si>
+  <si>
+    <t>ctcNPC2</t>
+  </si>
+  <si>
+    <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
+  </si>
+  <si>
+    <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
+  </si>
+  <si>
+    <t>tp @p 79934 -42 80019 facing 79934 -42 80015</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=intro] @p intro</t>
+  </si>
+  <si>
+    <t>taliesinNPC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose from the below quests! 
+Dragon vs. Lion
+Master Medieval Builder
+Stained Glass Window
+Fit for a Queen
+Flying the Flag
+Capture the Castle
+</t>
+  </si>
+  <si>
+    <t>D vs L</t>
+  </si>
+  <si>
+    <t>For for a Queen</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>mmbNPC3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
+  </si>
+  <si>
+    <t>tp @p 9370 25 10097 facing 9364 25 10097</t>
+  </si>
+  <si>
+    <t>Master Builder</t>
+  </si>
+  <si>
+    <t>function masterbuilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watch the quest video to find out how to begin, or head back to the castle by clicking Taliesin. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1307,6 +1392,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1335,7 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1360,6 +1456,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1695,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,33 +1880,33 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -1846,7 +1944,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1860,16 +1958,16 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1877,16 +1975,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>193</v>
+        <v>350</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1896,44 +1991,44 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="X4" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="8"/>
@@ -1964,25 +2059,25 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S6" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" t="s">
         <v>203</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>204</v>
-      </c>
-      <c r="U6" t="s">
-        <v>205</v>
-      </c>
-      <c r="W6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2002,22 +2097,22 @@
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S7" t="s">
+        <v>205</v>
+      </c>
+      <c r="T7" t="s">
+        <v>206</v>
+      </c>
+      <c r="U7" t="s">
         <v>207</v>
-      </c>
-      <c r="T7" t="s">
-        <v>208</v>
-      </c>
-      <c r="U7" t="s">
-        <v>209</v>
       </c>
       <c r="W7" t="s">
         <v>30</v>
@@ -2040,25 +2135,25 @@
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S8" t="s">
+        <v>208</v>
+      </c>
+      <c r="T8" t="s">
+        <v>209</v>
+      </c>
+      <c r="U8" t="s">
+        <v>207</v>
+      </c>
+      <c r="W8" t="s">
         <v>210</v>
-      </c>
-      <c r="T8" t="s">
-        <v>211</v>
-      </c>
-      <c r="U8" t="s">
-        <v>209</v>
-      </c>
-      <c r="W8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2078,25 +2173,25 @@
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S9" t="s">
+        <v>211</v>
+      </c>
+      <c r="T9" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" t="s">
+        <v>207</v>
+      </c>
+      <c r="W9" t="s">
         <v>213</v>
-      </c>
-      <c r="T9" t="s">
-        <v>214</v>
-      </c>
-      <c r="U9" t="s">
-        <v>209</v>
-      </c>
-      <c r="W9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2116,25 +2211,25 @@
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T10" t="s">
+        <v>215</v>
+      </c>
+      <c r="U10" t="s">
+        <v>207</v>
+      </c>
+      <c r="W10" t="s">
         <v>216</v>
-      </c>
-      <c r="T10" t="s">
-        <v>217</v>
-      </c>
-      <c r="U10" t="s">
-        <v>209</v>
-      </c>
-      <c r="W10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2154,25 +2249,25 @@
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="S11" t="s">
+        <v>217</v>
+      </c>
+      <c r="T11" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" t="s">
+        <v>207</v>
+      </c>
+      <c r="W11" t="s">
         <v>219</v>
-      </c>
-      <c r="T11" t="s">
-        <v>220</v>
-      </c>
-      <c r="U11" t="s">
-        <v>209</v>
-      </c>
-      <c r="W11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2186,31 +2281,31 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S12" t="s">
+        <v>220</v>
+      </c>
+      <c r="T12" t="s">
+        <v>221</v>
+      </c>
+      <c r="U12" t="s">
+        <v>207</v>
+      </c>
+      <c r="W12" t="s">
         <v>222</v>
-      </c>
-      <c r="T12" t="s">
-        <v>223</v>
-      </c>
-      <c r="U12" t="s">
-        <v>209</v>
-      </c>
-      <c r="W12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2230,25 +2325,25 @@
         <v>29</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S13" t="s">
+        <v>223</v>
+      </c>
+      <c r="T13" t="s">
+        <v>224</v>
+      </c>
+      <c r="U13" t="s">
+        <v>207</v>
+      </c>
+      <c r="W13" t="s">
         <v>225</v>
-      </c>
-      <c r="T13" t="s">
-        <v>226</v>
-      </c>
-      <c r="U13" t="s">
-        <v>209</v>
-      </c>
-      <c r="W13" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -2268,25 +2363,25 @@
         <v>29</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S14" t="s">
+        <v>226</v>
+      </c>
+      <c r="T14" t="s">
+        <v>227</v>
+      </c>
+      <c r="U14" t="s">
+        <v>207</v>
+      </c>
+      <c r="W14" t="s">
         <v>228</v>
-      </c>
-      <c r="T14" t="s">
-        <v>229</v>
-      </c>
-      <c r="U14" t="s">
-        <v>209</v>
-      </c>
-      <c r="W14" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2306,25 +2401,25 @@
         <v>29</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S15" t="s">
+        <v>229</v>
+      </c>
+      <c r="T15" t="s">
+        <v>230</v>
+      </c>
+      <c r="U15" t="s">
+        <v>207</v>
+      </c>
+      <c r="W15" t="s">
         <v>231</v>
-      </c>
-      <c r="T15" t="s">
-        <v>232</v>
-      </c>
-      <c r="U15" t="s">
-        <v>209</v>
-      </c>
-      <c r="W15" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -2344,16 +2439,16 @@
         <v>29</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="S16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2373,16 +2468,16 @@
         <v>29</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -2402,25 +2497,25 @@
         <v>29</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S18" t="s">
+        <v>236</v>
+      </c>
+      <c r="T18" t="s">
+        <v>237</v>
+      </c>
+      <c r="U18" t="s">
+        <v>207</v>
+      </c>
+      <c r="W18" t="s">
         <v>238</v>
-      </c>
-      <c r="T18" t="s">
-        <v>239</v>
-      </c>
-      <c r="U18" t="s">
-        <v>209</v>
-      </c>
-      <c r="W18" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -2440,25 +2535,25 @@
         <v>29</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S19" t="s">
+        <v>239</v>
+      </c>
+      <c r="T19" t="s">
+        <v>240</v>
+      </c>
+      <c r="U19" t="s">
+        <v>207</v>
+      </c>
+      <c r="W19" t="s">
         <v>241</v>
-      </c>
-      <c r="T19" t="s">
-        <v>242</v>
-      </c>
-      <c r="U19" t="s">
-        <v>209</v>
-      </c>
-      <c r="W19" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -2469,7 +2564,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -2478,28 +2573,28 @@
         <v>29</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S20" t="s">
+        <v>242</v>
+      </c>
+      <c r="T20" t="s">
+        <v>243</v>
+      </c>
+      <c r="U20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W20" t="s">
         <v>244</v>
       </c>
-      <c r="T20" t="s">
-        <v>245</v>
-      </c>
-      <c r="U20" t="s">
-        <v>209</v>
-      </c>
-      <c r="W20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -2507,7 +2602,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>93</v>
@@ -2516,25 +2611,25 @@
         <v>29</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S21" t="s">
+        <v>245</v>
+      </c>
+      <c r="T21" t="s">
+        <v>246</v>
+      </c>
+      <c r="U21" t="s">
+        <v>207</v>
+      </c>
+      <c r="W21" t="s">
         <v>247</v>
-      </c>
-      <c r="T21" t="s">
-        <v>248</v>
-      </c>
-      <c r="U21" t="s">
-        <v>209</v>
-      </c>
-      <c r="W21" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -2554,25 +2649,25 @@
         <v>29</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S22" t="s">
+        <v>248</v>
+      </c>
+      <c r="T22" t="s">
+        <v>249</v>
+      </c>
+      <c r="U22" t="s">
+        <v>207</v>
+      </c>
+      <c r="W22" t="s">
         <v>250</v>
-      </c>
-      <c r="T22" t="s">
-        <v>251</v>
-      </c>
-      <c r="U22" t="s">
-        <v>209</v>
-      </c>
-      <c r="W22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -2592,22 +2687,25 @@
         <v>29</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="S23" t="s">
+        <v>251</v>
+      </c>
+      <c r="T23" t="s">
+        <v>252</v>
+      </c>
+      <c r="U23" t="s">
+        <v>207</v>
+      </c>
+      <c r="W23" t="s">
         <v>253</v>
-      </c>
-      <c r="T23" t="s">
-        <v>254</v>
-      </c>
-      <c r="U23" t="s">
-        <v>209</v>
-      </c>
-      <c r="W23" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -2627,22 +2725,25 @@
         <v>29</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>107</v>
+        <v>391</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="S24" t="s">
+        <v>254</v>
+      </c>
+      <c r="T24" t="s">
+        <v>255</v>
+      </c>
+      <c r="U24" t="s">
+        <v>207</v>
+      </c>
+      <c r="W24" t="s">
         <v>256</v>
-      </c>
-      <c r="T24" t="s">
-        <v>257</v>
-      </c>
-      <c r="U24" t="s">
-        <v>209</v>
-      </c>
-      <c r="W24" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -2662,25 +2763,25 @@
         <v>29</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="S25" t="s">
+        <v>257</v>
+      </c>
+      <c r="T25" t="s">
+        <v>258</v>
+      </c>
+      <c r="U25" t="s">
+        <v>207</v>
+      </c>
+      <c r="W25" t="s">
         <v>259</v>
-      </c>
-      <c r="T25" t="s">
-        <v>260</v>
-      </c>
-      <c r="U25" t="s">
-        <v>209</v>
-      </c>
-      <c r="W25" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -2700,25 +2801,25 @@
         <v>29</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>118</v>
       </c>
       <c r="J26" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="S26" t="s">
+        <v>260</v>
+      </c>
+      <c r="T26" t="s">
+        <v>261</v>
+      </c>
+      <c r="U26" t="s">
+        <v>207</v>
+      </c>
+      <c r="W26" t="s">
         <v>262</v>
-      </c>
-      <c r="T26" t="s">
-        <v>263</v>
-      </c>
-      <c r="U26" t="s">
-        <v>209</v>
-      </c>
-      <c r="W26" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -2738,16 +2839,16 @@
         <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S27" t="s">
+        <v>263</v>
+      </c>
+      <c r="T27" t="s">
+        <v>264</v>
+      </c>
+      <c r="U27" t="s">
         <v>265</v>
-      </c>
-      <c r="T27" t="s">
-        <v>266</v>
-      </c>
-      <c r="U27" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -2767,25 +2868,25 @@
         <v>29</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>128</v>
       </c>
       <c r="J28" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="S28" t="s">
+        <v>266</v>
+      </c>
+      <c r="T28" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" t="s">
+        <v>207</v>
+      </c>
+      <c r="W28" t="s">
         <v>268</v>
-      </c>
-      <c r="T28" t="s">
-        <v>269</v>
-      </c>
-      <c r="U28" t="s">
-        <v>209</v>
-      </c>
-      <c r="W28" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -2805,421 +2906,621 @@
         <v>29</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="S29" t="s">
+        <v>269</v>
+      </c>
+      <c r="T29" t="s">
+        <v>270</v>
+      </c>
+      <c r="U29" t="s">
+        <v>207</v>
+      </c>
+      <c r="W29" t="s">
         <v>271</v>
-      </c>
-      <c r="T29" t="s">
-        <v>272</v>
-      </c>
-      <c r="U29" t="s">
-        <v>209</v>
-      </c>
-      <c r="W29" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="K30" t="s">
         <v>139</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M30" t="s">
         <v>140</v>
       </c>
-      <c r="M30" t="s">
-        <v>141</v>
+      <c r="N30" t="s">
+        <v>407</v>
       </c>
       <c r="S30" t="s">
+        <v>272</v>
+      </c>
+      <c r="T30" t="s">
+        <v>273</v>
+      </c>
+      <c r="U30" t="s">
         <v>274</v>
       </c>
-      <c r="T30" t="s">
+      <c r="W30" t="s">
         <v>275</v>
       </c>
-      <c r="U30" t="s">
+      <c r="Y30" t="s">
         <v>276</v>
       </c>
-      <c r="W30" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>278</v>
       </c>
-      <c r="AA30" t="s">
+    </row>
+    <row r="31" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" t="s">
+        <v>409</v>
+      </c>
+      <c r="S31" t="s">
+        <v>140</v>
+      </c>
+      <c r="T31" t="s">
+        <v>279</v>
+      </c>
+      <c r="U31" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="W31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="J32" t="s">
+        <v>420</v>
+      </c>
+      <c r="K32" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" t="s">
+        <v>414</v>
+      </c>
+      <c r="O32" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="S31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T31" t="s">
-        <v>281</v>
-      </c>
-      <c r="U31" t="s">
-        <v>282</v>
-      </c>
-      <c r="W31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="K33" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="M33" t="s">
-        <v>156</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="O33" t="s">
-        <v>157</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>158</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="S33" t="s">
-        <v>283</v>
-      </c>
-      <c r="T33" t="s">
-        <v>284</v>
-      </c>
-      <c r="U33" t="s">
-        <v>285</v>
-      </c>
-      <c r="W33" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="K35" t="s">
+        <v>154</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="M35" t="s">
+        <v>155</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="O35" t="s">
+        <v>156</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>157</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="S35" t="s">
+        <v>281</v>
+      </c>
+      <c r="T35" t="s">
+        <v>282</v>
+      </c>
+      <c r="U35" t="s">
+        <v>283</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H37" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="J37" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K37" t="s">
         <v>164</v>
       </c>
-      <c r="J34" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="L37" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="S37" t="s">
+        <v>291</v>
+      </c>
+      <c r="T37" t="s">
+        <v>292</v>
+      </c>
+      <c r="U37" t="s">
+        <v>293</v>
+      </c>
+      <c r="W37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="S34" t="s">
-        <v>293</v>
-      </c>
-      <c r="T34" t="s">
-        <v>294</v>
-      </c>
-      <c r="U34" t="s">
-        <v>295</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="S40" t="s">
         <v>296</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="T40" s="11" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="U40" t="s">
         <v>298</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="U35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="S36" t="s">
-        <v>301</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="U36" t="s">
-        <v>303</v>
-      </c>
-      <c r="W36" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="K37" t="s">
-        <v>183</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="S37" t="s">
-        <v>305</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="U37" t="s">
-        <v>307</v>
-      </c>
-      <c r="W37" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="S38" t="s">
-        <v>310</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="U38" t="s">
-        <v>312</v>
-      </c>
-      <c r="W38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="S42" t="s">
+        <v>299</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="U42" t="s">
+        <v>301</v>
+      </c>
+      <c r="W42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="K44" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="S44" t="s">
+        <v>303</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="U44" t="s">
+        <v>305</v>
+      </c>
+      <c r="W44" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="1:29" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="S46" t="s">
+        <v>308</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="U46" t="s">
+        <v>310</v>
+      </c>
+      <c r="W46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3249,23 +3550,24 @@
     <hyperlink ref="H28" r:id="rId23" xr:uid="{969F6074-EF7A-2C4C-A801-2AA70C5A885B}"/>
     <hyperlink ref="H29" r:id="rId24" xr:uid="{24073DB6-8FF1-C240-8E28-D429CAF7D11B}"/>
     <hyperlink ref="H30" r:id="rId25" xr:uid="{89065165-5FA0-A641-9ACE-CE2515F67C38}"/>
-    <hyperlink ref="H33" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
-    <hyperlink ref="J33" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
-    <hyperlink ref="L33" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
-    <hyperlink ref="N33" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
-    <hyperlink ref="P33" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
-    <hyperlink ref="R33" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
-    <hyperlink ref="H34" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
-    <hyperlink ref="J34" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
-    <hyperlink ref="L34" r:id="rId34" xr:uid="{92D62CD1-E1B9-DA4C-91CA-43214C66E039}"/>
-    <hyperlink ref="H35" r:id="rId35" xr:uid="{3882926F-9DDD-A84D-80A4-DD80D12A732C}"/>
-    <hyperlink ref="H36" r:id="rId36" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
-    <hyperlink ref="J36" r:id="rId37" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
-    <hyperlink ref="H37" r:id="rId38" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
-    <hyperlink ref="J37" r:id="rId39" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
-    <hyperlink ref="L37" r:id="rId40" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
-    <hyperlink ref="H38" r:id="rId41" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
-    <hyperlink ref="J38" r:id="rId42" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="H35" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
+    <hyperlink ref="J35" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
+    <hyperlink ref="L35" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
+    <hyperlink ref="N35" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
+    <hyperlink ref="P35" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
+    <hyperlink ref="R35" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
+    <hyperlink ref="H37" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
+    <hyperlink ref="J37" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
+    <hyperlink ref="H40" r:id="rId34" xr:uid="{3882926F-9DDD-A84D-80A4-DD80D12A732C}"/>
+    <hyperlink ref="H42" r:id="rId35" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
+    <hyperlink ref="J42" r:id="rId36" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
+    <hyperlink ref="H44" r:id="rId37" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J44" r:id="rId38" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L44" r:id="rId39" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H46" r:id="rId40" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J46" r:id="rId41" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="J30" r:id="rId42" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
+    <hyperlink ref="L30" r:id="rId43" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06442561-06B5-394B-9E3E-37DB4CE70EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE5FA2-8E34-B845-BACE-9254F59C769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18780" yWindow="-19680" windowWidth="36880" windowHeight="19380" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="10480" yWindow="940" windowWidth="34260" windowHeight="19960" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="431">
   <si>
     <t>Scene</t>
   </si>
@@ -1270,9 +1270,6 @@
   </si>
   <si>
     <t>tp @p 79934 -42 80019 facing 79934 -42 80015</t>
-  </si>
-  <si>
-    <t>dialogue open @e[tag=intro] @p intro</t>
   </si>
   <si>
     <t>taliesinNPC3</t>
@@ -1314,12 +1311,46 @@
   <si>
     <t xml:space="preserve">Watch the quest video to find out how to begin, or head back to the castle by clicking Taliesin. </t>
   </si>
+  <si>
+    <t>compassNPC1</t>
+  </si>
+  <si>
+    <t>compassNPC</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Conwy</t>
+  </si>
+  <si>
+    <t>tp @p 79934 -42 80020 facing 79934 -42 80013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am here to help! Would you like to:
+Go back to the galleri
+Go back the start of Conwy Castle
+Stay where you are
+</t>
+  </si>
+  <si>
+    <t>function taliesinreturn</t>
+  </si>
+  <si>
+    <t>function conwyreturn</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinNPC] taliesinNPC3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1403,6 +1434,11 @@
       <color theme="10"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1431,7 +1467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1458,6 +1494,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1793,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1804,13 +1844,13 @@
     <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61" style="2" customWidth="1"/>
+    <col min="4" max="4" width="104.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="46.33203125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
@@ -3000,7 +3040,7 @@
         <v>144</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>145</v>
@@ -3023,7 +3063,7 @@
     </row>
     <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>142</v>
@@ -3032,28 +3072,28 @@
         <v>140</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="I32" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J32" t="s">
         <v>419</v>
-      </c>
-      <c r="J32" t="s">
-        <v>420</v>
       </c>
       <c r="K32" t="s">
         <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O32" t="s">
         <v>178</v>
       </c>
       <c r="Q32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,7 +3244,7 @@
         <v>164</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S37" t="s">
         <v>291</v>
@@ -3224,7 +3264,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>159</v>
@@ -3233,19 +3273,19 @@
         <v>160</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>164</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>407</v>
+      <c r="J38" s="17" t="s">
+        <v>428</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -3506,7 +3546,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>335</v>
       </c>
@@ -3521,6 +3561,35 @@
       </c>
       <c r="G49" s="2" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE5FA2-8E34-B845-BACE-9254F59C769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D951C-4A44-794C-9492-005300602E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="940" windowWidth="34260" windowHeight="19960" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="100" yWindow="1000" windowWidth="34240" windowHeight="19800" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="440">
   <si>
     <t>Scene</t>
   </si>
@@ -344,9 +344,6 @@
     <t>ktNPC</t>
   </si>
   <si>
-    <t>Kings Tower Custodian</t>
-  </si>
-  <si>
     <t>Welcome to Kings Tower. Behind me, you will see a stone staircase mirroring the Chapel Tower. This passage leads into the King’s Tower and the royal apartments. It would be best to investigate by clicking the ‘Find Out More’ button. Then, return to the passage at the bottom of the tower or click on the ‘King’s Kitchen’ button to be teleported.</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>kcNPC</t>
   </si>
   <si>
-    <t>Kings Chamber Custodian</t>
-  </si>
-  <si>
     <t>You are now in the King’s Kitchen, and above is the King's Chamber. You can access this room from the great chamber and the queen’s chamber to the west. You can investigate further by clicking the ‘Find Out More’ button. If you want to visit the Queens Chamber, you can enter from the courtyard or click the ‘Queens Chamber’ button to be teleported.</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>qcNPC</t>
   </si>
   <si>
-    <t>Queens Chamber Custodian</t>
-  </si>
-  <si>
     <t>You are on the first floor in the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
   </si>
   <si>
@@ -542,9 +533,6 @@
     <t>Stained Glass Window</t>
   </si>
   <si>
-    <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to discover how you can approach it. </t>
-  </si>
-  <si>
     <t>Stained Glass</t>
   </si>
   <si>
@@ -603,9 +591,6 @@
   </si>
   <si>
     <t>Castle Capture</t>
-  </si>
-  <si>
-    <t>taliesinNPC2</t>
   </si>
   <si>
     <t xml:space="preserve">Soaring mountains, lakes, coastlines, and castles. A land where history and nature intertwine in an unforgettable tapestry. My name is Taliesin, and I invite you to journey through this mystical land’s most captivating landmarks. Exploring the wonders that make Wales a place of enchantment. Click on the ‘Find Out More’ button. </t>
@@ -1038,9 +1023,6 @@
     <t>dragonNPC1</t>
   </si>
   <si>
-    <t>Hidden Dragon</t>
-  </si>
-  <si>
     <t>Rawr</t>
   </si>
   <si>
@@ -1074,9 +1056,6 @@
     <t>tp @p 79934 -42 80019 facing 79934 -42 80016</t>
   </si>
   <si>
-    <t>dragonNPC2</t>
-  </si>
-  <si>
     <t>Keep an eye out for me! I am hidden somewhere at every site. If you can find me, take a picture of me and put it into your workbook.</t>
   </si>
   <si>
@@ -1270,9 +1249,6 @@
   </si>
   <si>
     <t>tp @p 79934 -42 80019 facing 79934 -42 80015</t>
-  </si>
-  <si>
-    <t>taliesinNPC3</t>
   </si>
   <si>
     <t xml:space="preserve">Choose from the below quests! 
@@ -1300,9 +1276,6 @@
     <t>https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
   </si>
   <si>
-    <t>tp @p 9370 25 10097 facing 9364 25 10097</t>
-  </si>
-  <si>
     <t>Master Builder</t>
   </si>
   <si>
@@ -1343,7 +1316,61 @@
     <t>function conwyreturn</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=taliesinNPC] taliesinNPC3</t>
+    <t>function mblaunch</t>
+  </si>
+  <si>
+    <t>King's Tower Custodian</t>
+  </si>
+  <si>
+    <t>King's Chamber Custodian</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Lleu</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC1</t>
+  </si>
+  <si>
+    <t>taliesinendNPC</t>
+  </si>
+  <si>
+    <t>taliesinendNPC1</t>
+  </si>
+  <si>
+    <t>taliesinendNPC2</t>
+  </si>
+  <si>
+    <t>Hidden Lleu</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC2</t>
+  </si>
+  <si>
+    <t>function dragonvlion</t>
+  </si>
+  <si>
+    <t>Start Quest</t>
+  </si>
+  <si>
+    <t>function stainedgpre</t>
+  </si>
+  <si>
+    <t>sgNPC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to head to your window. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">function stainedglaunch </t>
+  </si>
+  <si>
+    <t>function stainedgend</t>
   </si>
 </sst>
 </file>
@@ -1833,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1848,12 +1875,15 @@
     <col min="5" max="5" width="36.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.33203125" customWidth="1"/>
+    <col min="10" max="10" width="48.1640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" customWidth="1"/>
     <col min="20" max="20" width="73.1640625" customWidth="1"/>
     <col min="21" max="22" width="26.6640625" customWidth="1"/>
@@ -1920,33 +1950,33 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -1984,7 +2014,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -1998,16 +2028,16 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2015,13 +2045,16 @@
         <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2031,44 +2064,44 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="8"/>
@@ -2099,25 +2132,25 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="S6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="T6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="U6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="W6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2137,22 +2170,22 @@
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="T7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="U7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W7" t="s">
         <v>30</v>
@@ -2175,25 +2208,25 @@
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2213,25 +2246,25 @@
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2251,25 +2284,25 @@
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="S10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2289,25 +2322,25 @@
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2321,31 +2354,31 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="U12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2365,25 +2398,25 @@
         <v>29</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="T13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -2403,25 +2436,25 @@
         <v>29</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T14" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="U14" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2441,25 +2474,25 @@
         <v>29</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="T15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="U15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -2479,16 +2512,16 @@
         <v>29</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="S16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2508,16 +2541,16 @@
         <v>29</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="S17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="T17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -2537,25 +2570,25 @@
         <v>29</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="S18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="T18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W18" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -2575,25 +2608,25 @@
         <v>29</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T19" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="U19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -2604,7 +2637,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -2613,25 +2646,25 @@
         <v>29</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="S20" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="T20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="U20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2642,7 +2675,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>93</v>
@@ -2651,25 +2684,25 @@
         <v>29</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="S21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="T21" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -2689,25 +2722,25 @@
         <v>29</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="T22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -2718,495 +2751,501 @@
         <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="S23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="T23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="U23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="S24" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="T24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="U24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="S25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="T25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="U25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T26" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="U26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="S27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="T27" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="U27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="S28" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="T28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="U28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="S29" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="T29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="U29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="H30" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="J30" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="K30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="L30" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="M30" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="K30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="M30" t="s">
-        <v>140</v>
-      </c>
       <c r="N30" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="S30" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="T30" t="s">
+        <v>268</v>
+      </c>
+      <c r="U30" t="s">
+        <v>269</v>
+      </c>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA30" t="s">
         <v>273</v>
-      </c>
-      <c r="U30" t="s">
-        <v>274</v>
-      </c>
-      <c r="W30" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>189</v>
+        <v>429</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="S31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="U31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="W31" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J32" t="s">
         <v>410</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J32" t="s">
-        <v>419</v>
-      </c>
       <c r="K32" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="M32" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="O32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q32" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>399</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="H35" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="J35" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K35" t="s">
         <v>151</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="L35" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M35" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="N35" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="O35" t="s">
         <v>153</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="P35" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q35" t="s">
         <v>154</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="M35" t="s">
-        <v>155</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="O35" t="s">
-        <v>156</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>157</v>
-      </c>
       <c r="R35" s="13" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="S35" t="s">
+        <v>276</v>
+      </c>
+      <c r="T35" t="s">
+        <v>277</v>
+      </c>
+      <c r="U35" t="s">
+        <v>278</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA35" t="s">
         <v>281</v>
       </c>
-      <c r="T35" t="s">
-        <v>282</v>
-      </c>
-      <c r="U35" t="s">
-        <v>283</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="AB35" t="s">
         <v>284</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="AC35" t="s">
         <v>285</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H36" s="13"/>
       <c r="J36" s="13"/>
@@ -3217,93 +3256,93 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="H37" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="J37" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="K37" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="K37" t="s">
-        <v>164</v>
-      </c>
       <c r="L37" s="15" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S37" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="T37" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="U37" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="W37" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>399</v>
+        <v>164</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H39" s="13"/>
       <c r="J39" s="13"/>
@@ -3311,285 +3350,313 @@
     </row>
     <row r="40" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>168</v>
+        <v>437</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>383</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="S40" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="U40" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="H43" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="J43" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="S43" t="s">
+        <v>294</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="U43" t="s">
+        <v>296</v>
+      </c>
+      <c r="W43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="S45" t="s">
+        <v>298</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="U45" t="s">
+        <v>300</v>
+      </c>
+      <c r="W45" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:29" ht="75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="T41" s="11"/>
-    </row>
-    <row r="42" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="S42" t="s">
-        <v>299</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="U42" t="s">
-        <v>301</v>
-      </c>
-      <c r="W42" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="T43" s="11"/>
-    </row>
-    <row r="44" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="D47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="G47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="S47" t="s">
         <v>303</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T47" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="U44" t="s">
+      <c r="U47" t="s">
         <v>305</v>
       </c>
-      <c r="W44" t="s">
+      <c r="W47" t="s">
         <v>306</v>
       </c>
-      <c r="Y44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="T45" s="11"/>
-    </row>
-    <row r="46" spans="1:29" ht="75" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="S46" t="s">
-        <v>308</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="U46" t="s">
-        <v>310</v>
-      </c>
-      <c r="W46" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>340</v>
+      <c r="A48" s="7" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>427</v>
+        <v>331</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="K50" t="s">
-        <v>424</v>
+      <c r="H51" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3627,16 +3694,16 @@
     <hyperlink ref="R35" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
     <hyperlink ref="H37" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
     <hyperlink ref="J37" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
-    <hyperlink ref="H40" r:id="rId34" xr:uid="{3882926F-9DDD-A84D-80A4-DD80D12A732C}"/>
-    <hyperlink ref="H42" r:id="rId35" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
-    <hyperlink ref="J42" r:id="rId36" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
-    <hyperlink ref="H44" r:id="rId37" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
-    <hyperlink ref="J44" r:id="rId38" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
-    <hyperlink ref="L44" r:id="rId39" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
-    <hyperlink ref="H46" r:id="rId40" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
-    <hyperlink ref="J46" r:id="rId41" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
-    <hyperlink ref="J30" r:id="rId42" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
-    <hyperlink ref="L30" r:id="rId43" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
+    <hyperlink ref="H43" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
+    <hyperlink ref="J43" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
+    <hyperlink ref="H45" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J45" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L45" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H47" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J47" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="J30" r:id="rId41" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
+    <hyperlink ref="L30" r:id="rId42" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
+    <hyperlink ref="H41" r:id="rId43" xr:uid="{8ABC1E00-D928-0246-A24A-D0A7076C7DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66D951C-4A44-794C-9492-005300602E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53181791-5574-D742-8E78-91356F0C748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="1000" windowWidth="34240" windowHeight="19800" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="443">
   <si>
     <t>Scene</t>
   </si>
@@ -1218,9 +1218,6 @@
     <t>dvlNPC2</t>
   </si>
   <si>
-    <t>Quest</t>
-  </si>
-  <si>
     <t>Come back once you have finished your tour of Conwy!</t>
   </si>
   <si>
@@ -1234,12 +1231,6 @@
   </si>
   <si>
     <t>ffqNPC2</t>
-  </si>
-  <si>
-    <t>flfNPC2</t>
-  </si>
-  <si>
-    <t>ctcNPC2</t>
   </si>
   <si>
     <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
@@ -1264,9 +1255,6 @@
     <t>D vs L</t>
   </si>
   <si>
-    <t>For for a Queen</t>
-  </si>
-  <si>
     <t>Capture</t>
   </si>
   <si>
@@ -1371,6 +1359,27 @@
   </si>
   <si>
     <t>function stainedgend</t>
+  </si>
+  <si>
+    <t>function queenpre</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>function queenstart</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
+  </si>
+  <si>
+    <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
+  </si>
+  <si>
+    <t>function flagpre</t>
   </si>
 </sst>
 </file>
@@ -1860,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D37" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,11 +1888,12 @@
     <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="48.1640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="12" max="12" width="53.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="27.6640625" customWidth="1"/>
     <col min="15" max="15" width="18.83203125" customWidth="1"/>
     <col min="16" max="16" width="23" customWidth="1"/>
+    <col min="18" max="18" width="40.1640625" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" customWidth="1"/>
     <col min="20" max="20" width="73.1640625" customWidth="1"/>
     <col min="21" max="22" width="26.6640625" customWidth="1"/>
@@ -2054,7 +2064,7 @@
         <v>343</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2093,7 +2103,7 @@
         <v>325</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>338</v>
@@ -2751,7 +2761,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>102</v>
@@ -2789,7 +2799,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>106</v>
@@ -2804,7 +2814,7 @@
         <v>384</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S24" t="s">
         <v>249</v>
@@ -3035,7 +3045,7 @@
         <v>137</v>
       </c>
       <c r="N30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S30" t="s">
         <v>267</v>
@@ -3058,10 +3068,10 @@
     </row>
     <row r="31" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>137</v>
@@ -3073,13 +3083,13 @@
         <v>141</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>142</v>
       </c>
       <c r="J31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S31" t="s">
         <v>137</v>
@@ -3096,43 +3106,52 @@
     </row>
     <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J32" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K32" t="s">
         <v>165</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M32" t="s">
-        <v>405</v>
+        <v>168</v>
+      </c>
+      <c r="N32" t="s">
+        <v>436</v>
       </c>
       <c r="O32" t="s">
         <v>174</v>
       </c>
+      <c r="P32" t="s">
+        <v>442</v>
+      </c>
       <c r="Q32" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="R32" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,10 +3170,10 @@
         <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -3242,10 +3261,10 @@
         <v>157</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="H36" s="13"/>
       <c r="J36" s="13"/>
@@ -3256,7 +3275,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>156</v>
@@ -3283,7 +3302,7 @@
         <v>161</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="S37" t="s">
         <v>286</v>
@@ -3303,7 +3322,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>156</v>
@@ -3312,19 +3331,19 @@
         <v>157</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>161</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>137</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -3339,10 +3358,10 @@
         <v>164</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="H39" s="13"/>
       <c r="J39" s="13"/>
@@ -3350,7 +3369,7 @@
     </row>
     <row r="40" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>163</v>
@@ -3359,13 +3378,13 @@
         <v>164</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="J40" s="2"/>
       <c r="S40" t="s">
@@ -3380,7 +3399,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>163</v>
@@ -3389,7 +3408,7 @@
         <v>164</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>165</v>
@@ -3401,7 +3420,7 @@
         <v>137</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="T41" s="11"/>
     </row>
@@ -3413,20 +3432,20 @@
         <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="G42" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="H42" s="13"/>
       <c r="T42" s="11"/>
     </row>
     <row r="43" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
@@ -3449,6 +3468,18 @@
       <c r="J43" s="13" t="s">
         <v>378</v>
       </c>
+      <c r="K43" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N43" t="s">
+        <v>397</v>
+      </c>
       <c r="S43" t="s">
         <v>294</v>
       </c>
@@ -3462,7 +3493,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>172</v>
       </c>
@@ -3470,193 +3501,164 @@
         <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>393</v>
+        <v>174</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="T44" s="11"/>
-    </row>
-    <row r="45" spans="1:29" ht="68" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="s">
+        <v>439</v>
+      </c>
+      <c r="N44" t="s">
+        <v>397</v>
+      </c>
+      <c r="S44" t="s">
+        <v>298</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="U44" t="s">
+        <v>300</v>
+      </c>
+      <c r="W44" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>398</v>
+        <v>180</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="K45" t="s">
-        <v>178</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="S45" t="s">
-        <v>298</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="U45" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="W45" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="T46" s="11"/>
-    </row>
-    <row r="47" spans="1:29" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>181</v>
+        <v>422</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="S47" t="s">
-        <v>303</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="U47" t="s">
-        <v>305</v>
-      </c>
-      <c r="W47" t="s">
-        <v>306</v>
+        <v>328</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>327</v>
+        <v>410</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="K51" t="s">
-        <v>415</v>
+      <c r="K49" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3696,11 +3698,11 @@
     <hyperlink ref="J37" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
     <hyperlink ref="H43" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
     <hyperlink ref="J43" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
-    <hyperlink ref="H45" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
-    <hyperlink ref="J45" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
-    <hyperlink ref="L45" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
-    <hyperlink ref="H47" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
-    <hyperlink ref="J47" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="H44" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J44" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L44" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H45" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J45" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
     <hyperlink ref="J30" r:id="rId41" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
     <hyperlink ref="L30" r:id="rId42" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
     <hyperlink ref="H41" r:id="rId43" xr:uid="{8ABC1E00-D928-0246-A24A-D0A7076C7DBC}"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53181791-5574-D742-8E78-91356F0C748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AB09E3-2FF7-EB4A-AB1B-FDC9A671F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="1000" windowWidth="34240" windowHeight="19800" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="470">
   <si>
     <t>Scene</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Outer Gate</t>
   </si>
   <si>
-    <t>Galleri</t>
-  </si>
-  <si>
     <t>CONWY</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>West Barbican Custodian</t>
   </si>
   <si>
-    <t>As you step into the Barbican, you are surrounded by formidable defenses designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
-  </si>
-  <si>
     <t>Main Gate</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t xml:space="preserve">You are now opposite the great hall range on the north side of the outer ward, where you will find the remnants of a series of buildings that once played vital roles in the daily operations of the fortress. You can investigate further by clicking the ‘Find Out More’ button, then click on ‘The Well’ button to be teleported. </t>
   </si>
   <si>
-    <t>This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘‘Find Out More’ button. Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
-  </si>
-  <si>
     <t>The Well</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>Welcome to the Royal Apartments. You can visit the King’s Great Chamber and start your tour by first clicking the ‘Find Out More’ button. Next, you will move on to the Chapel. You can either walk there or click the ‘Chapel Steps’ button to be teleported there.</t>
   </si>
   <si>
-    <t>Chapel Tower</t>
-  </si>
-  <si>
     <t>ctNPC1</t>
   </si>
   <si>
@@ -464,9 +452,6 @@
     <t>Quests</t>
   </si>
   <si>
-    <t>Return Galleri</t>
-  </si>
-  <si>
     <t>QUEST NPCS</t>
   </si>
   <si>
@@ -594,9 +579,6 @@
   </si>
   <si>
     <t xml:space="preserve">Soaring mountains, lakes, coastlines, and castles. A land where history and nature intertwine in an unforgettable tapestry. My name is Taliesin, and I invite you to journey through this mystical land’s most captivating landmarks. Exploring the wonders that make Wales a place of enchantment. Click on the ‘Find Out More’ button. </t>
-  </si>
-  <si>
-    <t>CadwCymruGalleri</t>
   </si>
   <si>
     <t>NPC Name Welsh</t>
@@ -1029,28 +1011,13 @@
     <t>Huh?</t>
   </si>
   <si>
-    <t>secretNPC1</t>
-  </si>
-  <si>
-    <t>secretNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon </t>
-  </si>
-  <si>
     <t>Well done! You found the hidden dragon in Conwy. Make sure you take a picture and put it in your workbook.</t>
   </si>
   <si>
     <t>Will Do</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=secretNPC] @p secretNPC1</t>
-  </si>
-  <si>
     <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
-  </si>
-  <si>
-    <t>tp @p 10025 57 10266 facing 10024 57 10267</t>
   </si>
   <si>
     <t>tp @p 79934 -42 80019 facing 79934 -42 80016</t>
@@ -1337,9 +1304,6 @@
     <t>Hidden Lleu</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC2</t>
-  </si>
-  <si>
     <t>function dragonvlion</t>
   </si>
   <si>
@@ -1349,37 +1313,161 @@
     <t>function stainedgpre</t>
   </si>
   <si>
-    <t>sgNPC3</t>
-  </si>
-  <si>
     <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to head to your window. </t>
   </si>
   <si>
-    <t xml:space="preserve">function stainedglaunch </t>
-  </si>
-  <si>
-    <t>function stainedgend</t>
-  </si>
-  <si>
     <t>function queenpre</t>
   </si>
   <si>
+    <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
+  </si>
+  <si>
+    <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
+  </si>
+  <si>
+    <t>function flagpre</t>
+  </si>
+  <si>
+    <t>Galeri</t>
+  </si>
+  <si>
+    <t>CadwCymruGaleri</t>
+  </si>
+  <si>
+    <t>tp @p 10027 57 10265 facing 10024 57 10267</t>
+  </si>
+  <si>
+    <t>Return Galeri</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=hiddendragon] @p hiddendragonNPC2</t>
+  </si>
+  <si>
+    <t>As you step into the Barbican, you are surrounded by formidable defences designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
+  </si>
+  <si>
+    <t>This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘Find Out More’ button. 
+Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
+  </si>
+  <si>
+    <t>Chapel Steps</t>
+  </si>
+  <si>
+    <t>taliesinendNPC3</t>
+  </si>
+  <si>
+    <t>Quest 1</t>
+  </si>
+  <si>
+    <t>Quest 2</t>
+  </si>
+  <si>
+    <t>Quest 3</t>
+  </si>
+  <si>
+    <t>Quest 4</t>
+  </si>
+  <si>
+    <t>Quest 5</t>
+  </si>
+  <si>
+    <t>Quest 6</t>
+  </si>
+  <si>
+    <t>taliesinendNPC4</t>
+  </si>
+  <si>
+    <t>These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
-    <t>function queenstart</t>
-  </si>
-  <si>
-    <t>Finish</t>
-  </si>
-  <si>
-    <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
-  </si>
-  <si>
-    <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
-  </si>
-  <si>
-    <t>function flagpre</t>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tKalNcCY9yI </t>
+  </si>
+  <si>
+    <t>taliesinendNPC5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=0YBwnulSZzU</t>
+  </si>
+  <si>
+    <t>taliesinendNPC6</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=B3qNfkopTz4</t>
+  </si>
+  <si>
+    <t>taliesinendNPC7</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=VNIYTnkKsVk</t>
+  </si>
+  <si>
+    <t>taliesinendNPC8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=UBHFQQBFeD0</t>
+  </si>
+  <si>
+    <t>taliesinendNPC9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=FdOJqP7ds_0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
+  </si>
+  <si>
+    <t>Quest 1 - Dragon vs. Lion
+Watch the video, then click start to begin!</t>
+  </si>
+  <si>
+    <t>Quest 2 - Master Medieval Builder
+Watch the video, then click start to begin!</t>
+  </si>
+  <si>
+    <t>Quest 3 - Stained Glass Window
+Watch the video, then click start to begin!</t>
+  </si>
+  <si>
+    <t>Quest 4 - Fit for a Queen
+Watch the video, then click start to begin!</t>
+  </si>
+  <si>
+    <t>Quest 5 - Flying the Flag
+Watch the video, then click start to begin!</t>
+  </si>
+  <si>
+    <t>Quest 6 - Capture the Castle
+Watch the video, then click start to begin!</t>
   </si>
 </sst>
 </file>
@@ -1869,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D37" sqref="D36:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,14 +1974,15 @@
     <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="51.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="48.1640625" customWidth="1"/>
+    <col min="10" max="10" width="52.1640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="53.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.83203125" customWidth="1"/>
     <col min="15" max="15" width="18.83203125" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="18" max="18" width="40.1640625" customWidth="1"/>
+    <col min="16" max="16" width="57.5" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="53.5" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" customWidth="1"/>
     <col min="20" max="20" width="73.1640625" customWidth="1"/>
     <col min="21" max="22" width="26.6640625" customWidth="1"/>
@@ -1960,38 +2049,38 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2024,7 +2113,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -2038,33 +2127,33 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2074,44 +2163,44 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="8"/>
@@ -2142,1523 +2231,1738 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>425</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="S6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="T6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="U6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="S8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="T8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="S9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="T9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="U9" t="s">
+        <v>196</v>
+      </c>
+      <c r="W9" t="s">
         <v>202</v>
-      </c>
-      <c r="W9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="S10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="T10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="U10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="T11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="S12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="T12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="U12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="J13" t="s">
+        <v>427</v>
+      </c>
+      <c r="S13" t="s">
+        <v>212</v>
+      </c>
+      <c r="T13" t="s">
+        <v>213</v>
+      </c>
+      <c r="U13" t="s">
+        <v>196</v>
+      </c>
+      <c r="W13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J13" t="s">
-        <v>336</v>
-      </c>
-      <c r="S13" t="s">
-        <v>218</v>
-      </c>
-      <c r="T13" t="s">
-        <v>219</v>
-      </c>
-      <c r="U13" t="s">
-        <v>202</v>
-      </c>
-      <c r="W13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="S14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="U14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="J15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="S15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="S16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="S17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="T17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="U17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J18" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="S18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="T18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="J19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="S19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W19" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="S20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="U21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="J22" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="S22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="T22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="S23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="T23" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="S24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="T24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="U24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="T25" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="U25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="J26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="S26" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="T26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="U26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="S27" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="T27" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="J28" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="S28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="U28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="S29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="U29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="W29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="H30" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="J30" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="L30" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="K30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="M30" t="s">
-        <v>137</v>
-      </c>
       <c r="N30" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="S30" t="s">
+        <v>261</v>
+      </c>
+      <c r="T30" t="s">
+        <v>262</v>
+      </c>
+      <c r="U30" t="s">
+        <v>263</v>
+      </c>
+      <c r="W30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA30" t="s">
         <v>267</v>
-      </c>
-      <c r="T30" t="s">
-        <v>268</v>
-      </c>
-      <c r="U30" t="s">
-        <v>269</v>
-      </c>
-      <c r="W30" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="H31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="J31" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="S31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T31" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="U31" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="W31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J32" t="s">
+        <v>395</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="M32" t="s">
+        <v>163</v>
+      </c>
+      <c r="N32" t="s">
+        <v>421</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" t="s">
         <v>424</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J32" t="s">
-        <v>406</v>
-      </c>
-      <c r="K32" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M32" t="s">
-        <v>168</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="Q32" t="s">
+        <v>391</v>
+      </c>
+      <c r="R32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="O32" t="s">
-        <v>174</v>
-      </c>
-      <c r="P32" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>402</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="J33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K33" t="s">
+        <v>437</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="M33" t="s">
+        <v>438</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="O33" t="s">
+        <v>439</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>440</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>392</v>
+        <v>133</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>413</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>149</v>
+        <v>444</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="K35" t="s">
-        <v>151</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M35" t="s">
-        <v>152</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="O35" t="s">
-        <v>153</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>154</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="S35" t="s">
-        <v>276</v>
-      </c>
-      <c r="T35" t="s">
-        <v>277</v>
-      </c>
-      <c r="U35" t="s">
-        <v>278</v>
-      </c>
-      <c r="W35" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="J35" t="s">
+        <v>395</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>155</v>
+        <v>451</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>392</v>
+        <v>133</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="K37" t="s">
-        <v>161</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="S37" t="s">
-        <v>286</v>
-      </c>
-      <c r="T37" t="s">
-        <v>287</v>
-      </c>
-      <c r="U37" t="s">
-        <v>288</v>
-      </c>
-      <c r="W37" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>407</v>
+        <v>133</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>161</v>
+        <v>444</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>392</v>
+        <v>133</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="S40" t="s">
-        <v>291</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="U40" t="s">
-        <v>293</v>
+        <v>444</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J39" t="s">
+        <v>423</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="T41" s="11"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="M42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" t="s">
+        <v>148</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>149</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="S42" t="s">
+        <v>270</v>
+      </c>
+      <c r="T42" t="s">
+        <v>271</v>
+      </c>
+      <c r="U42" t="s">
+        <v>272</v>
+      </c>
+      <c r="W42" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>156</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="S44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T44" t="s">
+        <v>281</v>
+      </c>
+      <c r="U44" t="s">
+        <v>282</v>
+      </c>
+      <c r="W44" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="T42" s="11"/>
-    </row>
-    <row r="43" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N43" t="s">
-        <v>397</v>
-      </c>
-      <c r="S43" t="s">
-        <v>294</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="U43" t="s">
-        <v>296</v>
-      </c>
-      <c r="W43" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="K44" t="s">
-        <v>178</v>
-      </c>
-      <c r="L44" s="13" t="s">
+      <c r="I45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="M44" t="s">
-        <v>439</v>
-      </c>
-      <c r="N44" t="s">
-        <v>397</v>
-      </c>
-      <c r="S44" t="s">
-        <v>298</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="U44" t="s">
-        <v>300</v>
-      </c>
-      <c r="W44" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="G46" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="S45" t="s">
-        <v>303</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="U45" t="s">
-        <v>305</v>
-      </c>
-      <c r="W45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="H46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>334</v>
+      <c r="S47" t="s">
+        <v>285</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="U47" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>332</v>
+        <v>163</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="T48" s="11"/>
+    </row>
+    <row r="49" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>409</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>414</v>
+        <v>163</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>413</v>
+        <v>165</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="I49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="S49" t="s">
+        <v>288</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="U49" t="s">
+        <v>290</v>
+      </c>
+      <c r="W49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="M50" t="s">
+        <v>133</v>
+      </c>
+      <c r="N50" t="s">
+        <v>422</v>
+      </c>
+      <c r="S50" t="s">
+        <v>292</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="U50" t="s">
+        <v>294</v>
+      </c>
+      <c r="W50" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="S51" t="s">
+        <v>297</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="U51" t="s">
+        <v>299</v>
+      </c>
+      <c r="W51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="B53" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="K49" t="s">
+      <c r="D53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>411</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K55" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3688,25 +3992,27 @@
     <hyperlink ref="H28" r:id="rId23" xr:uid="{969F6074-EF7A-2C4C-A801-2AA70C5A885B}"/>
     <hyperlink ref="H29" r:id="rId24" xr:uid="{24073DB6-8FF1-C240-8E28-D429CAF7D11B}"/>
     <hyperlink ref="H30" r:id="rId25" xr:uid="{89065165-5FA0-A641-9ACE-CE2515F67C38}"/>
-    <hyperlink ref="H35" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
-    <hyperlink ref="J35" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
-    <hyperlink ref="L35" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
-    <hyperlink ref="N35" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
-    <hyperlink ref="P35" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
-    <hyperlink ref="R35" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
-    <hyperlink ref="H37" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
-    <hyperlink ref="J37" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
-    <hyperlink ref="H43" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
-    <hyperlink ref="J43" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
-    <hyperlink ref="H44" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
-    <hyperlink ref="J44" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
-    <hyperlink ref="L44" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
-    <hyperlink ref="H45" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
-    <hyperlink ref="J45" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="H42" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
+    <hyperlink ref="J42" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
+    <hyperlink ref="L42" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
+    <hyperlink ref="N42" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
+    <hyperlink ref="P42" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
+    <hyperlink ref="R42" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
+    <hyperlink ref="H44" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
+    <hyperlink ref="J44" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
+    <hyperlink ref="H49" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
+    <hyperlink ref="J49" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
+    <hyperlink ref="H50" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J50" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L50" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H51" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J51" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
     <hyperlink ref="J30" r:id="rId41" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
     <hyperlink ref="L30" r:id="rId42" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
-    <hyperlink ref="H41" r:id="rId43" xr:uid="{8ABC1E00-D928-0246-A24A-D0A7076C7DBC}"/>
+    <hyperlink ref="H47" r:id="rId43" xr:uid="{1D341532-A463-B24C-91DD-972457081BCA}"/>
+    <hyperlink ref="H34" r:id="rId44" xr:uid="{F0A048D0-6A76-3045-8737-EA8DD4673A28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AB09E3-2FF7-EB4A-AB1B-FDC9A671F36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD917F8C-C52B-EA42-856B-08B542A908EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1000" windowWidth="34240" windowHeight="19800" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
+    <workbookView xWindow="120" yWindow="1000" windowWidth="34240" windowHeight="19800" xr2:uid="{E78C9EA5-CB2C-0247-920D-F57389F46A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="471">
   <si>
     <t>Scene</t>
   </si>
@@ -275,9 +275,6 @@
     <t>The Middle Gate ushers you into the eastern part of Conwy Castle, known as the Inner Ward. You should click the ‘Find Out More’ button to explore this important area more. Then, you will explore the Royal Apartments, starting with the King's Great Chamber. Walk over or click the ‘King’s Great Chamber’ button to be teleported.</t>
   </si>
   <si>
-    <t>Kings Great</t>
-  </si>
-  <si>
     <t>cgcNPC1</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>qcNPC</t>
   </si>
   <si>
-    <t>You are on the first floor in the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
-  </si>
-  <si>
     <t>Bakehouse Tower</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
     <t>Dragon vs. Lion</t>
   </si>
   <si>
-    <t>A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time.</t>
-  </si>
-  <si>
     <t>Tale One</t>
   </si>
   <si>
@@ -552,9 +543,6 @@
   </si>
   <si>
     <t>Missing Flag</t>
-  </si>
-  <si>
-    <t>Learn More</t>
   </si>
   <si>
     <t>Design a Flag</t>
@@ -954,12 +942,6 @@
     <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
   </si>
   <si>
-    <t>tp @p 9969 80 10242 facing 9972 81 10244</t>
-  </si>
-  <si>
-    <t>tp @p 9958 80 10198 facing 9961 81 10201</t>
-  </si>
-  <si>
     <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
   </si>
   <si>
@@ -1011,21 +993,12 @@
     <t>Huh?</t>
   </si>
   <si>
-    <t>Well done! You found the hidden dragon in Conwy. Make sure you take a picture and put it in your workbook.</t>
-  </si>
-  <si>
     <t>Will Do</t>
   </si>
   <si>
     <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
   </si>
   <si>
-    <t>tp @p 79934 -42 80019 facing 79934 -42 80016</t>
-  </si>
-  <si>
-    <t>Keep an eye out for me! I am hidden somewhere at every site. If you can find me, take a picture of me and put it into your workbook.</t>
-  </si>
-  <si>
     <t>Thanks!</t>
   </si>
   <si>
@@ -1173,9 +1146,6 @@
     <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
   </si>
   <si>
-    <t>tp @p 9531 29 10251 facing 9536 29 10251</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8abdKAJcd5o </t>
   </si>
   <si>
@@ -1185,9 +1155,6 @@
     <t>dvlNPC2</t>
   </si>
   <si>
-    <t>Come back once you have finished your tour of Conwy!</t>
-  </si>
-  <si>
     <t>Okay</t>
   </si>
   <si>
@@ -1204,9 +1171,6 @@
   </si>
   <si>
     <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
-  </si>
-  <si>
-    <t>tp @p 79934 -42 80019 facing 79934 -42 80015</t>
   </si>
   <si>
     <t xml:space="preserve">Choose from the below quests! 
@@ -1237,9 +1201,6 @@
     <t>function masterbuilder</t>
   </si>
   <si>
-    <t xml:space="preserve">Watch the quest video to find out how to begin, or head back to the castle by clicking Taliesin. </t>
-  </si>
-  <si>
     <t>compassNPC1</t>
   </si>
   <si>
@@ -1307,9 +1268,6 @@
     <t>function dragonvlion</t>
   </si>
   <si>
-    <t>Start Quest</t>
-  </si>
-  <si>
     <t>function stainedgpre</t>
   </si>
   <si>
@@ -1386,9 +1344,6 @@
     <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
   </si>
   <si>
-    <t>Video</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -1446,28 +1401,70 @@
     <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
   </si>
   <si>
-    <t>Quest 1 - Dragon vs. Lion
-Watch the video, then click start to begin!</t>
-  </si>
-  <si>
-    <t>Quest 2 - Master Medieval Builder
-Watch the video, then click start to begin!</t>
-  </si>
-  <si>
-    <t>Quest 3 - Stained Glass Window
-Watch the video, then click start to begin!</t>
-  </si>
-  <si>
-    <t>Quest 4 - Fit for a Queen
-Watch the video, then click start to begin!</t>
-  </si>
-  <si>
-    <t>Quest 5 - Flying the Flag
-Watch the video, then click start to begin!</t>
-  </si>
-  <si>
-    <t>Quest 6 - Capture the Castle
-Watch the video, then click start to begin!</t>
+    <t>Old dialogue</t>
+  </si>
+  <si>
+    <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+  </si>
+  <si>
+    <t>Quests Intro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=4j6ArBa7jzg</t>
+  </si>
+  <si>
+    <t>Quest Intro</t>
+  </si>
+  <si>
+    <t>A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time. To go back to Taliesin click the compass.</t>
+  </si>
+  <si>
+    <t>If you were stood on the first floor, this would be the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
+  </si>
+  <si>
+    <t>Flags Flown</t>
+  </si>
+  <si>
+    <t>King's Great</t>
+  </si>
+  <si>
+    <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
+  </si>
+  <si>
+    <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
+  </si>
+  <si>
+    <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
+  </si>
+  <si>
+    <t>I am Lleu, the Dragon, and I love to play and go on adventures. My favourite game is ‘Hide and Seek.’ I will hide in various spots at every Cadw site! Come find me and take a picture of me to add to your ‘field journal.’</t>
+  </si>
+  <si>
+    <t>You found me! Well done! Please remember to take my picture and add it to your ‘field journal.’</t>
+  </si>
+  <si>
+    <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
+  </si>
+  <si>
+    <t>Quest 1 is called ‘The Dragon of Wales vs. the Lion of England’. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click on the ‘Start’ button to embark on your adventure.</t>
+  </si>
+  <si>
+    <t>Quest 2 invites you to become a Master Medieval Builder. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click the ‘Start’ button to start this essential building work.</t>
+  </si>
+  <si>
+    <t>It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
+  </si>
+  <si>
+    <t>Uncover your hidden talents with Quest 3. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this engaging quest. Then click on the ‘Start’ button to embark on a rewarding experience.</t>
+  </si>
+  <si>
+    <t>The Queen is coming! Quest 4 invites you to actively participate in preparing for this grand event. Click on the ‘Quest Intro’ button so I can provide you with an overview of this quest. Then, start the quest for a truly rewarding experience.</t>
+  </si>
+  <si>
+    <t>It's more than just a piece of cloth fluttering in the wind! Quest 5 invites you to explore the deeper meaning behind these fluttering signs. Click on the 'Quest Intro' button so I can give you an overview of this intriguing quest. Then, click on the 'Start' button to unleash your creativity.</t>
+  </si>
+  <si>
+    <t>The story of history is shaped by different perspectives, and Quest 6 encourages you to explore these varying viewpoints. To begin, click on the ‘Quest Intro’ button for an overview of this fascinating quest. Once you are ready click on the ‘Start’ button to embark on your quest.</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1622,6 +1619,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1957,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71CFAE-5268-1046-B206-3811E6AF0575}">
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2049,33 +2052,33 @@
         <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -2113,7 +2116,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -2127,16 +2130,16 @@
     </row>
     <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -2144,16 +2147,16 @@
         <v>28</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -2163,44 +2166,44 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:29" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>327</v>
+        <v>397</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>461</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H5" s="13"/>
       <c r="J5" s="8"/>
@@ -2231,25 +2234,25 @@
         <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="S6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="T6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="U6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="W6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -2269,22 +2272,22 @@
         <v>28</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="S7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="T7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W7" t="s">
         <v>29</v>
@@ -2301,31 +2304,31 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="T8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -2345,25 +2348,25 @@
         <v>28</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -2383,25 +2386,25 @@
         <v>28</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>305</v>
+        <v>459</v>
       </c>
       <c r="S10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="T10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="U10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -2421,25 +2424,25 @@
         <v>28</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="S11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2453,31 +2456,31 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -2497,25 +2500,25 @@
         <v>28</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="S13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="U13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.2">
@@ -2529,31 +2532,31 @@
         <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="S14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="T14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -2573,25 +2576,25 @@
         <v>28</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="S15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="T15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -2611,16 +2614,16 @@
         <v>28</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="S16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="U16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2640,16 +2643,16 @@
         <v>28</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="S17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="T17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="U17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -2669,1121 +2672,1127 @@
         <v>28</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="J18" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="S18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="T18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="J19" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="S19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="T19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="S20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="S21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="S22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="S23" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="S24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="T24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="S25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="T25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="U25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="S26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="S27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="U27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="S28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="S29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="T29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="U29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="H30" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="J30" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K30" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="L30" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="M30" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="K30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="M30" t="s">
-        <v>133</v>
-      </c>
       <c r="N30" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="S30" t="s">
+        <v>257</v>
+      </c>
+      <c r="T30" t="s">
+        <v>258</v>
+      </c>
+      <c r="U30" t="s">
+        <v>259</v>
+      </c>
+      <c r="W30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
         <v>261</v>
       </c>
-      <c r="T30" t="s">
-        <v>262</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="AA30" t="s">
         <v>263</v>
-      </c>
-      <c r="W30" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="L31" t="s">
+        <v>450</v>
+      </c>
+      <c r="S31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T31" t="s">
+        <v>264</v>
+      </c>
+      <c r="U31" t="s">
+        <v>265</v>
+      </c>
+      <c r="W31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="J31" t="s">
-        <v>388</v>
-      </c>
-      <c r="S31" t="s">
-        <v>133</v>
-      </c>
-      <c r="T31" t="s">
-        <v>268</v>
-      </c>
-      <c r="U31" t="s">
-        <v>269</v>
-      </c>
-      <c r="W31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="120" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>389</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J32" t="s">
-        <v>395</v>
+        <v>422</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="M32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N32" t="s">
-        <v>421</v>
+        <v>424</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="O32" t="s">
-        <v>169</v>
-      </c>
-      <c r="P32" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="Q32" t="s">
-        <v>391</v>
-      </c>
-      <c r="R32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J34" t="s">
+        <v>383</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K33" t="s">
-        <v>437</v>
-      </c>
-      <c r="L33" s="14" t="s">
+      <c r="B35" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="M33" t="s">
-        <v>438</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="H35" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="P33" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="I35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="R33" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J35" t="s">
-        <v>395</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>454</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
+      </c>
+      <c r="J38" t="s">
+        <v>409</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="J39" t="s">
-        <v>423</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="H41" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>146</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="S41" t="s">
+        <v>266</v>
+      </c>
+      <c r="T41" t="s">
+        <v>267</v>
+      </c>
+      <c r="U41" t="s">
+        <v>268</v>
+      </c>
+      <c r="W41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>463</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="K42" t="s">
-        <v>146</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="M42" t="s">
-        <v>147</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="O42" t="s">
-        <v>148</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>149</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="S42" t="s">
-        <v>270</v>
-      </c>
-      <c r="T42" t="s">
-        <v>271</v>
-      </c>
-      <c r="U42" t="s">
-        <v>272</v>
-      </c>
-      <c r="W42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>278</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>279</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="R42" s="13"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="H43" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="J43" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="S43" t="s">
+        <v>276</v>
+      </c>
+      <c r="T43" t="s">
+        <v>277</v>
+      </c>
+      <c r="U43" t="s">
+        <v>278</v>
+      </c>
+      <c r="W43" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="C45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="D45" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="S44" t="s">
-        <v>280</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="G46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="S46" t="s">
         <v>281</v>
       </c>
-      <c r="U44" t="s">
+      <c r="T46" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="W44" t="s">
+      <c r="U46" t="s">
         <v>283</v>
       </c>
-      <c r="Y44" t="s">
+    </row>
+    <row r="47" spans="1:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="T47" s="11"/>
+    </row>
+    <row r="48" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="S48" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="T48" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="U48" t="s">
         <v>286</v>
       </c>
-      <c r="U47" t="s">
+      <c r="W48" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="T48" s="11"/>
-    </row>
-    <row r="49" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>385</v>
+        <v>164</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
       <c r="S49" t="s">
         <v>288</v>
       </c>
@@ -3796,173 +3805,178 @@
       <c r="W49" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="68" x14ac:dyDescent="0.2">
+      <c r="Y49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="K50" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="M50" t="s">
-        <v>133</v>
-      </c>
-      <c r="N50" t="s">
-        <v>422</v>
+        <v>363</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="S50" t="s">
-        <v>292</v>
-      </c>
-      <c r="T50" s="11" t="s">
         <v>293</v>
       </c>
+      <c r="T50" s="12" t="s">
+        <v>294</v>
+      </c>
       <c r="U50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W50" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="75" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="S51" t="s">
-        <v>297</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="U51" t="s">
-        <v>299</v>
-      </c>
-      <c r="W51" t="s">
-        <v>300</v>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="136" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="H54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="120" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="B60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J60" t="s">
+        <v>383</v>
+      </c>
+      <c r="K60" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K55" t="s">
-        <v>400</v>
+      <c r="M60" t="s">
+        <v>160</v>
+      </c>
+      <c r="N60" t="s">
+        <v>407</v>
+      </c>
+      <c r="O60" t="s">
+        <v>166</v>
+      </c>
+      <c r="P60" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>379</v>
+      </c>
+      <c r="R60" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3992,25 +4006,26 @@
     <hyperlink ref="H28" r:id="rId23" xr:uid="{969F6074-EF7A-2C4C-A801-2AA70C5A885B}"/>
     <hyperlink ref="H29" r:id="rId24" xr:uid="{24073DB6-8FF1-C240-8E28-D429CAF7D11B}"/>
     <hyperlink ref="H30" r:id="rId25" xr:uid="{89065165-5FA0-A641-9ACE-CE2515F67C38}"/>
-    <hyperlink ref="H42" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
-    <hyperlink ref="J42" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
-    <hyperlink ref="L42" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
-    <hyperlink ref="N42" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
-    <hyperlink ref="P42" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
-    <hyperlink ref="R42" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
-    <hyperlink ref="H44" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
-    <hyperlink ref="J44" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
-    <hyperlink ref="H49" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
-    <hyperlink ref="J49" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
-    <hyperlink ref="H50" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
-    <hyperlink ref="J50" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
-    <hyperlink ref="L50" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
-    <hyperlink ref="H51" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
-    <hyperlink ref="J51" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
+    <hyperlink ref="H41" r:id="rId26" xr:uid="{BC955217-A6B5-7042-8EC9-659359EAFB02}"/>
+    <hyperlink ref="J41" r:id="rId27" xr:uid="{A9196DF5-661D-F94F-9E6B-658BDBB24941}"/>
+    <hyperlink ref="L41" r:id="rId28" xr:uid="{09DAAC3D-B7CD-CF4E-BB9C-6683EF57A98F}"/>
+    <hyperlink ref="N41" r:id="rId29" xr:uid="{ABFA807A-0FB6-A247-9080-D64B76B717A3}"/>
+    <hyperlink ref="P41" r:id="rId30" xr:uid="{E005A0B8-F821-CC4C-A331-1B7B3D9846AD}"/>
+    <hyperlink ref="R41" r:id="rId31" xr:uid="{FF448B27-4556-804A-B29A-300A6DD4B261}"/>
+    <hyperlink ref="H43" r:id="rId32" xr:uid="{74C1EFBE-DBE6-C544-8AAE-FB36F7E4F7BD}"/>
+    <hyperlink ref="J43" r:id="rId33" xr:uid="{21923414-63C5-0649-914F-A8F9B86D6D5F}"/>
+    <hyperlink ref="H48" r:id="rId34" xr:uid="{311F2E9A-883B-6A40-A27F-8C50A399A4C1}"/>
+    <hyperlink ref="J48" r:id="rId35" xr:uid="{3F9D0D53-D654-FA4C-8A20-CB06BE4E37D9}"/>
+    <hyperlink ref="H49" r:id="rId36" xr:uid="{D5AB7600-9C6B-E24B-ABA2-87BF3183CB6C}"/>
+    <hyperlink ref="J49" r:id="rId37" xr:uid="{9CAF55E9-20B5-6F49-B8F9-A270FC756779}"/>
+    <hyperlink ref="L49" r:id="rId38" xr:uid="{348EB197-3D46-974E-9596-0D2A2955BD7C}"/>
+    <hyperlink ref="H50" r:id="rId39" xr:uid="{0D66ADC6-447D-E641-9CA7-5C72239506B1}"/>
+    <hyperlink ref="J50" r:id="rId40" xr:uid="{DD917FD7-50A9-664D-9AF9-D0BFB3D4BFFD}"/>
     <hyperlink ref="J30" r:id="rId41" xr:uid="{E4025A18-6F7A-C14F-B62C-CEF48A61521E}"/>
     <hyperlink ref="L30" r:id="rId42" xr:uid="{F92D7246-40BD-E349-82BF-57BAB44F5510}"/>
-    <hyperlink ref="H47" r:id="rId43" xr:uid="{1D341532-A463-B24C-91DD-972457081BCA}"/>
-    <hyperlink ref="H34" r:id="rId44" xr:uid="{F0A048D0-6A76-3045-8737-EA8DD4673A28}"/>
+    <hyperlink ref="H46" r:id="rId43" xr:uid="{1D341532-A463-B24C-91DD-972457081BCA}"/>
+    <hyperlink ref="H33" r:id="rId44" xr:uid="{F0A048D0-6A76-3045-8737-EA8DD4673A28}"/>
+    <hyperlink ref="H31" r:id="rId45" xr:uid="{8561E869-9A85-0745-92DE-A278AD8921C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B509A1-8B5F-4946-A6FD-51C949DE0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1200" yWindow="940" windowWidth="33360" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,198 +25,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="472">
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commands to run on NPC open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commands to run on close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button Name 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command Button 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Button 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command Button 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="474">
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>NPC Tag</t>
+  </si>
+  <si>
+    <t>NPC Name</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Commands to run on NPC open</t>
+  </si>
+  <si>
+    <t>Commands to run on close</t>
+  </si>
+  <si>
+    <t>Button Name 1</t>
+  </si>
+  <si>
+    <t>Command Button 1</t>
+  </si>
+  <si>
+    <t>Name Button 2</t>
+  </si>
+  <si>
+    <t>Command Button 2</t>
   </si>
   <si>
     <t xml:space="preserve">Name Button 3  </t>
   </si>
   <si>
-    <t xml:space="preserve">Command Button 3</t>
+    <t>Command Button 3</t>
   </si>
   <si>
     <t xml:space="preserve">Name Button 4 </t>
   </si>
   <si>
-    <t xml:space="preserve">Command Button 4</t>
+    <t>Command Button 4</t>
   </si>
   <si>
     <t xml:space="preserve">Name Button 5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Command Button 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Button 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command Button 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPC Name Welsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text Welsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button Name Welsh 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Button Welsh 2</t>
+    <t>Command Button 5</t>
+  </si>
+  <si>
+    <t>Name Button 6</t>
+  </si>
+  <si>
+    <t>Command Button 6</t>
+  </si>
+  <si>
+    <t>NPC Name Welsh</t>
+  </si>
+  <si>
+    <t>Text Welsh</t>
+  </si>
+  <si>
+    <t>Button Name Welsh 1</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Name Button Welsh 2</t>
   </si>
   <si>
     <t xml:space="preserve">Name Button Welsh 3  </t>
   </si>
   <si>
-    <t xml:space="preserve">Name Button Welsh 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Button Welsh 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Button Welsh 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONWY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUR NPCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taliesin</t>
+    <t>Name Button Welsh 4</t>
+  </si>
+  <si>
+    <t>Name Button Welsh 5</t>
+  </si>
+  <si>
+    <t>Name Button Welsh 6</t>
+  </si>
+  <si>
+    <t>CONWY</t>
+  </si>
+  <si>
+    <t>TOUR NPCS</t>
+  </si>
+  <si>
+    <t>taliesinNPC1</t>
+  </si>
+  <si>
+    <t>taliesinNPC</t>
+  </si>
+  <si>
+    <t>Taliesin</t>
   </si>
   <si>
     <t xml:space="preserve">Soaring mountains, lakes, coastlines, and castles. A land where history and nature intertwine in an unforgettable tapestry. My name is Taliesin, and I invite you to journey through this mystical land’s most captivating landmarks. Exploring the wonders that make Wales a place of enchantment. Click on the ‘Find Out More’ button. </t>
   </si>
   <si>
-    <t xml:space="preserve">Find Out More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=MlzTMeEtZbI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CadwCymruGaleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mynyddoedd uchel, llynnoedd, arfordiroedd a chestyll. Gwlad lle mae hanes a natur yn cydblethu mewn tapestri bythgofiadwy. Fy enw i yw Taliesin, ac rwy'n eich gwahodd i deithio trwy dirnodau mwyaf cyfareddol y wlad gyfriniol hon. Archwilio’r rhyfeddodau sy’n gwneud Cymru’n lle hudolus. Cliciwch ar y botwm ‘Darganfod Mwy’.</t>
+    <t>Find Out More</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=MlzTMeEtZbI</t>
+  </si>
+  <si>
+    <t>CadwCymruGaleri</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Mynyddoedd uchel, llynnoedd, arfordiroedd a chestyll. Gwlad lle mae hanes a natur yn cydblethu mewn tapestri bythgofiadwy. Fy enw i yw Taliesin, ac rwy'n eich gwahodd i deithio trwy dirnodau mwyaf cyfareddol y wlad gyfriniol hon. Archwilio’r rhyfeddodau sy’n gwneud Cymru’n lle hudolus. Cliciwch ar y botwm ‘Darganfod Mwy’.</t>
   </si>
   <si>
     <t xml:space="preserve">Darganfyddwch Mwy </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GaleriCadwCymru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc</t>
+    <t>https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8</t>
+  </si>
+  <si>
+    <t>GaleriCadwCymru</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=03QngMoJ3pc</t>
   </si>
   <si>
     <t xml:space="preserve">Ymweld â’ Galeri </t>
   </si>
   <si>
-    <t xml:space="preserve">dragonNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragonNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lleu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am Lleu, the Dragon, and I love to play and go on adventures. My favourite game is ‘Hide and Seek.’ I will hide in various spots at every Cadw site! Come find me and take a picture of me to add to your ‘field journal.’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcomeNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcomeNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome, curious explorer, to your virtual tour of Conwy Castle! Come embark on an adventure filled with wonders and excitement. So, pack your imagination, and let's go on an unforgettable journey! Walk past the Outer Gate and up the ramp or click the ‘Portcullis’ Button below to be teleported there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outer Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9939 40 10178 facing 9936 40 10178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 79934 -42 80011 facing 79934 -42 80005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croeso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croeso, fforiwr chwilfrydig, i'ch taith rithwir o amgylch Castell Conwy! Dewch i gychwyn ar antur sy'n llawn rhyfeddodau a chyffro. Felly, paciwch eich dychymyg, a gadewch i ni fynd ar daith fythgofiadwy! Cerddwch heibio’r Porth Allanol ac i fyny’r ramp neu cliciwch ar y botwm ‘Porthcwlis’ isod i gael eich teleportio yno.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porthcwlis</t>
+    <t>dragonNPC1</t>
+  </si>
+  <si>
+    <t>dragonNPC</t>
+  </si>
+  <si>
+    <t>Lleu</t>
+  </si>
+  <si>
+    <t>I am Lleu, the Dragon, and I love to play and go on adventures. My favourite game is ‘Hide and Seek.’ I will hide in various spots at every Cadw site! Come find me and take a picture of me to add to your ‘field journal.’</t>
+  </si>
+  <si>
+    <t>Thanks!</t>
+  </si>
+  <si>
+    <t>welcomeNPC1</t>
+  </si>
+  <si>
+    <t>welcomeNPC</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Welcome, curious explorer, to your virtual tour of Conwy Castle! Come embark on an adventure filled with wonders and excitement. So, pack your imagination, and let's go on an unforgettable journey! Walk past the Outer Gate and up the ramp or click the ‘Portcullis’ Button below to be teleported there.</t>
+  </si>
+  <si>
+    <t>Outer Gate</t>
+  </si>
+  <si>
+    <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+  </si>
+  <si>
+    <t>Galeri</t>
+  </si>
+  <si>
+    <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+  </si>
+  <si>
+    <t>Croeso</t>
+  </si>
+  <si>
+    <t>Croeso, fforiwr chwilfrydig, i'ch taith rithwir o amgylch Castell Conwy! Dewch i gychwyn ar antur sy'n llawn rhyfeddodau a chyffro. Felly, paciwch eich dychymyg, a gadewch i ni fynd ar daith fythgofiadwy! Cerddwch heibio’r Porth Allanol ac i fyny’r ramp neu cliciwch ar y botwm ‘Porthcwlis’ isod i gael eich teleportio yno.</t>
+  </si>
+  <si>
+    <t>Porthcwlis</t>
   </si>
   <si>
     <t xml:space="preserve">Dychwelyd i'r Galeri </t>
   </si>
   <si>
-    <t xml:space="preserve">pcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portcullis Custodian</t>
+    <t>pcNPC1</t>
+  </si>
+  <si>
+    <t>pcNPC</t>
+  </si>
+  <si>
+    <t>Portcullis Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the original entrance of Conwy Castle. As you approach this ancient fortress, step back in time to an era of knights and kings, where the walls of this castle hold tales of adventure. First, click the ‘Find Out More’ Button below. Then walk onto the Barbican or click the ‘Barbican’ button to teleport. </t>
@@ -220,118 +225,118 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8VnNMdrF8xQ </t>
   </si>
   <si>
-    <t xml:space="preserve">Barbican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9941 52 10217 facing 9943 52 10220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceidwad Porthwlis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croeso i fynedfa wreiddiol Castell Conwy. Wrth i chi agosáu at y gaer hynafol hon, camwch yn ôl mewn amser i oes o farchogion a brenhinoedd, lle mae muriau'r castell hwn yn dal straeon am antur. Yn gyntaf, cliciwch ar y botwm ‘Darganfod Mwy’ isod. Yna cerddwch ar y Barbican neu cliciwch ar y botwm ‘Barbican’ i deleportio.</t>
+    <t>Barbican</t>
+  </si>
+  <si>
+    <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+  </si>
+  <si>
+    <t>Ceidwad Porthwlis</t>
+  </si>
+  <si>
+    <t>Croeso i fynedfa wreiddiol Castell Conwy. Wrth i chi agosáu at y gaer hynafol hon, camwch yn ôl mewn amser i oes o farchogion a brenhinoedd, lle mae muriau'r castell hwn yn dal straeon am antur. Yn gyntaf, cliciwch ar y botwm ‘Darganfod Mwy’ isod. Yna cerddwch ar y Barbican neu cliciwch ar y botwm ‘Barbican’ i deleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Darganfod Mwy </t>
   </si>
   <si>
-    <t xml:space="preserve">wbNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wbNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Barbican Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As you step into the Barbican, you are surrounded by formidable defences designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
+    <t>wbNPC1</t>
+  </si>
+  <si>
+    <t>wbNPC</t>
+  </si>
+  <si>
+    <t>West Barbican Custodian</t>
+  </si>
+  <si>
+    <t>As you step into the Barbican, you are surrounded by formidable defences designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4MR0oEiq7pA </t>
   </si>
   <si>
-    <t xml:space="preserve">Main Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9954 52 10222 facing 9959 52 10224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceidwad Barbican Gorllewinol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrth i chi gamu i'r Barbican, cewch eich amgylchynu gan amddiffynfeydd aruthrol sydd wedi'u cynllunio i wrthsefyll yr ymosodiadau mwyaf ffyrnig. Ar hyd y waliau, byddwch yn sylwi ar agoriadau bach o'r enw "tyllau llofruddiaeth." I ddysgu mwy, cliciwch ar y botwm 'Darganfod Mwy'. Yna, ewch ymlaen i'r Prif Borth neu cliciwch ar y botwm 'Prif Borth' i deleportio.</t>
+    <t>Main Gate</t>
+  </si>
+  <si>
+    <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
+  </si>
+  <si>
+    <t>Ceidwad Barbican Gorllewinol</t>
+  </si>
+  <si>
+    <t>Wrth i chi gamu i'r Barbican, cewch eich amgylchynu gan amddiffynfeydd aruthrol sydd wedi'u cynllunio i wrthsefyll yr ymosodiadau mwyaf ffyrnig. Ar hyd y waliau, byddwch yn sylwi ar agoriadau bach o'r enw "tyllau llofruddiaeth." I ddysgu mwy, cliciwch ar y botwm 'Darganfod Mwy'. Yna, ewch ymlaen i'r Prif Borth neu cliciwch ar y botwm 'Prif Borth' i deleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Prif Borth </t>
   </si>
   <si>
-    <t xml:space="preserve">mgNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Gate Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You enter the historic fortress here, giving you a glimpse of a bygone era. Towering walls and imposing architecture beckon you to immerse yourself in the rich tapestry of medieval life. Click the ‘Find Out More' button. Then, walk through the gateway into the Outer Ward or click the ‘Outer Ward’ button to be teleported.</t>
+    <t>mgNPC1</t>
+  </si>
+  <si>
+    <t>mgNPC</t>
+  </si>
+  <si>
+    <t>Main Gate Custodian</t>
+  </si>
+  <si>
+    <t>You enter the historic fortress here, giving you a glimpse of a bygone era. Towering walls and imposing architecture beckon you to immerse yourself in the rich tapestry of medieval life. Click the ‘Find Out More' button. Then, walk through the gateway into the Outer Ward or click the ‘Outer Ward’ button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=RpqqINFdVhg </t>
   </si>
   <si>
-    <t xml:space="preserve">Outer Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9972 52 10217 facing 9975 52 10217</t>
+    <t>Outer Ward</t>
+  </si>
+  <si>
+    <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad y Prif Borth </t>
   </si>
   <si>
-    <t xml:space="preserve">Rydych chi'n mynd i mewn i'r gaer hanesyddol yma, gan roi cipolwg i chi o'r oes a fu. Mae waliau anferth a phensaernïaeth fawreddog yn eich annog i ymgolli yn nhapestri cyfoethog bywyd canoloesol. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna, cerddwch drwy’r porth i’r Ward Allanol neu cliciwch ar y botwm ‘Ward Allanol’ i gael eich teleportio.</t>
+    <t>Rydych chi'n mynd i mewn i'r gaer hanesyddol yma, gan roi cipolwg i chi o'r oes a fu. Mae waliau anferth a phensaernïaeth fawreddog yn eich annog i ymgolli yn nhapestri cyfoethog bywyd canoloesol. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna, cerddwch drwy’r porth i’r Ward Allanol neu cliciwch ar y botwm ‘Ward Allanol’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Ward Allanol </t>
   </si>
   <si>
-    <t xml:space="preserve">owNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outer Ward Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You now enter the Outer Ward. A hive of activity, bustling with soldiers and townspeople going about their daily lives. It is home to individuals who maintain the fortress and support its inhabitants. Click the ‘Find Out More’ button. Then explore the North-West Tower or click the ‘North-West Tower’ button to be teleported.</t>
+    <t>owNPC1</t>
+  </si>
+  <si>
+    <t>owNPC</t>
+  </si>
+  <si>
+    <t>Outer Ward Custodian</t>
+  </si>
+  <si>
+    <t>You now enter the Outer Ward. A hive of activity, bustling with soldiers and townspeople going about their daily lives. It is home to individuals who maintain the fortress and support its inhabitants. Click the ‘Find Out More’ button. Then explore the North-West Tower or click the ‘North-West Tower’ button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=oYB2UeXA75k </t>
   </si>
   <si>
-    <t xml:space="preserve">North West Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9968 52 10204 facing 9965 52 10204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceidwad Ward Allanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rydych chi nawr yn mynd i mewn i'r Ward Allanol. Yn fwrlwm o weithgarwch, yn fwrlwm o filwyr a phobl y dref yn mynd o gwmpas eu bywydau bob dydd. Mae'n gartref i unigolion sy'n cynnal y gaer ac yn cynnal ei thrigolion. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna archwiliwch Tŵr y Gogledd-Orllewin neu cliciwch ar y botwm ‘Tŵr y Gogledd-Orllewin’ i gael eich teleportio.</t>
+    <t>North West Tower</t>
+  </si>
+  <si>
+    <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
+  </si>
+  <si>
+    <t>Ceidwad Ward Allanol</t>
+  </si>
+  <si>
+    <t>Rydych chi nawr yn mynd i mewn i'r Ward Allanol. Yn fwrlwm o weithgarwch, yn fwrlwm o filwyr a phobl y dref yn mynd o gwmpas eu bywydau bob dydd. Mae'n gartref i unigolion sy'n cynnal y gaer ac yn cynnal ei thrigolion. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna archwiliwch Tŵr y Gogledd-Orllewin neu cliciwch ar y botwm ‘Tŵr y Gogledd-Orllewin’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Goglen-Orllewin </t>
   </si>
   <si>
-    <t xml:space="preserve">nwtNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nwtNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North-West Tower Custodian</t>
+    <t>nwtNPC1</t>
+  </si>
+  <si>
+    <t>nwtNPC</t>
+  </si>
+  <si>
+    <t>North-West Tower Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">The North-West Tower, with its unique blend of practicality and comfort, is a remarkable example of medieval architecture. You can delve into the features of the North-West Tower by clicking the ‘Find out More’ button. Then go to the South-West Tower. You can walk or click the ‘South-West Tower’ button to be teleported.  </t>
@@ -340,119 +345,119 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=I9MGNyv2tfE </t>
   </si>
   <si>
-    <t xml:space="preserve">South-West Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9978 55 10242 facing 9977 55 10244</t>
+    <t>South-West Tower</t>
+  </si>
+  <si>
+    <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Gogledd-Orllewin </t>
   </si>
   <si>
-    <t xml:space="preserve">Mae Tŵr y Gogledd-Orllewin, gyda’i gyfuniad unigryw o ymarferoldeb a chysur, yn enghraifft ryfeddol o bensaernïaeth ganoloesol. Gallwch ymchwilio i nodweddion Tŵr y Gogledd Orllewin trwy glicio ar y botwm ‘Darganfod Mwy’. Yna ewch i'r Tŵr De-Orllewin. Gallwch gerdded neu glicio ar y botwm ‘Tŵr y De-Orllewin’ i gael eich teleportio.</t>
+    <t>Mae Tŵr y Gogledd-Orllewin, gyda’i gyfuniad unigryw o ymarferoldeb a chysur, yn enghraifft ryfeddol o bensaernïaeth ganoloesol. Gallwch ymchwilio i nodweddion Tŵr y Gogledd Orllewin trwy glicio ar y botwm ‘Darganfod Mwy’. Yna ewch i'r Tŵr De-Orllewin. Gallwch gerdded neu glicio ar y botwm ‘Tŵr y De-Orllewin’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y De-Orllewin </t>
   </si>
   <si>
-    <t xml:space="preserve">swtNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swtNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South-West Tower Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
+    <t>swtNPC1</t>
+  </si>
+  <si>
+    <t>swtNPC</t>
+  </si>
+  <si>
+    <t>South-West Tower Custodian</t>
+  </si>
+  <si>
+    <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m072INWcFXU </t>
   </si>
   <si>
-    <t xml:space="preserve">Chapel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9998 47 10246 facing 10000 47 10248</t>
+    <t>Chapel</t>
+  </si>
+  <si>
+    <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y De-Orllewin </t>
   </si>
   <si>
-    <t xml:space="preserve">Cliciwch ar y botwm ‘Darganfod Mwy’ i ddysgu mwy am Dŵr y De-orllewin a’i rôl o fewn cymuned brysur y castell. Yna dylech gerdded ar hyd ochr dde-orllewinol y castell ac archwilio'r Capel a'r Neuadd Fawr. Cerddwch drosodd neu cewch eich teleportio trwy glicio ar y botwm ‘Capel’.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cghNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cghNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapel &amp; Great Hall Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can discover details of the range of stone buildings along the southern side of the outer ward by clicking the ‘Find Out More’ button. You will have a glimpse into their various functions. The prison tower is located behind the Great Hall. You can walk there or teleport by clicking the ‘Prison Tower’ button.</t>
+    <t>Cliciwch ar y botwm ‘Darganfod Mwy’ i ddysgu mwy am Dŵr y De-orllewin a’i rôl o fewn cymuned brysur y castell. Yna dylech gerdded ar hyd ochr dde-orllewinol y castell ac archwilio'r Capel a'r Neuadd Fawr. Cerddwch drosodd neu cewch eich teleportio trwy glicio ar y botwm ‘Capel’.</t>
+  </si>
+  <si>
+    <t>Capel</t>
+  </si>
+  <si>
+    <t>cghNPC1</t>
+  </si>
+  <si>
+    <t>cghNPC</t>
+  </si>
+  <si>
+    <t>Chapel &amp; Great Hall Custodian</t>
+  </si>
+  <si>
+    <t>You can discover details of the range of stone buildings along the southern side of the outer ward by clicking the ‘Find Out More’ button. You will have a glimpse into their various functions. The prison tower is located behind the Great Hall. You can walk there or teleport by clicking the ‘Prison Tower’ button.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wcp6sMJGSiY </t>
   </si>
   <si>
-    <t xml:space="preserve">Prison Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10027 57 10265 facing 10024 57 10267</t>
+    <t>Prison Tower</t>
+  </si>
+  <si>
+    <t>tp @p 10027 57 10265 facing 10024 57 10267</t>
   </si>
   <si>
     <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
   </si>
   <si>
-    <t xml:space="preserve">Gallwch ddarganfod manylion yr amrywiaeth o adeiladau carreg ar hyd ochr ddeheuol y ward allanol trwy glicio ar y botwm ‘Darganfod Mwy’. Byddwch yn cael cipolwg ar eu swyddogaethau amrywiol. Mae tŵr y carchar wedi’i leoli y tu ôl i’r Neuadd Fawr. Gallwch gerdded yno neu deleportio trwy glicio ar y botwm ‘Tŵr y Carchar’.</t>
+    <t>Gallwch ddarganfod manylion yr amrywiaeth o adeiladau carreg ar hyd ochr ddeheuol y ward allanol trwy glicio ar y botwm ‘Darganfod Mwy’. Byddwch yn cael cipolwg ar eu swyddogaethau amrywiol. Mae tŵr y carchar wedi’i leoli y tu ôl i’r Neuadd Fawr. Gallwch gerdded yno neu deleportio trwy glicio ar y botwm ‘Tŵr y Carchar’.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Carchar </t>
   </si>
   <si>
-    <t xml:space="preserve">ptNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ptNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prison Tower Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘Find Out More’ button. 
+    <t>ptNPC1</t>
+  </si>
+  <si>
+    <t>ptNPC</t>
+  </si>
+  <si>
+    <t>Prison Tower Custodian</t>
+  </si>
+  <si>
+    <t>This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘Find Out More’ button. 
 Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6QjdNgVNl3Y </t>
   </si>
   <si>
-    <t xml:space="preserve">Kitchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10013 50 10204 facing 10013 50 10200</t>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Carchar </t>
   </si>
   <si>
-    <t xml:space="preserve">Mae gan y tŵr hwn hanes iasoer a dyluniad pensaernïol unigryw! Darganfyddwch y cyfrinachau diddorol trwy glicio ar y botwm ‘Darganfod Mwy’. Unwaith y byddwch wedi edrych o gwmpas Tŵr y Carchar, cerddwch draw i'r Gegin neu cliciwch ar y botwm Cegin i gael eich teleportio.</t>
+    <t>Mae gan y tŵr hwn hanes iasoer a dyluniad pensaernïol unigryw! Darganfyddwch y cyfrinachau diddorol trwy glicio ar y botwm ‘Darganfod Mwy’. Unwaith y byddwch wedi edrych o gwmpas Tŵr y Carchar, cerddwch draw i'r Gegin neu cliciwch ar y botwm Cegin i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Y Gegin </t>
   </si>
   <si>
-    <t xml:space="preserve">kitchNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitchNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitchen Custodian</t>
+    <t>kitchNPC1</t>
+  </si>
+  <si>
+    <t>kitchNPC</t>
+  </si>
+  <si>
+    <t>Kitchen Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">You are now opposite the great hall range on the north side of the outer ward, where you will find the remnants of a series of buildings that once played vital roles in the daily operations of the fortress. You can investigate further by clicking the ‘Find Out More’ button, then click on ‘The Well’ button to be teleported. </t>
@@ -461,28 +466,28 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rAUH5OxitHg </t>
   </si>
   <si>
-    <t xml:space="preserve">The Well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10059 47 10208 facing 10062 47 10209</t>
+    <t>The Well</t>
+  </si>
+  <si>
+    <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad y Gegin </t>
   </si>
   <si>
-    <t xml:space="preserve">Rydych chi nawr gyferbyn â’r neuadd fawr ar ochr ogleddol y ward allanol, lle byddwch chi’n dod o hyd i weddillion cyfres o adeiladau a oedd yn chwarae rhan hanfodol yng ngweithrediadau dyddiol y gaer unwaith. Gallwch ymchwilio ymhellach trwy glicio ar y botwm ‘Darganfod Mwy’, yna cliciwch ar y botwm ‘Y Ffynnon’ i gael eich teleportio.</t>
+    <t>Rydych chi nawr gyferbyn â’r neuadd fawr ar ochr ogleddol y ward allanol, lle byddwch chi’n dod o hyd i weddillion cyfres o adeiladau a oedd yn chwarae rhan hanfodol yng ngweithrediadau dyddiol y gaer unwaith. Gallwch ymchwilio ymhellach trwy glicio ar y botwm ‘Darganfod Mwy’, yna cliciwch ar y botwm ‘Y Ffynnon’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Y Ffynnon </t>
   </si>
   <si>
-    <t xml:space="preserve">wellNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wellNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Well Custodian</t>
+    <t>wellNPC1</t>
+  </si>
+  <si>
+    <t>wellNPC</t>
+  </si>
+  <si>
+    <t>The Well Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">The well at Conwy Castle is impressive! You should click the 'Find Out More' button to investigate this feature further. Then, you should walk on to the Middle Gate to continue our virtual tour. </t>
@@ -494,19 +499,19 @@
     <t xml:space="preserve">Ceidwad y Ffynnon </t>
   </si>
   <si>
-    <t xml:space="preserve">Mae ffynnon yng Nghastell Conwy yn drawiadol! Dylech glicio ar y botwm 'Darganfod Mwy' i ymchwilio ymhellach i'r nodwedd hon. Yna, dylech gerdded ymlaen i'r Porth Canol i barhau â'n taith rithwir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midgNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">midgNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Gate Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You will discover that the division between the Outer and Inner Wards are a pivotal point in the fortress's layout, providing both strategic defence and functional separation between different areas of the castle. ‘Find Out More’ about this by clicking on the button. Then, walk from this vital gateway into the Inner Ward.</t>
+    <t>Mae ffynnon yng Nghastell Conwy yn drawiadol! Dylech glicio ar y botwm 'Darganfod Mwy' i ymchwilio ymhellach i'r nodwedd hon. Yna, dylech gerdded ymlaen i'r Porth Canol i barhau â'n taith rithwir.</t>
+  </si>
+  <si>
+    <t>midgNPC1</t>
+  </si>
+  <si>
+    <t>midgNPC</t>
+  </si>
+  <si>
+    <t>Middle Gate Custodian</t>
+  </si>
+  <si>
+    <t>You will discover that the division between the Outer and Inner Wards are a pivotal point in the fortress's layout, providing both strategic defence and functional separation between different areas of the castle. ‘Find Out More’ about this by clicking on the button. Then, walk from this vital gateway into the Inner Ward.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=C0t6duLUpXk </t>
@@ -515,76 +520,76 @@
     <t xml:space="preserve">Ceidwad y Porth Canol </t>
   </si>
   <si>
-    <t xml:space="preserve">Byddwch yn darganfod bod y rhaniad rhwng y Wardiau Allanol a Mewnol yn bwynt canolog yng nghynllun y gaer, gan ddarparu amddiffyniad strategol a gwahaniad swyddogaethol rhwng gwahanol rannau o'r castell. ‘Darganfod Mwy’ am hyn trwy glicio ar y botwm. Yna, cerddwch o'r porth hanfodol hwn i'r Ward Fewnol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iwNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inner Ward Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Middle Gate ushers you into the eastern part of Conwy Castle, known as the Inner Ward. You should click the ‘Find Out More’ button to explore this important area more. Then, you will explore the Royal Apartments, starting with the King's Great Chamber. Walk over or click the ‘King’s Great Chamber’ button to be teleported.</t>
+    <t>Byddwch yn darganfod bod y rhaniad rhwng y Wardiau Allanol a Mewnol yn bwynt canolog yng nghynllun y gaer, gan ddarparu amddiffyniad strategol a gwahaniad swyddogaethol rhwng gwahanol rannau o'r castell. ‘Darganfod Mwy’ am hyn trwy glicio ar y botwm. Yna, cerddwch o'r porth hanfodol hwn i'r Ward Fewnol.</t>
+  </si>
+  <si>
+    <t>iwNPC1</t>
+  </si>
+  <si>
+    <t>iwNPC</t>
+  </si>
+  <si>
+    <t>Inner Ward Custodian</t>
+  </si>
+  <si>
+    <t>The Middle Gate ushers you into the eastern part of Conwy Castle, known as the Inner Ward. You should click the ‘Find Out More’ button to explore this important area more. Then, you will explore the Royal Apartments, starting with the King's Great Chamber. Walk over or click the ‘King’s Great Chamber’ button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wyhtG0XJlR0 </t>
   </si>
   <si>
-    <t xml:space="preserve">King's Great</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10128 43 10196 facing 10128 43 10192</t>
+    <t>King's Great</t>
+  </si>
+  <si>
+    <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad y Wal Mewnol </t>
   </si>
   <si>
-    <t xml:space="preserve">Mae'r Porth Canol yn eich arwain i ran ddwyreiniol Castell Conwy, a elwir yn Ward Fewnol. Dylech glicio ar y botwm ‘Darganfod Mwy’ i archwilio’r maes pwysig hwn yn fwy. Yna, byddwch yn crwydro’r Rhandai Brenhinol, gan ddechrau gyda Siambr Fawr y Brenin. Cerddwch drosodd neu cliciwch ar y botwm ‘Siambr Fawr y Brenin’ i gael eich teleportio.</t>
+    <t>Mae'r Porth Canol yn eich arwain i ran ddwyreiniol Castell Conwy, a elwir yn Ward Fewnol. Dylech glicio ar y botwm ‘Darganfod Mwy’ i archwilio’r maes pwysig hwn yn fwy. Yna, byddwch yn crwydro’r Rhandai Brenhinol, gan ddechrau gyda Siambr Fawr y Brenin. Cerddwch drosodd neu cliciwch ar y botwm ‘Siambr Fawr y Brenin’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Siambr Fawr y Brenin </t>
   </si>
   <si>
-    <t xml:space="preserve">cgcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's Great Chamber Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the Royal Apartments. You can visit the King’s Great Chamber and start your tour by first clicking the ‘Find Out More’ button. Next, you will move on to the Chapel. You can either walk there or click the ‘Chapel Steps’ button to be teleported there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8IRhOP6QlAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapel Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10133 43 10186 facing 10134 43 10183</t>
+    <t>cgcNPC1</t>
+  </si>
+  <si>
+    <t>cgcNPC</t>
+  </si>
+  <si>
+    <t>King's Great Chamber Custodian</t>
+  </si>
+  <si>
+    <t>Welcome to the Royal Apartments. You can visit the King’s Great Chamber and start your tour by first clicking the ‘Find Out More’ button. Next, you will move on to the Chapel. You can either walk there or click the ‘Chapel Steps’ button to be teleported there.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=8IRhOP6QlAM</t>
+  </si>
+  <si>
+    <t>Chapel Steps</t>
+  </si>
+  <si>
+    <t>tp @p 10133 43 10186 facing 10134 43 10183</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i'r Rhandai Brenhinol. Gallwch ymweld â Siambr Fawr y Brenin a chychwyn eich taith trwy glicio yn gyntaf ar y botwm ‘Darganfod Mwy’. Nesaf, byddwch yn symud ymlaen i'r Capel. Gallwch naill ai gerdded yno neu glicio ar y botwm ‘Tŵr y Capel’ i gael eich teleportio yno.</t>
+    <t>Croeso i'r Rhandai Brenhinol. Gallwch ymweld â Siambr Fawr y Brenin a chychwyn eich taith trwy glicio yn gyntaf ar y botwm ‘Darganfod Mwy’. Nesaf, byddwch yn symud ymlaen i'r Capel. Gallwch naill ai gerdded yno neu glicio ar y botwm ‘Tŵr y Capel’ i gael eich teleportio yno.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Capel </t>
   </si>
   <si>
-    <t xml:space="preserve">ctNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapel Tower Custodian</t>
+    <t>ctNPC1</t>
+  </si>
+  <si>
+    <t>ctNPC</t>
+  </si>
+  <si>
+    <t>Chapel Tower Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the Chapel Tower. You should click the ‘Find Out More’ button to investigate this tower. Take your time to wander through the passageways, and then when you are ready to delve deeper into the castle's history, click the 'Inside Chapel Tower' button to be teleported inside the Chapel Tower. I will meet you there. </t>
@@ -593,52 +598,52 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XPeHvT114Jw </t>
   </si>
   <si>
-    <t xml:space="preserve">Inside Chapel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10143 52 10177 facing 10141 52 10174</t>
+    <t>Inside Chapel</t>
+  </si>
+  <si>
+    <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Capel </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i Dwr y Capel. Dylech glicio ar y botwm ‘Darganfod Mwy’ i ymchwilio i’r tŵr hwn. Cymerwch eich amser i grwydro drwy'r tramwyfeydd, ac yna pan fyddwch chi'n barod i dreiddio'n ddyfnach i hanes y castell, cliciwch ar y botwm 'Tu Mewn Tŵr y Capel' i gael eich teleportio y tu mewn i Dŵr y Capel. Byddaf yn cwrdd â chi yno.</t>
+    <t>Croeso i Dwr y Capel. Dylech glicio ar y botwm ‘Darganfod Mwy’ i ymchwilio i’r tŵr hwn. Cymerwch eich amser i grwydro drwy'r tramwyfeydd, ac yna pan fyddwch chi'n barod i dreiddio'n ddyfnach i hanes y castell, cliciwch ar y botwm 'Tu Mewn Tŵr y Capel' i gael eich teleportio y tu mewn i Dŵr y Capel. Byddaf yn cwrdd â chi yno.</t>
   </si>
   <si>
     <t xml:space="preserve">Tu Mewn Tŵr y Capel </t>
   </si>
   <si>
-    <t xml:space="preserve">ctNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now that you are inside the Chapel Tower, you have reached one of the most exciting features in any surviving medieval castle chapel complex! Click the ‘Find Out More’ button to examine its unique features. You can also access the Watching Chamber by clicking the ‘Watching Chamber’ button below to be teleported.</t>
+    <t>ctNPC2</t>
+  </si>
+  <si>
+    <t>Now that you are inside the Chapel Tower, you have reached one of the most exciting features in any surviving medieval castle chapel complex! Click the ‘Find Out More’ button to examine its unique features. You can also access the Watching Chamber by clicking the ‘Watching Chamber’ button below to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lb1Sn3CXvqM </t>
   </si>
   <si>
-    <t xml:space="preserve">Watching Chamber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10137 58 10176</t>
+    <t>Watching Chamber</t>
+  </si>
+  <si>
+    <t>tp @p 10137 58 10176</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
   </si>
   <si>
-    <t xml:space="preserve">Nawr eich bod y tu mewn i Dŵ r y Capel, rydych wedi cyrraedd un o'r nodweddion mwyaf cyffrous mewn unrhyw gyfadeilad capeli castell canoloesol sydd wedi goroesi! Cliciwch ar y botwm ‘Darganfod Mwy’ i archwilio ei nodweddion unigryw. Gallwch hefyd gael mynediad i’r Siambr Gwylio drwy glicio ar y botwm ‘Siambr Gwylio’ isod i gael eich teleportio.</t>
+    <t>Nawr eich bod y tu mewn i Dŵ r y Capel, rydych wedi cyrraedd un o'r nodweddion mwyaf cyffrous mewn unrhyw gyfadeilad capeli castell canoloesol sydd wedi goroesi! Cliciwch ar y botwm ‘Darganfod Mwy’ i archwilio ei nodweddion unigryw. Gallwch hefyd gael mynediad i’r Siambr Gwylio drwy glicio ar y botwm ‘Siambr Gwylio’ isod i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Siambr Gwylio </t>
   </si>
   <si>
-    <t xml:space="preserve">wcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watching Chamber Custodian</t>
+    <t>wcNPC1</t>
+  </si>
+  <si>
+    <t>wcNPC</t>
+  </si>
+  <si>
+    <t>Watching Chamber Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">The "watching chamber" above the chapel adds an exciting twist to the architectural layout and functionality of the medieval chapel. You can discover more about this fascinating feature by clicking the ‘Find Out More’ button. Then, walk down to the east-gate passage and cross to the King's Tower or click the ‘Kings Tower’ button. </t>
@@ -647,115 +652,115 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=O9FxxAnED94 </t>
   </si>
   <si>
-    <t xml:space="preserve">Kings Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10150 47 10227 facing 10146 47 10227</t>
+    <t>Kings Tower</t>
+  </si>
+  <si>
+    <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad y Siambr Gwylio </t>
   </si>
   <si>
-    <t xml:space="preserve">Mae'r "siambr wylio" uwchben y capel yn ychwanegu tro cyffrous at gynllun pensaernïol ac swyddogaethedd y capel canoloesol. Gallwch ddarganfod mwy am y nodwedd hynod ddiddorol hon drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, cerddwch i lawr at gyntedd porth y dwyrain a chroesi i Dŵr y Brenin neu cliciwch ar y botwm ‘Tŵr y Brenin’.</t>
+    <t>Mae'r "siambr wylio" uwchben y capel yn ychwanegu tro cyffrous at gynllun pensaernïol ac swyddogaethedd y capel canoloesol. Gallwch ddarganfod mwy am y nodwedd hynod ddiddorol hon drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, cerddwch i lawr at gyntedd porth y dwyrain a chroesi i Dŵr y Brenin neu cliciwch ar y botwm ‘Tŵr y Brenin’.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Brenin </t>
   </si>
   <si>
-    <t xml:space="preserve">ktNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ktNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's Tower Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Kings Tower. Behind me, you will see a stone staircase mirroring the Chapel Tower. This passage leads into the King’s Tower and the royal apartments. It would be best to investigate by clicking the ‘Find Out More’ button. Then, return to the passage at the bottom of the tower or click on the ‘King’s Kitchen’ button to be teleported.</t>
+    <t>ktNPC1</t>
+  </si>
+  <si>
+    <t>ktNPC</t>
+  </si>
+  <si>
+    <t>King's Tower Custodian</t>
+  </si>
+  <si>
+    <t>Welcome to Kings Tower. Behind me, you will see a stone staircase mirroring the Chapel Tower. This passage leads into the King’s Tower and the royal apartments. It would be best to investigate by clicking the ‘Find Out More’ button. Then, return to the passage at the bottom of the tower or click on the ‘King’s Kitchen’ button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g-rLr7Xl36s </t>
   </si>
   <si>
-    <t xml:space="preserve">King's Kitchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10136 43 10223 facing 10137 43 10228</t>
+    <t>King's Kitchen</t>
+  </si>
+  <si>
+    <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Brenin </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i Dŵr y Brenin. Y tu ôl i mi, fe welwch risiau carreg yn adlewyrchu Tŵr y Capel. Mae'r darn hwn yn arwain i mewn i Dŵr y Brenin a'r rhandai brenhinol. Byddai’n well ymchwilio drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, dychwelwch i’r darn ar waelod y tŵr neu cliciwch ar y botwm ‘Cegin y Brenin’ i gael eich teleportio.</t>
+    <t>Croeso i Dŵr y Brenin. Y tu ôl i mi, fe welwch risiau carreg yn adlewyrchu Tŵr y Capel. Mae'r darn hwn yn arwain i mewn i Dŵr y Brenin a'r rhandai brenhinol. Byddai’n well ymchwilio drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, dychwelwch i’r darn ar waelod y tŵr neu cliciwch ar y botwm ‘Cegin y Brenin’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Cegin y Brenin </t>
   </si>
   <si>
-    <t xml:space="preserve">kcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's Chamber Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are now in the King’s Kitchen, and above is the King's Chamber. You can access this room from the great chamber and the queen’s chamber to the west. You can investigate further by clicking the ‘Find Out More’ button. If you want to visit the Queens Chamber, you can enter from the courtyard or click the ‘Queens Chamber’ button to be teleported.</t>
+    <t>kcNPC1</t>
+  </si>
+  <si>
+    <t>kcNPC</t>
+  </si>
+  <si>
+    <t>King's Chamber Custodian</t>
+  </si>
+  <si>
+    <t>You are now in the King’s Kitchen, and above is the King's Chamber. You can access this room from the great chamber and the queen’s chamber to the west. You can investigate further by clicking the ‘Find Out More’ button. If you want to visit the Queens Chamber, you can enter from the courtyard or click the ‘Queens Chamber’ button to be teleported.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=M5QJdQC93JY </t>
   </si>
   <si>
-    <t xml:space="preserve">Queen's Chamber Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10106 44 10229 facing 10106 44 10234</t>
+    <t>Queen's Chamber Custodian</t>
+  </si>
+  <si>
+    <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Siambr y Brenin         </t>
   </si>
   <si>
-    <t xml:space="preserve">Rydych chi nawr yng Nghegin y Brenin, ac uwch ben mae Siambr y Brenin. Gallwch gael mynediad i'r ystafell hon o'r siambr fawr a Siambr y Frenhines i'r gorllewin. Gallwch ymchwilio ymhellach drwy glicio ar y botwm ‘Darganfod Mwy’. Os ydych am ymweld â Siambr y Frenhines, gallwch fynd i mewn o’r cwrt neu glicio ar y botwm ‘Siambr y Frenhines’ i gael eich teleportio.</t>
+    <t>Rydych chi nawr yng Nghegin y Brenin, ac uwch ben mae Siambr y Brenin. Gallwch gael mynediad i'r ystafell hon o'r siambr fawr a Siambr y Frenhines i'r gorllewin. Gallwch ymchwilio ymhellach drwy glicio ar y botwm ‘Darganfod Mwy’. Os ydych am ymweld â Siambr y Frenhines, gallwch fynd i mewn o’r cwrt neu glicio ar y botwm ‘Siambr y Frenhines’ i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Siambr y Frenhines </t>
   </si>
   <si>
-    <t xml:space="preserve">qcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you were stood on the first floor, this would be the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
+    <t>qcNPC1</t>
+  </si>
+  <si>
+    <t>qcNPC</t>
+  </si>
+  <si>
+    <t>If you were stood on the first floor, this would be the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=MvMeRIXN7ZQ </t>
   </si>
   <si>
-    <t xml:space="preserve">Bakehouse Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10094 45 10241 facing 10096 45 10241</t>
+    <t>Bakehouse Tower</t>
+  </si>
+  <si>
+    <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
   </si>
   <si>
-    <t xml:space="preserve">Rydych chi ar y llawr cyntaf yn y siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Castile. Fel y prif ystafelloedd eraill, roedd ganddo le tân a gwardrob. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dwr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei deleportio yno.</t>
+    <t>Rydych chi ar y llawr cyntaf yn y siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Castile. Fel y prif ystafelloedd eraill, roedd ganddo le tân a gwardrob. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dwr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei deleportio yno.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Popty </t>
   </si>
   <si>
-    <t xml:space="preserve">bhNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakehouse Tower Custodian</t>
+    <t>bhNPC1</t>
+  </si>
+  <si>
+    <t>bhNPC</t>
+  </si>
+  <si>
+    <t>Bakehouse Tower Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to Bakehouse Tower. Many exciting things have happened to this tower over the years! Click the "Find Out More" button for details. Then, you must take a look around Stockhouse Tower by clicking on the button to be teleported. </t>
@@ -764,55 +769,55 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Q1d-5AelzCU </t>
   </si>
   <si>
-    <t xml:space="preserve">Stockhouse Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10093 45 10185 facing 10090 45 10185</t>
+    <t>Stockhouse Tower</t>
+  </si>
+  <si>
+    <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Popty         </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i Tŵr y Popty. Mae llawer o bethau cyffrous wedi digwydd i’r tŵr hwn dros y blynyddoedd! Cliciwch ar y botwm "Darganfod Mwy" am fanylion. Yna, rhaid i chi edrych o gwmpas Tŵr y Stocdy trwy glicio ar y botwm i gael eich teleportio.</t>
+    <t>Croeso i Tŵr y Popty. Mae llawer o bethau cyffrous wedi digwydd i’r tŵr hwn dros y blynyddoedd! Cliciwch ar y botwm "Darganfod Mwy" am fanylion. Yna, rhaid i chi edrych o gwmpas Tŵr y Stocdy trwy glicio ar y botwm i gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Stocdy </t>
   </si>
   <si>
-    <t xml:space="preserve">stNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockhouse Tower Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the Stockhouse Tower. Its name may have come from the "stocks" or foot restraints used to detain criminals! However, it is believed that the tower was initially built for storage or living quarters for the castle's garrison. You must visit the ‘East Barbican’; you can walk there or be teleported.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Barbican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10160 40 10204 facing 10164 40 10204</t>
+    <t>stNPC1</t>
+  </si>
+  <si>
+    <t>stNPC</t>
+  </si>
+  <si>
+    <t>Stockhouse Tower Custodian</t>
+  </si>
+  <si>
+    <t>Welcome to the Stockhouse Tower. Its name may have come from the "stocks" or foot restraints used to detain criminals! However, it is believed that the tower was initially built for storage or living quarters for the castle's garrison. You must visit the ‘East Barbican’; you can walk there or be teleported.</t>
+  </si>
+  <si>
+    <t>East Barbican</t>
+  </si>
+  <si>
+    <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Stocdy         </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i Dŵr y Stocdy. Mae'n bosibl bod ei enw wedi dod o'r "stociau" neu'r ataliadau traed a ddefnyddir i gadw troseddwyr! Fodd bynnag, credir i’r tŵr gael ei adeiladu’n wreiddiol ar gyfer storio neu ystafelloedd byw i garsiwn y castell. Rhaid i chi ymweld â’r ‘Barbican y Dwyrain’; gallwch gerdded yno neu gael eich teleportio.</t>
+    <t>Croeso i Dŵr y Stocdy. Mae'n bosibl bod ei enw wedi dod o'r "stociau" neu'r ataliadau traed a ddefnyddir i gadw troseddwyr! Fodd bynnag, credir i’r tŵr gael ei adeiladu’n wreiddiol ar gyfer storio neu ystafelloedd byw i garsiwn y castell. Rhaid i chi ymweld â’r ‘Barbican y Dwyrain’; gallwch gerdded yno neu gael eich teleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Barbican y Dwyrain  </t>
   </si>
   <si>
-    <t xml:space="preserve">ebNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Barbican Custodian</t>
+    <t>ebNPC1</t>
+  </si>
+  <si>
+    <t>ebNPC</t>
+  </si>
+  <si>
+    <t>East Barbican Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the East Barbican, where you can take in the view across the river and imagine the garden that once grew here! A tale you can uncover by clicking the ‘Find Out More’ button. You can walk down the steps to see where the Water Gate once entered the East Barbican. Then, walk along the ‘Wall-Walk’, click to be teleported there. </t>
@@ -821,28 +826,28 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BMyyKu5FZtI </t>
   </si>
   <si>
-    <t xml:space="preserve">Wall-Walk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10150 66 10208 facing 10148 67 10213</t>
+    <t>Wall-Walk</t>
+  </si>
+  <si>
+    <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Barbican y Dwyrain         </t>
   </si>
   <si>
-    <t xml:space="preserve">Croeso i Farbican y Dwyrain, lle gallwch chi fwynhau'r olygfa ar draws yr afon a dychmygu'r ardd a dyfodd yma ar un adeg! Stori y gallwch ei datgelu trwy glicio ar y botwm ‘Darganfod Mwy’. Gallwch gerdded i lawr y grisiau i weld ble roedd y Porth Ddŵr unwaith yn mynd i mewn i Farbican y Dwyrain. Yna, cerddwch ar hyd y ‘Taith Wal’, cliciwch i gael eich teleportio yno.</t>
+    <t>Croeso i Farbican y Dwyrain, lle gallwch chi fwynhau'r olygfa ar draws yr afon a dychmygu'r ardd a dyfodd yma ar un adeg! Stori y gallwch ei datgelu trwy glicio ar y botwm ‘Darganfod Mwy’. Gallwch gerdded i lawr y grisiau i weld ble roedd y Porth Ddŵr unwaith yn mynd i mewn i Farbican y Dwyrain. Yna, cerddwch ar hyd y ‘Taith Wal’, cliciwch i gael eich teleportio yno.</t>
   </si>
   <si>
     <t xml:space="preserve">Taith Wal </t>
   </si>
   <si>
-    <t xml:space="preserve">wwNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wall-Walk Custodian</t>
+    <t>wwNPC1</t>
+  </si>
+  <si>
+    <t>wwNPC</t>
+  </si>
+  <si>
+    <t>Wall-Walk Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">You are about to embark on a walk of the Conwy Castle Wall Walk!  Before you head out, make sure to click the 'Find Out More' button. This will give you all the information you need to make the most of your walk! Once you've seen the land and the town below, click the 'Town Wall' button to teleport. </t>
@@ -851,28 +856,28 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XEWl_ZHleYw </t>
   </si>
   <si>
-    <t xml:space="preserve">Town Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 9846 38 10273 facing 9843 38 10274</t>
+    <t>Town Wall</t>
+  </si>
+  <si>
+    <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Taith Wal  </t>
   </si>
   <si>
-    <t xml:space="preserve">Rydych chi ar fin cychwyn ar daith gerdded ar hyd Taith Gerdded Mur Castell Conwy! Cyn i chi fynd allan, gwnewch yn siŵr eich bod chi'n clicio ar y botwm 'Darganfod Mwy'. Bydd hyn yn rhoi'r holl wybodaeth sydd ei hangen arnoch i wneud y gorau o'ch taith gerdded! Unwaith y byddwch wedi gweld y tir a'r dref isod, cliciwch ar y botwm 'Wal y Dref' i deleportio.</t>
+    <t>Rydych chi ar fin cychwyn ar daith gerdded ar hyd Taith Gerdded Mur Castell Conwy! Cyn i chi fynd allan, gwnewch yn siŵr eich bod chi'n clicio ar y botwm 'Darganfod Mwy'. Bydd hyn yn rhoi'r holl wybodaeth sydd ei hangen arnoch i wneud y gorau o'ch taith gerdded! Unwaith y byddwch wedi gweld y tir a'r dref isod, cliciwch ar y botwm 'Wal y Dref' i deleportio.</t>
   </si>
   <si>
     <t xml:space="preserve">Wal y Dref </t>
   </si>
   <si>
-    <t xml:space="preserve">twNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Town Wall Custodian</t>
+    <t>twNPC1</t>
+  </si>
+  <si>
+    <t>twNPC</t>
+  </si>
+  <si>
+    <t>Town Wall Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Imagine a fortress that doesn't just stand alone but embraces an entire town within its protective encirclement; this is Conwy town wall. Click the buttons below to learn more about the wall and the town within. After you have walked around the town wall, head back to the visitor centre by clicking on Taliesin.  </t>
@@ -881,25 +886,25 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UD8oBbkY954 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Town</t>
+    <t>The Town</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8abdKAJcd5o </t>
   </si>
   <si>
-    <t xml:space="preserve">Medieval Town</t>
+    <t>Medieval Town</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JiboQeuNw3U </t>
   </si>
   <si>
-    <t xml:space="preserve">tp @p 9883 29 10191 facing 9883 29 10195</t>
+    <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Wal y Dreg </t>
   </si>
   <si>
-    <t xml:space="preserve">Dychmygwch gaer sydd nid yn unig yn sefyll ar ei phen ei hun ond yn cofleidio tref gyfan o fewn ei hamgylchyn amddiffynnol; dyma wal tref Conwy. Cliciwch y botymau isod i ddysgu mwy am y wal a'r dref oddi mewn. Ar ôl i chi gerdded o amgylch wal y dref, ewch yn ôl i'r ganolfan ymwelwyr drwy glicio ar Taliesin.</t>
+    <t>Dychmygwch gaer sydd nid yn unig yn sefyll ar ei phen ei hun ond yn cofleidio tref gyfan o fewn ei hamgylchyn amddiffynnol; dyma wal tref Conwy. Cliciwch y botymau isod i ddysgu mwy am y wal a'r dref oddi mewn. Ar ôl i chi gerdded o amgylch wal y dref, ewch yn ôl i'r ganolfan ymwelwyr drwy glicio ar Taliesin.</t>
   </si>
   <si>
     <t xml:space="preserve">Wal y Dreg </t>
@@ -914,217 +919,217 @@
     <t xml:space="preserve">Taliesin </t>
   </si>
   <si>
-    <t xml:space="preserve">taliesinendNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have completed your virtual tour. I am sure you have been amazed by the incredible skill and dedication that went into constructing this magnificent castle. I now have a series of quests for you to consider. Click the "Quest" button to reveal the exciting quests waiting for you within Conwy Castle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scoreboard players set completed quest 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quests Intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4j6ArBa7jzg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Galeri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rydych chi wedi cwblhau eich taith rithwir. Rwy’n siŵr eich bod wedi’ch syfrdanu gan y sgil a’r ymroddiad anhygoel a gafwyd wrth adeiladu’r castell godidog hwn. Mae gennyf yn awr gyfres o cwestau i chi eu hystyried. Cliciwch y botwm "Cwest" i ddangos y cwestau cyffrous sy'n aros amdanoch o fewn Castell Conwy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cwestau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 1 is called ‘The Dragon of Wales vs. the Lion of England’. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click on the ‘Start’ button to embark on your adventure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest Intro</t>
+    <t>taliesinendNPC1</t>
+  </si>
+  <si>
+    <t>taliesinendNPC</t>
+  </si>
+  <si>
+    <t>You have completed your virtual tour. I am sure you have been amazed by the incredible skill and dedication that went into constructing this magnificent castle. I now have a series of quests for you to consider. Click the "Quest" button to reveal the exciting quests waiting for you within Conwy Castle.</t>
+  </si>
+  <si>
+    <t>scoreboard players set completed quest 1</t>
+  </si>
+  <si>
+    <t>Quests Intro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=4j6ArBa7jzg</t>
+  </si>
+  <si>
+    <t>Quests</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+  </si>
+  <si>
+    <t>Return Galeri</t>
+  </si>
+  <si>
+    <t>Rydych chi wedi cwblhau eich taith rithwir. Rwy’n siŵr eich bod wedi’ch syfrdanu gan y sgil a’r ymroddiad anhygoel a gafwyd wrth adeiladu’r castell godidog hwn. Mae gennyf yn awr gyfres o cwestau i chi eu hystyried. Cliciwch y botwm "Cwest" i ddangos y cwestau cyffrous sy'n aros amdanoch o fewn Castell Conwy.</t>
+  </si>
+  <si>
+    <t>Cwestau</t>
+  </si>
+  <si>
+    <t>taliesinendNPC3</t>
+  </si>
+  <si>
+    <t>These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
+  </si>
+  <si>
+    <t>Quest 1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
+  </si>
+  <si>
+    <t>Quest 2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
+  </si>
+  <si>
+    <t>Quest 3</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
+  </si>
+  <si>
+    <t>Quest 4</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
+  </si>
+  <si>
+    <t>Quest 5</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
+  </si>
+  <si>
+    <t>Quest 6</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
+  </si>
+  <si>
+    <t>taliesinendNPC4</t>
+  </si>
+  <si>
+    <t>Quest 1 is called ‘The Dragon of Wales vs. the Lion of England’. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click on the ‘Start’ button to embark on your adventure.</t>
+  </si>
+  <si>
+    <t>Quest Intro</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tKalNcCY9yI </t>
   </si>
   <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function dragonvlion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quest 2 invites you to become a Master Medieval Builder. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click the ‘Start’ button to start this essential building work.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=0YBwnulSZzU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function masterbuilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncover your hidden talents with Quest 3. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this engaging quest. Then click on the ‘Start’ button to embark on a rewarding experience.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=B3qNfkopTz4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function stainedgpre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Queen is coming! Quest 4 invites you to actively participate in preparing for this grand event. Click on the ‘Quest Intro’ button so I can provide you with an overview of this quest. Then, start the quest for a truly rewarding experience.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=VNIYTnkKsVk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function queenpre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's more than just a piece of cloth fluttering in the wind! Quest 5 invites you to explore the deeper meaning behind these fluttering signs. Click on the 'Quest Intro' button so I can give you an overview of this intriguing quest. Then, click on the 'Start' button to unleash your creativity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UBHFQQBFeD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function flagpre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The story of history is shaped by different perspectives, and Quest 6 encourages you to explore these varying viewpoints. To begin, click on the ‘Quest Intro’ button for an overview of this fascinating quest. Once you are ready click on the ‘Start’ button to embark on your quest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FdOJqP7ds_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tp @p 10024 43 10277 facing 10027 43 10281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEST NPCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvlNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvlNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragon vs. Lion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvlNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time. To go back to Taliesin click the compass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tale One</t>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>function dragonvlion</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>taliesinendNPC5</t>
+  </si>
+  <si>
+    <t>Quest 2 invites you to become a Master Medieval Builder. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click the ‘Start’ button to start this essential building work.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=0YBwnulSZzU</t>
+  </si>
+  <si>
+    <t>function masterbuilder</t>
+  </si>
+  <si>
+    <t>taliesinendNPC6</t>
+  </si>
+  <si>
+    <t>Uncover your hidden talents with Quest 3. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this engaging quest. Then click on the ‘Start’ button to embark on a rewarding experience.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=B3qNfkopTz4</t>
+  </si>
+  <si>
+    <t>function stainedgpre</t>
+  </si>
+  <si>
+    <t>taliesinendNPC7</t>
+  </si>
+  <si>
+    <t>The Queen is coming! Quest 4 invites you to actively participate in preparing for this grand event. Click on the ‘Quest Intro’ button so I can provide you with an overview of this quest. Then, start the quest for a truly rewarding experience.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=VNIYTnkKsVk</t>
+  </si>
+  <si>
+    <t>function queenpre</t>
+  </si>
+  <si>
+    <t>taliesinendNPC8</t>
+  </si>
+  <si>
+    <t>It's more than just a piece of cloth fluttering in the wind! Quest 5 invites you to explore the deeper meaning behind these fluttering signs. Click on the 'Quest Intro' button so I can give you an overview of this intriguing quest. Then, click on the 'Start' button to unleash your creativity.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=UBHFQQBFeD0</t>
+  </si>
+  <si>
+    <t>function flagpre</t>
+  </si>
+  <si>
+    <t>taliesinendNPC9</t>
+  </si>
+  <si>
+    <t>The story of history is shaped by different perspectives, and Quest 6 encourages you to explore these varying viewpoints. To begin, click on the ‘Quest Intro’ button for an overview of this fascinating quest. Once you are ready click on the ‘Start’ button to embark on your quest.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=FdOJqP7ds_0</t>
+  </si>
+  <si>
+    <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
+  </si>
+  <si>
+    <t>QUEST NPCS</t>
+  </si>
+  <si>
+    <t>dvlNPC1</t>
+  </si>
+  <si>
+    <t>dvlNPC</t>
+  </si>
+  <si>
+    <t>Dragon vs. Lion</t>
+  </si>
+  <si>
+    <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>dvlNPC2</t>
+  </si>
+  <si>
+    <t>A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time. To go back to Taliesin click the compass.</t>
+  </si>
+  <si>
+    <t>Tale One</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=IRXZIDdQFiM </t>
   </si>
   <si>
-    <t xml:space="preserve">Tale Two</t>
+    <t>Tale Two</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=np6VMf7puhY </t>
   </si>
   <si>
-    <t xml:space="preserve">Tale Three</t>
+    <t>Tale Three</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=cjw8XsGHscA </t>
   </si>
   <si>
-    <t xml:space="preserve">Tale Four</t>
+    <t>Tale Four</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=gN0kMp1CAkw </t>
   </si>
   <si>
-    <t xml:space="preserve">Tale Five</t>
+    <t>Tale Five</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=LsVC2Nm6MJs </t>
   </si>
   <si>
-    <t xml:space="preserve">Tale Six</t>
+    <t>Tale Six</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=eHNU8VzL5l0 </t>
@@ -1133,7 +1138,7 @@
     <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
   </si>
   <si>
-    <t xml:space="preserve">Cwest i ddeffro'ch synnwyr o ryfeddod, eich ysbrydoli, a thanio'ch dychymyg! Archwiliwch sut y daeth Castell Conwy i fod a datblygwch eich dealltwriaeth o'ch Treftadaeth cyn i chi drafod stori Draig Cymru yn erbyn Llew Lloegr! Defnyddiwch y botymau isod i fynd ar daith nôl mewn amser.</t>
+    <t>Cwest i ddeffro'ch synnwyr o ryfeddod, eich ysbrydoli, a thanio'ch dychymyg! Archwiliwch sut y daeth Castell Conwy i fod a datblygwch eich dealltwriaeth o'ch Treftadaeth cyn i chi drafod stori Draig Cymru yn erbyn Llew Lloegr! Defnyddiwch y botymau isod i fynd ar daith nôl mewn amser.</t>
   </si>
   <si>
     <t xml:space="preserve">Chwedl un </t>
@@ -1145,7 +1150,7 @@
     <t xml:space="preserve">Chwedl dri </t>
   </si>
   <si>
-    <t xml:space="preserve">Chwedl bedwar</t>
+    <t>Chwedl bedwar</t>
   </si>
   <si>
     <t xml:space="preserve">Chwedl bump </t>
@@ -1154,43 +1159,43 @@
     <t xml:space="preserve">Chwedl chwech </t>
   </si>
   <si>
-    <t xml:space="preserve">mmbNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmbNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Medieval Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmbNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are invited to join King Edward I in building a new town for settlers in Aberconwy! You will need to construct houses, a marketplace, and even a church to create a wonderful community. Your help in planning and building is essential. Click the buttons below to learn more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James of St Geor</t>
+    <t>mmbNPC1</t>
+  </si>
+  <si>
+    <t>mmbNPC</t>
+  </si>
+  <si>
+    <t>Master Medieval Builder</t>
+  </si>
+  <si>
+    <t>mmbNPC2</t>
+  </si>
+  <si>
+    <t>You are invited to join King Edward I in building a new town for settlers in Aberconwy! You will need to construct houses, a marketplace, and even a church to create a wonderful community. Your help in planning and building is essential. Click the buttons below to learn more.</t>
+  </si>
+  <si>
+    <t>James of St Geor</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=U2YBGPeKxaQ </t>
   </si>
   <si>
-    <t xml:space="preserve">Medieval Builder</t>
+    <t>Medieval Builder</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ONzrxHcTG9w </t>
   </si>
   <si>
-    <t xml:space="preserve">Your Quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function mblaunch</t>
+    <t>Your Quest</t>
+  </si>
+  <si>
+    <t>function mblaunch</t>
   </si>
   <si>
     <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
   </si>
   <si>
-    <t xml:space="preserve">Fe’ch gwahoddir i ymuno â’r Brenin Edward I i adeiladu tref newydd i ymsefydlwyr yn Aberconwy! Bydd angen i chi adeiladu tai, marchnad, a hyd yn oed eglwys i greu cymuned hyfryd. Mae eich help gyda chynllunio ac adeiladu yn hanfodol. Cliciwch ar y botymau isod i ddysgu mwy.</t>
+    <t>Fe’ch gwahoddir i ymuno â’r Brenin Edward I i adeiladu tref newydd i ymsefydlwyr yn Aberconwy! Bydd angen i chi adeiladu tai, marchnad, a hyd yn oed eglwys i greu cymuned hyfryd. Mae eich help gyda chynllunio ac adeiladu yn hanfodol. Cliciwch ar y botymau isod i ddysgu mwy.</t>
   </si>
   <si>
     <t xml:space="preserve">Iago o Sant Geroge </t>
@@ -1202,74 +1207,74 @@
     <t xml:space="preserve">Eich Cwest </t>
   </si>
   <si>
-    <t xml:space="preserve">mmbNPC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function taliesinreturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sgNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sgNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stained Glass Window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sgNPC2</t>
+    <t>mmbNPC3</t>
+  </si>
+  <si>
+    <t>It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
+  </si>
+  <si>
+    <t>function taliesinreturn</t>
+  </si>
+  <si>
+    <t>sgNPC1</t>
+  </si>
+  <si>
+    <t>sgNPC</t>
+  </si>
+  <si>
+    <t>Stained Glass Window</t>
+  </si>
+  <si>
+    <t>sgNPC2</t>
   </si>
   <si>
     <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to head to your window. </t>
   </si>
   <si>
-    <t xml:space="preserve">Stained Glass</t>
+    <t>Stained Glass</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=W0rGmmGmP8U </t>
   </si>
   <si>
-    <t xml:space="preserve">tp @p 9883 29 10191 facing 9883 29 10196</t>
+    <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
   </si>
   <si>
     <t xml:space="preserve">Ffenestr Gwydr Lliw   </t>
   </si>
   <si>
-    <t xml:space="preserve">Am gwest wych sy'n aros amdanoch chi! Mae dylunio ac adeiladu ffenestr liw yn Minecraft i ddarlunio stori o Gastell Conwy yn sicr o fod yn brofiad difyr a gwerth chweil.
+    <t>Am gwest wych sy'n aros amdanoch chi! Mae dylunio ac adeiladu ffenestr liw yn Minecraft i ddarlunio stori o Gastell Conwy yn sicr o fod yn brofiad difyr a gwerth chweil.
 Cliciwch ar y botwm isod i ddarganfod sut y gallwch fynd ati.</t>
   </si>
   <si>
     <t xml:space="preserve">Gwydr Lliw </t>
   </si>
   <si>
-    <t xml:space="preserve">ffqNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffqNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fit for a Queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffqNPC2</t>
+    <t>ffqNPC1</t>
+  </si>
+  <si>
+    <t>ffqNPC</t>
+  </si>
+  <si>
+    <t>Fit for a Queen</t>
+  </si>
+  <si>
+    <t>ffqNPC2</t>
   </si>
   <si>
     <t xml:space="preserve">Did you hear Queen Eleanor is coming to stay at Conwy Castle soon? We need to make sure everything is perfect for her visit! Use the buttons below to find out what needs to be prepared. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Letter</t>
+    <t>The Letter</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=H5CZJ9YOR3M </t>
   </si>
   <si>
-    <t xml:space="preserve">Plan a Garden</t>
+    <t>Plan a Garden</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=nPhdQqyLyzo </t>
@@ -1278,7 +1283,7 @@
     <t xml:space="preserve">Yn gywir i Frenhines   </t>
   </si>
   <si>
-    <t xml:space="preserve">A glywsoch chi fod y Frenhines Eleanor yn dod i aros yng Nghastell Conwy yn fuan? Mae angen i ni sicrhau bod popeth yn berffaith ar gyfer ei hymweliad!
+    <t>A glywsoch chi fod y Frenhines Eleanor yn dod i aros yng Nghastell Conwy yn fuan? Mae angen i ni sicrhau bod popeth yn berffaith ar gyfer ei hymweliad!
 Defnyddiwch y botymau isod i ddarganfod beth sydd angen ei baratoi.</t>
   </si>
   <si>
@@ -1288,31 +1293,31 @@
     <t xml:space="preserve">Cynlluniwch Ardd </t>
   </si>
   <si>
-    <t xml:space="preserve">flfNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flfNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying the Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hey, did you see that when you walked up to the castle from the West Barbican, both the North-West Tower and the South-West Tower were supposed to have flags flying on them? But today, one of the flags is missing. Click on the buttons to learn more!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Flag</t>
+    <t>flfNPC1</t>
+  </si>
+  <si>
+    <t>flfNPC</t>
+  </si>
+  <si>
+    <t>Flying the Flag</t>
+  </si>
+  <si>
+    <t>Hey, did you see that when you walked up to the castle from the West Barbican, both the North-West Tower and the South-West Tower were supposed to have flags flying on them? But today, one of the flags is missing. Click on the buttons to learn more!</t>
+  </si>
+  <si>
+    <t>Missing Flag</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6h3nrSTeXMQ </t>
   </si>
   <si>
-    <t xml:space="preserve">Flags Flown</t>
+    <t>Flags Flown</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ls6s-ipIoIU </t>
   </si>
   <si>
-    <t xml:space="preserve">Design a Flag</t>
+    <t>Design a Flag</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=KyfXVZ2Sz0U </t>
@@ -1321,7 +1326,7 @@
     <t xml:space="preserve">Chwifio’r Fanner </t>
   </si>
   <si>
-    <t xml:space="preserve">Hei, a welsoch chi, wrth gerdded i fyny i'r castell o Farbican y Gorllewin, fod Tŵr y Gogledd-Orllewin a Thŵr y De-orllewin i fod i gael baneri yn chwifio arnynt? Ond heddiw, mae un o'r baneri ar goll.
+    <t>Hei, a welsoch chi, wrth gerdded i fyny i'r castell o Farbican y Gorllewin, fod Tŵr y Gogledd-Orllewin a Thŵr y De-orllewin i fod i gael baneri yn chwifio arnynt? Ond heddiw, mae un o'r baneri ar goll.
 Cliciwch ar y botymau i ddysgu mwy!</t>
   </si>
   <si>
@@ -1334,34 +1339,31 @@
     <t xml:space="preserve">Cynlluniwch Faner </t>
   </si>
   <si>
-    <t xml:space="preserve">ctcNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctcNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture the Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conwy Castle was seized by the Welsh on April 1, 1401, during the early stages of the Glyndŵr Rising, also known as the Welsh Revolt, a significant revolt led by Owain Glyndŵr against English rule. The seizure of the castle was a symbolic and strategic victory for the Welsh rebels. Click on the buttons to learn more!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owain Glyndwr</t>
+    <t>ctcNPC1</t>
+  </si>
+  <si>
+    <t>ctcNPC</t>
+  </si>
+  <si>
+    <t>Capture the Castle</t>
+  </si>
+  <si>
+    <t>Conwy Castle was seized by the Welsh on April 1, 1401, during the early stages of the Glyndŵr Rising, also known as the Welsh Revolt, a significant revolt led by Owain Glyndŵr against English rule. The seizure of the castle was a symbolic and strategic victory for the Welsh rebels. Click on the buttons to learn more!</t>
+  </si>
+  <si>
+    <t>Owain Glyndwr</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=kqEl5tOswhU </t>
   </si>
   <si>
-    <t xml:space="preserve">Castle Capture</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=SC5YhDa2c7Y </t>
   </si>
   <si>
     <t xml:space="preserve">Cipio’r Castell </t>
   </si>
   <si>
-    <t xml:space="preserve">Cipiwyd Castell Conwy gan y Cymry ar Ebrill 1, 1401, yn ystod cyfnodau cynnar Gwrthryfel Glyndŵr, a adwaenir hefyd fel Gwrthryfel Cymru, gwrthryfel arwyddocaol a arweiniwyd gan Owain Glyndŵr yn erbyn rheolaeth Lloegr. Roedd cipio’r castell yn fuddugoliaeth symbolaidd a strategol i’r gwrthryfelwyr Cymreig.
+    <t>Cipiwyd Castell Conwy gan y Cymry ar Ebrill 1, 1401, yn ystod cyfnodau cynnar Gwrthryfel Glyndŵr, a adwaenir hefyd fel Gwrthryfel Cymru, gwrthryfel arwyddocaol a arweiniwyd gan Owain Glyndŵr yn erbyn rheolaeth Lloegr. Roedd cipio’r castell yn fuddugoliaeth symbolaidd a strategol i’r gwrthryfelwyr Cymreig.
 Cliciwch ar y botymau i ddysgu mwy!</t>
   </si>
   <si>
@@ -1371,43 +1373,43 @@
     <t xml:space="preserve">Cipio Castell </t>
   </si>
   <si>
-    <t xml:space="preserve">Misc NPCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiddendragonNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiddendragonNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden Lleu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rawr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huh?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dialogue open @e[tag=hiddendragon] @p hiddendragonNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiddendragonNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You found me! Well done! Please remember to take my picture and add it to your ‘field journal.’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will Do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compassNPC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compassNPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compass</t>
+    <t>Misc NPCS</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC1</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC</t>
+  </si>
+  <si>
+    <t>Hidden Lleu</t>
+  </si>
+  <si>
+    <t>Rawr</t>
+  </si>
+  <si>
+    <t>Huh?</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=hiddendragon] @p hiddendragonNPC2</t>
+  </si>
+  <si>
+    <t>hiddendragonNPC2</t>
+  </si>
+  <si>
+    <t>You found me! Well done! Please remember to take my picture and add it to your ‘field journal.’</t>
+  </si>
+  <si>
+    <t>Will Do</t>
+  </si>
+  <si>
+    <t>compassNPC1</t>
+  </si>
+  <si>
+    <t>compassNPC</t>
+  </si>
+  <si>
+    <t>Compass</t>
   </si>
   <si>
     <t xml:space="preserve">I am here to help! Would you like to:
@@ -1417,22 +1419,22 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">tp @p 79934 -42 80020 facing 79934 -42 80013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function conwyreturn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old dialogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taliesinendNPC2</t>
+    <t>tp @p 79934 -42 80020 facing 79934 -42 80013</t>
+  </si>
+  <si>
+    <t>Conwy</t>
+  </si>
+  <si>
+    <t>function conwyreturn</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Old dialogue</t>
+  </si>
+  <si>
+    <t>taliesinendNPC2</t>
   </si>
   <si>
     <t xml:space="preserve">Choose from the below quests! 
@@ -1445,44 +1447,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">D vs L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture</t>
+    <t>D vs L</t>
+  </si>
+  <si>
+    <t>Master Builder</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>setblock 10150 45 10206 minecraft:air</t>
+  </si>
+  <si>
+    <t>Castle Capture</t>
+  </si>
+  <si>
+    <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1499,7 +1492,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1521,7 +1514,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
@@ -1553,14 +1546,12 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1579,7 +1570,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1587,121 +1578,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1760,60 +1682,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF44546A"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1845,7 +1783,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1869,7 +1807,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1929,56 +1867,55 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="E33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="104.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="51.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="53.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="51.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="57.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="53.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="73.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="24.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.67"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="52.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="53.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="51.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="57.5" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="53.5" customWidth="1"/>
+    <col min="19" max="19" width="29.83203125" customWidth="1"/>
+    <col min="20" max="20" width="73.1640625" customWidth="1"/>
+    <col min="21" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="26" width="21" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" customWidth="1"/>
+    <col min="28" max="28" width="23.1640625" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2033,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2047,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2169,7 +2106,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:29" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2136,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,20 +2161,20 @@
       <c r="J6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="T6" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="U6" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -2262,20 +2199,20 @@
       <c r="J7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="10" t="s">
+      <c r="T7" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="U7" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="10" t="s">
+      <c r="W7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -2297,23 +2234,23 @@
       <c r="I8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" t="s">
         <v>78</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" t="s">
         <v>79</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="U8" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="10" t="s">
+      <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -2335,23 +2272,23 @@
       <c r="I9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" t="s">
         <v>89</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="W9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -2373,23 +2310,23 @@
       <c r="I10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" t="s">
         <v>97</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T10" t="s">
         <v>99</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
@@ -2399,7 +2336,7 @@
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2411,23 +2348,23 @@
       <c r="I11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>107</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" t="s">
         <v>108</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" t="s">
         <v>109</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -2449,23 +2386,23 @@
       <c r="I12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" t="s">
         <v>118</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" t="s">
         <v>119</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
@@ -2475,7 +2412,7 @@
       <c r="C13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2487,23 +2424,23 @@
       <c r="I13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" t="s">
         <v>128</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" t="s">
         <v>129</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" t="s">
         <v>70</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
@@ -2513,7 +2450,7 @@
       <c r="C14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2525,23 +2462,23 @@
       <c r="I14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" t="s">
         <v>137</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" t="s">
         <v>138</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" t="s">
         <v>139</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" t="s">
         <v>70</v>
       </c>
-      <c r="W14" s="10" t="s">
+      <c r="W14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
@@ -2563,23 +2500,23 @@
       <c r="I15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" t="s">
         <v>147</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" t="s">
         <v>148</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" t="s">
         <v>149</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="U15" t="s">
         <v>70</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="W15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -2589,7 +2526,7 @@
       <c r="C16" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2598,17 +2535,17 @@
       <c r="H16" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" t="s">
         <v>156</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" t="s">
         <v>157</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>158</v>
       </c>
@@ -2627,17 +2564,17 @@
       <c r="H17" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="T17" t="s">
         <v>164</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
@@ -2659,23 +2596,23 @@
       <c r="I18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" t="s">
         <v>171</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" t="s">
         <v>172</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" t="s">
         <v>173</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="10" t="s">
+      <c r="W18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -2697,23 +2634,23 @@
       <c r="I19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" t="s">
         <v>181</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" t="s">
         <v>182</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" t="s">
         <v>183</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" t="s">
         <v>70</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>185</v>
       </c>
@@ -2735,23 +2672,23 @@
       <c r="I20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" t="s">
         <v>191</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" t="s">
         <v>192</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" t="s">
         <v>193</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -2773,23 +2710,23 @@
       <c r="I21" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" t="s">
         <v>200</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" t="s">
         <v>201</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" t="s">
         <v>70</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>203</v>
       </c>
@@ -2811,23 +2748,23 @@
       <c r="I22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" t="s">
         <v>209</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" t="s">
         <v>210</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="T22" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" t="s">
         <v>70</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>213</v>
       </c>
@@ -2852,20 +2789,20 @@
       <c r="J23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" t="s">
         <v>220</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" t="s">
         <v>221</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" t="s">
         <v>70</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>223</v>
       </c>
@@ -2890,20 +2827,20 @@
       <c r="J24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" t="s">
         <v>230</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" t="s">
         <v>231</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" t="s">
         <v>70</v>
       </c>
-      <c r="W24" s="10" t="s">
+      <c r="W24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>233</v>
       </c>
@@ -2925,23 +2862,23 @@
       <c r="I25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" t="s">
         <v>238</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" t="s">
         <v>239</v>
       </c>
-      <c r="T25" s="10" t="s">
+      <c r="T25" t="s">
         <v>240</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" t="s">
         <v>70</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>242</v>
       </c>
@@ -2963,23 +2900,23 @@
       <c r="I26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>248</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" t="s">
         <v>249</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T26" t="s">
         <v>250</v>
       </c>
-      <c r="U26" s="10" t="s">
+      <c r="U26" t="s">
         <v>70</v>
       </c>
-      <c r="W26" s="10" t="s">
+      <c r="W26" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>252</v>
       </c>
@@ -2998,17 +2935,17 @@
       <c r="H27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" t="s">
         <v>258</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="T27" t="s">
         <v>259</v>
       </c>
-      <c r="U27" s="10" t="s">
+      <c r="U27" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>261</v>
       </c>
@@ -3030,23 +2967,23 @@
       <c r="I28" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" t="s">
         <v>267</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" t="s">
         <v>268</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="T28" t="s">
         <v>269</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="U28" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>271</v>
       </c>
@@ -3071,20 +3008,20 @@
       <c r="J29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S29" t="s">
         <v>278</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="T29" t="s">
         <v>279</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" t="s">
         <v>70</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="W29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>281</v>
       </c>
@@ -3094,7 +3031,7 @@
       <c r="C30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>284</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3109,38 +3046,38 @@
       <c r="J30" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" t="s">
         <v>288</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" t="s">
         <v>290</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" t="s">
         <v>291</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" t="s">
         <v>292</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="U30" t="s">
         <v>293</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="W30" t="s">
         <v>294</v>
       </c>
-      <c r="Y30" s="10" t="s">
+      <c r="Y30" t="s">
         <v>295</v>
       </c>
-      <c r="AA30" s="10" t="s">
+      <c r="AA30" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>297</v>
       </c>
@@ -3150,7 +3087,7 @@
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>299</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3171,23 +3108,23 @@
       <c r="K31" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S31" t="s">
         <v>31</v>
       </c>
-      <c r="T31" s="10" t="s">
+      <c r="T31" t="s">
         <v>306</v>
       </c>
-      <c r="U31" s="10" t="s">
+      <c r="U31" t="s">
         <v>307</v>
       </c>
-      <c r="W31" s="10" t="s">
+      <c r="W31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>308</v>
       </c>
@@ -3197,7 +3134,7 @@
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>309</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3212,32 +3149,32 @@
       <c r="J32" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" t="s">
         <v>314</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" t="s">
         <v>316</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O32" t="s">
         <v>318</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" t="s">
         <v>320</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>322</v>
       </c>
@@ -3247,7 +3184,7 @@
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>323</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3269,7 +3206,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>329</v>
       </c>
@@ -3279,7 +3216,7 @@
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>330</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3291,7 +3228,7 @@
       <c r="I34" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" t="s">
         <v>332</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -3301,7 +3238,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>333</v>
       </c>
@@ -3311,7 +3248,7 @@
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>334</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3333,7 +3270,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -3343,7 +3280,7 @@
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>338</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3365,7 +3302,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>341</v>
       </c>
@@ -3375,7 +3312,7 @@
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>342</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -3397,7 +3334,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>345</v>
       </c>
@@ -3407,7 +3344,7 @@
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>346</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3419,8 +3356,8 @@
       <c r="I38" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>348</v>
+      <c r="J38" t="s">
+        <v>473</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>328</v>
@@ -3429,12 +3366,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
@@ -3444,14 +3381,14 @@
       <c r="C40" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>353</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>355</v>
       </c>
@@ -3476,56 +3413,56 @@
       <c r="J41" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" t="s">
         <v>361</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" t="s">
         <v>363</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="O41" s="10" t="s">
+      <c r="O41" t="s">
         <v>365</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="Q41" s="10" t="s">
+      <c r="Q41" t="s">
         <v>367</v>
       </c>
       <c r="R41" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="S41" s="10" t="s">
+      <c r="S41" t="s">
         <v>369</v>
       </c>
-      <c r="T41" s="10" t="s">
+      <c r="T41" t="s">
         <v>370</v>
       </c>
-      <c r="U41" s="10" t="s">
+      <c r="U41" t="s">
         <v>371</v>
       </c>
-      <c r="W41" s="10" t="s">
+      <c r="W41" t="s">
         <v>372</v>
       </c>
-      <c r="Y41" s="10" t="s">
+      <c r="Y41" t="s">
         <v>373</v>
       </c>
-      <c r="AA41" s="10" t="s">
+      <c r="AA41" t="s">
         <v>374</v>
       </c>
-      <c r="AB41" s="10" t="s">
+      <c r="AB41" t="s">
         <v>375</v>
       </c>
-      <c r="AC41" s="10" t="s">
+      <c r="AC41" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>377</v>
       </c>
@@ -3535,7 +3472,7 @@
       <c r="C42" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>353</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3548,7 +3485,7 @@
       <c r="P42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="17.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>380</v>
       </c>
@@ -3573,29 +3510,29 @@
       <c r="J43" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" t="s">
         <v>386</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="S43" s="10" t="s">
+      <c r="S43" t="s">
         <v>388</v>
       </c>
-      <c r="T43" s="10" t="s">
+      <c r="T43" t="s">
         <v>389</v>
       </c>
-      <c r="U43" s="10" t="s">
+      <c r="U43" t="s">
         <v>390</v>
       </c>
-      <c r="W43" s="10" t="s">
+      <c r="W43" t="s">
         <v>391</v>
       </c>
-      <c r="Y43" s="10" t="s">
+      <c r="Y43" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>393</v>
       </c>
@@ -3605,7 +3542,7 @@
       <c r="C44" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>394</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3617,12 +3554,12 @@
       <c r="I44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="16" t="s">
         <v>396</v>
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>397</v>
       </c>
@@ -3632,7 +3569,7 @@
       <c r="C45" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>353</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3642,7 +3579,7 @@
       <c r="J45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>400</v>
       </c>
@@ -3667,17 +3604,17 @@
       <c r="J46" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="S46" s="10" t="s">
+      <c r="S46" t="s">
         <v>405</v>
       </c>
-      <c r="T46" s="18" t="s">
+      <c r="T46" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="U46" s="10" t="s">
+      <c r="U46" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>408</v>
       </c>
@@ -3687,16 +3624,16 @@
       <c r="C47" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>353</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>354</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="T47" s="18"/>
-    </row>
-    <row r="48" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T47" s="17"/>
+    </row>
+    <row r="48" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>411</v>
       </c>
@@ -3709,6 +3646,9 @@
       <c r="D48" s="1" t="s">
         <v>412</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>413</v>
       </c>
@@ -3728,20 +3668,20 @@
         <v>404</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="S48" s="10" t="s">
+      <c r="S48" t="s">
         <v>417</v>
       </c>
-      <c r="T48" s="18" t="s">
+      <c r="T48" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="U48" s="10" t="s">
+      <c r="U48" t="s">
         <v>419</v>
       </c>
-      <c r="W48" s="10" t="s">
+      <c r="W48" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="66.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:25" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>421</v>
       </c>
@@ -3766,35 +3706,35 @@
       <c r="J49" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" t="s">
         <v>429</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" t="s">
         <v>31</v>
       </c>
-      <c r="N49" s="10" t="s">
+      <c r="N49" t="s">
         <v>404</v>
       </c>
-      <c r="S49" s="10" t="s">
+      <c r="S49" t="s">
         <v>431</v>
       </c>
-      <c r="T49" s="18" t="s">
+      <c r="T49" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="U49" s="10" t="s">
+      <c r="U49" t="s">
         <v>433</v>
       </c>
-      <c r="W49" s="10" t="s">
+      <c r="W49" t="s">
         <v>434</v>
       </c>
-      <c r="Y49" s="10" t="s">
+      <c r="Y49" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>436</v>
       </c>
@@ -3814,109 +3754,109 @@
         <v>441</v>
       </c>
       <c r="I50" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="S50" s="10" t="s">
+      <c r="S50" t="s">
+        <v>443</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="T50" s="14" t="s">
+      <c r="U50" t="s">
         <v>445</v>
       </c>
-      <c r="U50" s="10" t="s">
+      <c r="W50" t="s">
         <v>446</v>
       </c>
-      <c r="W50" s="10" t="s">
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="G53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" t="s">
         <v>464</v>
       </c>
-      <c r="K54" s="10" t="s">
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:25" ht="120" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="97.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>298</v>
@@ -3924,100 +3864,95 @@
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>327</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="J60" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
         <v>332</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" t="s">
         <v>402</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" t="s">
         <v>410</v>
       </c>
-      <c r="N60" s="10" t="s">
+      <c r="N60" t="s">
         <v>340</v>
       </c>
-      <c r="O60" s="10" t="s">
+      <c r="O60" t="s">
         <v>423</v>
       </c>
-      <c r="P60" s="10" t="s">
+      <c r="P60" t="s">
         <v>344</v>
       </c>
-      <c r="Q60" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="R60" s="10" t="s">
+      <c r="Q60" t="s">
+        <v>470</v>
+      </c>
+      <c r="R60" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="https://www.youtube.com/watch_popup?v=MlzTMeEtZbI"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8"/>
-    <hyperlink ref="H7" r:id="rId3" display="https://www.youtube.com/watch_popup?v=8VnNMdrF8xQ "/>
-    <hyperlink ref="H8" r:id="rId4" display="https://www.youtube.com/watch_popup?v=4MR0oEiq7pA "/>
-    <hyperlink ref="H9" r:id="rId5" display="https://www.youtube.com/watch_popup?v=RpqqINFdVhg "/>
-    <hyperlink ref="H10" r:id="rId6" display="https://www.youtube.com/watch_popup?v=oYB2UeXA75k "/>
-    <hyperlink ref="H11" r:id="rId7" display="https://www.youtube.com/watch_popup?v=I9MGNyv2tfE "/>
-    <hyperlink ref="H12" r:id="rId8" display="https://www.youtube.com/watch_popup?v=m072INWcFXU "/>
-    <hyperlink ref="H13" r:id="rId9" display="https://www.youtube.com/watch_popup?v=wcp6sMJGSiY "/>
-    <hyperlink ref="H14" r:id="rId10" display="https://www.youtube.com/watch_popup?v=6QjdNgVNl3Y "/>
-    <hyperlink ref="H15" r:id="rId11" display="https://www.youtube.com/watch_popup?v=rAUH5OxitHg "/>
-    <hyperlink ref="H16" r:id="rId12" display="https://www.youtube.com/watch_popup?v=-VNjPjVOSBk "/>
-    <hyperlink ref="H17" r:id="rId13" display="https://www.youtube.com/watch_popup?v=C0t6duLUpXk "/>
-    <hyperlink ref="H18" r:id="rId14" display="https://www.youtube.com/watch_popup?v=wyhtG0XJlR0 "/>
-    <hyperlink ref="H19" r:id="rId15" display="https://www.youtube.com/watch_popup?v=8IRhOP6QlAM"/>
-    <hyperlink ref="H20" r:id="rId16" display="https://www.youtube.com/watch_popup?v=XPeHvT114Jw "/>
-    <hyperlink ref="H21" r:id="rId17" display="https://www.youtube.com/watch_popup?v=lb1Sn3CXvqM "/>
-    <hyperlink ref="H22" r:id="rId18" display="https://www.youtube.com/watch_popup?v=O9FxxAnED94 "/>
-    <hyperlink ref="H23" r:id="rId19" display="https://www.youtube.com/watch_popup?v=g-rLr7Xl36s "/>
-    <hyperlink ref="H24" r:id="rId20" display="https://www.youtube.com/watch_popup?v=M5QJdQC93JY "/>
-    <hyperlink ref="H25" r:id="rId21" display="https://www.youtube.com/watch_popup?v=MvMeRIXN7ZQ "/>
-    <hyperlink ref="H26" r:id="rId22" display="https://www.youtube.com/watch_popup?v=Q1d-5AelzCU "/>
-    <hyperlink ref="H28" r:id="rId23" display="https://www.youtube.com/watch_popup?v=BMyyKu5FZtI "/>
-    <hyperlink ref="H29" r:id="rId24" display="https://www.youtube.com/watch_popup?v=XEWl_ZHleYw "/>
-    <hyperlink ref="H30" r:id="rId25" display="https://www.youtube.com/watch_popup?v=UD8oBbkY954 "/>
-    <hyperlink ref="J30" r:id="rId26" display="https://www.youtube.com/watch_popup?v=8abdKAJcd5o "/>
-    <hyperlink ref="L30" r:id="rId27" display="https://www.youtube.com/watch_popup?v=JiboQeuNw3U "/>
-    <hyperlink ref="H31" r:id="rId28" display="https://www.youtube.com/watch_popup?v=4j6ArBa7jzg"/>
-    <hyperlink ref="H33" r:id="rId29" display="https://www.youtube.com/watch_popup?v=tKalNcCY9yI "/>
-    <hyperlink ref="H41" r:id="rId30" display="https://www.youtube.com/watch_popup?v=IRXZIDdQFiM "/>
-    <hyperlink ref="J41" r:id="rId31" display="https://www.youtube.com/watch_popup?v=np6VMf7puhY "/>
-    <hyperlink ref="L41" r:id="rId32" display="https://www.youtube.com/watch_popup?v=cjw8XsGHscA "/>
-    <hyperlink ref="N41" r:id="rId33" display="https://www.youtube.com/watch_popup?v=gN0kMp1CAkw "/>
-    <hyperlink ref="P41" r:id="rId34" display="https://www.youtube.com/watch_popup?v=LsVC2Nm6MJs "/>
-    <hyperlink ref="R41" r:id="rId35" display="https://www.youtube.com/watch_popup?v=eHNU8VzL5l0 "/>
-    <hyperlink ref="H43" r:id="rId36" display="https://www.youtube.com/watch_popup?v=U2YBGPeKxaQ "/>
-    <hyperlink ref="J43" r:id="rId37" display="https://www.youtube.com/watch_popup?v=ONzrxHcTG9w "/>
-    <hyperlink ref="H46" r:id="rId38" display="https://www.youtube.com/watch_popup?v=W0rGmmGmP8U "/>
-    <hyperlink ref="H48" r:id="rId39" display="https://www.youtube.com/watch_popup?v=H5CZJ9YOR3M "/>
-    <hyperlink ref="J48" r:id="rId40" display="https://www.youtube.com/watch_popup?v=nPhdQqyLyzo "/>
-    <hyperlink ref="H49" r:id="rId41" display="https://www.youtube.com/watch_popup?v=6h3nrSTeXMQ "/>
-    <hyperlink ref="J49" r:id="rId42" display="https://www.youtube.com/watch_popup?v=ls6s-ipIoIU "/>
-    <hyperlink ref="L49" r:id="rId43" display="https://www.youtube.com/watch_popup?v=KyfXVZ2Sz0U "/>
-    <hyperlink ref="H50" r:id="rId44" display="https://www.youtube.com/watch_popup?v=kqEl5tOswhU "/>
-    <hyperlink ref="J50" r:id="rId45" display="https://www.youtube.com/watch_popup?v=SC5YhDa2c7Y "/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B509A1-8B5F-4946-A6FD-51C949DE0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53B232-B6BD-CD45-8085-DE5F203351EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="940" windowWidth="33360" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19660" yWindow="-19540" windowWidth="34080" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,6 @@
     <t>Prison Tower</t>
   </si>
   <si>
-    <t>tp @p 10027 57 10265 facing 10024 57 10267</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
   </si>
   <si>
@@ -571,9 +568,6 @@
     <t>Chapel Steps</t>
   </si>
   <si>
-    <t>tp @p 10133 43 10186 facing 10134 43 10183</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
   </si>
   <si>
@@ -623,9 +617,6 @@
   </si>
   <si>
     <t>Watching Chamber</t>
-  </si>
-  <si>
-    <t>tp @p 10137 58 10176</t>
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
@@ -1463,6 +1454,15 @@
   </si>
   <si>
     <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
+  </si>
+  <si>
+    <t>tp @p 10044 53 10260 facing 10044 53 10264</t>
+  </si>
+  <si>
+    <t>tp @p 10137 58 10176 facing 10135 59 10172</t>
+  </si>
+  <si>
+    <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2425,121 +2425,121 @@
         <v>126</v>
       </c>
       <c r="J13" t="s">
+        <v>471</v>
+      </c>
+      <c r="S13" t="s">
         <v>127</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>128</v>
-      </c>
-      <c r="T13" t="s">
-        <v>129</v>
       </c>
       <c r="U13" t="s">
         <v>70</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" t="s">
         <v>136</v>
       </c>
-      <c r="J14" t="s">
+      <c r="S14" t="s">
         <v>137</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>138</v>
-      </c>
-      <c r="T14" t="s">
-        <v>139</v>
       </c>
       <c r="U14" t="s">
         <v>70</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" t="s">
         <v>146</v>
       </c>
-      <c r="J15" t="s">
+      <c r="S15" t="s">
         <v>147</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>148</v>
-      </c>
-      <c r="T15" t="s">
-        <v>149</v>
       </c>
       <c r="U15" t="s">
         <v>70</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="S16" t="s">
         <v>155</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>156</v>
-      </c>
-      <c r="T16" t="s">
-        <v>157</v>
       </c>
       <c r="U16" t="s">
         <v>70</v>
@@ -2547,28 +2547,28 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S17" t="s">
         <v>162</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>163</v>
-      </c>
-      <c r="T17" t="s">
-        <v>164</v>
       </c>
       <c r="U17" t="s">
         <v>70</v>
@@ -2576,537 +2576,537 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" t="s">
         <v>170</v>
       </c>
-      <c r="J18" t="s">
+      <c r="S18" t="s">
         <v>171</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>172</v>
-      </c>
-      <c r="T18" t="s">
-        <v>173</v>
       </c>
       <c r="U18" t="s">
         <v>70</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+      <c r="S19" t="s">
         <v>180</v>
       </c>
-      <c r="J19" t="s">
+      <c r="T19" t="s">
         <v>181</v>
-      </c>
-      <c r="S19" t="s">
-        <v>182</v>
-      </c>
-      <c r="T19" t="s">
-        <v>183</v>
       </c>
       <c r="U19" t="s">
         <v>70</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
         <v>189</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="S20" t="s">
         <v>190</v>
       </c>
-      <c r="J20" t="s">
+      <c r="T20" t="s">
         <v>191</v>
-      </c>
-      <c r="S20" t="s">
-        <v>192</v>
-      </c>
-      <c r="T20" t="s">
-        <v>193</v>
       </c>
       <c r="U20" t="s">
         <v>70</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>472</v>
+      </c>
+      <c r="S21" t="s">
         <v>197</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="T21" t="s">
         <v>198</v>
-      </c>
-      <c r="J21" t="s">
-        <v>199</v>
-      </c>
-      <c r="S21" t="s">
-        <v>200</v>
-      </c>
-      <c r="T21" t="s">
-        <v>201</v>
       </c>
       <c r="U21" t="s">
         <v>70</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="S22" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="T22" t="s">
         <v>208</v>
-      </c>
-      <c r="J22" t="s">
-        <v>209</v>
-      </c>
-      <c r="S22" t="s">
-        <v>210</v>
-      </c>
-      <c r="T22" t="s">
-        <v>211</v>
       </c>
       <c r="U22" t="s">
         <v>70</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S23" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="T23" t="s">
         <v>218</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S23" t="s">
-        <v>220</v>
-      </c>
-      <c r="T23" t="s">
-        <v>221</v>
       </c>
       <c r="U23" t="s">
         <v>70</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S24" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="T24" t="s">
         <v>228</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="S24" t="s">
-        <v>230</v>
-      </c>
-      <c r="T24" t="s">
-        <v>231</v>
       </c>
       <c r="U24" t="s">
         <v>70</v>
       </c>
       <c r="W24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="S25" t="s">
         <v>236</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="T25" t="s">
         <v>237</v>
-      </c>
-      <c r="J25" t="s">
-        <v>238</v>
-      </c>
-      <c r="S25" t="s">
-        <v>239</v>
-      </c>
-      <c r="T25" t="s">
-        <v>240</v>
       </c>
       <c r="U25" t="s">
         <v>70</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="S26" t="s">
         <v>246</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="T26" t="s">
         <v>247</v>
-      </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="S26" t="s">
-        <v>249</v>
-      </c>
-      <c r="T26" t="s">
-        <v>250</v>
       </c>
       <c r="U26" t="s">
         <v>70</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="S27" t="s">
         <v>255</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="T27" t="s">
         <v>256</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="U27" t="s">
         <v>257</v>
-      </c>
-      <c r="S27" t="s">
-        <v>258</v>
-      </c>
-      <c r="T27" t="s">
-        <v>259</v>
-      </c>
-      <c r="U27" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="S28" t="s">
         <v>265</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="T28" t="s">
         <v>266</v>
-      </c>
-      <c r="J28" t="s">
-        <v>267</v>
-      </c>
-      <c r="S28" t="s">
-        <v>268</v>
-      </c>
-      <c r="T28" t="s">
-        <v>269</v>
       </c>
       <c r="U28" t="s">
         <v>70</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S29" t="s">
         <v>275</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="T29" t="s">
         <v>276</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="S29" t="s">
-        <v>278</v>
-      </c>
-      <c r="T29" t="s">
-        <v>279</v>
       </c>
       <c r="U29" t="s">
         <v>70</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="J30" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="K30" t="s">
         <v>285</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="K30" t="s">
-        <v>288</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="M30" t="s">
         <v>31</v>
       </c>
       <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="S30" t="s">
+        <v>288</v>
+      </c>
+      <c r="T30" t="s">
+        <v>289</v>
+      </c>
+      <c r="U30" t="s">
         <v>290</v>
       </c>
-      <c r="S30" t="s">
+      <c r="W30" t="s">
         <v>291</v>
       </c>
-      <c r="T30" t="s">
+      <c r="Y30" t="s">
         <v>292</v>
       </c>
-      <c r="U30" t="s">
+      <c r="AA30" t="s">
         <v>293</v>
-      </c>
-      <c r="W30" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="K31" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="L31" t="s">
         <v>56</v>
@@ -3115,10 +3115,10 @@
         <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="U31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="W31" t="s">
         <v>60</v>
@@ -3126,357 +3126,357 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="K32" t="s">
         <v>311</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" t="s">
         <v>313</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="O32" t="s">
         <v>315</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="Q32" t="s">
         <v>317</v>
       </c>
-      <c r="O32" t="s">
+      <c r="R32" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>320</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="K33" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="K41" t="s">
         <v>358</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="M41" t="s">
         <v>360</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="O41" t="s">
         <v>362</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="Q41" t="s">
         <v>364</v>
       </c>
-      <c r="O41" t="s">
+      <c r="R41" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="S41" t="s">
         <v>366</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="T41" t="s">
         <v>367</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="U41" t="s">
         <v>368</v>
       </c>
-      <c r="S41" t="s">
+      <c r="W41" t="s">
         <v>369</v>
       </c>
-      <c r="T41" t="s">
+      <c r="Y41" t="s">
         <v>370</v>
       </c>
-      <c r="U41" t="s">
+      <c r="AA41" t="s">
         <v>371</v>
       </c>
-      <c r="W41" t="s">
+      <c r="AB41" t="s">
         <v>372</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AC41" t="s">
         <v>373</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="6"/>
@@ -3487,93 +3487,93 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="J43" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="K43" t="s">
         <v>383</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="L43" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="S43" t="s">
         <v>385</v>
       </c>
-      <c r="K43" t="s">
+      <c r="T43" t="s">
         <v>386</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="U43" t="s">
         <v>387</v>
       </c>
-      <c r="S43" t="s">
+      <c r="W43" t="s">
         <v>388</v>
       </c>
-      <c r="T43" t="s">
+      <c r="Y43" t="s">
         <v>389</v>
-      </c>
-      <c r="U43" t="s">
-        <v>390</v>
-      </c>
-      <c r="W43" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H45" s="6"/>
       <c r="J45" s="6"/>
@@ -3581,327 +3581,327 @@
     </row>
     <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="S46" t="s">
+        <v>402</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="U46" t="s">
         <v>404</v>
-      </c>
-      <c r="S46" t="s">
-        <v>405</v>
-      </c>
-      <c r="T46" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="U46" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H47" s="6"/>
       <c r="T47" s="17"/>
     </row>
     <row r="48" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M48" s="1"/>
       <c r="S48" t="s">
+        <v>414</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="U48" t="s">
+        <v>416</v>
+      </c>
+      <c r="W48" t="s">
         <v>417</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="U48" t="s">
-        <v>419</v>
-      </c>
-      <c r="W48" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="J49" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="K49" t="s">
         <v>426</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="K49" t="s">
-        <v>429</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S49" t="s">
+        <v>428</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="U49" t="s">
+        <v>430</v>
+      </c>
+      <c r="W49" t="s">
         <v>431</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="Y49" t="s">
         <v>432</v>
-      </c>
-      <c r="U49" t="s">
-        <v>433</v>
-      </c>
-      <c r="W49" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="I50" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S50" t="s">
+        <v>440</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="U50" t="s">
+        <v>442</v>
+      </c>
+      <c r="W50" t="s">
         <v>443</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="U50" t="s">
-        <v>445</v>
-      </c>
-      <c r="W50" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K54" t="s">
         <v>461</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="K54" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="120" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>329</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="M60" t="s">
+        <v>407</v>
+      </c>
+      <c r="N60" t="s">
+        <v>337</v>
+      </c>
+      <c r="O60" t="s">
+        <v>420</v>
+      </c>
+      <c r="P60" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q60" t="s">
         <v>467</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J60" t="s">
-        <v>332</v>
-      </c>
-      <c r="K60" t="s">
-        <v>402</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M60" t="s">
-        <v>410</v>
-      </c>
-      <c r="N60" t="s">
-        <v>340</v>
-      </c>
-      <c r="O60" t="s">
-        <v>423</v>
-      </c>
-      <c r="P60" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>470</v>
-      </c>
       <c r="R60" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53B232-B6BD-CD45-8085-DE5F203351EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1079A0-75A9-8E4A-BBED-DFC7652F0008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19660" yWindow="-19540" windowWidth="34080" windowHeight="19000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="486">
   <si>
     <t>Scene</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Porthcwlis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dychwelyd i'r Galeri </t>
   </si>
   <si>
     <t>pcNPC1</t>
@@ -1464,12 +1461,51 @@
   <si>
     <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
   </si>
+  <si>
+    <t xml:space="preserve">Galeri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen's Chamber </t>
+  </si>
+  <si>
+    <t>Cwestau Intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyma rai o’r heriau sy’n aros amdanoch yng Nghastell Conwy. Pa bynnag her fyddwch chi am ymgymryd ag e, byddwch yn siwr o ehangu eich cysylltiad â Chastell Conwy a gyda Cymru, gan greu atgofion fydd gyda chi am byth. Felly, dewiswch eich her ac ewch ar siwrne o ddarganfod ac archwilio o fewn muriau enwog Castell Conwy. </t>
+  </si>
+  <si>
+    <t>Cwest 1</t>
+  </si>
+  <si>
+    <t>Cwest 2</t>
+  </si>
+  <si>
+    <t>Cwest 3</t>
+  </si>
+  <si>
+    <t>Cwest 4</t>
+  </si>
+  <si>
+    <t>Cwest 5</t>
+  </si>
+  <si>
+    <t>Cwest 6</t>
+  </si>
+  <si>
+    <t>Lleu'r Ddraig ydw i, a dwi wrth fy modd yn chwarae a mynd ar antur. Fy hoff gêm yw ‘Chwarae Cuddio’. Byddaf yn cuddio mewn gwahanol lefydd o fewn y safle Cadw! Dewch i edrych amdanaf a thynnwch lun ohonof i ychwanegu i’ch dyddiadur.</t>
+  </si>
+  <si>
+    <t>Diolch</t>
+  </si>
+  <si>
+    <t>Rydych wedi fy narganfod! Cofiwch dynnu llun ohonof ac ychwanegu i’ch dyddiadur.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1554,6 +1590,13 @@
       <name val="Aptos Narrow (Body)"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1582,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1617,6 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1879,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1907,15 +1951,21 @@
     <col min="18" max="18" width="53.5" customWidth="1"/>
     <col min="19" max="19" width="29.83203125" customWidth="1"/>
     <col min="20" max="20" width="73.1640625" customWidth="1"/>
-    <col min="21" max="22" width="26.6640625" customWidth="1"/>
-    <col min="23" max="24" width="24.33203125" customWidth="1"/>
-    <col min="25" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" customWidth="1"/>
-    <col min="28" max="28" width="23.1640625" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" customWidth="1"/>
+    <col min="22" max="22" width="53.33203125" customWidth="1"/>
+    <col min="23" max="23" width="24.33203125" customWidth="1"/>
+    <col min="24" max="24" width="53.83203125" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="52" customWidth="1"/>
+    <col min="27" max="27" width="31.33203125" customWidth="1"/>
+    <col min="28" max="28" width="51.1640625" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="30" max="30" width="50.5" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="32" max="32" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1985,22 +2035,35 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2"/>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.25">
+      <c r="AF1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2032,8 +2095,11 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2113,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2106,7 +2172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2133,10 +2199,18 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="U5" s="7"/>
+      <c r="S5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>484</v>
+      </c>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2170,943 +2244,1015 @@
       <c r="U6" t="s">
         <v>59</v>
       </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
       <c r="W6" t="s">
+        <v>473</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="S7" t="s">
         <v>67</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>68</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>69</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" t="s">
+      <c r="S8" t="s">
         <v>77</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>78</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" t="s">
         <v>79</v>
       </c>
-      <c r="U8" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
         <v>86</v>
       </c>
-      <c r="J9" t="s">
+      <c r="S9" t="s">
         <v>87</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>88</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" t="s">
         <v>89</v>
       </c>
-      <c r="U9" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
+      <c r="S10" t="s">
         <v>97</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>98</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" t="s">
         <v>99</v>
       </c>
-      <c r="U10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="S11" t="s">
         <v>107</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>108</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" t="s">
         <v>109</v>
       </c>
-      <c r="U11" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="S12" t="s">
         <v>117</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>118</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" t="s">
         <v>119</v>
       </c>
-      <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
+        <v>470</v>
+      </c>
+      <c r="S13" t="s">
         <v>126</v>
       </c>
-      <c r="J13" t="s">
-        <v>471</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>127</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W13" t="s">
         <v>128</v>
       </c>
-      <c r="U13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" t="s">
         <v>135</v>
       </c>
-      <c r="J14" t="s">
+      <c r="S14" t="s">
         <v>136</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>137</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" t="s">
         <v>138</v>
       </c>
-      <c r="U14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" t="s">
         <v>145</v>
       </c>
-      <c r="J15" t="s">
+      <c r="S15" t="s">
         <v>146</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>147</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>69</v>
+      </c>
+      <c r="W15" t="s">
         <v>148</v>
       </c>
-      <c r="U15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S16" t="s">
         <v>154</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>155</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S17" t="s">
         <v>161</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>162</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" t="s">
         <v>169</v>
       </c>
-      <c r="J18" t="s">
+      <c r="S18" t="s">
         <v>170</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>171</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" t="s">
         <v>172</v>
       </c>
-      <c r="U18" t="s">
-        <v>70</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" t="s">
+        <v>472</v>
+      </c>
+      <c r="S19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
-        <v>473</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>180</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>69</v>
+      </c>
+      <c r="W19" t="s">
         <v>181</v>
       </c>
-      <c r="U19" t="s">
-        <v>70</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" t="s">
         <v>188</v>
       </c>
-      <c r="J20" t="s">
+      <c r="S20" t="s">
         <v>189</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>190</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" t="s">
         <v>191</v>
       </c>
-      <c r="U20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" t="s">
+        <v>471</v>
+      </c>
+      <c r="S21" t="s">
         <v>196</v>
       </c>
-      <c r="J21" t="s">
-        <v>472</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>197</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" t="s">
         <v>198</v>
       </c>
-      <c r="U21" t="s">
-        <v>70</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" t="s">
         <v>205</v>
       </c>
-      <c r="J22" t="s">
+      <c r="S22" t="s">
         <v>206</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>207</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
+        <v>69</v>
+      </c>
+      <c r="W22" t="s">
         <v>208</v>
       </c>
-      <c r="U22" t="s">
-        <v>70</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="S23" t="s">
         <v>216</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>217</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" t="s">
         <v>218</v>
       </c>
-      <c r="U23" t="s">
-        <v>70</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S24" t="s">
+        <v>226</v>
+      </c>
+      <c r="T24" t="s">
+        <v>227</v>
+      </c>
+      <c r="U24" t="s">
+        <v>69</v>
+      </c>
+      <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S24" t="s">
-        <v>227</v>
-      </c>
-      <c r="T24" t="s">
-        <v>228</v>
-      </c>
-      <c r="U24" t="s">
-        <v>70</v>
-      </c>
-      <c r="W24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" t="s">
         <v>234</v>
       </c>
-      <c r="J25" t="s">
+      <c r="S25" t="s">
         <v>235</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>236</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
+        <v>69</v>
+      </c>
+      <c r="W25" t="s">
         <v>237</v>
       </c>
-      <c r="U25" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" t="s">
         <v>244</v>
       </c>
-      <c r="J26" t="s">
+      <c r="S26" t="s">
         <v>245</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>246</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" t="s">
         <v>247</v>
       </c>
-      <c r="U26" t="s">
-        <v>70</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="S27" t="s">
         <v>254</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>255</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>256</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" t="s">
         <v>263</v>
       </c>
-      <c r="J28" t="s">
+      <c r="S28" t="s">
         <v>264</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>265</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
+        <v>69</v>
+      </c>
+      <c r="W28" t="s">
         <v>266</v>
       </c>
-      <c r="U28" t="s">
-        <v>70</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="S29" t="s">
         <v>274</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>275</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
+        <v>69</v>
+      </c>
+      <c r="W29" t="s">
         <v>276</v>
       </c>
-      <c r="U29" t="s">
-        <v>70</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="G30" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" t="s">
         <v>284</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="M30" t="s">
         <v>31</v>
       </c>
       <c r="N30" t="s">
+        <v>286</v>
+      </c>
+      <c r="S30" t="s">
         <v>287</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>288</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>289</v>
       </c>
-      <c r="U30" t="s">
+      <c r="W30" t="s">
         <v>290</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Y30" t="s">
         <v>291</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>292</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="L31" t="s">
         <v>56</v>
@@ -3115,368 +3261,419 @@
         <v>31</v>
       </c>
       <c r="T31" t="s">
+        <v>302</v>
+      </c>
+      <c r="U31" t="s">
+        <v>475</v>
+      </c>
+      <c r="W31" t="s">
         <v>303</v>
       </c>
-      <c r="U31" t="s">
+      <c r="X31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z31" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="W31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" t="s">
         <v>310</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="M32" t="s">
         <v>312</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="O32" t="s">
         <v>314</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="Q32" t="s">
         <v>316</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="R32" s="12" t="s">
-        <v>318</v>
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" t="s">
+        <v>476</v>
+      </c>
+      <c r="U32" t="s">
+        <v>477</v>
+      </c>
+      <c r="V32" t="s">
+        <v>307</v>
+      </c>
+      <c r="W32" t="s">
+        <v>478</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
         <v>328</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J34" t="s">
-        <v>329</v>
-      </c>
       <c r="K34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="G40" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" t="s">
         <v>357</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="M41" t="s">
         <v>359</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="O41" t="s">
         <v>361</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="Q41" t="s">
         <v>363</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="S41" t="s">
         <v>365</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>366</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>367</v>
       </c>
-      <c r="U41" t="s">
+      <c r="W41" t="s">
         <v>368</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>369</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AA41" t="s">
         <v>370</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>371</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>372</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="D42" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="6"/>
@@ -3487,93 +3684,93 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="J43" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" t="s">
         <v>382</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="S43" t="s">
         <v>384</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>385</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>386</v>
       </c>
-      <c r="U43" t="s">
+      <c r="W43" t="s">
         <v>387</v>
       </c>
-      <c r="W43" t="s">
+      <c r="Y43" t="s">
         <v>388</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="G44" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="D45" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H45" s="6"/>
       <c r="J45" s="6"/>
@@ -3581,327 +3778,333 @@
     </row>
     <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="S46" t="s">
         <v>401</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="T46" s="17" t="s">
+      <c r="U46" t="s">
         <v>403</v>
-      </c>
-      <c r="U46" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="D47" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H47" s="6"/>
       <c r="T47" s="17"/>
     </row>
     <row r="48" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M48" s="1"/>
       <c r="S48" t="s">
+        <v>413</v>
+      </c>
+      <c r="T48" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="U48" t="s">
         <v>415</v>
       </c>
-      <c r="U48" t="s">
+      <c r="W48" t="s">
         <v>416</v>
-      </c>
-      <c r="W48" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" t="s">
         <v>425</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S49" t="s">
+        <v>427</v>
+      </c>
+      <c r="T49" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="U49" t="s">
         <v>429</v>
       </c>
-      <c r="U49" t="s">
+      <c r="W49" t="s">
         <v>430</v>
       </c>
-      <c r="W49" t="s">
+      <c r="Y49" t="s">
         <v>431</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S50" t="s">
+        <v>439</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="U50" t="s">
         <v>441</v>
       </c>
-      <c r="U50" t="s">
+      <c r="W50" t="s">
         <v>442</v>
-      </c>
-      <c r="W50" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="G53" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>453</v>
+      <c r="S53" t="s">
+        <v>46</v>
+      </c>
+      <c r="T53" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" t="s">
         <v>460</v>
-      </c>
-      <c r="K54" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="120" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" t="s">
+        <v>328</v>
+      </c>
+      <c r="K60" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M60" t="s">
+        <v>406</v>
+      </c>
+      <c r="N60" t="s">
+        <v>336</v>
+      </c>
+      <c r="O60" t="s">
+        <v>419</v>
+      </c>
+      <c r="P60" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q60" t="s">
         <v>466</v>
       </c>
-      <c r="J60" t="s">
-        <v>329</v>
-      </c>
-      <c r="K60" t="s">
-        <v>399</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="M60" t="s">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s">
-        <v>337</v>
-      </c>
-      <c r="O60" t="s">
-        <v>420</v>
-      </c>
-      <c r="P60" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>467</v>
-      </c>
       <c r="R60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1079A0-75A9-8E4A-BBED-DFC7652F0008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AACA1D0-2AAC-0A41-ACF6-E1D80146DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="920" windowWidth="17060" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17360" yWindow="920" windowWidth="17040" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="553">
   <si>
     <t>Scene</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
-  </si>
-  <si>
-    <t>Rydych chi ar y llawr cyntaf yn y siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Castile. Fel y prif ystafelloedd eraill, roedd ganddo le tân a gwardrob. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dwr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei deleportio yno.</t>
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Popty </t>
@@ -1500,12 +1497,216 @@
   <si>
     <t>Rydych wedi fy narganfod! Cofiwch dynnu llun ohonof ac ychwanegu i’ch dyddiadur.</t>
   </si>
+  <si>
+    <t>Gwnaf</t>
+  </si>
+  <si>
+    <t>Dragon vs Llew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enw Cwest 1 yw ‘Draig Cymru yn erbyn Llew Lloegr’. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r cwest hon. Cliciwch fotwm ‘Dechrau’ i ddechrau ar eich antur.    </t>
+  </si>
+  <si>
+    <t>Iawn</t>
+  </si>
+  <si>
+    <t>Dwi’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithiol yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
+  </si>
+  <si>
+    <t>Cyflwyniad Cwest</t>
+  </si>
+  <si>
+    <t>Cychwyn</t>
+  </si>
+  <si>
+    <t>Cefn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mae Cwest 2 yn eich gwahodd i fod yn Feistr Adeiladwr Canoloesol. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r antur wych hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y gwaith adeiladu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mae’n amser i ddechrau’r cwest! Cliciwch fotwm ‘Eich Cwest’ fel fy mod yn gallu eich darparu gyda chanllaw sut i gwblhau’r cwest’n llwyddiannus. </t>
+  </si>
+  <si>
+    <t>Meistr Medieval Builder</t>
+  </si>
+  <si>
+    <t>Eich Cwest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datgelwch eich talentau cudd gyda Cwest 3. Yn gyntaf, cliciwch fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r Cwest diddorol hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y profiad gwerth chweil yma.  </t>
+  </si>
+  <si>
+    <t>Mae’r Frenhines yn dod! Mae Cwest 4 yn eich gwahodd i gymryd rhan mewn digwyddiad mawr. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r cwest hon. Wedyn, dechreuwch y cwest i gael profiadau gwerth chweil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mae’n fwy na dim ond darn o ddefnydd yn chwifio yn y gwynt! Mae Cwest 5 yn eich gwahodd i ymchwilio ystyr tu ôl i’r baneri hyn. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu rhoi trosolwg o’r cwest i chi. Wedyn, cliciwch fotwm ‘Dechrau’ i arddangos eich sgiliau creadigol. </t>
+  </si>
+  <si>
+    <t>Mae hanes yn cael ei siapio gan wahanol safbwyntiau ac mae Cwest 6 yn eich annog i ymchwilio'r safbwyntiau gwahanol hyn. I ddechrau, cliciwch y botwm ‘Cyflwyniad Cwest’ am drosolwg o’r cwest hon. Unwaith rydych yn barod, cliciwch ar y botwm ‘Dechrau’ i ddechrau’r cwest.</t>
+  </si>
+  <si>
+    <t>Os byddech chi yn sefyll ar y llawr cyntaf dyma fyddai’r siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Castile. Fel y prif ystafelloedd eraill, roedd ganddo le tân a chwpwrdd. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dŵr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei deleportio yno.</t>
+  </si>
+  <si>
+    <t>Ffenestr Gwydr Lliw</t>
+  </si>
+  <si>
+    <t>Addas ar gyfer Brenhines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=hmWzvGu3N4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=12B2IYOJDnw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FGxhtFeKAxA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rmOew_MSHo0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JjkXGwGUjnM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Fk4yKbs8bh8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=EPRkmH1UcRs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9vw1epEJZfk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4VWRwmfvS14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9Lb2bOrvwQ4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=GsX2KAv3n24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BCLEkB_VpoQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=so4YnmfCyRM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=V9YfzmsILiQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fNXnaRnsMPs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=HrCZQz6tZM0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xgritMV1-yc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ybA8Uq2faf8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tSrz6r5LQik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Uw6jWa_HHf4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=AzjyNRz2_Bo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=VUsJlr1hezI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BPfR0OeyJpQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=e90k7FlJuJ0 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=xli79AKBnnY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=beuv42HlpbA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=2ey6ON0Ik7I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=0lECZey9-IA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UqvHuyEwo1g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Yic4np31Flk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=DNPQ8xD2xi8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=YbO8jQD8lXE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=h1SvxuP9Q-k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4-RIrkS_2YY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Mak69hjejw0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=MUtg-AuUQn4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=K2pzYWqkwm0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=WWBpn9vPZwE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6lZ7qT-g5dM  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g9sB8U-V32c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8ebN-3yfATs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=sjYbBZeyNBU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=NwLimldTi9U </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y6rCTGg7Tn0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ghuiaCTgu1w </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fgIZt2-Nx_w </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=OCILZG5lh_A </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1597,6 +1798,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1625,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1661,6 +1869,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1925,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2203,10 +2413,10 @@
         <v>46</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="V5" s="7"/>
     </row>
@@ -2248,7 +2458,7 @@
         <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X6" t="s">
         <v>56</v>
@@ -2288,6 +2498,9 @@
       <c r="U7" t="s">
         <v>69</v>
       </c>
+      <c r="V7" s="19" t="s">
+        <v>504</v>
+      </c>
       <c r="W7" t="s">
         <v>65</v>
       </c>
@@ -2329,6 +2542,9 @@
       <c r="U8" t="s">
         <v>69</v>
       </c>
+      <c r="V8" s="19" t="s">
+        <v>505</v>
+      </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
@@ -2370,6 +2586,9 @@
       <c r="U9" t="s">
         <v>69</v>
       </c>
+      <c r="V9" s="19" t="s">
+        <v>506</v>
+      </c>
       <c r="W9" t="s">
         <v>89</v>
       </c>
@@ -2411,6 +2630,9 @@
       <c r="U10" t="s">
         <v>69</v>
       </c>
+      <c r="V10" s="19" t="s">
+        <v>507</v>
+      </c>
       <c r="W10" t="s">
         <v>99</v>
       </c>
@@ -2452,6 +2674,9 @@
       <c r="U11" t="s">
         <v>69</v>
       </c>
+      <c r="V11" s="19" t="s">
+        <v>508</v>
+      </c>
       <c r="W11" t="s">
         <v>109</v>
       </c>
@@ -2493,6 +2718,9 @@
       <c r="U12" t="s">
         <v>69</v>
       </c>
+      <c r="V12" s="19" t="s">
+        <v>509</v>
+      </c>
       <c r="W12" t="s">
         <v>119</v>
       </c>
@@ -2523,7 +2751,7 @@
         <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S13" t="s">
         <v>126</v>
@@ -2534,11 +2762,14 @@
       <c r="U13" t="s">
         <v>69</v>
       </c>
+      <c r="V13" s="19" t="s">
+        <v>510</v>
+      </c>
       <c r="W13" t="s">
         <v>128</v>
       </c>
       <c r="X13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -2575,6 +2806,9 @@
       <c r="U14" t="s">
         <v>69</v>
       </c>
+      <c r="V14" s="19" t="s">
+        <v>511</v>
+      </c>
       <c r="W14" t="s">
         <v>138</v>
       </c>
@@ -2616,6 +2850,9 @@
       <c r="U15" t="s">
         <v>69</v>
       </c>
+      <c r="V15" s="19" t="s">
+        <v>512</v>
+      </c>
       <c r="W15" t="s">
         <v>148</v>
       </c>
@@ -2651,6 +2888,9 @@
       <c r="U16" t="s">
         <v>69</v>
       </c>
+      <c r="V16" s="19" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2680,6 +2920,9 @@
       <c r="U17" t="s">
         <v>69</v>
       </c>
+      <c r="V17" s="19" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2715,6 +2958,9 @@
       <c r="U18" t="s">
         <v>69</v>
       </c>
+      <c r="V18" s="19" t="s">
+        <v>515</v>
+      </c>
       <c r="W18" t="s">
         <v>172</v>
       </c>
@@ -2745,7 +2991,7 @@
         <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S19" t="s">
         <v>179</v>
@@ -2756,11 +3002,14 @@
       <c r="U19" t="s">
         <v>69</v>
       </c>
+      <c r="V19" s="19" t="s">
+        <v>516</v>
+      </c>
       <c r="W19" t="s">
         <v>181</v>
       </c>
       <c r="X19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
@@ -2797,6 +3046,9 @@
       <c r="U20" t="s">
         <v>69</v>
       </c>
+      <c r="V20" s="19" t="s">
+        <v>517</v>
+      </c>
       <c r="W20" t="s">
         <v>191</v>
       </c>
@@ -2827,7 +3079,7 @@
         <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S21" t="s">
         <v>196</v>
@@ -2838,11 +3090,14 @@
       <c r="U21" t="s">
         <v>69</v>
       </c>
+      <c r="V21" s="19" t="s">
+        <v>518</v>
+      </c>
       <c r="W21" t="s">
         <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
@@ -2879,6 +3134,9 @@
       <c r="U22" t="s">
         <v>69</v>
       </c>
+      <c r="V22" s="19" t="s">
+        <v>519</v>
+      </c>
       <c r="W22" t="s">
         <v>208</v>
       </c>
@@ -2920,6 +3178,9 @@
       <c r="U23" t="s">
         <v>69</v>
       </c>
+      <c r="V23" s="19" t="s">
+        <v>520</v>
+      </c>
       <c r="W23" t="s">
         <v>218</v>
       </c>
@@ -2947,7 +3208,7 @@
         <v>223</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>225</v>
@@ -2960,6 +3221,9 @@
       </c>
       <c r="U24" t="s">
         <v>69</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>521</v>
       </c>
       <c r="W24" t="s">
         <v>228</v>
@@ -2997,13 +3261,16 @@
         <v>235</v>
       </c>
       <c r="T25" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="U25" t="s">
         <v>69</v>
       </c>
+      <c r="V25" s="19" t="s">
+        <v>522</v>
+      </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
         <v>234</v>
@@ -3011,248 +3278,266 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" t="s">
         <v>243</v>
       </c>
-      <c r="J26" t="s">
+      <c r="S26" t="s">
         <v>244</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>245</v>
-      </c>
-      <c r="T26" t="s">
-        <v>246</v>
       </c>
       <c r="U26" t="s">
         <v>69</v>
       </c>
+      <c r="V26" s="19" t="s">
+        <v>523</v>
+      </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="S27" t="s">
         <v>253</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>254</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>255</v>
       </c>
-      <c r="U27" t="s">
-        <v>256</v>
-      </c>
       <c r="V27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" t="s">
         <v>262</v>
       </c>
-      <c r="J28" t="s">
+      <c r="S28" t="s">
         <v>263</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>264</v>
-      </c>
-      <c r="T28" t="s">
-        <v>265</v>
       </c>
       <c r="U28" t="s">
         <v>69</v>
       </c>
+      <c r="V28" s="19" t="s">
+        <v>524</v>
+      </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="S29" t="s">
         <v>273</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>274</v>
-      </c>
-      <c r="T29" t="s">
-        <v>275</v>
       </c>
       <c r="U29" t="s">
         <v>69</v>
       </c>
+      <c r="V29" s="19" t="s">
+        <v>525</v>
+      </c>
       <c r="W29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="G30" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="K30" t="s">
         <v>283</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="M30" t="s">
         <v>31</v>
       </c>
       <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="S30" t="s">
         <v>286</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>287</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>288</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="W30" t="s">
         <v>289</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y30" t="s">
         <v>290</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA30" t="s">
         <v>291</v>
       </c>
-      <c r="AA30" t="s">
-        <v>292</v>
-      </c>
       <c r="AB30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="L31" t="s">
         <v>56</v>
@@ -3261,16 +3546,19 @@
         <v>31</v>
       </c>
       <c r="T31" t="s">
+        <v>301</v>
+      </c>
+      <c r="U31" t="s">
+        <v>474</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="W31" t="s">
         <v>302</v>
       </c>
-      <c r="U31" t="s">
-        <v>475</v>
-      </c>
-      <c r="W31" t="s">
-        <v>303</v>
-      </c>
       <c r="X31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
         <v>55</v>
@@ -3281,399 +3569,570 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" t="s">
         <v>309</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="M32" t="s">
         <v>311</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="O32" t="s">
         <v>313</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="Q32" t="s">
         <v>315</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
       </c>
       <c r="T32" t="s">
+        <v>475</v>
+      </c>
+      <c r="U32" t="s">
         <v>476</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
+        <v>306</v>
+      </c>
+      <c r="W32" t="s">
         <v>477</v>
       </c>
-      <c r="V32" t="s">
-        <v>307</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
         <v>478</v>
       </c>
-      <c r="X32" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA32" t="s">
         <v>479</v>
       </c>
-      <c r="Z32" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC32" t="s">
         <v>480</v>
       </c>
-      <c r="AB32" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE32" t="s">
         <v>481</v>
       </c>
-      <c r="AD32" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>482</v>
-      </c>
       <c r="AF32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" t="s">
+        <v>487</v>
+      </c>
+      <c r="U33" t="s">
+        <v>490</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="W33" t="s">
+        <v>491</v>
+      </c>
+      <c r="X33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J34" t="s">
         <v>327</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K34" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" t="s">
+        <v>493</v>
+      </c>
+      <c r="U34" t="s">
+        <v>490</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W34" t="s">
+        <v>491</v>
+      </c>
+      <c r="X34" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S35" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" t="s">
+        <v>497</v>
+      </c>
+      <c r="U35" t="s">
+        <v>490</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="W35" t="s">
+        <v>491</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S36" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" t="s">
+        <v>498</v>
+      </c>
+      <c r="U36" t="s">
+        <v>490</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="W36" t="s">
+        <v>491</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" t="s">
+        <v>499</v>
+      </c>
+      <c r="U37" t="s">
+        <v>490</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="W37" t="s">
+        <v>491</v>
+      </c>
+      <c r="X37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="45" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="B38" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="S38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" t="s">
+        <v>500</v>
+      </c>
+      <c r="U38" t="s">
+        <v>490</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="W38" t="s">
+        <v>491</v>
+      </c>
+      <c r="X38" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>492</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="G40" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="S40" t="s">
+        <v>486</v>
+      </c>
+      <c r="T40" t="s">
+        <v>489</v>
+      </c>
+      <c r="U40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="M41" t="s">
+        <v>358</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>360</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>362</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="S41" t="s">
+        <v>364</v>
+      </c>
+      <c r="T41" t="s">
+        <v>365</v>
+      </c>
+      <c r="U41" t="s">
+        <v>366</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="W41" t="s">
+        <v>367</v>
+      </c>
+      <c r="X41" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z41" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB41" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD41" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>371</v>
+      </c>
+      <c r="AF41" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K41" t="s">
-        <v>357</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="M41" t="s">
-        <v>359</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="O41" t="s">
-        <v>361</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>363</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="S41" t="s">
-        <v>365</v>
-      </c>
-      <c r="T41" t="s">
-        <v>366</v>
-      </c>
-      <c r="U41" t="s">
-        <v>367</v>
-      </c>
-      <c r="W41" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="G42" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="6"/>
@@ -3681,430 +4140,528 @@
       <c r="N42" s="6"/>
       <c r="P42" s="6"/>
       <c r="R42" s="6"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="S42" t="s">
+        <v>495</v>
+      </c>
+      <c r="T42" t="s">
+        <v>489</v>
+      </c>
+      <c r="U42" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="S43" t="s">
+        <v>383</v>
+      </c>
+      <c r="T43" t="s">
+        <v>384</v>
+      </c>
+      <c r="U43" t="s">
+        <v>385</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z43" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="D44" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K43" t="s">
-        <v>382</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="S43" t="s">
-        <v>384</v>
-      </c>
-      <c r="T43" t="s">
-        <v>385</v>
-      </c>
-      <c r="U43" t="s">
-        <v>386</v>
-      </c>
-      <c r="W43" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44" s="11" t="s">
+      <c r="H44" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="S44" t="s">
+        <v>495</v>
+      </c>
+      <c r="T44" t="s">
+        <v>494</v>
+      </c>
+      <c r="U44" t="s">
+        <v>496</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="W44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="D45" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="H45" s="6"/>
       <c r="J45" s="6"/>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>502</v>
+      </c>
+      <c r="T45" t="s">
+        <v>489</v>
+      </c>
+      <c r="U45" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="S46" t="s">
         <v>400</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="T46" s="17" t="s">
+      <c r="U46" t="s">
         <v>402</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" s="19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="S47" t="s">
+        <v>503</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="U47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="T47" s="17"/>
-    </row>
-    <row r="48" spans="1:29" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M48" s="1"/>
       <c r="S48" t="s">
+        <v>412</v>
+      </c>
+      <c r="T48" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="U48" t="s">
         <v>414</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="W48" t="s">
         <v>415</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" ht="68" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" t="s">
         <v>424</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S49" t="s">
+        <v>426</v>
+      </c>
+      <c r="T49" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="U49" t="s">
         <v>428</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="W49" t="s">
         <v>429</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y49" t="s">
         <v>430</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" ht="75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S50" t="s">
+        <v>438</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="U50" t="s">
         <v>440</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W50" t="s">
         <v>441</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="G53" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="S53" t="s">
         <v>46</v>
       </c>
       <c r="T53" t="s">
+        <v>484</v>
+      </c>
+      <c r="U53" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="136" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" t="s">
         <v>459</v>
       </c>
-      <c r="K54" t="s">
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:28" ht="120" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" ht="120" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="B60" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" t="s">
+        <v>327</v>
+      </c>
+      <c r="K60" t="s">
+        <v>397</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M60" t="s">
+        <v>405</v>
+      </c>
+      <c r="N60" t="s">
+        <v>335</v>
+      </c>
+      <c r="O60" t="s">
+        <v>418</v>
+      </c>
+      <c r="P60" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q60" t="s">
         <v>465</v>
       </c>
-      <c r="J60" t="s">
-        <v>328</v>
-      </c>
-      <c r="K60" t="s">
-        <v>398</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M60" t="s">
-        <v>406</v>
-      </c>
-      <c r="N60" t="s">
-        <v>336</v>
-      </c>
-      <c r="O60" t="s">
-        <v>419</v>
-      </c>
-      <c r="P60" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>466</v>
-      </c>
       <c r="R60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4154,6 +4711,54 @@
     <hyperlink ref="L49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="H50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="J50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V7" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
+    <hyperlink ref="V8" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
+    <hyperlink ref="V9" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
+    <hyperlink ref="V10" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
+    <hyperlink ref="V11" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
+    <hyperlink ref="V12" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
+    <hyperlink ref="V13" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
+    <hyperlink ref="V14" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
+    <hyperlink ref="V15" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
+    <hyperlink ref="V16" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
+    <hyperlink ref="V17" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
+    <hyperlink ref="V18" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
+    <hyperlink ref="V19" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
+    <hyperlink ref="V20" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
+    <hyperlink ref="V21" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
+    <hyperlink ref="V22" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
+    <hyperlink ref="V23" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
+    <hyperlink ref="V24" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
+    <hyperlink ref="V25" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
+    <hyperlink ref="V26" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
+    <hyperlink ref="V28" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
+    <hyperlink ref="V29" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
+    <hyperlink ref="V30" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
+    <hyperlink ref="X30" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
+    <hyperlink ref="Z30" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
+    <hyperlink ref="V31" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
+    <hyperlink ref="V34" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
+    <hyperlink ref="V35" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
+    <hyperlink ref="V36" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
+    <hyperlink ref="V37" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
+    <hyperlink ref="V38" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
+    <hyperlink ref="V41" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
+    <hyperlink ref="X41" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
+    <hyperlink ref="Z41" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
+    <hyperlink ref="AB41" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
+    <hyperlink ref="AD41" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
+    <hyperlink ref="AF41" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
+    <hyperlink ref="V43" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
+    <hyperlink ref="X43" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
+    <hyperlink ref="V44" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
+    <hyperlink ref="V46" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
+    <hyperlink ref="V48" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
+    <hyperlink ref="X48" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
+    <hyperlink ref="V49" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
+    <hyperlink ref="X49" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
+    <hyperlink ref="Z49" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
+    <hyperlink ref="V50" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
+    <hyperlink ref="X50" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AACA1D0-2AAC-0A41-ACF6-E1D80146DAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED3C42-3CE2-8D4C-A262-7483753156FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="920" windowWidth="17040" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="34240" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,13 +147,7 @@
     <t xml:space="preserve">Darganfyddwch Mwy </t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8</t>
-  </si>
-  <si>
     <t>GaleriCadwCymru</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch_popup?v=03QngMoJ3pc</t>
   </si>
   <si>
     <t xml:space="preserve">Ymweld â’ Galeri </t>
@@ -1700,6 +1694,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=OCILZG5lh_A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc </t>
   </si>
 </sst>
 </file>
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="N40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,36 +2369,36 @@
       <c r="U4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="6"/>
       <c r="J5" s="5"/>
@@ -2410,1729 +2410,1729 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="S6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="T6" t="s">
         <v>56</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>57</v>
       </c>
-      <c r="T6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" t="s">
-        <v>59</v>
-      </c>
       <c r="V6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" t="s">
+        <v>470</v>
+      </c>
+      <c r="X6" t="s">
         <v>54</v>
-      </c>
-      <c r="W6" t="s">
-        <v>472</v>
-      </c>
-      <c r="X6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="S7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="T7" t="s">
         <v>66</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>67</v>
       </c>
-      <c r="T7" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" t="s">
-        <v>69</v>
-      </c>
       <c r="V7" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="S8" t="s">
         <v>75</v>
       </c>
-      <c r="J8" t="s">
+      <c r="T8" t="s">
         <v>76</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="W8" t="s">
         <v>77</v>
       </c>
-      <c r="T8" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="W8" t="s">
-        <v>79</v>
-      </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="S9" t="s">
         <v>85</v>
       </c>
-      <c r="J9" t="s">
+      <c r="T9" t="s">
         <v>86</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="W9" t="s">
         <v>87</v>
       </c>
-      <c r="T9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="W9" t="s">
-        <v>89</v>
-      </c>
       <c r="X9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="S10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
+      <c r="T10" t="s">
         <v>96</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="W10" t="s">
         <v>97</v>
       </c>
-      <c r="T10" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="W10" t="s">
-        <v>99</v>
-      </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="S11" t="s">
         <v>105</v>
       </c>
-      <c r="J11" t="s">
+      <c r="T11" t="s">
         <v>106</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="W11" t="s">
         <v>107</v>
       </c>
-      <c r="T11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" t="s">
-        <v>69</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
       <c r="X11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="S12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" t="s">
+      <c r="T12" t="s">
         <v>116</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="W12" t="s">
         <v>117</v>
       </c>
-      <c r="T12" t="s">
-        <v>118</v>
-      </c>
-      <c r="U12" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="W12" t="s">
-        <v>119</v>
-      </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>467</v>
+      </c>
+      <c r="S13" t="s">
         <v>124</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="T13" t="s">
         <v>125</v>
       </c>
-      <c r="J13" t="s">
-        <v>469</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="W13" t="s">
         <v>126</v>
       </c>
-      <c r="T13" t="s">
-        <v>127</v>
-      </c>
-      <c r="U13" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
       <c r="X13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
         <v>133</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="S14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
+      <c r="T14" t="s">
         <v>135</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="W14" t="s">
         <v>136</v>
       </c>
-      <c r="T14" t="s">
-        <v>137</v>
-      </c>
-      <c r="U14" t="s">
-        <v>69</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="W14" t="s">
-        <v>138</v>
-      </c>
       <c r="X14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="S15" t="s">
         <v>144</v>
       </c>
-      <c r="J15" t="s">
+      <c r="T15" t="s">
         <v>145</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="W15" t="s">
         <v>146</v>
       </c>
-      <c r="T15" t="s">
-        <v>147</v>
-      </c>
-      <c r="U15" t="s">
-        <v>69</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="W15" t="s">
-        <v>148</v>
-      </c>
       <c r="X15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" t="s">
+        <v>152</v>
+      </c>
+      <c r="T16" t="s">
         <v>153</v>
       </c>
-      <c r="S16" t="s">
-        <v>154</v>
-      </c>
-      <c r="T16" t="s">
-        <v>155</v>
-      </c>
       <c r="U16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="S17" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" t="s">
         <v>160</v>
       </c>
-      <c r="S17" t="s">
-        <v>161</v>
-      </c>
-      <c r="T17" t="s">
-        <v>162</v>
-      </c>
       <c r="U17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
         <v>167</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="S18" t="s">
         <v>168</v>
       </c>
-      <c r="J18" t="s">
+      <c r="T18" t="s">
         <v>169</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="W18" t="s">
         <v>170</v>
       </c>
-      <c r="T18" t="s">
-        <v>171</v>
-      </c>
-      <c r="U18" t="s">
-        <v>69</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="W18" t="s">
-        <v>172</v>
-      </c>
       <c r="X18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>469</v>
+      </c>
+      <c r="S19" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="T19" t="s">
         <v>178</v>
       </c>
-      <c r="J19" t="s">
-        <v>471</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="W19" t="s">
         <v>179</v>
       </c>
-      <c r="T19" t="s">
-        <v>180</v>
-      </c>
-      <c r="U19" t="s">
-        <v>69</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="W19" t="s">
-        <v>181</v>
-      </c>
       <c r="X19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
         <v>186</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="S20" t="s">
         <v>187</v>
       </c>
-      <c r="J20" t="s">
+      <c r="T20" t="s">
         <v>188</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="W20" t="s">
         <v>189</v>
       </c>
-      <c r="T20" t="s">
-        <v>190</v>
-      </c>
-      <c r="U20" t="s">
-        <v>69</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="W20" t="s">
-        <v>191</v>
-      </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>468</v>
+      </c>
+      <c r="S21" t="s">
         <v>194</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="T21" t="s">
         <v>195</v>
       </c>
-      <c r="J21" t="s">
-        <v>470</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
+        <v>67</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="W21" t="s">
         <v>196</v>
       </c>
-      <c r="T21" t="s">
-        <v>197</v>
-      </c>
-      <c r="U21" t="s">
-        <v>69</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="W21" t="s">
-        <v>198</v>
-      </c>
       <c r="X21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="S22" t="s">
         <v>204</v>
       </c>
-      <c r="J22" t="s">
+      <c r="T22" t="s">
         <v>205</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
+        <v>67</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="W22" t="s">
         <v>206</v>
       </c>
-      <c r="T22" t="s">
-        <v>207</v>
-      </c>
-      <c r="U22" t="s">
-        <v>69</v>
-      </c>
-      <c r="V22" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="W22" t="s">
-        <v>208</v>
-      </c>
       <c r="X22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="S23" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="T23" t="s">
         <v>215</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
+        <v>67</v>
+      </c>
+      <c r="V23" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="W23" t="s">
         <v>216</v>
       </c>
-      <c r="T23" t="s">
-        <v>217</v>
-      </c>
-      <c r="U23" t="s">
-        <v>69</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="W23" t="s">
-        <v>218</v>
-      </c>
       <c r="X23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="S24" t="s">
+        <v>224</v>
+      </c>
+      <c r="T24" t="s">
         <v>225</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="W24" t="s">
         <v>226</v>
       </c>
-      <c r="T24" t="s">
-        <v>227</v>
-      </c>
-      <c r="U24" t="s">
-        <v>69</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="W24" t="s">
-        <v>228</v>
-      </c>
       <c r="X24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="S25" t="s">
         <v>233</v>
       </c>
-      <c r="J25" t="s">
+      <c r="T25" t="s">
+        <v>499</v>
+      </c>
+      <c r="U25" t="s">
+        <v>67</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="W25" t="s">
         <v>234</v>
       </c>
-      <c r="S25" t="s">
-        <v>235</v>
-      </c>
-      <c r="T25" t="s">
-        <v>501</v>
-      </c>
-      <c r="U25" t="s">
-        <v>69</v>
-      </c>
-      <c r="V25" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="W25" t="s">
-        <v>236</v>
-      </c>
       <c r="X25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
         <v>241</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="S26" t="s">
         <v>242</v>
       </c>
-      <c r="J26" t="s">
+      <c r="T26" t="s">
         <v>243</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
+        <v>67</v>
+      </c>
+      <c r="V26" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="W26" t="s">
         <v>244</v>
       </c>
-      <c r="T26" t="s">
-        <v>245</v>
-      </c>
-      <c r="U26" t="s">
-        <v>69</v>
-      </c>
-      <c r="V26" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="W26" t="s">
-        <v>246</v>
-      </c>
       <c r="X26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="S27" t="s">
         <v>251</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="T27" t="s">
         <v>252</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>253</v>
       </c>
-      <c r="T27" t="s">
-        <v>254</v>
-      </c>
-      <c r="U27" t="s">
-        <v>255</v>
-      </c>
       <c r="V27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
         <v>260</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="S28" t="s">
         <v>261</v>
       </c>
-      <c r="J28" t="s">
+      <c r="T28" t="s">
         <v>262</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="W28" t="s">
         <v>263</v>
       </c>
-      <c r="T28" t="s">
-        <v>264</v>
-      </c>
-      <c r="U28" t="s">
-        <v>69</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>524</v>
-      </c>
-      <c r="W28" t="s">
-        <v>265</v>
-      </c>
       <c r="X28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="S29" t="s">
         <v>271</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="T29" t="s">
         <v>272</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="W29" t="s">
         <v>273</v>
       </c>
-      <c r="T29" t="s">
-        <v>274</v>
-      </c>
-      <c r="U29" t="s">
-        <v>69</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="W29" t="s">
-        <v>275</v>
-      </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="I30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" t="s">
         <v>281</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="L30" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="K30" t="s">
-        <v>283</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="M30" t="s">
         <v>31</v>
       </c>
       <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="S30" t="s">
+        <v>284</v>
+      </c>
+      <c r="T30" t="s">
         <v>285</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>286</v>
       </c>
-      <c r="T30" t="s">
+      <c r="V30" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="W30" t="s">
         <v>287</v>
       </c>
-      <c r="U30" t="s">
+      <c r="X30" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y30" t="s">
         <v>288</v>
       </c>
-      <c r="V30" s="19" t="s">
+      <c r="Z30" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="W30" t="s">
+      <c r="AA30" t="s">
         <v>289</v>
       </c>
-      <c r="X30" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>290</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>291</v>
-      </c>
       <c r="AB30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="H31" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="J31" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="L31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
         <v>31</v>
       </c>
       <c r="T31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="U31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Z31" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" t="s">
         <v>307</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="L32" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>309</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="N32" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>311</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="P32" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>313</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="R32" s="12" t="s">
         <v>314</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>315</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
       </c>
       <c r="T32" t="s">
+        <v>473</v>
+      </c>
+      <c r="U32" t="s">
+        <v>474</v>
+      </c>
+      <c r="V32" t="s">
+        <v>304</v>
+      </c>
+      <c r="W32" t="s">
         <v>475</v>
       </c>
-      <c r="U32" t="s">
+      <c r="X32" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y32" t="s">
         <v>476</v>
       </c>
-      <c r="V32" t="s">
-        <v>306</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="Z32" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA32" t="s">
         <v>477</v>
       </c>
-      <c r="X32" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="AB32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC32" t="s">
         <v>478</v>
       </c>
-      <c r="Z32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AD32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE32" t="s">
         <v>479</v>
       </c>
-      <c r="AB32" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>314</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>481</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="J33" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="U33" t="s">
+        <v>488</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="W33" t="s">
+        <v>489</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y33" t="s">
         <v>490</v>
       </c>
-      <c r="V33" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="W33" t="s">
-        <v>491</v>
-      </c>
-      <c r="X33" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>492</v>
-      </c>
       <c r="Z33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
         <v>325</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J34" t="s">
-        <v>327</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S34" t="s">
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="U34" t="s">
+        <v>488</v>
+      </c>
+      <c r="V34" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="W34" t="s">
+        <v>489</v>
+      </c>
+      <c r="X34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s">
         <v>490</v>
       </c>
-      <c r="V34" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="W34" t="s">
-        <v>491</v>
-      </c>
-      <c r="X34" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>492</v>
-      </c>
       <c r="Z34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S35" t="s">
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="U35" t="s">
+        <v>488</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="W35" t="s">
+        <v>489</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
         <v>490</v>
       </c>
-      <c r="V35" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="W35" t="s">
-        <v>491</v>
-      </c>
-      <c r="X35" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>492</v>
-      </c>
       <c r="Z35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L36" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S36" t="s">
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="U36" t="s">
+        <v>488</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W36" t="s">
+        <v>489</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
         <v>490</v>
       </c>
-      <c r="V36" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="W36" t="s">
-        <v>491</v>
-      </c>
-      <c r="X36" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>492</v>
-      </c>
       <c r="Z36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S37" t="s">
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U37" t="s">
+        <v>488</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="W37" t="s">
+        <v>489</v>
+      </c>
+      <c r="X37" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y37" t="s">
         <v>490</v>
       </c>
-      <c r="V37" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="W37" t="s">
-        <v>491</v>
-      </c>
-      <c r="X37" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>492</v>
-      </c>
       <c r="Z37" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" t="s">
+        <v>466</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J38" t="s">
-        <v>468</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S38" t="s">
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="U38" t="s">
+        <v>488</v>
+      </c>
+      <c r="V38" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="W38" t="s">
+        <v>489</v>
+      </c>
+      <c r="X38" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y38" t="s">
         <v>490</v>
       </c>
-      <c r="V38" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="W38" t="s">
-        <v>491</v>
-      </c>
-      <c r="X38" t="s">
-        <v>468</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>492</v>
-      </c>
       <c r="Z38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="S40" t="s">
+        <v>484</v>
+      </c>
+      <c r="T40" t="s">
+        <v>487</v>
+      </c>
+      <c r="U40" t="s">
         <v>486</v>
-      </c>
-      <c r="T40" t="s">
-        <v>489</v>
-      </c>
-      <c r="U40" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="H41" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" t="s">
         <v>354</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="L41" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>356</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="N41" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>358</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>360</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="R41" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>362</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="T41" t="s">
         <v>363</v>
       </c>
-      <c r="S41" t="s">
+      <c r="U41" t="s">
         <v>364</v>
       </c>
-      <c r="T41" t="s">
+      <c r="V41" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="W41" t="s">
         <v>365</v>
       </c>
-      <c r="U41" t="s">
+      <c r="X41" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y41" t="s">
         <v>366</v>
       </c>
-      <c r="V41" s="19" t="s">
+      <c r="Z41" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="W41" t="s">
+      <c r="AA41" t="s">
         <v>367</v>
       </c>
-      <c r="X41" s="19" t="s">
+      <c r="AB41" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AC41" t="s">
         <v>368</v>
       </c>
-      <c r="Z41" s="19" t="s">
+      <c r="AD41" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AE41" t="s">
         <v>369</v>
       </c>
-      <c r="AB41" s="19" t="s">
+      <c r="AF41" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD41" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF41" s="19" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="D42" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H42" s="6"/>
       <c r="J42" s="6"/>
@@ -4141,527 +4141,527 @@
       <c r="P42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="T42" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="H43" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" t="s">
         <v>379</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="L43" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="K43" t="s">
+      <c r="S43" t="s">
         <v>381</v>
       </c>
-      <c r="L43" s="15" t="s">
+      <c r="T43" t="s">
         <v>382</v>
       </c>
-      <c r="S43" t="s">
+      <c r="U43" t="s">
         <v>383</v>
       </c>
-      <c r="T43" t="s">
+      <c r="V43" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="W43" t="s">
         <v>384</v>
       </c>
-      <c r="U43" t="s">
+      <c r="X43" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y43" t="s">
         <v>385</v>
       </c>
-      <c r="V43" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="W43" t="s">
-        <v>386</v>
-      </c>
-      <c r="X43" s="19" t="s">
-        <v>543</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>387</v>
-      </c>
       <c r="Z43" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L44" s="6"/>
       <c r="S44" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="T44" t="s">
+        <v>492</v>
+      </c>
+      <c r="U44" t="s">
         <v>494</v>
       </c>
-      <c r="U44" t="s">
-        <v>496</v>
-      </c>
       <c r="V44" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W44" t="s">
         <v>31</v>
       </c>
       <c r="X44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="D45" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H45" s="6"/>
       <c r="J45" s="6"/>
       <c r="L45" s="6"/>
       <c r="S45" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="T45" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U45" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="H46" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S46" t="s">
+        <v>398</v>
+      </c>
+      <c r="T46" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="S46" t="s">
+      <c r="U46" t="s">
         <v>400</v>
       </c>
-      <c r="T46" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="U46" t="s">
-        <v>402</v>
-      </c>
       <c r="V46" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="D47" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H47" s="6"/>
       <c r="S47" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U47" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="H48" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="J48" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M48" s="1"/>
       <c r="S48" t="s">
+        <v>410</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="U48" t="s">
         <v>412</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="V48" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="W48" t="s">
         <v>413</v>
       </c>
-      <c r="U48" t="s">
-        <v>414</v>
-      </c>
-      <c r="V48" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="W48" t="s">
-        <v>415</v>
-      </c>
       <c r="X48" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Y48" t="s">
         <v>31</v>
       </c>
       <c r="Z48" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" t="s">
         <v>422</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="L49" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="K49" t="s">
-        <v>424</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="M49" t="s">
         <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S49" t="s">
+        <v>424</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="U49" t="s">
         <v>426</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="V49" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="W49" t="s">
         <v>427</v>
       </c>
-      <c r="U49" t="s">
+      <c r="X49" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y49" t="s">
         <v>428</v>
       </c>
-      <c r="V49" s="19" t="s">
+      <c r="Z49" s="19" t="s">
         <v>548</v>
-      </c>
-      <c r="W49" t="s">
-        <v>429</v>
-      </c>
-      <c r="X49" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>430</v>
-      </c>
-      <c r="Z49" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="AA49" t="s">
         <v>31</v>
       </c>
       <c r="AB49" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="I50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="S50" t="s">
+        <v>436</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="U50" t="s">
         <v>438</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="V50" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="W50" t="s">
         <v>439</v>
       </c>
-      <c r="U50" t="s">
-        <v>440</v>
-      </c>
-      <c r="V50" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="W50" t="s">
-        <v>441</v>
-      </c>
       <c r="X50" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Y50" t="s">
         <v>31</v>
       </c>
       <c r="Z50" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="S53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="U53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="136" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="G54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="I54" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="K54" t="s">
         <v>457</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K54" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="120" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="J60" t="s">
+        <v>325</v>
+      </c>
+      <c r="K60" t="s">
+        <v>395</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M60" t="s">
+        <v>403</v>
+      </c>
+      <c r="N60" t="s">
+        <v>333</v>
+      </c>
+      <c r="O60" t="s">
+        <v>416</v>
+      </c>
+      <c r="P60" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q60" t="s">
         <v>463</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="J60" t="s">
-        <v>327</v>
-      </c>
-      <c r="K60" t="s">
-        <v>397</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M60" t="s">
-        <v>405</v>
-      </c>
-      <c r="N60" t="s">
-        <v>335</v>
-      </c>
-      <c r="O60" t="s">
-        <v>418</v>
-      </c>
-      <c r="P60" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>465</v>
-      </c>
       <c r="R60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4759,6 +4759,8 @@
     <hyperlink ref="Z49" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
     <hyperlink ref="V50" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
     <hyperlink ref="X50" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
+    <hyperlink ref="V4" r:id="rId94" xr:uid="{88B29DA4-3BF0-B541-AB9B-C73628F9BC2E}"/>
+    <hyperlink ref="X4" r:id="rId95" xr:uid="{13BD73C0-86B7-5D4B-8ECE-FE17CDABCBD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED3C42-3CE2-8D4C-A262-7483753156FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A7431-D84A-3545-AFB8-E033E037150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="34240" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34240" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="559">
   <si>
     <t>Scene</t>
   </si>
@@ -1700,6 +1700,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc </t>
+  </si>
+  <si>
+    <t>What language would you like to view the video in?</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Cymru</t>
+  </si>
+  <si>
+    <t>taliesinNPCurl1</t>
+  </si>
+  <si>
+    <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1871,6 +1889,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2133,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2341,8 +2360,8 @@
       <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
+      <c r="H4" s="21" t="s">
+        <v>558</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
@@ -2369,8 +2388,8 @@
       <c r="U4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="19" t="s">
-        <v>551</v>
+      <c r="V4" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>40</v>
@@ -2382,26 +2401,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="J5" s="5"/>
+        <v>554</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>551</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2410,655 +2436,657 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="X5" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="J6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" t="s">
-        <v>470</v>
-      </c>
-      <c r="X6" t="s">
-        <v>54</v>
-      </c>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>502</v>
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
+        <v>52</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
       <c r="X7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>67</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
         <v>67</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
         <v>67</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="T11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="U11" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="X11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="S12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="U12" t="s">
         <v>67</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>467</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="U13" t="s">
         <v>67</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="X13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="S14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U14" t="s">
         <v>67</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="T15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="U15" t="s">
         <v>67</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
       </c>
       <c r="S16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="U16" t="s">
         <v>67</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="T17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U17" t="s">
         <v>67</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="S18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="U18" t="s">
         <v>67</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="W18" t="s">
-        <v>170</v>
-      </c>
-      <c r="X18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>469</v>
+        <v>167</v>
       </c>
       <c r="S19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="T19" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="U19" t="s">
         <v>67</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="S20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="U20" t="s">
         <v>67</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>181</v>
@@ -3067,509 +3095,494 @@
         <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="S21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="T21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U21" t="s">
         <v>67</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="X21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="S22" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="U22" t="s">
         <v>67</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
       </c>
       <c r="S23" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="T23" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U23" t="s">
         <v>67</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="S24" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="T24" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="U24" t="s">
         <v>67</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J25" t="s">
-        <v>232</v>
+        <v>471</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="S25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="T25" t="s">
-        <v>499</v>
+        <v>225</v>
       </c>
       <c r="U25" t="s">
         <v>67</v>
       </c>
       <c r="V25" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="S26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="T26" t="s">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="U26" t="s">
         <v>67</v>
       </c>
       <c r="V26" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="S27" t="s">
+        <v>242</v>
+      </c>
+      <c r="T27" t="s">
+        <v>243</v>
+      </c>
+      <c r="U27" t="s">
+        <v>67</v>
+      </c>
+      <c r="V27" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W27" t="s">
         <v>244</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S28" t="s">
         <v>251</v>
       </c>
-      <c r="T27" t="s">
+      <c r="T28" t="s">
         <v>252</v>
       </c>
-      <c r="U27" t="s">
+      <c r="U28" t="s">
         <v>253</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J28" t="s">
-        <v>260</v>
-      </c>
-      <c r="S28" t="s">
-        <v>261</v>
-      </c>
-      <c r="T28" t="s">
-        <v>262</v>
-      </c>
-      <c r="U28" t="s">
-        <v>67</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="W28" t="s">
-        <v>263</v>
-      </c>
-      <c r="X28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
       </c>
       <c r="S29" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="T29" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="U29" t="s">
         <v>67</v>
       </c>
       <c r="V29" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S30" t="s">
+        <v>271</v>
+      </c>
+      <c r="T30" t="s">
+        <v>272</v>
+      </c>
+      <c r="U30" t="s">
+        <v>67</v>
+      </c>
+      <c r="V30" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W30" t="s">
         <v>273</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K31" t="s">
         <v>281</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L31" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N31" t="s">
         <v>283</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S31" t="s">
         <v>284</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T31" t="s">
         <v>285</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U31" t="s">
         <v>286</v>
       </c>
-      <c r="V30" s="19" t="s">
+      <c r="V31" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W31" t="s">
         <v>287</v>
       </c>
-      <c r="X30" s="19" t="s">
+      <c r="X31" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y31" t="s">
         <v>288</v>
       </c>
-      <c r="Z30" s="19" t="s">
+      <c r="Z31" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AA31" t="s">
         <v>289</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L31" t="s">
-        <v>54</v>
-      </c>
-      <c r="S31" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" t="s">
-        <v>299</v>
-      </c>
-      <c r="U31" t="s">
-        <v>472</v>
-      </c>
-      <c r="V31" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="W31" t="s">
-        <v>300</v>
-      </c>
-      <c r="X31" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z31" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>291</v>
@@ -3578,90 +3591,57 @@
         <v>31</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K32" t="s">
-        <v>307</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="M32" t="s">
-        <v>309</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="O32" t="s">
-        <v>311</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>313</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L32" t="s">
+        <v>54</v>
       </c>
       <c r="S32" t="s">
         <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>473</v>
+        <v>299</v>
       </c>
       <c r="U32" t="s">
-        <v>474</v>
-      </c>
-      <c r="V32" t="s">
-        <v>304</v>
+        <v>472</v>
+      </c>
+      <c r="V32" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="W32" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="X32" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="Z32" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>291</v>
@@ -3669,55 +3649,91 @@
       <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>316</v>
+      <c r="D33" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>318</v>
+        <v>303</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="K33" t="s">
+        <v>307</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="M33" t="s">
+        <v>309</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>311</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>313</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="U33" t="s">
-        <v>488</v>
-      </c>
-      <c r="V33" s="19" t="s">
-        <v>528</v>
+        <v>474</v>
+      </c>
+      <c r="V33" t="s">
+        <v>304</v>
       </c>
       <c r="W33" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="X33" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="Z33" t="s">
-        <v>297</v>
+        <v>308</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>291</v>
@@ -3726,19 +3742,19 @@
         <v>31</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J34" t="s">
-        <v>325</v>
+      <c r="J34" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>321</v>
@@ -3750,19 +3766,19 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="U34" t="s">
         <v>488</v>
       </c>
       <c r="V34" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W34" t="s">
         <v>489</v>
       </c>
       <c r="X34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s">
         <v>490</v>
@@ -3773,7 +3789,7 @@
     </row>
     <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>291</v>
@@ -3782,19 +3798,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>329</v>
+      <c r="J35" t="s">
+        <v>325</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>321</v>
@@ -3806,19 +3822,19 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="U35" t="s">
         <v>488</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W35" t="s">
         <v>489</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
         <v>490</v>
@@ -3829,7 +3845,7 @@
     </row>
     <row r="36" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>291</v>
@@ -3838,19 +3854,19 @@
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>321</v>
@@ -3862,19 +3878,19 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U36" t="s">
         <v>488</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W36" t="s">
         <v>489</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
         <v>490</v>
@@ -3883,9 +3899,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>291</v>
@@ -3894,19 +3910,19 @@
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>321</v>
@@ -3918,19 +3934,19 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U37" t="s">
         <v>488</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W37" t="s">
         <v>489</v>
       </c>
       <c r="X37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Y37" t="s">
         <v>490</v>
@@ -3941,7 +3957,7 @@
     </row>
     <row r="38" spans="1:32" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>291</v>
@@ -3950,19 +3966,19 @@
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J38" t="s">
-        <v>466</v>
+      <c r="J38" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>321</v>
@@ -3974,19 +3990,19 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U38" t="s">
         <v>488</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W38" t="s">
         <v>489</v>
       </c>
       <c r="X38" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="Y38" t="s">
         <v>490</v>
@@ -3995,40 +4011,70 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>466</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" t="s">
+        <v>498</v>
+      </c>
+      <c r="U39" t="s">
+        <v>488</v>
+      </c>
+      <c r="V39" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="W39" t="s">
+        <v>489</v>
+      </c>
+      <c r="X39" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="S40" t="s">
-        <v>484</v>
-      </c>
-      <c r="T40" t="s">
-        <v>487</v>
-      </c>
-      <c r="U40" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>344</v>
@@ -4036,123 +4082,117 @@
       <c r="C41" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S41" t="s">
+        <v>484</v>
+      </c>
+      <c r="T41" t="s">
+        <v>487</v>
+      </c>
+      <c r="U41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H42" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J42" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K42" t="s">
         <v>354</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L42" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>356</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N42" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O42" t="s">
         <v>358</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q42" t="s">
         <v>360</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="R42" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S42" t="s">
         <v>362</v>
       </c>
-      <c r="T41" t="s">
+      <c r="T42" t="s">
         <v>363</v>
       </c>
-      <c r="U41" t="s">
+      <c r="U42" t="s">
         <v>364</v>
       </c>
-      <c r="V41" s="19" t="s">
+      <c r="V42" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="W41" t="s">
+      <c r="W42" t="s">
         <v>365</v>
       </c>
-      <c r="X41" s="19" t="s">
+      <c r="X42" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y42" t="s">
         <v>366</v>
       </c>
-      <c r="Z41" s="19" t="s">
+      <c r="Z42" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AA42" t="s">
         <v>367</v>
       </c>
-      <c r="AB41" s="19" t="s">
+      <c r="AB42" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC42" t="s">
         <v>368</v>
       </c>
-      <c r="AD41" s="19" t="s">
+      <c r="AD42" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AE42" t="s">
         <v>369</v>
       </c>
-      <c r="AF41" s="19" t="s">
+      <c r="AF42" s="19" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" t="s">
-        <v>493</v>
-      </c>
-      <c r="T42" t="s">
-        <v>487</v>
-      </c>
-      <c r="U42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>371</v>
@@ -4160,55 +4200,31 @@
       <c r="C43" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>374</v>
+      <c r="D43" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K43" t="s">
-        <v>379</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>380</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="R43" s="6"/>
       <c r="S43" t="s">
-        <v>381</v>
+        <v>493</v>
       </c>
       <c r="T43" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="U43" t="s">
-        <v>383</v>
-      </c>
-      <c r="V43" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="W43" t="s">
-        <v>384</v>
-      </c>
-      <c r="X43" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z43" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>371</v>
@@ -4216,73 +4232,100 @@
       <c r="C44" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>387</v>
+      <c r="D44" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K44" t="s">
         <v>379</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="S44" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="T44" t="s">
-        <v>492</v>
+        <v>382</v>
       </c>
       <c r="U44" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="V44" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W44" t="s">
-        <v>31</v>
-      </c>
-      <c r="X44" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="X44" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z44" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>346</v>
+        <v>372</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="J45" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="S45" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="T45" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="U45" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="W45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>391</v>
@@ -4290,64 +4333,66 @@
       <c r="C46" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>394</v>
+      <c r="D46" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="S46" t="s">
-        <v>398</v>
-      </c>
-      <c r="T46" s="17" t="s">
-        <v>399</v>
+        <v>500</v>
+      </c>
+      <c r="T46" t="s">
+        <v>487</v>
       </c>
       <c r="U46" t="s">
-        <v>400</v>
-      </c>
-      <c r="V46" s="19" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>346</v>
+        <v>392</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H47" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="S47" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="U47" t="s">
-        <v>486</v>
+        <v>400</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>402</v>
@@ -4355,208 +4400,215 @@
       <c r="C48" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="S48" t="s">
+        <v>501</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="U48" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J49" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="S48" t="s">
+      <c r="M49" s="1"/>
+      <c r="S49" t="s">
         <v>410</v>
       </c>
-      <c r="T48" s="17" t="s">
+      <c r="T49" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="U48" t="s">
+      <c r="U49" t="s">
         <v>412</v>
       </c>
-      <c r="V48" s="19" t="s">
+      <c r="V49" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="W48" t="s">
+      <c r="W49" t="s">
         <v>413</v>
       </c>
-      <c r="X48" s="19" t="s">
+      <c r="X49" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Y49" t="s">
         <v>31</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Z49" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K50" t="s">
         <v>422</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L50" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M50" t="s">
         <v>31</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N50" t="s">
         <v>397</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S50" t="s">
         <v>424</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="T50" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U50" t="s">
         <v>426</v>
       </c>
-      <c r="V49" s="19" t="s">
+      <c r="V50" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W50" t="s">
         <v>427</v>
       </c>
-      <c r="X49" s="19" t="s">
+      <c r="X50" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y50" t="s">
         <v>428</v>
       </c>
-      <c r="Z49" s="19" t="s">
+      <c r="Z50" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AA50" t="s">
         <v>31</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AB50" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L51" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S51" t="s">
         <v>436</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T51" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U51" t="s">
         <v>438</v>
       </c>
-      <c r="V50" s="19" t="s">
+      <c r="V51" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W51" t="s">
         <v>439</v>
       </c>
-      <c r="X50" s="19" t="s">
+      <c r="X51" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y51" t="s">
         <v>31</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Z51" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>442</v>
@@ -4564,203 +4616,224 @@
       <c r="C53" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S54" t="s">
         <v>44</v>
       </c>
-      <c r="T53" t="s">
+      <c r="T54" t="s">
         <v>482</v>
       </c>
-      <c r="U53" t="s">
+      <c r="U54" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="136" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:28" ht="136" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K55" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="120" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:28" ht="120" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J61" t="s">
         <v>325</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K61" t="s">
         <v>395</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M61" t="s">
         <v>403</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N61" t="s">
         <v>333</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O61" t="s">
         <v>416</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P61" t="s">
         <v>337</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="Q61" t="s">
         <v>463</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R61" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId1" display="https://www.youtube.com/watch_popup?v=MlzTMeEtZbI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H41" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="R41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J50" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="V7" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
-    <hyperlink ref="V8" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
-    <hyperlink ref="V9" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
-    <hyperlink ref="V10" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
-    <hyperlink ref="V11" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
-    <hyperlink ref="V12" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
-    <hyperlink ref="V13" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
-    <hyperlink ref="V14" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
-    <hyperlink ref="V15" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
-    <hyperlink ref="V16" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
-    <hyperlink ref="V17" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
-    <hyperlink ref="V18" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
-    <hyperlink ref="V19" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
-    <hyperlink ref="V20" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
-    <hyperlink ref="V21" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
-    <hyperlink ref="V22" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
-    <hyperlink ref="V23" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
-    <hyperlink ref="V24" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
-    <hyperlink ref="V25" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
-    <hyperlink ref="V26" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
-    <hyperlink ref="V28" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
-    <hyperlink ref="V29" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
-    <hyperlink ref="V30" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
-    <hyperlink ref="X30" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
-    <hyperlink ref="Z30" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
-    <hyperlink ref="V31" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
-    <hyperlink ref="V34" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
-    <hyperlink ref="V35" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
-    <hyperlink ref="V36" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
-    <hyperlink ref="V37" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
-    <hyperlink ref="V38" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
-    <hyperlink ref="V41" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
-    <hyperlink ref="X41" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
-    <hyperlink ref="Z41" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
-    <hyperlink ref="AB41" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
-    <hyperlink ref="AD41" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
-    <hyperlink ref="AF41" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
-    <hyperlink ref="V43" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
-    <hyperlink ref="X43" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
-    <hyperlink ref="V44" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
-    <hyperlink ref="V46" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
-    <hyperlink ref="V48" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
-    <hyperlink ref="X48" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
-    <hyperlink ref="V49" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
-    <hyperlink ref="X49" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
-    <hyperlink ref="Z49" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
-    <hyperlink ref="V50" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
-    <hyperlink ref="X50" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
-    <hyperlink ref="V4" r:id="rId94" xr:uid="{88B29DA4-3BF0-B541-AB9B-C73628F9BC2E}"/>
-    <hyperlink ref="X4" r:id="rId95" xr:uid="{13BD73C0-86B7-5D4B-8ECE-FE17CDABCBD9}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V8" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
+    <hyperlink ref="V9" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
+    <hyperlink ref="V10" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
+    <hyperlink ref="V11" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
+    <hyperlink ref="V12" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
+    <hyperlink ref="V13" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
+    <hyperlink ref="V14" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
+    <hyperlink ref="V15" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
+    <hyperlink ref="V16" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
+    <hyperlink ref="V17" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
+    <hyperlink ref="V18" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
+    <hyperlink ref="V19" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
+    <hyperlink ref="V20" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
+    <hyperlink ref="V21" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
+    <hyperlink ref="V22" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
+    <hyperlink ref="V23" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
+    <hyperlink ref="V24" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
+    <hyperlink ref="V25" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
+    <hyperlink ref="V26" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
+    <hyperlink ref="V27" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
+    <hyperlink ref="V29" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
+    <hyperlink ref="V30" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
+    <hyperlink ref="V31" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
+    <hyperlink ref="X31" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
+    <hyperlink ref="Z31" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
+    <hyperlink ref="V32" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
+    <hyperlink ref="V35" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
+    <hyperlink ref="V36" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
+    <hyperlink ref="V37" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
+    <hyperlink ref="V38" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
+    <hyperlink ref="V39" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
+    <hyperlink ref="V42" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
+    <hyperlink ref="X42" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
+    <hyperlink ref="Z42" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
+    <hyperlink ref="AB42" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
+    <hyperlink ref="AD42" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
+    <hyperlink ref="AF42" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
+    <hyperlink ref="V44" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
+    <hyperlink ref="X44" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
+    <hyperlink ref="V45" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
+    <hyperlink ref="V47" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
+    <hyperlink ref="V49" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
+    <hyperlink ref="X49" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
+    <hyperlink ref="V50" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
+    <hyperlink ref="X50" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
+    <hyperlink ref="Z50" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
+    <hyperlink ref="V51" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
+    <hyperlink ref="X51" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
+    <hyperlink ref="X4" r:id="rId94" xr:uid="{13BD73C0-86B7-5D4B-8ECE-FE17CDABCBD9}"/>
+    <hyperlink ref="H5" r:id="rId95" xr:uid="{8AA57462-518A-4247-8CC2-59A55C8F8A6C}"/>
+    <hyperlink ref="J5" r:id="rId96" xr:uid="{4617C12E-6D9F-BA4A-A1F2-5A8C99011EE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A7431-D84A-3545-AFB8-E033E037150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE3A24-A444-7745-9AE4-991418756D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34240" windowHeight="19740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="34240" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="560">
   <si>
     <t>Scene</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1</t>
+  </si>
+  <si>
+    <t>taliesinNPCurl2</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF61"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2454,26 +2457,29 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>559</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>554</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2481,656 +2487,643 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="7"/>
+      <c r="V6" s="19"/>
+      <c r="X6" s="19"/>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
-      <c r="V7" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" t="s">
-        <v>470</v>
-      </c>
-      <c r="X7" t="s">
-        <v>54</v>
-      </c>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>502</v>
+        <v>57</v>
+      </c>
+      <c r="V8" t="s">
+        <v>52</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="S9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="U9" t="s">
         <v>67</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
         <v>67</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="U11" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="X11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="T12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="U12" t="s">
         <v>67</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="S13" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="T13" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="U13" t="s">
         <v>67</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="X13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>467</v>
+        <v>114</v>
       </c>
       <c r="S14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="U14" t="s">
         <v>67</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="X14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="S15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="T15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="U15" t="s">
         <v>67</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="X15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="T16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="U16" t="s">
         <v>67</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="X16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
       </c>
       <c r="S17" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="T17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="U17" t="s">
         <v>67</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="X17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="T18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="U18" t="s">
         <v>67</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="S19" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="T19" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="U19" t="s">
         <v>67</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="W19" t="s">
-        <v>170</v>
-      </c>
-      <c r="X19" t="s">
-        <v>167</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>469</v>
+        <v>167</v>
       </c>
       <c r="S20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="T20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="U20" t="s">
         <v>67</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s">
-        <v>469</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="S21" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T21" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="U21" t="s">
         <v>67</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="W21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>181</v>
@@ -3139,509 +3132,494 @@
         <v>182</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="S22" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="T22" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="U22" t="s">
         <v>67</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="S23" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="T23" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="U23" t="s">
         <v>67</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="X23" t="s">
-        <v>203</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
       </c>
       <c r="S24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="T24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="U24" t="s">
         <v>67</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="W24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="S25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="T25" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="U25" t="s">
         <v>67</v>
       </c>
       <c r="V25" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" t="s">
-        <v>232</v>
+        <v>471</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="S26" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="T26" t="s">
-        <v>499</v>
+        <v>225</v>
       </c>
       <c r="U26" t="s">
         <v>67</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="X26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="S27" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="T27" t="s">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="U27" t="s">
         <v>67</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="W27" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="X27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>250</v>
+        <v>33</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
       </c>
       <c r="S28" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="T28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="U28" t="s">
-        <v>253</v>
-      </c>
-      <c r="V28" t="s">
-        <v>250</v>
+        <v>67</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="W28" t="s">
+        <v>244</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="S29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="T29" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="U29" t="s">
-        <v>67</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="W29" t="s">
-        <v>263</v>
-      </c>
-      <c r="X29" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="V29" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
       </c>
       <c r="S30" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="T30" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="U30" t="s">
         <v>67</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="W30" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S31" t="s">
+        <v>271</v>
+      </c>
+      <c r="T31" t="s">
+        <v>272</v>
+      </c>
+      <c r="U31" t="s">
+        <v>67</v>
+      </c>
+      <c r="V31" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K32" t="s">
         <v>281</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M32" t="s">
         <v>31</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N32" t="s">
         <v>283</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S32" t="s">
         <v>284</v>
       </c>
-      <c r="T31" t="s">
+      <c r="T32" t="s">
         <v>285</v>
       </c>
-      <c r="U31" t="s">
+      <c r="U32" t="s">
         <v>286</v>
       </c>
-      <c r="V31" s="19" t="s">
+      <c r="V32" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W32" t="s">
         <v>287</v>
       </c>
-      <c r="X31" s="19" t="s">
+      <c r="X32" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y32" t="s">
         <v>288</v>
       </c>
-      <c r="Z31" s="19" t="s">
+      <c r="Z32" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AA32" t="s">
         <v>289</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AB32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S32" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" t="s">
-        <v>299</v>
-      </c>
-      <c r="U32" t="s">
-        <v>472</v>
-      </c>
-      <c r="V32" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="W32" t="s">
-        <v>300</v>
-      </c>
-      <c r="X32" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z32" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>291</v>
@@ -3650,90 +3628,57 @@
         <v>31</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K33" t="s">
-        <v>307</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="M33" t="s">
-        <v>309</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="O33" t="s">
-        <v>311</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>313</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>54</v>
       </c>
       <c r="S33" t="s">
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>473</v>
+        <v>299</v>
       </c>
       <c r="U33" t="s">
-        <v>474</v>
-      </c>
-      <c r="V33" t="s">
-        <v>304</v>
+        <v>472</v>
+      </c>
+      <c r="V33" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="W33" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="Y33" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="Z33" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>291</v>
@@ -3741,55 +3686,91 @@
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>316</v>
+      <c r="D34" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>318</v>
+        <v>303</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s">
+        <v>309</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>311</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>313</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="S34" t="s">
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="U34" t="s">
-        <v>488</v>
-      </c>
-      <c r="V34" s="19" t="s">
-        <v>528</v>
+        <v>474</v>
+      </c>
+      <c r="V34" t="s">
+        <v>304</v>
       </c>
       <c r="W34" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="X34" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="Z34" t="s">
-        <v>297</v>
+        <v>308</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>291</v>
@@ -3798,19 +3779,19 @@
         <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J35" t="s">
-        <v>325</v>
+      <c r="J35" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>321</v>
@@ -3822,19 +3803,19 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="U35" t="s">
         <v>488</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="W35" t="s">
         <v>489</v>
       </c>
       <c r="X35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
         <v>490</v>
@@ -3845,7 +3826,7 @@
     </row>
     <row r="36" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>291</v>
@@ -3854,19 +3835,19 @@
         <v>31</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>329</v>
+      <c r="J36" t="s">
+        <v>325</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>321</v>
@@ -3878,19 +3859,19 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="U36" t="s">
         <v>488</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="W36" t="s">
         <v>489</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s">
         <v>490</v>
@@ -3901,7 +3882,7 @@
     </row>
     <row r="37" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>291</v>
@@ -3910,19 +3891,19 @@
         <v>31</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>321</v>
@@ -3934,19 +3915,19 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U37" t="s">
         <v>488</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W37" t="s">
         <v>489</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s">
         <v>490</v>
@@ -3955,9 +3936,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>291</v>
@@ -3966,19 +3947,19 @@
         <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>321</v>
@@ -3990,19 +3971,19 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="U38" t="s">
         <v>488</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W38" t="s">
         <v>489</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Y38" t="s">
         <v>490</v>
@@ -4013,7 +3994,7 @@
     </row>
     <row r="39" spans="1:32" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>291</v>
@@ -4022,19 +4003,19 @@
         <v>31</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J39" t="s">
-        <v>466</v>
+      <c r="J39" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>321</v>
@@ -4046,19 +4027,19 @@
         <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U39" t="s">
         <v>488</v>
       </c>
       <c r="V39" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="W39" t="s">
         <v>489</v>
       </c>
       <c r="X39" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="Y39" t="s">
         <v>490</v>
@@ -4067,40 +4048,70 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>466</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" t="s">
+        <v>498</v>
+      </c>
+      <c r="U40" t="s">
+        <v>488</v>
+      </c>
+      <c r="V40" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="W40" t="s">
+        <v>489</v>
+      </c>
+      <c r="X40" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="S41" t="s">
-        <v>484</v>
-      </c>
-      <c r="T41" t="s">
-        <v>487</v>
-      </c>
-      <c r="U41" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>344</v>
@@ -4108,123 +4119,117 @@
       <c r="C42" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S42" t="s">
+        <v>484</v>
+      </c>
+      <c r="T42" t="s">
+        <v>487</v>
+      </c>
+      <c r="U42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K43" t="s">
         <v>354</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L43" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M43" t="s">
         <v>356</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N43" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O43" t="s">
         <v>358</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q43" t="s">
         <v>360</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="R43" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S43" t="s">
         <v>362</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T43" t="s">
         <v>363</v>
       </c>
-      <c r="U42" t="s">
+      <c r="U43" t="s">
         <v>364</v>
       </c>
-      <c r="V42" s="19" t="s">
+      <c r="V43" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W43" t="s">
         <v>365</v>
       </c>
-      <c r="X42" s="19" t="s">
+      <c r="X43" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y43" t="s">
         <v>366</v>
       </c>
-      <c r="Z42" s="19" t="s">
+      <c r="Z43" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AA43" t="s">
         <v>367</v>
       </c>
-      <c r="AB42" s="19" t="s">
+      <c r="AB43" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC43" t="s">
         <v>368</v>
       </c>
-      <c r="AD42" s="19" t="s">
+      <c r="AD43" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AE43" t="s">
         <v>369</v>
       </c>
-      <c r="AF42" s="19" t="s">
+      <c r="AF43" s="19" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" t="s">
-        <v>493</v>
-      </c>
-      <c r="T43" t="s">
-        <v>487</v>
-      </c>
-      <c r="U43" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>371</v>
@@ -4232,55 +4237,31 @@
       <c r="C44" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>374</v>
+      <c r="D44" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K44" t="s">
-        <v>379</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>380</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="R44" s="6"/>
       <c r="S44" t="s">
-        <v>381</v>
+        <v>493</v>
       </c>
       <c r="T44" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
       <c r="U44" t="s">
-        <v>383</v>
-      </c>
-      <c r="V44" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="W44" t="s">
-        <v>384</v>
-      </c>
-      <c r="X44" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z44" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>371</v>
@@ -4288,73 +4269,100 @@
       <c r="C45" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>387</v>
+      <c r="D45" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
         <v>379</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="15" t="s">
+        <v>380</v>
+      </c>
       <c r="S45" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="T45" t="s">
-        <v>492</v>
+        <v>382</v>
       </c>
       <c r="U45" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="V45" s="19" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W45" t="s">
-        <v>31</v>
-      </c>
-      <c r="X45" t="s">
-        <v>389</v>
+        <v>384</v>
+      </c>
+      <c r="X45" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z45" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>346</v>
+        <v>372</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="J46" s="6"/>
+        <v>379</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="S46" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="T46" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="U46" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="W46" t="s">
+        <v>31</v>
+      </c>
+      <c r="X46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>391</v>
@@ -4362,64 +4370,66 @@
       <c r="C47" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>394</v>
+      <c r="D47" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="S47" t="s">
-        <v>398</v>
-      </c>
-      <c r="T47" s="17" t="s">
-        <v>399</v>
+        <v>500</v>
+      </c>
+      <c r="T47" t="s">
+        <v>487</v>
       </c>
       <c r="U47" t="s">
-        <v>400</v>
-      </c>
-      <c r="V47" s="19" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>346</v>
+        <v>392</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H48" s="6"/>
+        <v>395</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="S48" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="T48" s="17" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="U48" t="s">
-        <v>486</v>
+        <v>400</v>
+      </c>
+      <c r="V48" s="19" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>402</v>
@@ -4427,208 +4437,215 @@
       <c r="C49" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="S49" t="s">
+        <v>501</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="U49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H50" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="J50" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="S49" t="s">
+      <c r="M50" s="1"/>
+      <c r="S50" t="s">
         <v>410</v>
       </c>
-      <c r="T49" s="17" t="s">
+      <c r="T50" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="U49" t="s">
+      <c r="U50" t="s">
         <v>412</v>
       </c>
-      <c r="V49" s="19" t="s">
+      <c r="V50" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="W49" t="s">
+      <c r="W50" t="s">
         <v>413</v>
       </c>
-      <c r="X49" s="19" t="s">
+      <c r="X50" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Y50" t="s">
         <v>31</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Z50" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J51" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K51" t="s">
         <v>422</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L51" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M51" t="s">
         <v>31</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N51" t="s">
         <v>397</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S51" t="s">
         <v>424</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="T51" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U51" t="s">
         <v>426</v>
       </c>
-      <c r="V50" s="19" t="s">
+      <c r="V51" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="W50" t="s">
+      <c r="W51" t="s">
         <v>427</v>
       </c>
-      <c r="X50" s="19" t="s">
+      <c r="X51" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y51" t="s">
         <v>428</v>
       </c>
-      <c r="Z50" s="19" t="s">
+      <c r="Z51" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AA51" t="s">
         <v>31</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AB51" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J52" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L52" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S52" t="s">
         <v>436</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="T52" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="U51" t="s">
+      <c r="U52" t="s">
         <v>438</v>
       </c>
-      <c r="V51" s="19" t="s">
+      <c r="V52" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="W51" t="s">
+      <c r="W52" t="s">
         <v>439</v>
       </c>
-      <c r="X51" s="19" t="s">
+      <c r="X52" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Y52" t="s">
         <v>31</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Z52" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>442</v>
@@ -4636,103 +4653,123 @@
       <c r="C54" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S55" t="s">
         <v>44</v>
       </c>
-      <c r="T54" t="s">
+      <c r="T55" t="s">
         <v>482</v>
       </c>
-      <c r="U54" t="s">
+      <c r="U55" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="136" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:28" ht="136" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K56" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="120" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:28" ht="120" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J62" t="s">
         <v>325</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>395</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M62" t="s">
         <v>403</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N62" t="s">
         <v>333</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O62" t="s">
         <v>416</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P62" t="s">
         <v>337</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="Q62" t="s">
         <v>463</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R62" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4740,97 +4777,97 @@
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" display="https://www.youtube.com/watch_popup?v=MlzTMeEtZbI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J42" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L42" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="R42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="V8" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
-    <hyperlink ref="V9" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
-    <hyperlink ref="V10" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
-    <hyperlink ref="V11" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
-    <hyperlink ref="V12" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
-    <hyperlink ref="V13" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
-    <hyperlink ref="V14" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
-    <hyperlink ref="V15" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
-    <hyperlink ref="V16" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
-    <hyperlink ref="V17" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
-    <hyperlink ref="V18" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
-    <hyperlink ref="V19" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
-    <hyperlink ref="V20" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
-    <hyperlink ref="V21" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
-    <hyperlink ref="V22" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
-    <hyperlink ref="V23" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
-    <hyperlink ref="V24" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
-    <hyperlink ref="V25" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
-    <hyperlink ref="V26" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
-    <hyperlink ref="V27" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
-    <hyperlink ref="V29" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
-    <hyperlink ref="V30" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
-    <hyperlink ref="V31" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
-    <hyperlink ref="X31" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
-    <hyperlink ref="Z31" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
-    <hyperlink ref="V32" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
-    <hyperlink ref="V35" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
-    <hyperlink ref="V36" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
-    <hyperlink ref="V37" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
-    <hyperlink ref="V38" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
-    <hyperlink ref="V39" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
-    <hyperlink ref="V42" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
-    <hyperlink ref="X42" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
-    <hyperlink ref="Z42" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
-    <hyperlink ref="AB42" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
-    <hyperlink ref="AD42" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
-    <hyperlink ref="AF42" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
-    <hyperlink ref="V44" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
-    <hyperlink ref="X44" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
-    <hyperlink ref="V45" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
-    <hyperlink ref="V47" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
-    <hyperlink ref="V49" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
-    <hyperlink ref="X49" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
-    <hyperlink ref="V50" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
-    <hyperlink ref="X50" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
-    <hyperlink ref="Z50" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
-    <hyperlink ref="V51" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
-    <hyperlink ref="X51" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V9" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
+    <hyperlink ref="V10" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
+    <hyperlink ref="V11" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
+    <hyperlink ref="V12" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
+    <hyperlink ref="V13" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
+    <hyperlink ref="V14" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
+    <hyperlink ref="V15" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
+    <hyperlink ref="V16" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
+    <hyperlink ref="V17" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
+    <hyperlink ref="V18" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
+    <hyperlink ref="V19" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
+    <hyperlink ref="V20" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
+    <hyperlink ref="V21" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
+    <hyperlink ref="V22" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
+    <hyperlink ref="V23" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
+    <hyperlink ref="V24" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
+    <hyperlink ref="V25" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
+    <hyperlink ref="V26" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
+    <hyperlink ref="V27" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
+    <hyperlink ref="V28" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
+    <hyperlink ref="V30" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
+    <hyperlink ref="V31" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
+    <hyperlink ref="V32" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
+    <hyperlink ref="X32" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
+    <hyperlink ref="Z32" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
+    <hyperlink ref="V33" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
+    <hyperlink ref="V36" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
+    <hyperlink ref="V37" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
+    <hyperlink ref="V38" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
+    <hyperlink ref="V39" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
+    <hyperlink ref="V40" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
+    <hyperlink ref="V43" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
+    <hyperlink ref="X43" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
+    <hyperlink ref="Z43" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
+    <hyperlink ref="AB43" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
+    <hyperlink ref="AD43" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
+    <hyperlink ref="AF43" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
+    <hyperlink ref="V45" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
+    <hyperlink ref="X45" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
+    <hyperlink ref="V46" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
+    <hyperlink ref="V48" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
+    <hyperlink ref="V50" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
+    <hyperlink ref="X50" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
+    <hyperlink ref="V51" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
+    <hyperlink ref="X51" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
+    <hyperlink ref="Z51" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
+    <hyperlink ref="V52" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
+    <hyperlink ref="X52" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
     <hyperlink ref="X4" r:id="rId94" xr:uid="{13BD73C0-86B7-5D4B-8ECE-FE17CDABCBD9}"/>
     <hyperlink ref="H5" r:id="rId95" xr:uid="{8AA57462-518A-4247-8CC2-59A55C8F8A6C}"/>
     <hyperlink ref="J5" r:id="rId96" xr:uid="{4617C12E-6D9F-BA4A-A1F2-5A8C99011EE6}"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE3A24-A444-7745-9AE4-991418756D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAD3D70-669C-8C40-B8C2-F0214D966A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="34240" windowHeight="19840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-20940" windowWidth="38080" windowHeight="20780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="574">
   <si>
     <t>Scene</t>
   </si>
@@ -1555,12 +1555,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=12B2IYOJDnw </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FGxhtFeKAxA </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
   </si>
   <si>
@@ -1708,9 +1702,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Cymru</t>
-  </si>
-  <si>
     <t>taliesinNPCurl1</t>
   </si>
   <si>
@@ -1721,13 +1712,64 @@
   </si>
   <si>
     <t>taliesinNPCurl2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl2</t>
+  </si>
+  <si>
+    <t>pcNPCurl1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=pcNPC] pcNPCurl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=hmWzvGu3N4A  </t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=pcNPC] @p pcNPCurl1</t>
+  </si>
+  <si>
+    <t>wbNPCurl1</t>
+  </si>
+  <si>
+    <t>Cymraeg</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=wbNPC] @p wbNPCurl1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw  </t>
+  </si>
+  <si>
+    <t>mgNPCurl1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mgNPC] @p mgNPCurl1</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=12B2IYOJDnw</t>
+  </si>
+  <si>
+    <t>owNPCurl1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=owNPC] @p owNPCurl1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=FGxhtFeKAxA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=oYB2UeXA75k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1826,6 +1868,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1854,7 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1893,6 +1941,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2155,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2364,13 +2414,13 @@
         <v>33</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
+      <c r="J4" s="21" t="s">
+        <v>557</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>37</v>
@@ -2392,13 +2442,13 @@
         <v>39</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="19" t="s">
-        <v>552</v>
+      <c r="X4" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>41</v>
@@ -2406,7 +2456,7 @@
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
@@ -2415,21 +2465,21 @@
         <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -2442,24 +2492,24 @@
         <v>31</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="V5" s="19" t="s">
         <v>34</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -2468,18 +2518,22 @@
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>552</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>563</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2487,9 +2541,24 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2589,8 +2658,8 @@
       <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>62</v>
+      <c r="H9" s="22" t="s">
+        <v>561</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>63</v>
@@ -2607,8 +2676,8 @@
       <c r="U9" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="19" t="s">
-        <v>502</v>
+      <c r="V9" s="23" t="s">
+        <v>559</v>
       </c>
       <c r="W9" t="s">
         <v>63</v>
@@ -2619,1326 +2688,1188 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>558</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>551</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>552</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" t="s">
-        <v>75</v>
+        <v>563</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s">
-        <v>67</v>
+        <v>554</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>552</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="W10" t="s">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>82</v>
+      <c r="H11" s="22" t="s">
+        <v>564</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
         <v>67</v>
       </c>
-      <c r="V11" s="19" t="s">
-        <v>504</v>
+      <c r="V11" s="23" t="s">
+        <v>564</v>
       </c>
       <c r="W11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>562</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>551</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>552</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>93</v>
+        <v>563</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>503</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s">
-        <v>96</v>
+        <v>554</v>
       </c>
       <c r="U12" t="s">
-        <v>67</v>
+        <v>552</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>505</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" t="s">
-        <v>94</v>
+        <v>563</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>102</v>
+      <c r="H13" s="22" t="s">
+        <v>567</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="U13" t="s">
         <v>67</v>
       </c>
-      <c r="V13" s="19" t="s">
-        <v>506</v>
+      <c r="V13" s="23" t="s">
+        <v>567</v>
       </c>
       <c r="W13" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>566</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>551</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>552</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" t="s">
-        <v>114</v>
+        <v>563</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>569</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>116</v>
+        <v>554</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>552</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
-      </c>
-      <c r="X14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>121</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>122</v>
+      <c r="H15" s="22" t="s">
+        <v>571</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>467</v>
+        <v>94</v>
       </c>
       <c r="S15" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="T15" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="U15" t="s">
         <v>67</v>
       </c>
-      <c r="V15" s="19" t="s">
-        <v>508</v>
+      <c r="V15" s="23" t="s">
+        <v>571</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="X15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>570</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>130</v>
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>552</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" t="s">
-        <v>133</v>
+        <v>568</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="S16" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="T16" t="s">
-        <v>135</v>
+        <v>554</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>552</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="W16" t="s">
-        <v>136</v>
-      </c>
-      <c r="X16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="S17" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="T17" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="U17" t="s">
         <v>67</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="W17" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="X17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="S18" t="s">
-        <v>152</v>
-      </c>
-      <c r="T18" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" t="s">
-        <v>67</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D18" s="10"/>
+      <c r="H18" s="6"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>158</v>
+        <v>112</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
       </c>
       <c r="S19" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="T19" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="U19" t="s">
         <v>67</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="W19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>467</v>
       </c>
       <c r="S20" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="T20" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="U20" t="s">
         <v>67</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="W20" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="X20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>174</v>
+        <v>129</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>469</v>
+        <v>133</v>
       </c>
       <c r="S21" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="T21" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="U21" t="s">
         <v>67</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="W21" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="X21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="S22" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="T22" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="U22" t="s">
         <v>67</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="W22" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" t="s">
-        <v>468</v>
+        <v>151</v>
       </c>
       <c r="S23" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="T23" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="U23" t="s">
         <v>67</v>
       </c>
       <c r="V23" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="W23" t="s">
-        <v>196</v>
-      </c>
-      <c r="X23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J24" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="S24" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="T24" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="U24" t="s">
         <v>67</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="W24" t="s">
-        <v>206</v>
-      </c>
-      <c r="X24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>213</v>
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>167</v>
       </c>
       <c r="S25" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="T25" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="U25" t="s">
         <v>67</v>
       </c>
       <c r="V25" s="19" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="W25" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="X25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>223</v>
+        <v>176</v>
+      </c>
+      <c r="J26" t="s">
+        <v>469</v>
       </c>
       <c r="S26" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="T26" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="U26" t="s">
         <v>67</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="W26" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="X26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="S27" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="T27" t="s">
-        <v>499</v>
+        <v>188</v>
       </c>
       <c r="U27" t="s">
         <v>67</v>
       </c>
       <c r="V27" s="19" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="X27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>468</v>
       </c>
       <c r="S28" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="T28" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="U28" t="s">
         <v>67</v>
       </c>
       <c r="V28" s="19" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="W28" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>250</v>
+        <v>33</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" t="s">
+        <v>203</v>
       </c>
       <c r="S29" t="s">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="T29" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="U29" t="s">
-        <v>253</v>
-      </c>
-      <c r="V29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="W29" t="s">
+        <v>206</v>
+      </c>
+      <c r="X29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J30" t="s">
-        <v>260</v>
+        <v>212</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="S30" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="T30" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="U30" t="s">
         <v>67</v>
       </c>
       <c r="V30" s="19" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="W30" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>269</v>
+        <v>471</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="S31" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="T31" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="U31" t="s">
         <v>67</v>
       </c>
       <c r="V31" s="19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="X31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>277</v>
+        <v>222</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="K32" t="s">
-        <v>281</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" t="s">
-        <v>283</v>
+        <v>231</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
       </c>
       <c r="S32" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="T32" t="s">
-        <v>285</v>
+        <v>499</v>
       </c>
       <c r="U32" t="s">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="V32" s="19" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
-      </c>
-      <c r="X32" s="19" t="s">
-        <v>525</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="X32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>293</v>
+        <v>237</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L33" t="s">
-        <v>54</v>
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
       </c>
       <c r="S33" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="T33" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="U33" t="s">
-        <v>472</v>
+        <v>67</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z33" s="18" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S34" t="s">
+        <v>251</v>
+      </c>
+      <c r="T34" t="s">
+        <v>252</v>
+      </c>
+      <c r="U34" t="s">
+        <v>253</v>
+      </c>
+      <c r="V34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" t="s">
+        <v>260</v>
+      </c>
+      <c r="S35" t="s">
+        <v>261</v>
+      </c>
+      <c r="T35" t="s">
+        <v>262</v>
+      </c>
+      <c r="U35" t="s">
+        <v>67</v>
+      </c>
+      <c r="V35" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="W35" t="s">
+        <v>263</v>
+      </c>
+      <c r="X35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S36" t="s">
+        <v>271</v>
+      </c>
+      <c r="T36" t="s">
+        <v>272</v>
+      </c>
+      <c r="U36" t="s">
+        <v>67</v>
+      </c>
+      <c r="V36" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="W36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K34" t="s">
-        <v>307</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="M34" t="s">
-        <v>309</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="O34" t="s">
-        <v>311</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>313</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="S34" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" t="s">
-        <v>473</v>
-      </c>
-      <c r="U34" t="s">
-        <v>474</v>
-      </c>
-      <c r="V34" t="s">
-        <v>304</v>
-      </c>
-      <c r="W34" t="s">
-        <v>475</v>
-      </c>
-      <c r="X34" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S35" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" t="s">
-        <v>485</v>
-      </c>
-      <c r="U35" t="s">
-        <v>488</v>
-      </c>
-      <c r="V35" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="W35" t="s">
-        <v>489</v>
-      </c>
-      <c r="X35" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J36" t="s">
-        <v>325</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="S36" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" t="s">
-        <v>491</v>
-      </c>
-      <c r="U36" t="s">
-        <v>488</v>
-      </c>
-      <c r="V36" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="W36" t="s">
-        <v>489</v>
-      </c>
-      <c r="X36" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>297</v>
+      <c r="N37" t="s">
+        <v>283</v>
       </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="T37" t="s">
-        <v>495</v>
+        <v>285</v>
       </c>
       <c r="U37" t="s">
-        <v>488</v>
+        <v>286</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="W37" t="s">
-        <v>489</v>
-      </c>
-      <c r="X37" t="s">
-        <v>329</v>
+        <v>287</v>
+      </c>
+      <c r="X37" s="19" t="s">
+        <v>523</v>
       </c>
       <c r="Y37" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="Z37" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>291</v>
@@ -3946,55 +3877,58 @@
       <c r="C38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>331</v>
+      <c r="D38" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
       </c>
       <c r="S38" t="s">
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>496</v>
+        <v>299</v>
       </c>
       <c r="U38" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="V38" s="19" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="W38" t="s">
-        <v>489</v>
+        <v>300</v>
       </c>
       <c r="X38" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="Y38" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="Z38" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>291</v>
@@ -4002,55 +3936,91 @@
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>335</v>
+      <c r="D39" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>336</v>
+        <v>303</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="s">
+        <v>309</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>311</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>313</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="S39" t="s">
         <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="U39" t="s">
-        <v>488</v>
-      </c>
-      <c r="V39" s="19" t="s">
-        <v>532</v>
+        <v>474</v>
+      </c>
+      <c r="V39" t="s">
+        <v>304</v>
       </c>
       <c r="W39" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="Z39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>291</v>
@@ -4059,19 +4029,19 @@
         <v>31</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>317</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="J40" t="s">
-        <v>466</v>
+      <c r="J40" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>321</v>
@@ -4083,19 +4053,19 @@
         <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="U40" t="s">
         <v>488</v>
       </c>
       <c r="V40" s="19" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="W40" t="s">
         <v>489</v>
       </c>
       <c r="X40" t="s">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s">
         <v>490</v>
@@ -4104,283 +4074,309 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>325</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" t="s">
+        <v>491</v>
+      </c>
+      <c r="U41" t="s">
+        <v>488</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="W41" t="s">
+        <v>489</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S42" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" t="s">
+        <v>495</v>
+      </c>
+      <c r="U42" t="s">
+        <v>488</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="W42" t="s">
+        <v>489</v>
+      </c>
+      <c r="X42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T43" t="s">
+        <v>496</v>
+      </c>
+      <c r="U43" t="s">
+        <v>488</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="W43" t="s">
+        <v>489</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S44" t="s">
+        <v>31</v>
+      </c>
+      <c r="T44" t="s">
+        <v>497</v>
+      </c>
+      <c r="U44" t="s">
+        <v>488</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="W44" t="s">
+        <v>489</v>
+      </c>
+      <c r="X44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J45" t="s">
+        <v>466</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S45" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" t="s">
+        <v>498</v>
+      </c>
+      <c r="U45" t="s">
+        <v>488</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="W45" t="s">
+        <v>489</v>
+      </c>
+      <c r="X45" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="S42" t="s">
-        <v>484</v>
-      </c>
-      <c r="T42" t="s">
-        <v>487</v>
-      </c>
-      <c r="U42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="K43" t="s">
-        <v>354</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="M43" t="s">
-        <v>356</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="O43" t="s">
-        <v>358</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>360</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="S43" t="s">
-        <v>362</v>
-      </c>
-      <c r="T43" t="s">
-        <v>363</v>
-      </c>
-      <c r="U43" t="s">
-        <v>364</v>
-      </c>
-      <c r="V43" s="19" t="s">
-        <v>534</v>
-      </c>
-      <c r="W43" t="s">
-        <v>365</v>
-      </c>
-      <c r="X43" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z43" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB43" s="19" t="s">
-        <v>537</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD43" s="19" t="s">
-        <v>538</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF43" s="19" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" t="s">
-        <v>493</v>
-      </c>
-      <c r="T44" t="s">
-        <v>487</v>
-      </c>
-      <c r="U44" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="K45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="S45" t="s">
-        <v>381</v>
-      </c>
-      <c r="T45" t="s">
-        <v>382</v>
-      </c>
-      <c r="U45" t="s">
-        <v>383</v>
-      </c>
-      <c r="V45" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="W45" t="s">
-        <v>384</v>
-      </c>
-      <c r="X45" s="19" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z45" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="S46" t="s">
-        <v>493</v>
-      </c>
-      <c r="T46" t="s">
-        <v>492</v>
-      </c>
-      <c r="U46" t="s">
-        <v>494</v>
-      </c>
-      <c r="V46" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="W46" t="s">
-        <v>31</v>
-      </c>
-      <c r="X46" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D47" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>346</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="L47" s="6"/>
       <c r="S47" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="T47" t="s">
         <v>487</v>
@@ -4389,53 +4385,107 @@
         <v>486</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>397</v>
+        <v>352</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K48" t="s">
+        <v>354</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="s">
+        <v>356</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>358</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>360</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="S48" t="s">
-        <v>398</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>399</v>
+        <v>362</v>
+      </c>
+      <c r="T48" t="s">
+        <v>363</v>
       </c>
       <c r="U48" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="V48" s="19" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="W48" t="s">
+        <v>365</v>
+      </c>
+      <c r="X48" s="19" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z48" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB48" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD48" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF48" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>346</v>
@@ -4444,433 +4494,641 @@
         <v>347</v>
       </c>
       <c r="H49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="R49" s="6"/>
       <c r="S49" t="s">
-        <v>501</v>
-      </c>
-      <c r="T49" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="T49" t="s">
         <v>487</v>
       </c>
       <c r="U49" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="K50" t="s">
+        <v>379</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="S50" t="s">
+        <v>381</v>
+      </c>
+      <c r="T50" t="s">
+        <v>382</v>
+      </c>
+      <c r="U50" t="s">
+        <v>383</v>
+      </c>
+      <c r="V50" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="W50" t="s">
+        <v>384</v>
+      </c>
+      <c r="X50" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z50" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="S51" t="s">
+        <v>493</v>
+      </c>
+      <c r="T51" t="s">
+        <v>492</v>
+      </c>
+      <c r="U51" t="s">
+        <v>494</v>
+      </c>
+      <c r="V51" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="W51" t="s">
+        <v>31</v>
+      </c>
+      <c r="X51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="S52" t="s">
+        <v>500</v>
+      </c>
+      <c r="T52" t="s">
+        <v>487</v>
+      </c>
+      <c r="U52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S53" t="s">
+        <v>398</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="U53" t="s">
+        <v>400</v>
+      </c>
+      <c r="V53" s="19" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="S54" t="s">
+        <v>501</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="U54" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="S50" t="s">
+      <c r="M55" s="1"/>
+      <c r="S55" t="s">
         <v>410</v>
       </c>
-      <c r="T50" s="17" t="s">
+      <c r="T55" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="U50" t="s">
+      <c r="U55" t="s">
         <v>412</v>
       </c>
-      <c r="V50" s="19" t="s">
+      <c r="V55" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="W55" t="s">
+        <v>413</v>
+      </c>
+      <c r="X55" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" t="s">
+        <v>422</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" t="s">
+        <v>397</v>
+      </c>
+      <c r="S56" t="s">
+        <v>424</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="U56" t="s">
+        <v>426</v>
+      </c>
+      <c r="V56" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="W50" t="s">
-        <v>413</v>
-      </c>
-      <c r="X50" s="19" t="s">
+      <c r="W56" t="s">
+        <v>427</v>
+      </c>
+      <c r="X56" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z56" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA56" t="s">
         <v>31</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AB56" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="57" spans="1:28" ht="75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S57" t="s">
+        <v>436</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="U57" t="s">
+        <v>438</v>
+      </c>
+      <c r="V57" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="W57" t="s">
+        <v>439</v>
+      </c>
+      <c r="X57" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S60" t="s">
+        <v>44</v>
+      </c>
+      <c r="T60" t="s">
+        <v>482</v>
+      </c>
+      <c r="U60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="136" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="K61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="120" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J67" t="s">
+        <v>325</v>
+      </c>
+      <c r="K67" t="s">
+        <v>395</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M67" t="s">
+        <v>403</v>
+      </c>
+      <c r="N67" t="s">
+        <v>333</v>
+      </c>
+      <c r="O67" t="s">
         <v>416</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="K51" t="s">
-        <v>422</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="M51" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" t="s">
-        <v>397</v>
-      </c>
-      <c r="S51" t="s">
-        <v>424</v>
-      </c>
-      <c r="T51" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="U51" t="s">
-        <v>426</v>
-      </c>
-      <c r="V51" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="W51" t="s">
-        <v>427</v>
-      </c>
-      <c r="X51" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z51" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" ht="75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="S52" t="s">
-        <v>436</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="U52" t="s">
-        <v>438</v>
-      </c>
-      <c r="V52" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="W52" t="s">
-        <v>439</v>
-      </c>
-      <c r="X52" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="S55" t="s">
-        <v>44</v>
-      </c>
-      <c r="T55" t="s">
-        <v>482</v>
-      </c>
-      <c r="U55" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="136" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="K56" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="120" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J62" t="s">
-        <v>325</v>
-      </c>
-      <c r="K62" t="s">
-        <v>395</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M62" t="s">
-        <v>403</v>
-      </c>
-      <c r="N62" t="s">
-        <v>333</v>
-      </c>
-      <c r="O62" t="s">
-        <v>416</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="P67" t="s">
         <v>337</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="Q67" t="s">
         <v>463</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R67" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" display="https://www.youtube.com/watch_popup?v=MlzTMeEtZbI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H20" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H43" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N43" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="R43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H48" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H50" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J50" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H52" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="V9" r:id="rId46" xr:uid="{CBB426DC-F739-D548-AA21-E0687D696921}"/>
-    <hyperlink ref="V10" r:id="rId47" xr:uid="{C10A2540-F0B8-1446-AAD8-E3A6B141577F}"/>
-    <hyperlink ref="V11" r:id="rId48" xr:uid="{DDED1953-5BB5-0245-8E0A-BD775BD5CFBE}"/>
-    <hyperlink ref="V12" r:id="rId49" xr:uid="{273DB7A2-E4F5-214A-9F67-CFC5A02FAD35}"/>
-    <hyperlink ref="V13" r:id="rId50" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
-    <hyperlink ref="V14" r:id="rId51" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
-    <hyperlink ref="V15" r:id="rId52" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
-    <hyperlink ref="V16" r:id="rId53" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
-    <hyperlink ref="V17" r:id="rId54" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
-    <hyperlink ref="V18" r:id="rId55" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
-    <hyperlink ref="V19" r:id="rId56" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
-    <hyperlink ref="V20" r:id="rId57" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
-    <hyperlink ref="V21" r:id="rId58" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
-    <hyperlink ref="V22" r:id="rId59" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
-    <hyperlink ref="V23" r:id="rId60" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
-    <hyperlink ref="V24" r:id="rId61" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
-    <hyperlink ref="V25" r:id="rId62" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
-    <hyperlink ref="V26" r:id="rId63" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
-    <hyperlink ref="V27" r:id="rId64" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
-    <hyperlink ref="V28" r:id="rId65" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
-    <hyperlink ref="V30" r:id="rId66" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
-    <hyperlink ref="V31" r:id="rId67" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
-    <hyperlink ref="V32" r:id="rId68" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
-    <hyperlink ref="X32" r:id="rId69" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
-    <hyperlink ref="Z32" r:id="rId70" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
-    <hyperlink ref="V33" r:id="rId71" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
-    <hyperlink ref="V36" r:id="rId72" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
-    <hyperlink ref="V37" r:id="rId73" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
-    <hyperlink ref="V38" r:id="rId74" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
-    <hyperlink ref="V39" r:id="rId75" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
-    <hyperlink ref="V40" r:id="rId76" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
-    <hyperlink ref="V43" r:id="rId77" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
-    <hyperlink ref="X43" r:id="rId78" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
-    <hyperlink ref="Z43" r:id="rId79" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
-    <hyperlink ref="AB43" r:id="rId80" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
-    <hyperlink ref="AD43" r:id="rId81" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
-    <hyperlink ref="AF43" r:id="rId82" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
-    <hyperlink ref="V45" r:id="rId83" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
-    <hyperlink ref="X45" r:id="rId84" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
-    <hyperlink ref="V46" r:id="rId85" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
-    <hyperlink ref="V48" r:id="rId86" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
-    <hyperlink ref="V50" r:id="rId87" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
-    <hyperlink ref="X50" r:id="rId88" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
-    <hyperlink ref="V51" r:id="rId89" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
-    <hyperlink ref="X51" r:id="rId90" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
-    <hyperlink ref="Z51" r:id="rId91" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
-    <hyperlink ref="V52" r:id="rId92" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
-    <hyperlink ref="X52" r:id="rId93" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
-    <hyperlink ref="X4" r:id="rId94" xr:uid="{13BD73C0-86B7-5D4B-8ECE-FE17CDABCBD9}"/>
-    <hyperlink ref="H5" r:id="rId95" xr:uid="{8AA57462-518A-4247-8CC2-59A55C8F8A6C}"/>
-    <hyperlink ref="J5" r:id="rId96" xr:uid="{4617C12E-6D9F-BA4A-A1F2-5A8C99011EE6}"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H11" r:id="rId3" display="https://www.youtube.com/watch_popup?v=4MR0oEiq7pA " xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H28" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H31" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H33" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H40" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H48" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J48" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="R48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H53" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J55" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H56" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J56" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J57" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="V17" r:id="rId43" xr:uid="{836E1576-B0E7-8B42-BB6E-E3946A216D1D}"/>
+    <hyperlink ref="V19" r:id="rId44" xr:uid="{9CF0074B-C1CD-6948-8A7B-B1765512B221}"/>
+    <hyperlink ref="V20" r:id="rId45" xr:uid="{C0C3203C-E2CE-BB47-8549-1C049581DB25}"/>
+    <hyperlink ref="V21" r:id="rId46" xr:uid="{E9DA74CD-CD1B-1B46-A7E9-5FF6085BF6DE}"/>
+    <hyperlink ref="V22" r:id="rId47" xr:uid="{19F9EC0A-74CE-A64B-909B-A47F6A5637FD}"/>
+    <hyperlink ref="V23" r:id="rId48" xr:uid="{ACC77904-AC54-AC4A-ABB1-5BF9FB80B5C0}"/>
+    <hyperlink ref="V24" r:id="rId49" xr:uid="{91915A19-C7CF-6B4A-B5DB-DC2FA94703AE}"/>
+    <hyperlink ref="V25" r:id="rId50" xr:uid="{BE011199-0247-3B46-9465-29454F2AF830}"/>
+    <hyperlink ref="V26" r:id="rId51" xr:uid="{2155D055-A34D-1E4D-8BD0-D27B82424086}"/>
+    <hyperlink ref="V27" r:id="rId52" xr:uid="{BD05384B-EF94-1745-97BA-D6EC45F6470E}"/>
+    <hyperlink ref="V28" r:id="rId53" xr:uid="{D7382753-F3A7-204D-B1A1-04FB78B8B7C2}"/>
+    <hyperlink ref="V29" r:id="rId54" xr:uid="{3579F918-51B8-5041-9DB2-649857181261}"/>
+    <hyperlink ref="V30" r:id="rId55" xr:uid="{253D681F-81F4-4140-9294-F13AF8FD0839}"/>
+    <hyperlink ref="V31" r:id="rId56" xr:uid="{3A3A42CA-5012-A943-A547-C1B027A06BC6}"/>
+    <hyperlink ref="V32" r:id="rId57" xr:uid="{30A1E153-6767-8C41-AB7C-AB563FC6700D}"/>
+    <hyperlink ref="V33" r:id="rId58" xr:uid="{87415D9D-7BF2-0B47-822D-84E44F635BB4}"/>
+    <hyperlink ref="V35" r:id="rId59" xr:uid="{CB93003A-4CE5-6A47-89C8-EAF820D71EB5}"/>
+    <hyperlink ref="V36" r:id="rId60" xr:uid="{08D7BD7E-35AB-724B-BE21-846A2432CC3B}"/>
+    <hyperlink ref="V37" r:id="rId61" xr:uid="{447B3E98-E7C4-5843-B07A-E84ED6BCF092}"/>
+    <hyperlink ref="X37" r:id="rId62" xr:uid="{66B88B33-C21B-6544-AED9-C4B153C29709}"/>
+    <hyperlink ref="Z37" r:id="rId63" xr:uid="{9E096C5B-F270-2548-A7F4-23356149B0FF}"/>
+    <hyperlink ref="V38" r:id="rId64" xr:uid="{DF7074C6-D2D8-CB47-96B5-166B3B2990BA}"/>
+    <hyperlink ref="V41" r:id="rId65" xr:uid="{AB58298C-EDD9-BB42-A336-B9053280D98E}"/>
+    <hyperlink ref="V42" r:id="rId66" xr:uid="{6720F84D-8C5C-9F4A-8CF1-6AD076022995}"/>
+    <hyperlink ref="V43" r:id="rId67" xr:uid="{F0F7D555-063A-104E-9C85-1F035863B304}"/>
+    <hyperlink ref="V44" r:id="rId68" xr:uid="{74477213-0464-C147-B5CD-41D59C323CCC}"/>
+    <hyperlink ref="V45" r:id="rId69" xr:uid="{D38B8582-27CE-374A-94D5-62878BA2FF3A}"/>
+    <hyperlink ref="V48" r:id="rId70" xr:uid="{DCA7FB0F-9FF5-174E-BD70-E1CDE9C44BB0}"/>
+    <hyperlink ref="X48" r:id="rId71" xr:uid="{512F9111-4E8D-6142-9A2C-1E93886B1D4D}"/>
+    <hyperlink ref="Z48" r:id="rId72" xr:uid="{BB48C4FC-EE11-9F4A-AB02-0BB964CE2F7D}"/>
+    <hyperlink ref="AB48" r:id="rId73" xr:uid="{298A790C-B4F5-EE46-ACF0-221A9E907816}"/>
+    <hyperlink ref="AD48" r:id="rId74" xr:uid="{3D2448C2-3288-6D40-96DE-FD952C503B81}"/>
+    <hyperlink ref="AF48" r:id="rId75" xr:uid="{E817AA1E-55C8-9343-AF85-B1BB54171A6E}"/>
+    <hyperlink ref="V50" r:id="rId76" xr:uid="{5058248D-CF18-3B4C-A3BC-BF9DEB804D19}"/>
+    <hyperlink ref="X50" r:id="rId77" xr:uid="{98865962-1F1C-BC45-A50A-3B4240EF50FE}"/>
+    <hyperlink ref="V51" r:id="rId78" xr:uid="{7138C55C-2C31-8F4A-A5C3-2755BD33A3ED}"/>
+    <hyperlink ref="V53" r:id="rId79" xr:uid="{95FE3FA1-4CE6-814D-B7BA-70FC8883DDB4}"/>
+    <hyperlink ref="V55" r:id="rId80" xr:uid="{16B822A3-20E2-1A4A-A273-C0DF296E8434}"/>
+    <hyperlink ref="X55" r:id="rId81" xr:uid="{9549F2F4-E2E5-1A4C-8272-313C4909B9C1}"/>
+    <hyperlink ref="V56" r:id="rId82" xr:uid="{4629FF2A-1285-1740-925C-90F0DCD90334}"/>
+    <hyperlink ref="X56" r:id="rId83" xr:uid="{A5910110-E988-8945-851F-D8611AF72255}"/>
+    <hyperlink ref="Z56" r:id="rId84" xr:uid="{E4B50E01-91B5-6341-9B1A-BF2D3F4FCB4F}"/>
+    <hyperlink ref="V57" r:id="rId85" xr:uid="{8472B10C-CEBE-8047-A825-1B8AE21B5F15}"/>
+    <hyperlink ref="X57" r:id="rId86" xr:uid="{45B8FED6-FED2-FF46-AEAC-9F6BB51E32FF}"/>
+    <hyperlink ref="H5" r:id="rId87" xr:uid="{8AA57462-518A-4247-8CC2-59A55C8F8A6C}"/>
+    <hyperlink ref="J5" r:id="rId88" xr:uid="{4617C12E-6D9F-BA4A-A1F2-5A8C99011EE6}"/>
+    <hyperlink ref="H6" r:id="rId89" xr:uid="{8BB81C28-C0A5-474D-8F2D-D8AC8261E27C}"/>
+    <hyperlink ref="X5" r:id="rId90" xr:uid="{FB26A92B-8A8A-3F44-A706-3E2B8925806F}"/>
+    <hyperlink ref="V6" r:id="rId91" xr:uid="{F7EAF243-3898-9041-A09D-C69A9B955D0D}"/>
+    <hyperlink ref="J10" r:id="rId92" xr:uid="{5C7BCD69-71A6-9149-BC26-00E63EB94DF7}"/>
+    <hyperlink ref="H10" r:id="rId93" xr:uid="{23A4DE05-1BF7-7F43-8345-3C3BEB79AF12}"/>
+    <hyperlink ref="X10" r:id="rId94" xr:uid="{5BC4F6B9-24AC-4A40-8472-6269DC82C03A}"/>
+    <hyperlink ref="H12" r:id="rId95" xr:uid="{BA90244A-FF5C-BC4A-AAF3-006C070FD3E1}"/>
+    <hyperlink ref="V12" r:id="rId96" display="https://www.youtube.com/watch_popup?v=4MR0oEiq7pA" xr:uid="{93CE5E1D-52FE-674C-BE7D-85CDADD8842A}"/>
+    <hyperlink ref="X12" r:id="rId97" xr:uid="{DCCD6EC6-2BB1-554E-B0BF-E2409D55B5F8}"/>
+    <hyperlink ref="J14" r:id="rId98" xr:uid="{7672BB88-E359-E846-922C-723D710F6ECE}"/>
+    <hyperlink ref="H14" r:id="rId99" xr:uid="{48F7DEC7-764A-8946-9288-09B02FE996C2}"/>
+    <hyperlink ref="X14" r:id="rId100" xr:uid="{EF467DB2-D87D-964E-AAD8-DEC907C623E6}"/>
+    <hyperlink ref="J16" r:id="rId101" xr:uid="{229E77C3-1FD4-9B47-83A3-2AB11A86952E}"/>
+    <hyperlink ref="H16" r:id="rId102" xr:uid="{4EC4C549-D1AC-CF49-B24A-0EAC29A4EC78}"/>
+    <hyperlink ref="V16" r:id="rId103" xr:uid="{2E5EAF7C-EAAA-AC48-8FEA-3D3A04848A07}"/>
+    <hyperlink ref="X16" r:id="rId104" xr:uid="{BAF3D3C7-4BDF-3A49-988A-949BB91D12CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK113"/>
+  <dimension ref="A1:AK110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1</t>
+          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url0</t>
+          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Mynyddoedd uchel, llynnoedd, arfordiroedd a chestyll. Gwlad lle mae hanes a natur yn cydblethu mewn tapestri bythgofiadwy. Fy enw i yw Taliesin, ac rwy'n eich gwahodd i deithio trwy dirnodau mwyaf cyfareddol y wlad gyfriniol hon. Archwilio’r rhyfeddodau sy’n gwneud Cymru’n lle hudolus. Cliciwch ar y botwm ‘Darganfod Mwy’.</t>
+          <t>Mynyddoedd uchel, llynnoedd, arfordiroedd a chestyll. Gwlad lle mae hanes a natur yn cydblethu mewn tapestri bythgofiadwy. Fy enw i yw Taliesin, a dw i'n eich gwahodd i deithio trwy dirnodau mwyaf cyfareddol y wlad gyfriniol hon. Archwilio’r rhyfeddodau sy’n gwneud Cymru’n lle hudolus. Cliciwch ar y botwm ‘Darganfod Mwy’.</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1</t>
+          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url2</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url1</t>
+          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPC1url3</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -812,46 +812,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>taliesinNPCurl1</t>
+          <t>dragonNPC1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>taliesinNPC</t>
+          <t>dragonNPC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Lleu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>What language would you like to view the video in?</t>
+          <t>I am Lleu, the Dragon, and I love to play and go on adventures. My favourite game is ‘Hide and Seek.’ I will hide in various spots at every Cadw site! Come find me and take a picture of me to add to your ‘field journal.’</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1url0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cymru</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1url1</t>
-        </is>
-      </c>
+          <t>Thanks!</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -862,34 +850,22 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Lleu</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
+          <t>Lleu'r Ddraig ydw i, a dw i wrth fy modd yn chwarae a mynd ar antur. Fy hoff gêm yw ‘Chwarae Cuddio’. Byddaf yn cuddio mewn gwahanol lefydd o fewn y safle Cadw! Dewch i edrych amdanaf a thynnwch lun ohonof i ychwanegu i’ch dyddiadur.</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1url2</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Cymru</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinNPC] @p taliesinNPCurl1url3</t>
-        </is>
-      </c>
+          <t>Diolch</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -907,38 +883,46 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>taliesinNPCurl2</t>
+          <t>welcomeNPC1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>taliesinNPC</t>
+          <t>welcomeNPC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>What language would you like to view the video in?</t>
+          <t>Welcome, curious explorer, to your virtual tour of Conwy Castle! Come embark on an adventure filled with wonders and excitement. So, pack your imagination, and let's go on an unforgettable journey! Walk past the Outer Gate and up the ramp or click the ‘Portcullis’ Button below to be teleported there.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Outer Gate</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Cymru</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>Galeri</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -947,12 +931,36 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Croeso</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Croeso, fforiwr chwilfrydig, i'ch taith rithwir o amgylch Castell Conwy! Dewch i gychwyn ar antur sy'n llawn rhyfeddodau a chyffro. Felly, paciwch eich dychymyg, a gadewch i ni fynd ar daith fythgofiadwy! Cerddwch heibio’r Porth Allanol ac i fyny’r ramp neu gliciwch ar y botwm ‘Porthcwlis’ isod i gael eich telegludo yno.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Porthcwlis</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galeri </t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -970,34 +978,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dragonNPC1</t>
+          <t>pcNPC1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dragonNPC</t>
+          <t>pcNPC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lleu</t>
+          <t>Portcullis Custodian</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>I am Lleu, the Dragon, and I love to play and go on adventures. My favourite game is ‘Hide and Seek.’ I will hide in various spots at every Cadw site! Come find me and take a picture of me to add to your ‘field journal.’</t>
+          <t xml:space="preserve">Welcome to the original entrance of Conwy Castle. As you approach this ancient fortress, step back in time to an era of knights and kings, where the walls of this castle hold tales of adventure. First, click the ‘Find Out More’ Button below. Then walk onto the Barbican or click the ‘Barbican’ button to teleport. </t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Thanks!</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>Find Out More</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=pcNPC] @p pcNPC1url0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Barbican</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1008,22 +1028,34 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Lleu</t>
+          <t>Ceidwad Porthwlis</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Lleu'r Ddraig ydw i, a dwi wrth fy modd yn chwarae a mynd ar antur. Fy hoff gêm yw ‘Chwarae Cuddio’. Byddaf yn cuddio mewn gwahanol lefydd o fewn y safle Cadw! Dewch i edrych amdanaf a thynnwch lun ohonof i ychwanegu i’ch dyddiadur.</t>
+          <t>Croeso i fynedfa wreiddiol Castell Conwy. Wrth i chi agosáu at y gaer hynafol hon, camwch yn ôl mewn amser i oes o farchogion a brenhinoedd, lle mae muriau'r castell hwn yn dal straeon am antur. Yn gyntaf, cliciwch ar y botwm ‘Darganfod Mwy’ isod. Yna cerddwch ar y Barbican neu gliciwch ar y botwm ‘Barbican’ i delegludo.</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Diolch</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+          <t xml:space="preserve">Darganfod Mwy </t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=pcNPC] @p pcNPC1url1</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Barbican</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -1041,44 +1073,44 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>welcomeNPC1</t>
+          <t>wbNPC1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>welcomeNPC</t>
+          <t>wbNPC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>West Barbican Custodian</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Welcome, curious explorer, to your virtual tour of Conwy Castle! Come embark on an adventure filled with wonders and excitement. So, pack your imagination, and let's go on an unforgettable journey! Walk past the Outer Gate and up the ramp or click the ‘Portcullis’ Button below to be teleported there.</t>
+          <t>As you step into the Barbican, you are surrounded by formidable defences designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Outer Gate</t>
+          <t>Find Out More</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+          <t>dialogue open @e[tag=wbNPC] @p wbNPC1url0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Galeri</t>
+          <t>Main Gate</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+          <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -1091,32 +1123,32 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Croeso</t>
+          <t>Ceidwad Barbican Gorllewinol</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Croeso, fforiwr chwilfrydig, i'ch taith rithwir o amgylch Castell Conwy! Dewch i gychwyn ar antur sy'n llawn rhyfeddodau a chyffro. Felly, paciwch eich dychymyg, a gadewch i ni fynd ar daith fythgofiadwy! Cerddwch heibio’r Porth Allanol ac i fyny’r ramp neu cliciwch ar y botwm ‘Porthcwlis’ isod i gael eich teleportio yno.</t>
+          <t>Wrth i chi gamu i'r Barbican, cewch eich amgylchynu gan amddiffynfeydd aruthrol sydd wedi'u cynllunio i wrthsefyll yr ymosodiadau mwyaf ffyrnig. Ar hyd y waliau, byddwch yn sylwi ar agoriadau bach o'r enw "tyllau llofruddiaeth." I ddysgu mwy, cliciwch ar y botwm 'Darganfod Mwy'. Yna, ewch ymlaen i'r Prif Borth neu cliciwch ar y botwm 'Prif Borth' i delegludo.</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Porthcwlis</t>
+          <t xml:space="preserve">Darganfod Mwy </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>tp @p 9939 40 10178 facing 9936 40 10178</t>
+          <t>dialogue open @e[tag=wbNPC] @p wbNPC1url1</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Galeri </t>
+          <t xml:space="preserve">Prif Borth </t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+          <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
@@ -1136,22 +1168,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pcNPC1</t>
+          <t>mgNPC1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pcNPC</t>
+          <t>mgNPC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Portcullis Custodian</t>
+          <t>Main Gate Custodian</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to the original entrance of Conwy Castle. As you approach this ancient fortress, step back in time to an era of knights and kings, where the walls of this castle hold tales of adventure. First, click the ‘Find Out More’ Button below. Then walk onto the Barbican or click the ‘Barbican’ button to teleport. </t>
+          <t>You enter the historic fortress here, giving you a glimpse of a bygone era. Towering walls and imposing architecture beckon you to immerse yourself in the rich tapestry of medieval life. Click the ‘Find Out More' button. Then, walk through the gateway into the Outer Ward or click the ‘Outer Ward’ button to be teleported.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1163,17 +1195,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=pcNPC] @p pcNPC1url0</t>
+          <t>dialogue open @e[tag=mgNPC] @p mgNPC1url0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Barbican</t>
+          <t>Outer Ward</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+          <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1186,12 +1218,12 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Ceidwad Porthwlis</t>
+          <t xml:space="preserve">Ceidwad y Prif Borth </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Croeso i fynedfa wreiddiol Castell Conwy. Wrth i chi agosáu at y gaer hynafol hon, camwch yn ôl mewn amser i oes o farchogion a brenhinoedd, lle mae muriau'r castell hwn yn dal straeon am antur. Yn gyntaf, cliciwch ar y botwm ‘Darganfod Mwy’ isod. Yna cerddwch ar y Barbican neu cliciwch ar y botwm ‘Barbican’ i deleportio.</t>
+          <t>Rydych chi'n mynd i mewn i'r gaer hanesyddol yma, gan roi cipolwg i chi o'r oes a fu. Mae waliau anferth a phensaernïaeth fawreddog yn eich annog i ymgolli yn nhapestri cyfoethog bywyd canoloesol. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna, cerddwch drwy’r porth i’r Ward Allanol neu gliciwch ar y botwm ‘Ward Allanol’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1201,17 +1233,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=pcNPC] @p pcNPC1url1</t>
+          <t>dialogue open @e[tag=mgNPC] @p mgNPC1url1</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Barbican</t>
+          <t xml:space="preserve">Ward Allanol </t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>tp @p 9941 52 10217 facing 9943 52 10220</t>
+          <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
@@ -1231,22 +1263,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>wbNPC1</t>
+          <t>owNPC1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wbNPC</t>
+          <t>owNPC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Barbican Custodian</t>
+          <t>Outer Ward Custodian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>As you step into the Barbican, you are surrounded by formidable defences designed to withstand the fiercest assaults. Along the walls, you'll notice small openings called "murder holes." To learn more, click the 'Find Out More' button. Then, proceed to the Main Gate or click 'Main Gate' button to teleport.</t>
+          <t>You now enter the Outer Ward. A hive of activity, bustling with soldiers and townspeople going about their daily lives. It is home to individuals who maintain the fortress and support its inhabitants. Click the ‘Find Out More’ button. Then explore the North-West Tower or click the ‘North-West Tower’ button to be teleported.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1258,17 +1290,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wbNPC] @p wbNPC1url0</t>
+          <t>dialogue open @e[tag=owNPC] @p owNPC1url0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Main Gate</t>
+          <t>North West Tower</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
+          <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1281,12 +1313,12 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Ceidwad Barbican Gorllewinol</t>
+          <t>Ceidwad Ward Allanol</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Wrth i chi gamu i'r Barbican, cewch eich amgylchynu gan amddiffynfeydd aruthrol sydd wedi'u cynllunio i wrthsefyll yr ymosodiadau mwyaf ffyrnig. Ar hyd y waliau, byddwch yn sylwi ar agoriadau bach o'r enw "tyllau llofruddiaeth." I ddysgu mwy, cliciwch ar y botwm 'Darganfod Mwy'. Yna, ewch ymlaen i'r Prif Borth neu cliciwch ar y botwm 'Prif Borth' i deleportio.</t>
+          <t>Rydych chi nawr yn mynd i mewn i'r Ward Allanol. Yn fwrlwm o weithgarwch, yn fwrlwm o filwyr a phobl y dref yn mynd o gwmpas eu bywydau bob dydd. Mae'n gartref i unigolion sy'n cynnal y gaer ac yn cynnal ei thrigolion. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna archwiliwch Tŵr y Gogledd-Orllewin neu gliciwch ar y botwm ‘Tŵr y Gogledd-Orllewin’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1296,17 +1328,17 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wbNPC] @p wbNPC1url1</t>
+          <t>dialogue open @e[tag=owNPC] @p owNPC1url1</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prif Borth </t>
+          <t xml:space="preserve">Tŵr y Gogledd-Orllewin </t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>tp @p 9954 52 10222 facing 9959 52 10224</t>
+          <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
@@ -1326,22 +1358,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mgNPC1</t>
+          <t>nwtNPC1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mgNPC</t>
+          <t>nwtNPC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Main Gate Custodian</t>
+          <t>North-West Tower Custodian</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>You enter the historic fortress here, giving you a glimpse of a bygone era. Towering walls and imposing architecture beckon you to immerse yourself in the rich tapestry of medieval life. Click the ‘Find Out More' button. Then, walk through the gateway into the Outer Ward or click the ‘Outer Ward’ button to be teleported.</t>
+          <t xml:space="preserve">The North-West Tower, with its unique blend of practicality and comfort, is a remarkable example of medieval architecture. You can delve into the features of the North-West Tower by clicking the ‘Find out More’ button. Then go to the South-West Tower. You can walk or click the ‘South-West Tower’ button to be teleported.  </t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1353,17 +1385,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=mgNPC] @p mgNPC1url0</t>
+          <t>dialogue open @e[tag=nwtNPC] @p nwtNPC1url0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Outer Ward</t>
+          <t>South-West Tower</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
+          <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1376,12 +1408,12 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Prif Borth </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Gogledd-Orllewin </t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Rydych chi'n mynd i mewn i'r gaer hanesyddol yma, gan roi cipolwg i chi o'r oes a fu. Mae waliau anferth a phensaernïaeth fawreddog yn eich annog i ymgolli yn nhapestri cyfoethog bywyd canoloesol. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna, cerddwch drwy’r porth i’r Ward Allanol neu cliciwch ar y botwm ‘Ward Allanol’ i gael eich teleportio.</t>
+          <t>Mae Tŵr y Gogledd-Orllewin, gyda’i gyfuniad unigryw o ymarferoldeb a chysur, yn enghraifft ryfeddol o bensaernïaeth ganoloesol. Gallwch ymchwilio i nodweddion Tŵr y Gogledd-Orllewin trwy glicio ar y botwm ‘Darganfod Mwy’. Yna ewch i'r Tŵr De-Orllewin. Gallwch gerdded neu glicio ar y botwm ‘Tŵr y De-Orllewin’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1391,17 +1423,17 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=mgNPC] @p mgNPC1url1</t>
+          <t>dialogue open @e[tag=nwtNPC] @p nwtNPC1url1</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ward Allanol </t>
+          <t xml:space="preserve">Tŵr y De-Orllewin </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>tp @p 9972 52 10217 facing 9975 52 10217</t>
+          <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
@@ -1421,22 +1453,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>owNPC1</t>
+          <t>swtNPC1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>owNPC</t>
+          <t>swtNPC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Outer Ward Custodian</t>
+          <t>South-West Tower Custodian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>You now enter the Outer Ward. A hive of activity, bustling with soldiers and townspeople going about their daily lives. It is home to individuals who maintain the fortress and support its inhabitants. Click the ‘Find Out More’ button. Then explore the North-West Tower or click the ‘North-West Tower’ button to be teleported.</t>
+          <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1448,17 +1480,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=owNPC] @p owNPC1url0</t>
+          <t>dialogue open @e[tag=swtNPC] @p swtNPC1url0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>North West Tower</t>
+          <t>Chapel</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
+          <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1471,12 +1503,12 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Ceidwad Ward Allanol</t>
+          <t xml:space="preserve">Ceidwad Tŵr y De-Orllewin </t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Rydych chi nawr yn mynd i mewn i'r Ward Allanol. Yn fwrlwm o weithgarwch, yn fwrlwm o filwyr a phobl y dref yn mynd o gwmpas eu bywydau bob dydd. Mae'n gartref i unigolion sy'n cynnal y gaer ac yn cynnal ei thrigolion. Cliciwch ar y botwm ‘Darganfod Mwy’. Yna archwiliwch Tŵr y Gogledd-Orllewin neu cliciwch ar y botwm ‘Tŵr y Gogledd-Orllewin’ i gael eich teleportio.</t>
+          <t>Cliciwch ar y botwm ‘Darganfod Mwy’ i ddysgu mwy am Dŵr y De-Orllewin a’i rôl o fewn cymuned brysur y castell. Yna dylech chi gerdded ar hyd ochr dde-orllewinol y castell ac archwilio'r Capel a'r Neuadd Fawr. Cerddwch drosodd neu gewch eich telegludo trwy glicio ar y botwm ‘Capel’.</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1486,17 +1518,17 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=owNPC] @p owNPC1url1</t>
+          <t>dialogue open @e[tag=swtNPC] @p swtNPC1url1</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y Goglen-Orllewin </t>
+          <t>Capel</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>tp @p 9968 52 10204 facing 9965 52 10204</t>
+          <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
@@ -1516,22 +1548,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nwtNPC1</t>
+          <t>cghNPC1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nwtNPC</t>
+          <t>cghNPC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>North-West Tower Custodian</t>
+          <t>Chapel &amp; Great Hall Custodian</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">The North-West Tower, with its unique blend of practicality and comfort, is a remarkable example of medieval architecture. You can delve into the features of the North-West Tower by clicking the ‘Find out More’ button. Then go to the South-West Tower. You can walk or click the ‘South-West Tower’ button to be teleported.  </t>
+          <t>You can discover details of the range of stone buildings along the southern side of the outer ward by clicking the ‘Find Out More’ button. You will have a glimpse into their various functions. The prison tower is located behind the Great Hall. You can walk there or teleport by clicking the ‘Prison Tower’ button.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1543,17 +1575,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=nwtNPC] @p nwtNPC1url0</t>
+          <t>dialogue open @e[tag=cghNPC] @p cghNPC1url0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>South-West Tower</t>
+          <t>Prison Tower</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
+          <t>tp @p 10044 53 10260 facing 10044 53 10264</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1566,12 +1598,12 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Gogledd-Orllewin </t>
+          <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Mae Tŵr y Gogledd-Orllewin, gyda’i gyfuniad unigryw o ymarferoldeb a chysur, yn enghraifft ryfeddol o bensaernïaeth ganoloesol. Gallwch ymchwilio i nodweddion Tŵr y Gogledd Orllewin trwy glicio ar y botwm ‘Darganfod Mwy’. Yna ewch i'r Tŵr De-Orllewin. Gallwch gerdded neu glicio ar y botwm ‘Tŵr y De-Orllewin’ i gael eich teleportio.</t>
+          <t>Gallwch ddarganfod manylion yr amrywiaeth o adeiladau carreg ar hyd ochr ddeheuol y ward allanol trwy glicio ar y botwm ‘Darganfod Mwy’. Byddwch yn cael cipolwg ar eu swyddogaethau amrywiol. Mae Tŵr y Carchar wedi’i leoli y tu ôl i’r Neuadd Fawr. Gallwch gerdded yno neu delegludo trwy glicio ar y botwm ‘Tŵr y Carchar’.</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1581,17 +1613,17 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=nwtNPC] @p nwtNPC1url1</t>
+          <t>dialogue open @e[tag=cghNPC] @p cghNPC1url1</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y De-Orllewin </t>
+          <t xml:space="preserve">Tŵr y Carchar </t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>tp @p 9978 55 10242 facing 9977 55 10244</t>
+          <t>tp @p 10044 53 10260 facing 10044 53 10264</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
@@ -1611,22 +1643,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>swtNPC1</t>
+          <t>ptNPC1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>swtNPC</t>
+          <t>ptNPC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>South-West Tower Custodian</t>
+          <t>Prison Tower Custodian</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
+          <t>This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘Find Out More’ button. 
+Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1638,17 +1671,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=swtNPC] @p swtNPC1url0</t>
+          <t>dialogue open @e[tag=ptNPC] @p ptNPC1url0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Chapel</t>
+          <t>Kitchen</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
+          <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1661,12 +1694,12 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y De-Orllewin </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Carchar </t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Cliciwch ar y botwm ‘Darganfod Mwy’ i ddysgu mwy am Dŵr y De-orllewin a’i rôl o fewn cymuned brysur y castell. Yna dylech gerdded ar hyd ochr dde-orllewinol y castell ac archwilio'r Capel a'r Neuadd Fawr. Cerddwch drosodd neu cewch eich teleportio trwy glicio ar y botwm ‘Capel’.</t>
+          <t>Mae gan y tŵr hwn hanes iasoer a dyluniad pensaernïol unigryw! Darganfyddwch y cyfrinachau diddorol trwy glicio ar y botwm ‘Darganfod Mwy’. Unwaith y byddwch wedi edrych o gwmpas Tŵr y Carchar, cerddwch draw i'r Gegin neu gliciwch ar y botwm Cegin i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1676,17 +1709,17 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=swtNPC] @p swtNPC1url1</t>
+          <t>dialogue open @e[tag=ptNPC] @p ptNPC1url1</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Capel</t>
+          <t xml:space="preserve">Y Gegin </t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>tp @p 9998 47 10246 facing 10000 47 10248</t>
+          <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
@@ -1706,22 +1739,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cghNPC1</t>
+          <t>kitchNPC1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cghNPC</t>
+          <t>kitchNPC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chapel &amp; Great Hall Custodian</t>
+          <t>Kitchen Custodian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>You can discover details of the range of stone buildings along the southern side of the outer ward by clicking the ‘Find Out More’ button. You will have a glimpse into their various functions. The prison tower is located behind the Great Hall. You can walk there or teleport by clicking the ‘Prison Tower’ button.</t>
+          <t xml:space="preserve">You are now opposite the great hall range on the north side of the outer ward, where you will find the remnants of a series of buildings that once played vital roles in the daily operations of the fortress. You can investigate further by clicking the ‘Find Out More’ button, then click on ‘The Well’ button to be teleported. </t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1733,17 +1766,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=cghNPC] @p cghNPC1url0</t>
+          <t>dialogue open @e[tag=kitchNPC] @p kitchNPC1url0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Prison Tower</t>
+          <t>The Well</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>tp @p 10044 53 10260 facing 10044 53 10264</t>
+          <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1756,12 +1789,12 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
+          <t xml:space="preserve">Ceidwad y Gegin </t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Gallwch ddarganfod manylion yr amrywiaeth o adeiladau carreg ar hyd ochr ddeheuol y ward allanol trwy glicio ar y botwm ‘Darganfod Mwy’. Byddwch yn cael cipolwg ar eu swyddogaethau amrywiol. Mae tŵr y carchar wedi’i leoli y tu ôl i’r Neuadd Fawr. Gallwch gerdded yno neu deleportio trwy glicio ar y botwm ‘Tŵr y Carchar’.</t>
+          <t>Rydych chi nawr gyferbyn â’r neuadd fawr ar ochr ogleddol y ward allanol, lle byddwch chi’n dod o hyd i weddillion cyfres o adeiladau a oedd yn chwarae rhan hanfodol yng ngweithrediad dyddiol y gaer ar un adeg. Gallwch ymchwilio ymhellach trwy glicio ar y botwm ‘Darganfod Mwy’, yna cliciwch ar y botwm ‘Y Ffynnon’ i gael eich teleglduo.</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1771,17 +1804,17 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=cghNPC] @p cghNPC1url1</t>
+          <t>dialogue open @e[tag=kitchNPC] @p kitchNPC1url1</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y Carchar </t>
+          <t xml:space="preserve">Y Ffynnon </t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>tp @p 10044 53 10260 facing 10044 53 10264</t>
+          <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
@@ -1801,23 +1834,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ptNPC1</t>
+          <t>wellNPC1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ptNPC</t>
+          <t>wellNPC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Prison Tower Custodian</t>
+          <t>The Well Custodian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This tower has a chilling history and unique architectural design! Discover the intriguing secrets by clicking on the ‘Find Out More’ button. 
-Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
+          <t xml:space="preserve">The well at Conwy Castle is impressive! You should click the 'Find Out More' button to investigate this feature further. Then, you should walk on to the Middle Gate to continue our virtual tour. </t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1829,19 +1861,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ptNPC] @p ptNPC1url0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Kitchen</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=wellNPC] @p wellNPC1url0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1852,12 +1876,12 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Carchar </t>
+          <t xml:space="preserve">Ceidwad y Ffynnon </t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Mae gan y tŵr hwn hanes iasoer a dyluniad pensaernïol unigryw! Darganfyddwch y cyfrinachau diddorol trwy glicio ar y botwm ‘Darganfod Mwy’. Unwaith y byddwch wedi edrych o gwmpas Tŵr y Carchar, cerddwch draw i'r Gegin neu cliciwch ar y botwm Cegin i gael eich teleportio.</t>
+          <t>Mae'r ffynnon yng Nghastell Conwy yn drawiadol! Dylech glicio ar y botwm 'Darganfod Mwy' i ymchwilio ymhellach i'r nodwedd hon. Yna, dylech gerdded ymlaen i'r Porth Canol i barhau â'n taith rithwir.</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -1867,19 +1891,11 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ptNPC] @p ptNPC1url1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Y Gegin </t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>tp @p 10013 50 10204 facing 10013 50 10200</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=wellNPC] @p wellNPC1url1</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
@@ -1897,22 +1913,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>kitchNPC1</t>
+          <t>midgNPC1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>kitchNPC</t>
+          <t>midgNPC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kitchen Custodian</t>
+          <t>Middle Gate Custodian</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">You are now opposite the great hall range on the north side of the outer ward, where you will find the remnants of a series of buildings that once played vital roles in the daily operations of the fortress. You can investigate further by clicking the ‘Find Out More’ button, then click on ‘The Well’ button to be teleported. </t>
+          <t>You will discover that the division between the Outer and Inner Wards are a pivotal point in the fortress's layout, providing both strategic defence and functional separation between different areas of the castle. ‘Find Out More’ about this by clicking on the button. Then, walk from this vital gateway into the Inner Ward.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1924,19 +1940,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=kitchNPC] @p kitchNPC1url0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>The Well</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=midgNPC] @p midgNPC1url0</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1947,12 +1955,12 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Gegin </t>
+          <t xml:space="preserve">Ceidwad y Porth Canol </t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Rydych chi nawr gyferbyn â’r neuadd fawr ar ochr ogleddol y ward allanol, lle byddwch chi’n dod o hyd i weddillion cyfres o adeiladau a oedd yn chwarae rhan hanfodol yng ngweithrediadau dyddiol y gaer unwaith. Gallwch ymchwilio ymhellach trwy glicio ar y botwm ‘Darganfod Mwy’, yna cliciwch ar y botwm ‘Y Ffynnon’ i gael eich teleportio.</t>
+          <t>Byddwch yn darganfod bod y rhaniad rhwng y Wardiau Allanol a Mewnol yn bwynt canolog yng nghynllun y gaer, gan ddarparu amddiffyniad strategol a gwahaniad swyddogaethol rhwng gwahanol rannau o'r castell. ‘Darganfod Mwy’ am hyn trwy glicio ar y botwm. Yna, cerddwch o'r porth hanfodol hwn i'r Ward Fewnol.</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -1962,19 +1970,11 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=kitchNPC] @p kitchNPC1url1</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Y Ffynnon </t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>tp @p 10059 47 10208 facing 10062 47 10209</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=midgNPC] @p midgNPC1url1</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -1992,22 +1992,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wellNPC1</t>
+          <t>iwNPC1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wellNPC</t>
+          <t>iwNPC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The Well Custodian</t>
+          <t>Inner Ward Custodian</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">The well at Conwy Castle is impressive! You should click the 'Find Out More' button to investigate this feature further. Then, you should walk on to the Middle Gate to continue our virtual tour. </t>
+          <t>The Middle Gate ushers you into the eastern part of Conwy Castle, known as the Inner Ward. You should click the ‘Find Out More’ button to explore this important area more. Then, you will explore the Royal Apartments, starting with the King's Great Chamber. Walk over or click the ‘King’s Great Chamber’ button to be teleported.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -2019,11 +2019,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wellNPC] @p wellNPC1url0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>dialogue open @e[tag=iwNPC] @p iwNPC1url0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>King's Great</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -2034,12 +2042,12 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Ffynnon </t>
+          <t xml:space="preserve">Ceidwad y Wal Mewnol </t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Mae ffynnon yng Nghastell Conwy yn drawiadol! Dylech glicio ar y botwm 'Darganfod Mwy' i ymchwilio ymhellach i'r nodwedd hon. Yna, dylech gerdded ymlaen i'r Porth Canol i barhau â'n taith rithwir.</t>
+          <t>Mae'r Porth Canol yn eich arwain i ran ddwyreiniol Castell Conwy, a elwir yn Ward Fewnol. Dylech chi glicio ar y botwm ‘Darganfod Mwy’ i archwilio’r maes pwysig hwn yn fwy. Yna, byddwch yn crwydro’r Rhandai Brenhinol, gan ddechrau gyda Siambr Fawr y Brenin. Cerddwch drosodd neu gliciwch ar y botwm ‘Siambr Fawr y Brenin’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -2049,11 +2057,19 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wellNPC] @p wellNPC1url1</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+          <t>dialogue open @e[tag=iwNPC] @p iwNPC1url1</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siambr Fawr y Brenin </t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
@@ -2071,22 +2087,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>midgNPC1</t>
+          <t>cgcNPC1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>midgNPC</t>
+          <t>cgcNPC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Middle Gate Custodian</t>
+          <t>King's Great Chamber Custodian</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>You will discover that the division between the Outer and Inner Wards are a pivotal point in the fortress's layout, providing both strategic defence and functional separation between different areas of the castle. ‘Find Out More’ about this by clicking on the button. Then, walk from this vital gateway into the Inner Ward.</t>
+          <t>Welcome to the Royal Apartments. You can visit the King’s Great Chamber and start your tour by first clicking the ‘Find Out More’ button. Next, you will move on to the Chapel. You can either walk there or click the ‘Chapel Steps’ button to be teleported there.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -2098,11 +2114,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=midgNPC] @p midgNPC1url0</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>dialogue open @e[tag=cgcNPC] @p cgcNPC1url0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Chapel Steps</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -2113,12 +2137,12 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Porth Canol </t>
+          <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Byddwch yn darganfod bod y rhaniad rhwng y Wardiau Allanol a Mewnol yn bwynt canolog yng nghynllun y gaer, gan ddarparu amddiffyniad strategol a gwahaniad swyddogaethol rhwng gwahanol rannau o'r castell. ‘Darganfod Mwy’ am hyn trwy glicio ar y botwm. Yna, cerddwch o'r porth hanfodol hwn i'r Ward Fewnol.</t>
+          <t>Croeso i'r Rhandai Brenhinol. Gallwch ymweld â Siambr Fawr y Brenin a chychwyn eich taith trwy glicio yn gyntaf ar y botwm ‘Darganfod Mwy’. Nesaf, byddwch yn symud ymlaen i'r Capel. Gallwch naill ai gerdded yno neu glicio ar y botwm ‘Tŵr y Capel’ i gael eich telegludo yno.</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2128,11 +2152,19 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=midgNPC] @p midgNPC1url1</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+          <t>dialogue open @e[tag=cgcNPC] @p cgcNPC1url1</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tŵr y Capel </t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2150,22 +2182,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>iwNPC1</t>
+          <t>ctNPC1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>iwNPC</t>
+          <t>ctNPC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Inner Ward Custodian</t>
+          <t>Chapel Tower Custodian</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Middle Gate ushers you into the eastern part of Conwy Castle, known as the Inner Ward. You should click the ‘Find Out More’ button to explore this important area more. Then, you will explore the Royal Apartments, starting with the King's Great Chamber. Walk over or click the ‘King’s Great Chamber’ button to be teleported.</t>
+          <t xml:space="preserve">Welcome to the Chapel Tower. You should click the ‘Find Out More’ button to investigate this tower. Take your time to wander through the passageways, and then when you are ready to delve deeper into the castle's history, click the 'Inside Chapel Tower' button to be teleported inside the Chapel Tower. I will meet you there. </t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2177,17 +2209,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=iwNPC] @p iwNPC1url0</t>
+          <t>dialogue open @e[tag=ctNPC] @p ctNPC1url0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>King's Great</t>
+          <t>Inside Chapel</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
+          <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2200,12 +2232,12 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Wal Mewnol </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Capel </t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Mae'r Porth Canol yn eich arwain i ran ddwyreiniol Castell Conwy, a elwir yn Ward Fewnol. Dylech glicio ar y botwm ‘Darganfod Mwy’ i archwilio’r maes pwysig hwn yn fwy. Yna, byddwch yn crwydro’r Rhandai Brenhinol, gan ddechrau gyda Siambr Fawr y Brenin. Cerddwch drosodd neu cliciwch ar y botwm ‘Siambr Fawr y Brenin’ i gael eich teleportio.</t>
+          <t>Croeso i Dŵr y Capel. Dylech chi glicio ar y botwm ‘Darganfod Mwy’ i ymchwilio i’r tŵr hwn. Cymerwch eich amser i grwydro drwy'r tramwyfeydd, ac yna pan fyddwch chi'n barod i dreiddio'n ddyfnach i hanes y castell, cliciwch ar y botwm 'Tu Mewn i Dŵr y Capel' i gael eich telegludo y tu mewn i Dŵr y Capel. Byddaf yn cwrdd â chi yno.</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2215,17 +2247,17 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=iwNPC] @p iwNPC1url1</t>
+          <t>dialogue open @e[tag=ctNPC] @p ctNPC1url1</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siambr Fawr y Brenin </t>
+          <t xml:space="preserve">Tu Mewn i Dŵr y Capel </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>tp @p 10128 43 10196 facing 10128 43 10192</t>
+          <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
@@ -2245,22 +2277,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cgcNPC1</t>
+          <t>ctNPC2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cgcNPC</t>
+          <t>ctNPC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>King's Great Chamber Custodian</t>
+          <t>Chapel Tower Custodian</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Welcome to the Royal Apartments. You can visit the King’s Great Chamber and start your tour by first clicking the ‘Find Out More’ button. Next, you will move on to the Chapel. You can either walk there or click the ‘Chapel Steps’ button to be teleported there.</t>
+          <t>Now that you are inside the Chapel Tower, you have reached one of the most exciting features in any surviving medieval castle chapel complex! Click the ‘Find Out More’ button to examine its unique features. You can also access the Watching Chamber by clicking the ‘Watching Chamber’ button below to be teleported.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2272,17 +2304,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=cgcNPC] @p cgcNPC1url0</t>
+          <t>dialogue open @e[tag=ctNPC] @p ctNPC2url0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Chapel Steps</t>
+          <t>Watching Chamber</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
+          <t>tp @p 10137 58 10176 facing 10135 59 10172</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -2295,12 +2327,12 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>Croeso i'r Rhandai Brenhinol. Gallwch ymweld â Siambr Fawr y Brenin a chychwyn eich taith trwy glicio yn gyntaf ar y botwm ‘Darganfod Mwy’. Nesaf, byddwch yn symud ymlaen i'r Capel. Gallwch naill ai gerdded yno neu glicio ar y botwm ‘Tŵr y Capel’ i gael eich teleportio yno.</t>
+          <t>Nawr eich bod y tu mewn i Dŵr y Capel, rydych chi wedi cyrraedd un o'r nodweddion mwyaf cyffrous mewn unrhyw gyfadeilad capeli castell canoloesol sydd wedi goroesi! Cliciwch ar y botwm ‘Darganfod Mwy’ i archwilio ei nodweddion unigryw. Gallwch hefyd gael mynediad i’r Siambr Gwylio drwy glicio ar y botwm ‘Siambr Gwylio’ isod i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2310,17 +2342,17 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=cgcNPC] @p cgcNPC1url1</t>
+          <t>dialogue open @e[tag=ctNPC] @p ctNPC2url1</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y Capel </t>
+          <t xml:space="preserve">Siambr Gwylio </t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>tp @p 10150 43 10201 facing 10150 43 10197</t>
+          <t>tp @p 10137 58 10176 facing 10135 59 10172</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
@@ -2340,22 +2372,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ctNPC1</t>
+          <t>wcNPC1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ctNPC</t>
+          <t>wcNPC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chapel Tower Custodian</t>
+          <t>Watching Chamber Custodian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to the Chapel Tower. You should click the ‘Find Out More’ button to investigate this tower. Take your time to wander through the passageways, and then when you are ready to delve deeper into the castle's history, click the 'Inside Chapel Tower' button to be teleported inside the Chapel Tower. I will meet you there. </t>
+          <t xml:space="preserve">The "watching chamber" above the chapel adds an exciting twist to the architectural layout and functionality of the medieval chapel. You can discover more about this fascinating feature by clicking the ‘Find Out More’ button. Then, walk down to the east-gate passage and cross to the King's Tower or click the ‘Kings Tower’ button. </t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2367,17 +2399,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ctNPC] @p ctNPC1url0</t>
+          <t>dialogue open @e[tag=wcNPC] @p wcNPC1url0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Inside Chapel</t>
+          <t>Kings Tower</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
+          <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2390,12 +2422,12 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Capel </t>
+          <t xml:space="preserve">Ceidwad y Siambr Gwylio </t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Croeso i Dwr y Capel. Dylech glicio ar y botwm ‘Darganfod Mwy’ i ymchwilio i’r tŵr hwn. Cymerwch eich amser i grwydro drwy'r tramwyfeydd, ac yna pan fyddwch chi'n barod i dreiddio'n ddyfnach i hanes y castell, cliciwch ar y botwm 'Tu Mewn Tŵr y Capel' i gael eich teleportio y tu mewn i Dŵr y Capel. Byddaf yn cwrdd â chi yno.</t>
+          <t>Mae'r "siambr wylio" uwchben y capel yn ychwanegu tro cyffrous at gynllun pensaernïol a swyddogaethedd y capel canoloesol. Gallwch ddarganfod mwy am y nodwedd hynod ddiddorol hon drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, cerddwch i lawr at gyntedd porth y dwyrain a chroesi i Dŵr y Brenin neu gliciwch ar y botwm ‘Tŵr y Brenin’.</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2405,17 +2437,17 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ctNPC] @p ctNPC1url1</t>
+          <t>dialogue open @e[tag=wcNPC] @p wcNPC1url1</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tu Mewn Tŵr y Capel </t>
+          <t xml:space="preserve">Tŵr y Brenin </t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>tp @p 10143 52 10177 facing 10141 52 10174</t>
+          <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
@@ -2435,22 +2467,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ctNPC2</t>
+          <t>ktNPC1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ctNPC</t>
+          <t>ktNPC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Chapel Tower Custodian</t>
+          <t>King's Tower Custodian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Now that you are inside the Chapel Tower, you have reached one of the most exciting features in any surviving medieval castle chapel complex! Click the ‘Find Out More’ button to examine its unique features. You can also access the Watching Chamber by clicking the ‘Watching Chamber’ button below to be teleported.</t>
+          <t>Welcome to Kings Tower. Behind me, you will see a stone staircase mirroring the Chapel Tower. This passage leads into the King’s Tower and the royal apartments. It would be best to investigate by clicking the ‘Find Out More’ button. Then, return to the passage at the bottom of the tower or click on the ‘King’s Kitchen’ button to be teleported.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2462,17 +2494,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ctNPC] @p ctNPC2url0</t>
+          <t>dialogue open @e[tag=ktNPC] @p ktNPC1url0</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Watching Chamber</t>
+          <t>King's Kitchen</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>tp @p 10137 58 10176 facing 10135 59 10172</t>
+          <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2485,12 +2517,12 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Brenin </t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Nawr eich bod y tu mewn i Dŵ r y Capel, rydych wedi cyrraedd un o'r nodweddion mwyaf cyffrous mewn unrhyw gyfadeilad capeli castell canoloesol sydd wedi goroesi! Cliciwch ar y botwm ‘Darganfod Mwy’ i archwilio ei nodweddion unigryw. Gallwch hefyd gael mynediad i’r Siambr Gwylio drwy glicio ar y botwm ‘Siambr Gwylio’ isod i gael eich teleportio.</t>
+          <t>Croeso i Dŵr y Brenin. Y tu ôl i mi, fe welwch risiau carreg yn adlewyrchu Tŵr y Capel. Mae'r darn hwn yn arwain i mewn i Dŵr y Brenin a'r rhandai brenhinol. Byddai’n well ymchwilio drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, dychwelwch i’r darn ar waelod y tŵr neu gliciwch ar y botwm ‘Cegin y Brenin’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -2500,17 +2532,17 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ctNPC] @p ctNPC2url1</t>
+          <t>dialogue open @e[tag=ktNPC] @p ktNPC1url1</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siambr Gwylio </t>
+          <t xml:space="preserve">Cegin y Brenin </t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>tp @p 10137 58 10176 facing 10135 59 10172</t>
+          <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2530,22 +2562,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wcNPC1</t>
+          <t>kcNPC1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wcNPC</t>
+          <t>kcNPC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Watching Chamber Custodian</t>
+          <t>King's Chamber Custodian</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">The "watching chamber" above the chapel adds an exciting twist to the architectural layout and functionality of the medieval chapel. You can discover more about this fascinating feature by clicking the ‘Find Out More’ button. Then, walk down to the east-gate passage and cross to the King's Tower or click the ‘Kings Tower’ button. </t>
+          <t>You are now in the King’s Kitchen, and above is the King's Chamber. You can access this room from the great chamber and the queen’s chamber to the west. You can investigate further by clicking the ‘Find Out More’ button. If you want to visit the Queens Chamber, you can enter from the courtyard or click the ‘Queens Chamber’ button to be teleported.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2557,17 +2589,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wcNPC] @p wcNPC1url0</t>
+          <t>dialogue open @e[tag=kcNPC] @p kcNPC1url0</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Kings Tower</t>
+          <t xml:space="preserve">Queen's Chamber </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
+          <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -2580,12 +2612,12 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Siambr Gwylio </t>
+          <t xml:space="preserve">Ceidwad Siambr y Brenin         </t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Mae'r "siambr wylio" uwchben y capel yn ychwanegu tro cyffrous at gynllun pensaernïol ac swyddogaethedd y capel canoloesol. Gallwch ddarganfod mwy am y nodwedd hynod ddiddorol hon drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, cerddwch i lawr at gyntedd porth y dwyrain a chroesi i Dŵr y Brenin neu cliciwch ar y botwm ‘Tŵr y Brenin’.</t>
+          <t>Rydych chi nawr yng Nghegin y Brenin, ac uwchben mae Siambr y Brenin. Gallwch gael mynediad i'r ystafell hon o'r siambr fawr a Siambr y Frenhines i'r gorllewin. Gallwch ymchwilio ymhellach drwy glicio ar y botwm ‘Darganfod Mwy’. Os ydych am ymweld â Siambr y Frenhines, gallwch chi fynd i mewn o’r cwrt neu glicio ar y botwm ‘Siambr y Frenhines’ i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -2595,17 +2627,17 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wcNPC] @p wcNPC1url1</t>
+          <t>dialogue open @e[tag=kcNPC] @p kcNPC1url1</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y Brenin </t>
+          <t xml:space="preserve">Siambr y Frenhines </t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>tp @p 10150 47 10227 facing 10146 47 10227</t>
+          <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -2625,22 +2657,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ktNPC1</t>
+          <t>qcNPC1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ktNPC</t>
+          <t>qcNPC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>King's Tower Custodian</t>
+          <t>Queen's Chamber Custodian</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Welcome to Kings Tower. Behind me, you will see a stone staircase mirroring the Chapel Tower. This passage leads into the King’s Tower and the royal apartments. It would be best to investigate by clicking the ‘Find Out More’ button. Then, return to the passage at the bottom of the tower or click on the ‘King’s Kitchen’ button to be teleported.</t>
+          <t>If you were stood on the first floor, this would be the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2652,17 +2684,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ktNPC] @p ktNPC1url0</t>
+          <t>dialogue open @e[tag=qcNPC] @p qcNPC1url0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>King's Kitchen</t>
+          <t>Bakehouse Tower</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
+          <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -2675,12 +2707,12 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Brenin </t>
+          <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Croeso i Dŵr y Brenin. Y tu ôl i mi, fe welwch risiau carreg yn adlewyrchu Tŵr y Capel. Mae'r darn hwn yn arwain i mewn i Dŵr y Brenin a'r rhandai brenhinol. Byddai’n well ymchwilio drwy glicio ar y botwm ‘Darganfod Mwy’. Yna, dychwelwch i’r darn ar waelod y tŵr neu cliciwch ar y botwm ‘Cegin y Brenin’ i gael eich teleportio.</t>
+          <t>Os byddech chi'n sefyll ar y llawr cyntaf dyma fyddai’r siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Gastile. Fel y prif ystafelloedd eraill, roedd ganddi le tân a chwpwrdd. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dŵr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei delegludo yno.</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -2690,17 +2722,17 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ktNPC] @p ktNPC1url1</t>
+          <t>dialogue open @e[tag=qcNPC] @p qcNPC1url1</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cegin y Brenin </t>
+          <t xml:space="preserve">Tŵr y Popty </t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>tp @p 10136 43 10223 facing 10137 43 10228</t>
+          <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -2720,22 +2752,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>kcNPC1</t>
+          <t>bhNPC1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>kcNPC</t>
+          <t>bhNPC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>King's Chamber Custodian</t>
+          <t>Bakehouse Tower Custodian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>You are now in the King’s Kitchen, and above is the King's Chamber. You can access this room from the great chamber and the queen’s chamber to the west. You can investigate further by clicking the ‘Find Out More’ button. If you want to visit the Queens Chamber, you can enter from the courtyard or click the ‘Queens Chamber’ button to be teleported.</t>
+          <t xml:space="preserve">Welcome to Bakehouse Tower. Many exciting things have happened to this tower over the years! Click the "Find Out More" button for details. Then, you must take a look around Stockhouse Tower by clicking on the button to be teleported. </t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2747,17 +2779,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=kcNPC] @p kcNPC1url0</t>
+          <t>dialogue open @e[tag=bhNPC] @p bhNPC1url0</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Queen's Chamber </t>
+          <t>Stockhouse Tower</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
+          <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2770,12 +2802,12 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr y Brenin         </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Popty         </t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Rydych chi nawr yng Nghegin y Brenin, ac uwch ben mae Siambr y Brenin. Gallwch gael mynediad i'r ystafell hon o'r siambr fawr a Siambr y Frenhines i'r gorllewin. Gallwch ymchwilio ymhellach drwy glicio ar y botwm ‘Darganfod Mwy’. Os ydych am ymweld â Siambr y Frenhines, gallwch fynd i mewn o’r cwrt neu glicio ar y botwm ‘Siambr y Frenhines’ i gael eich teleportio.</t>
+          <t>Croeso i Dŵr y Popty. Mae llawer o bethau cyffrous wedi digwydd i’r tŵr hwn dros y blynyddoedd! Cliciwch ar y botwm "Darganfod Mwy" am fanylion. Yna, rhaid i chi edrych o gwmpas Tŵr y Stocdy trwy glicio ar y botwm i gael eich telegludo.</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -2785,17 +2817,17 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=kcNPC] @p kcNPC1url1</t>
+          <t>dialogue open @e[tag=bhNPC] @p bhNPC1url1</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siambr y Frenhines </t>
+          <t xml:space="preserve">Tŵr y Stocdy </t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>tp @p 10106 44 10229 facing 10106 44 10234</t>
+          <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
@@ -2815,46 +2847,38 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>qcNPC1</t>
+          <t>stNPC1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>qcNPC</t>
+          <t>stNPC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Queen's Chamber Custodian</t>
+          <t>Stockhouse Tower Custodian</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>If you were stood on the first floor, this would be the chamber intended for Queen Eleanor of Castile. Like the other main rooms, it had a fireplace and garderobe. This room has changed over time; click the ‘Find Out More’ button. Then, you have two more towers to investigate. Click on the ‘Bakehouse Tower’ button below to be teleported there.</t>
+          <t>Welcome to the Stockhouse Tower. Its name may have come from the "stocks" or foot restraints used to detain criminals! However, it is believed that the tower was initially built for storage or living quarters for the castle's garrison. You must visit the ‘East Barbican’; you can walk there or be teleported.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Find Out More</t>
+          <t>East Barbican</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=qcNPC] @p qcNPC1url0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Bakehouse Tower</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
-        </is>
-      </c>
+          <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -2865,34 +2889,26 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Stocdy         </t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>Os byddech chi yn sefyll ar y llawr cyntaf dyma fyddai’r siambr a fwriadwyd ar gyfer y Frenhines Eleanor o Castile. Fel y prif ystafelloedd eraill, roedd ganddo le tân a chwpwrdd. Mae'r ystafell hon wedi newid dros amser; cliciwch ar y botwm ‘Darganfod Mwy’. Yna, mae gennych ddau dŵr arall i ymchwilio iddynt. Cliciwch ar y botwm ‘Tŵr y Popty’ isod i gael ei deleportio yno.</t>
+          <t>Croeso i Dŵr y Stocdy. Mae'n bosibl bod ei enw wedi dod o'r "stociau" neu'r ataliadau traed a ddefnyddir i gadw troseddwyr! Fodd bynnag, credir i’r tŵr gael ei adeiladu’n wreiddiol ar gyfer storio neu ystafelloedd byw i garsiwn y castell. Rhaid i chi ymweld â ‘Barbican y Dwyrain’; gallwch gerdded yno neu gael eich telegludo.</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darganfod Mwy </t>
+          <t xml:space="preserve">Barbican y Dwyrain  </t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=qcNPC] @p qcNPC1url1</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tŵr y Popty </t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>tp @p 10094 45 10241 facing 10096 45 10241</t>
-        </is>
-      </c>
+          <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
@@ -2910,22 +2926,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bhNPC1</t>
+          <t>ebNPC1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bhNPC</t>
+          <t>ebNPC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bakehouse Tower Custodian</t>
+          <t>East Barbican Custodian</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to Bakehouse Tower. Many exciting things have happened to this tower over the years! Click the "Find Out More" button for details. Then, you must take a look around Stockhouse Tower by clicking on the button to be teleported. </t>
+          <t xml:space="preserve">Welcome to the East Barbican, where you can take in the view across the river and imagine the garden that once grew here! A tale you can uncover by clicking the ‘Find Out More’ button. You can walk down the steps to see where the Water Gate once entered the East Barbican. Then, walk along the ‘Wall-Walk’, click to be teleported there. </t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2937,17 +2953,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=bhNPC] @p bhNPC1url0</t>
+          <t>dialogue open @e[tag=ebNPC] @p ebNPC1url0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Stockhouse Tower</t>
+          <t>Wall-Walk</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
+          <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2960,12 +2976,12 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Popty         </t>
+          <t xml:space="preserve">Ceidwad Barbican y Dwyrain         </t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Croeso i Tŵr y Popty. Mae llawer o bethau cyffrous wedi digwydd i’r tŵr hwn dros y blynyddoedd! Cliciwch ar y botwm "Darganfod Mwy" am fanylion. Yna, rhaid i chi edrych o gwmpas Tŵr y Stocdy trwy glicio ar y botwm i gael eich teleportio.</t>
+          <t>Croeso i Farbican y Dwyrain, lle gallwch chi fwynhau'r olygfa ar draws yr afon a dychmygu'r ardd a dyfodd yma ar un adeg! Stori y gallwch ei datgelu trwy glicio ar y botwm ‘Darganfod Mwy’. Gallwch gerdded i lawr y grisiau i weld ble roedd y Porth Ddŵr unwaith yn mynd i mewn i Farbican y Dwyrain. Yna, cerddwch ar hyd y ‘Taith Wal’, cliciwch i gael eich telegludo yno.</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2975,17 +2991,17 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=bhNPC] @p bhNPC1url1</t>
+          <t>dialogue open @e[tag=ebNPC] @p ebNPC1url1</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tŵr y Stocdy </t>
+          <t xml:space="preserve">Taith Wal </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>tp @p 10093 45 10185 facing 10090 45 10185</t>
+          <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
@@ -3005,38 +3021,46 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>stNPC1</t>
+          <t>wwNPC1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stNPC</t>
+          <t>wwNPC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Stockhouse Tower Custodian</t>
+          <t>Wall-Walk Custodian</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Welcome to the Stockhouse Tower. Its name may have come from the "stocks" or foot restraints used to detain criminals! However, it is believed that the tower was initially built for storage or living quarters for the castle's garrison. You must visit the ‘East Barbican’; you can walk there or be teleported.</t>
+          <t xml:space="preserve">You are about to embark on a walk of the Conwy Castle Wall Walk!  Before you head out, make sure to click the 'Find Out More' button. This will give you all the information you need to make the most of your walk! Once you've seen the land and the town below, click the 'Town Wall' button to teleport. </t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>East Barbican</t>
+          <t>Find Out More</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+          <t>dialogue open @e[tag=wwNPC] @p wwNPC1url0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Town Wall</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -3047,26 +3071,34 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Stocdy         </t>
+          <t xml:space="preserve">Ceidwad Taith Wal  </t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Croeso i Dŵr y Stocdy. Mae'n bosibl bod ei enw wedi dod o'r "stociau" neu'r ataliadau traed a ddefnyddir i gadw troseddwyr! Fodd bynnag, credir i’r tŵr gael ei adeiladu’n wreiddiol ar gyfer storio neu ystafelloedd byw i garsiwn y castell. Rhaid i chi ymweld â’r ‘Barbican y Dwyrain’; gallwch gerdded yno neu gael eich teleportio.</t>
+          <t>Rydych chi ar fin cychwyn ar daith gerdded ar hyd Taith Gerdded Mur Castell Conwy! Cyn i chi fynd allan, gwnewch yn siŵr eich bod chi'n clicio ar y botwm 'Darganfod Mwy'. Bydd hyn yn rhoi'r holl wybodaeth angenrheidiol i wneud y gorau o'ch taith gerdded! Unwaith y byddwch chi wedi gweld y tir a'r dref isod, cliciwch ar y botwm 'Wal y Dref' i delegludo.</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbican y Dwyrain  </t>
+          <t xml:space="preserve">Darganfod Mwy </t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>tp @p 10160 40 10204 facing 10164 40 10204</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+          <t>dialogue open @e[tag=wwNPC] @p wwNPC1url1</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wal y Dref </t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -3084,88 +3116,120 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ebNPC1</t>
+          <t>twNPC1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ebNPC</t>
+          <t>twNPC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>East Barbican Custodian</t>
+          <t>Town Wall Custodian</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to the East Barbican, where you can take in the view across the river and imagine the garden that once grew here! A tale you can uncover by clicking the ‘Find Out More’ button. You can walk down the steps to see where the Water Gate once entered the East Barbican. Then, walk along the ‘Wall-Walk’, click to be teleported there. </t>
+          <t xml:space="preserve">Imagine a fortress that doesn't just stand alone but embraces an entire town within its protective encirclement; this is Conwy town wall. Click the buttons below to learn more about the wall and the town within. After you have walked around the town wall, head back to the visitor centre by clicking on Taliesin.  </t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Find Out More</t>
+          <t>Town Wall</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ebNPC] @p ebNPC1url0</t>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Wall-Walk</t>
+          <t>The Town</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url1</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Medieval Town</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url2</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Barbican y Dwyrain         </t>
+          <t>Ceidwad Wal y Dref</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Croeso i Farbican y Dwyrain, lle gallwch chi fwynhau'r olygfa ar draws yr afon a dychmygu'r ardd a dyfodd yma ar un adeg! Stori y gallwch ei datgelu trwy glicio ar y botwm ‘Darganfod Mwy’. Gallwch gerdded i lawr y grisiau i weld ble roedd y Porth Ddŵr unwaith yn mynd i mewn i Farbican y Dwyrain. Yna, cerddwch ar hyd y ‘Taith Wal’, cliciwch i gael eich teleportio yno.</t>
+          <t>Dychmygwch gaer sydd nid yn unig yn sefyll ar ei phen ei hun ond yn cofleidio tref gyfan o fewn ei hamgylchyn amddiffynnol; dyma wal tref Conwy. Cliciwch y botymau isod i ddysgu mwy am y wal a'r dref oddi mewn. Ar ôl i chi gerdded o amgylch wal y dref, ewch yn ôl i'r ganolfan ymwelwyr drwy glicio ar Taliesin.</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darganfod Mwy </t>
+          <t xml:space="preserve">Wal y Dref </t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ebNPC] @p ebNPC1url1</t>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url3</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taith Wal </t>
+          <t xml:space="preserve">Y Dref </t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>tp @p 10150 66 10208 facing 10148 67 10213</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url4</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Y Dref Canoloesol </t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=twNPC] @p twNPC1url5</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taliesin </t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
+        </is>
+      </c>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
@@ -3179,48 +3243,60 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>wwNPC1</t>
+          <t>taliesinendNPC1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wwNPC</t>
+          <t>taliesinendNPC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wall-Walk Custodian</t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">You are about to embark on a walk of the Conwy Castle Wall Walk!  Before you head out, make sure to click the 'Find Out More' button. This will give you all the information you need to make the most of your walk! Once you've seen the land and the town below, click the 'Town Wall' button to teleport. </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>You have completed your virtual tour. I am sure you have been amazed by the incredible skill and dedication that went into constructing this magnificent castle. I now have a series of quests for you to consider. Click the "Quest" button to reveal the exciting quests waiting for you within Conwy Castle.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>scoreboard players set completed quest 1</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Find Out More</t>
+          <t>Quests Intro</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wwNPC] @p wwNPC1url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC1url0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Town Wall</t>
+          <t>Quests</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Return Galeri</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -3229,36 +3305,44 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Taith Wal  </t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Rydych chi ar fin cychwyn ar daith gerdded ar hyd Taith Gerdded Mur Castell Conwy! Cyn i chi fynd allan, gwnewch yn siŵr eich bod chi'n clicio ar y botwm 'Darganfod Mwy'. Bydd hyn yn rhoi'r holl wybodaeth sydd ei hangen arnoch i wneud y gorau o'ch taith gerdded! Unwaith y byddwch wedi gweld y tir a'r dref isod, cliciwch ar y botwm 'Wal y Dref' i deleportio.</t>
+          <t>Rydych chi wedi cwblhau eich taith rithwir. Rwy’n siŵr eich bod wedi’ch syfrdanu gan y sgil a’r ymroddiad anhygoel a gafwyd wrth adeiladu’r castell godidog hwn. Mae gennyf nawr gyfres o cwestau i chi eu hystyried. Cliciwch y botwm "Cwest" i ddangos y cwestau cyffrous sy'n aros amdanoch o fewn Castell Conwy.</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darganfod Mwy </t>
+          <t>Cyflwyniad Cwestau</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=wwNPC] @p wwNPC1url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC1url1</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wal y Dref </t>
+          <t>Cwestau</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>tp @p 9846 38 10273 facing 9843 38 10274</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Galeri</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
@@ -3274,124 +3358,156 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>twNPC1</t>
+          <t>taliesinendNPC3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>twNPC</t>
+          <t>taliesinendNPC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Town Wall Custodian</t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imagine a fortress that doesn't just stand alone but embraces an entire town within its protective encirclement; this is Conwy town wall. Click the buttons below to learn more about the wall and the town within. After you have walked around the town wall, head back to the visitor centre by clicking on Taliesin.  </t>
+          <t>These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Town Wall</t>
+          <t>Quest 1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>The Town</t>
+          <t>Quest 2</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Medieval Town</t>
+          <t>Quest 3</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url2</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>Quest 4</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Quest 5</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Quest 6</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>Taliesin</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceidwad Wal y Dreg </t>
-        </is>
-      </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Dychmygwch gaer sydd nid yn unig yn sefyll ar ei phen ei hun ond yn cofleidio tref gyfan o fewn ei hamgylchyn amddiffynnol; dyma wal tref Conwy. Cliciwch y botymau isod i ddysgu mwy am y wal a'r dref oddi mewn. Ar ôl i chi gerdded o amgylch wal y dref, ewch yn ôl i'r ganolfan ymwelwyr drwy glicio ar Taliesin.</t>
+          <t xml:space="preserve">Dyma rai o’r cwestau sy’n aros amdanoch yng Nghastell Conwy. Pa bynnag cwest fyddwch chi am ymgymryd ag e, byddwch yn siwr o ehangu eich cysylltiad â Chastell Conwy a Chymru, gan greu atgofion fydd gyda chi am byth. Felly, dewiswch eich cwest ac ewch ar siwrne o ddarganfod ac archwilio o fewn muriau enwog Castell Conwy. </t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wal y Dreg </t>
+          <t>Cwest 1</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url3</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Dreg </t>
+          <t>Cwest 2</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url4</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Dref Canoloesol </t>
+          <t>Cwest 3</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=twNPC] @p twNPC1url5</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taliesin </t>
+          <t>Cwest 4</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10195</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Cwest 5</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Cwest 6</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
+        </is>
+      </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
@@ -3401,7 +3517,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>taliesinendNPC1</t>
+          <t>taliesinendNPC4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3416,43 +3532,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>You have completed your virtual tour. I am sure you have been amazed by the incredible skill and dedication that went into constructing this magnificent castle. I now have a series of quests for you to consider. Click the "Quest" button to reveal the exciting quests waiting for you within Conwy Castle.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>scoreboard players set completed quest 1</t>
-        </is>
-      </c>
+          <t>Quest 1 is called ‘The Dragon of Wales vs. the Lion of England’. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click on the ‘Start’ button to embark on your adventure.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Quests Intro</t>
+          <t>Quest Intro</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC1url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4url0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Quests</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>function dragonvlion</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Return Galeri</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -3468,37 +3580,37 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Rydych chi wedi cwblhau eich taith rithwir. Rwy’n siŵr eich bod wedi’ch syfrdanu gan y sgil a’r ymroddiad anhygoel a gafwyd wrth adeiladu’r castell godidog hwn. Mae gennyf yn awr gyfres o cwestau i chi eu hystyried. Cliciwch y botwm "Cwest" i ddangos y cwestau cyffrous sy'n aros amdanoch o fewn Castell Conwy.</t>
+          <t xml:space="preserve">Cwest 1 yw ‘Draig Cymru yn erbyn Llew Lloegr’. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod i'n gallu darparu trosolwg o’r cwest hwn. Cliciwch fotwm ‘Dechrau’ i ddechrau ar eich antur.    </t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Cwestau Intro</t>
+          <t>Cyflwyniad Cwest</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC1url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4url1</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Cwestau</t>
+          <t>Cychwyn</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
+          <t>function dragonvlion</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Cefn</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
           <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Galeri</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>tp @p 79934 -42 80011 facing 79934 -42 80005</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr"/>
@@ -3516,7 +3628,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>taliesinendNPC3</t>
+          <t>taliesinendNPC5</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3531,71 +3643,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
+          <t>Quest 2 invites you to become a Master Medieval Builder. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click the ‘Start’ button to start this essential building work.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Quest 1</t>
+          <t>Quest Intro</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5url0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Quest 2</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
+          <t>function masterbuilder</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Quest 3</t>
+          <t>Back</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Quest 4</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Quest 5</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Quest 6</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>Taliesin</t>
@@ -3603,69 +3691,45 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dyma rai o’r heriau sy’n aros amdanoch yng Nghastell Conwy. Pa bynnag her fyddwch chi am ymgymryd ag e, byddwch yn siwr o ehangu eich cysylltiad â Chastell Conwy a gyda Cymru, gan greu atgofion fydd gyda chi am byth. Felly, dewiswch eich her ac ewch ar siwrne o ddarganfod ac archwilio o fewn muriau enwog Castell Conwy. </t>
+          <t xml:space="preserve">Mae Cwest 2 yn eich gwahodd i fod yn Feistr Adeiladwr Canoloesol. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod i'n gallu darparu trosolwg o’r antur wych hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y gwaith adeiladu. </t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Cwest 1</t>
+          <t>Cyflwyniad Cwest</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5url1</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Cwest 2</t>
+          <t>Cychwyn</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5</t>
+          <t>function masterbuilder</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Cwest 3</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>Cwest 4</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Cwest 5</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>Cwest 6</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
@@ -3675,7 +3739,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>taliesinendNPC4</t>
+          <t>taliesinendNPC6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3690,7 +3754,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quest 1 is called ‘The Dragon of Wales vs. the Lion of England’. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click on the ‘Start’ button to embark on your adventure.</t>
+          <t>Uncover your hidden talents with Quest 3. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this engaging quest. Then click on the ‘Start’ button to embark on a rewarding experience.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -3702,7 +3766,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6url0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3712,7 +3776,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>function dragonvlion</t>
+          <t>function stainedgpre</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3738,7 +3802,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enw Cwest 1 yw ‘Draig Cymru yn erbyn Llew Lloegr’. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r cwest hon. Cliciwch fotwm ‘Dechrau’ i ddechrau ar eich antur.    </t>
+          <t xml:space="preserve">Datgelwch eich talentau cudd gyda Chwest 3. Yn gyntaf, cliciwch fotwm ‘Cyflwyniad Cwest’ fel fy mod i'n gallu darparu trosolwg o’r Gwest diddorol hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y profiad gwerth chweil yma.  </t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -3748,7 +3812,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC4url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6url1</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -3758,7 +3822,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>function dragonvlion</t>
+          <t>function stainedgpre</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -3786,7 +3850,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>taliesinendNPC5</t>
+          <t>taliesinendNPC7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3801,7 +3865,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quest 2 invites you to become a Master Medieval Builder. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this inspiring quest. Then click the ‘Start’ button to start this essential building work.</t>
+          <t>The Queen is coming! Quest 4 invites you to actively participate in preparing for this grand event. Click on the ‘Quest Intro’ button so I can provide you with an overview of this quest. Then, start the quest for a truly rewarding experience.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -3813,7 +3877,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7url0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3823,7 +3887,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>function masterbuilder</t>
+          <t>function queenpre</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3849,7 +3913,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mae Cwest 2 yn eich gwahodd i fod yn Feistr Adeiladwr Canoloesol. Yn gyntaf, cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r antur wych hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y gwaith adeiladu. </t>
+          <t>Mae’r Frenhines yn dod! Mae Cwest 4 yn eich gwahodd i gymryd rhan mewn digwyddiad mawr. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod i'n gallu darparu trosolwg o’r gwest hon. Wedyn, dechreuwch y gwest i gael profiadau gwerth chweil.</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -3859,7 +3923,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC5url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7url1</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -3869,7 +3933,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>function masterbuilder</t>
+          <t>function queenpre</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -3897,7 +3961,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>taliesinendNPC6</t>
+          <t>taliesinendNPC8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3912,7 +3976,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Uncover your hidden talents with Quest 3. First, click on the ‘Quest Intro’ button so I can provide you with an overview of this engaging quest. Then click on the ‘Start’ button to embark on a rewarding experience.</t>
+          <t>It's more than just a piece of cloth fluttering in the wind! Quest 5 invites you to explore the deeper meaning behind these fluttering signs. Click on the 'Quest Intro' button so I can give you an overview of this intriguing quest. Then, click on the 'Start' button to unleash your creativity.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -3924,7 +3988,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8url0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3934,7 +3998,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>function stainedgpre</t>
+          <t>function flagpre</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3960,7 +4024,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Datgelwch eich talentau cudd gyda Cwest 3. Yn gyntaf, cliciwch fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r Cwest diddorol hon. Wedyn cliciwch fotwm ‘Dechrau’ i ddechrau ar y profiad gwerth chweil yma.  </t>
+          <t xml:space="preserve">Mae’n fwy na dim ond darn o ddefnydd yn chwifio yn y gwynt! Mae Cwest 5 yn eich gwahodd i ymchwilio'r  ystyr tu ôl i’r baneri hyn. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod i'n gallu rhoi trosolwg o’r gwest i chi. Wedyn, cliciwch fotwm ‘Dechrau’ i arddangos eich sgiliau creadigol. </t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -3970,7 +4034,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC6url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8url1</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -3980,7 +4044,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>function stainedgpre</t>
+          <t>function flagpre</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4008,7 +4072,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>taliesinendNPC7</t>
+          <t>taliesinendNPC9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4023,7 +4087,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>The Queen is coming! Quest 4 invites you to actively participate in preparing for this grand event. Click on the ‘Quest Intro’ button so I can provide you with an overview of this quest. Then, start the quest for a truly rewarding experience.</t>
+          <t>The story of history is shaped by different perspectives, and Quest 6 encourages you to explore these varying viewpoints. To begin, click on the ‘Quest Intro’ button for an overview of this fascinating quest. Once you are ready click on the ‘Start’ button to embark on your quest.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -4035,7 +4099,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7url0</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9url0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4045,7 +4109,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>function queenpre</t>
+          <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4071,7 +4135,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Mae’r Frenhines yn dod! Mae Cwest 4 yn eich gwahodd i gymryd rhan mewn digwyddiad mawr. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu eich darparu gyda throsolwg o’r cwest hon. Wedyn, dechreuwch y cwest i gael profiadau gwerth chweil.</t>
+          <t>Mae hanes yn cael ei siapio gan wahanol safbwyntiau ac mae Cwest 6 yn eich annog i ymchwilio'r safbwyntiau gwahanol hyn. I ddechrau, cliciwch y botwm ‘Cyflwyniad Cwest’ am drosolwg o’r gwest hon. Unwaith rydych chi'n barod, cliciwch ar y botwm ‘Dechrau’ i ddechrau’r gwest.</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -4081,7 +4145,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC7url1</t>
+          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9url1</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -4091,7 +4155,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>function queenpre</t>
+          <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4119,102 +4183,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>taliesinendNPC8</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>taliesinendNPC</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>It's more than just a piece of cloth fluttering in the wind! Quest 5 invites you to explore the deeper meaning behind these fluttering signs. Click on the 'Quest Intro' button so I can give you an overview of this intriguing quest. Then, click on the 'Start' button to unleash your creativity.</t>
-        </is>
-      </c>
+          <t>QUEST NPCS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Quest Intro</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8url0</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Start</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>function flagpre</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mae’n fwy na dim ond darn o ddefnydd yn chwifio yn y gwynt! Mae Cwest 5 yn eich gwahodd i ymchwilio ystyr tu ôl i’r baneri hyn. Cliciwch ar fotwm ‘Cyflwyniad Cwest’ fel fy mod yn gallu rhoi trosolwg o’r cwest i chi. Wedyn, cliciwch fotwm ‘Dechrau’ i arddangos eich sgiliau creadigol. </t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Cyflwyniad Cwest</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC8url1</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Cychwyn</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>function flagpre</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Cefn</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
@@ -4230,56 +4226,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>taliesinendNPC9</t>
+          <t>dvlNPC1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>taliesinendNPC</t>
+          <t>dvlNPC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Dragon vs. Lion</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The story of history is shaped by different perspectives, and Quest 6 encourages you to explore these varying viewpoints. To begin, click on the ‘Quest Intro’ button for an overview of this fascinating quest. Once you are ready click on the ‘Start’ button to embark on your quest.</t>
+          <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Quest Intro</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9url0</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Start</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Back</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
+          <t>Okay</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -4288,44 +4264,24 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Mae hanes yn cael ei siapio gan wahanol safbwyntiau ac mae Cwest 6 yn eich annog i ymchwilio'r safbwyntiau gwahanol hyn. I ddechrau, cliciwch y botwm ‘Cyflwyniad Cwest’ am drosolwg o’r cwest hon. Unwaith rydych yn barod, cliciwch ar y botwm ‘Dechrau’ i ddechrau’r cwest.</t>
+          <t>Dw i’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithwir yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dw i’n siŵr y byddwch chi'n mwynhau’r gwest sydd gennyf i chi!</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Cyflwyniad Cwest</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC9url1</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Cychwyn</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>tp @p 10025 43 10278 facing 10027 43 10280</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Cefn</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=taliesinendNPC] @p taliesinendNPC3</t>
-        </is>
-      </c>
+          <t>Iawn</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
@@ -4341,40 +4297,156 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>QUEST NPCS</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>dvlNPC2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time. To go back to Taliesin click the compass.</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tale One</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Tale Two</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Tale Three</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url2</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Tale Four</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url3</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Tale Five</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url4</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Tale Six</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url5</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Cwest i ddeffro'ch synnwyr o ryfeddod, eich ysbrydoli, a thanio'ch dychymyg! Archwiliwch sut y daeth Castell Conwy i fod a datblygwch eich dealltwriaeth o'ch treftadaeth cyn i chi drafod stori Draig Cymru yn erbyn Llew Lloegr! Defnyddiwch y botymau isod i fynd ar daith nôl mewn amser.</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chwedl un </t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url6</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chwedl ddau </t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url7</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chwedl dri </t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url8</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Chwedl bedwar</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url9</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chwedl bump </t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url10</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chwedl chwech </t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url11</t>
+        </is>
+      </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
@@ -4384,17 +4456,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dvlNPC1</t>
+          <t>mmbNPC1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dvlNPC</t>
+          <t>mmbNPC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Dragon vs. Lion</t>
+          <t>Master Medieval Builder</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4422,12 +4494,12 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Dragon vs Llew</t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>Dwi’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithiol yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
+          <t>Dw i’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithwir yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -4455,156 +4527,108 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dvlNPC2</t>
+          <t>mmbNPC2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dvlNPC</t>
+          <t>mmbNPC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Dragon vs. Lion</t>
+          <t>Master Medieval Builder</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A quest to awaken your sense of wonder, inspire you, and fire your imagination! Investigate how Conwy Castle came to be and develop your understanding of your Heritage before you debate the tale of the Dragon of Wales vs. the Lion of England! Use the buttons below to take a journey back in time. To go back to Taliesin click the compass.</t>
+          <t>You are invited to join King Edward I in building a new town for settlers in Aberconwy! You will need to construct houses, a marketplace, and even a church to create a wonderful community. Your help in planning and building is essential. Click the buttons below to learn more.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tale One</t>
+          <t>James of St Geor</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url0</t>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url0</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Tale Two</t>
+          <t>Medieval Builder</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url1</t>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Tale Three</t>
+          <t>Your Quest</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url2</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Tale Four</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url3</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Tale Five</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url4</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Tale Six</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url5</t>
-        </is>
-      </c>
+          <t>function mblaunch</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Cwest i ddeffro'ch synnwyr o ryfeddod, eich ysbrydoli, a thanio'ch dychymyg! Archwiliwch sut y daeth Castell Conwy i fod a datblygwch eich dealltwriaeth o'ch Treftadaeth cyn i chi drafod stori Draig Cymru yn erbyn Llew Lloegr! Defnyddiwch y botymau isod i fynd ar daith nôl mewn amser.</t>
+          <t>Fe’ch gwahoddir i ymuno â’r Brenin Edward I i adeiladu tref newydd i ymsefydlwyr yn Aberconwy! Bydd angen i chi adeiladu tai, marchnad, a hyd yn oed eglwys i greu cymuned hyfryd. Mae eich help gyda chynllunio ac adeiladu'n hanfodol. Cliciwch ar y botymau isod i ddysgu mwy.</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chwedl un </t>
+          <t>Iago o Sant Sior</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url6</t>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url2</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chwedl ddau </t>
+          <t xml:space="preserve">Adeiladwr Canoloesol </t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url7</t>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url3</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chwedl dri </t>
+          <t xml:space="preserve">Eich Cwest </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url8</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Chwedl bedwar</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url9</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chwedl bump </t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url10</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chwedl chwech </t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=dvlNPC] @p dvlNPC2url11</t>
-        </is>
-      </c>
+          <t>function mblaunch</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
@@ -4614,7 +4638,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mmbNPC1</t>
+          <t>mmbNPC3</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4629,19 +4653,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
+          <t>It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Okay</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>Your Quest</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>function taliesinreturn</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -4652,22 +4688,34 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Meistr Medieval Builder</t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Dwi’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithiol yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
+          <t xml:space="preserve">Mae’n amser i ddechrau’r gwest hon! Cliciwch fotwm ‘Eich Cwest’ fel fy mod i'n gallu darparu canllaw o sut i gwblhau’r gwest yn lwyddiannus. </t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Iawn</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+          <t>Eich Cwest</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url1</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>function taliesinreturn</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -4685,56 +4733,36 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mmbNPC2</t>
+          <t>sgNPC1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mmbNPC</t>
+          <t>sgNPC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Master Medieval Builder</t>
+          <t>Stained Glass Window</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>You are invited to join King Edward I in building a new town for settlers in Aberconwy! You will need to construct houses, a marketplace, and even a church to create a wonderful community. Your help in planning and building is essential. Click the buttons below to learn more.</t>
+          <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>James of St Geor</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Medieval Builder</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url1</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Your Quest</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>function mblaunch</t>
-        </is>
-      </c>
+          <t>Okay</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -4743,44 +4771,24 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
+          <t>Ffenestr Gwydr Lliw</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Fe’ch gwahoddir i ymuno â’r Brenin Edward I i adeiladu tref newydd i ymsefydlwyr yn Aberconwy! Bydd angen i chi adeiladu tai, marchnad, a hyd yn oed eglwys i greu cymuned hyfryd. Mae eich help gyda chynllunio ac adeiladu yn hanfodol. Cliciwch ar y botymau isod i ddysgu mwy.</t>
+          <t>Dw i’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithwir yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dw i’n siŵr y byddwch yn mwynhau’r gwest sydd gennyf i chi!</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Iago o Sant Geroge </t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url2</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adeiladwr Canoloesol </t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2url3</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eich Cwest </t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>function mblaunch</t>
-        </is>
-      </c>
+          <t>Iawn</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
@@ -4796,34 +4804,34 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mmbNPC3</t>
+          <t>sgNPC2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mmbNPC</t>
+          <t>sgNPC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Master Medieval Builder</t>
+          <t>Stained Glass Window</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
+          <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to head to your window. </t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Your Quest</t>
+          <t>Stained Glass</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url0</t>
+          <t>dialogue open @e[tag=sgNPC] @p sgNPC2url0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4833,7 +4841,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>function taliesinreturn</t>
+          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -4846,34 +4854,26 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Meistr Medieval Builder</t>
+          <t xml:space="preserve">Ffenestr Gwydr Lliw   </t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mae’n amser i ddechrau’r cwest! Cliciwch fotwm ‘Eich Cwest’ fel fy mod yn gallu eich darparu gyda chanllaw sut i gwblhau’r cwest’n llwyddiannus. </t>
+          <t>Am gwest wych sy'n aros amdanoch chi! Mae dylunio ac adeiladu ffenestr liw yn Minecraft i ddarlunio stori o Gastell Conwy yn sicr o fod yn brofiad difyr a gwerth chweil. Cliciwch ar y botwm isod i ddarganfod sut y gallwch fynd ati.</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Eich Cwest</t>
+          <t xml:space="preserve">Gwydr Lliw </t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url1</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>function taliesinreturn</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=sgNPC] @p sgNPC2url1</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
@@ -4891,17 +4891,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sgNPC1</t>
+          <t>ffqNPC1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>sgNPC</t>
+          <t>ffqNPC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Stained Glass Window</t>
+          <t>Fit for a Queen</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4929,12 +4929,12 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Ffenestr Gwydr Lliw</t>
+          <t xml:space="preserve">Yn gywir i Frenhines   </t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Dwi’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithiol yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
+          <t>Dw i’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithwir yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dw i’n siŵr y byddwch yn mwynhau’r gwest sydd gennyf i chi!</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -4962,48 +4962,60 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sgNPC2</t>
+          <t>ffqNPC2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>sgNPC</t>
+          <t>ffqNPC</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Stained Glass Window</t>
+          <t>Fit for a Queen</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">What a fantastic quest awaits you! Designing and building a stained-glass window in Minecraft to depict a tale from Conwy Castle is sure to be an engaging and rewarding experience. Click on the button below to head to your window. </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t xml:space="preserve">Did you hear Queen Eleanor is coming to stay at Conwy Castle soon? We need to make sure everything is perfect for her visit! Use the buttons below to find out what needs to be prepared. </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>setblock 10150 45 10206 minecraft:air</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Stained Glass</t>
+          <t>The Letter</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=sgNPC] @p sgNPC2url0</t>
+          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url0</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>Plan a Garden</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url1</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>Taliesin</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -5012,29 +5024,44 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ffenestr Gwydr Lliw   </t>
+          <t xml:space="preserve">Yn gywir i Frenhines   </t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Am gwest wych sy'n aros amdanoch chi! Mae dylunio ac adeiladu ffenestr liw yn Minecraft i ddarlunio stori o Gastell Conwy yn sicr o fod yn brofiad difyr a gwerth chweil.
-Cliciwch ar y botwm isod i ddarganfod sut y gallwch fynd ati.</t>
+          <t>Glywsoch chi fod y Frenhines Eleanor yn dod i aros yng Nghastell Conwy yn fuan? Mae angen i ni sicrhau bod popeth yn berffaith ar gyfer ei hymweliad! Defnyddiwch y botymau isod i ddarganfod beth sydd angen ei baratoi.</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gwydr Lliw </t>
+          <t xml:space="preserve">Y Llythyr </t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=sgNPC] @p sgNPC2url1</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
+          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url2</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynlluniwch Ardd </t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url3</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
@@ -5050,64 +5077,120 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ffqNPC1</t>
+          <t>flfNPC1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ffqNPC</t>
+          <t>flfNPC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fit for a Queen</t>
+          <t>Flying the Flag</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>I know you are eager to begin a Quest! However, you must first complete the virtual tour, as it will provide valuable knowledge to help you. Please come back afterwards; I'm sure you will enjoy the quest I have for you!</t>
+          <t>Hey, did you see that when you walked up to the castle from the West Barbican, both the North-West Tower and the South-West Tower were supposed to have flags flying on them? But today, one of the flags is missing. Click on the buttons to learn more!</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Okay</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+          <t>Missing Flag</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Flags Flown</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Design a Flag</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url2</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Addas ar gyfer Brenhines</t>
+          <t xml:space="preserve">Chwifio’r Fanner </t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Dwi’n gwybod eich bod yn awyddus i ddechrau Cwest! Fodd bynnag, mae’n rhaid i chi gwblhau taith rithiol yn gyntaf, achos bydd yn rhoi gwybodaeth ddefnyddiol i’ch helpu. Dewch yn ôl wedyn, dwi’n siŵr y byddwch yn mwynhau’r cwest sydd gennyf i chi!</t>
+          <t>Hei, welsoch chi, wrth gerdded i fyny i'r castell o Farbican y Gorllewin, fod Tŵr y Gogledd-Orllewin a Thŵr y De-orllewin i fod i gael baneri yn chwifio arnynt? Ond heddiw, mae un o'r baneri ar goll. Cliciwch ar y botymau i ddysgu mwy!</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Iawn</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
+          <t xml:space="preserve">Y Fanner Goll </t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url3</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baneri’n Chwifio  </t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url4</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynlluniwch Faner </t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url5</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
+        </is>
+      </c>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
@@ -5121,48 +5204,44 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ffqNPC2</t>
+          <t>ctcNPC1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ffqNPC</t>
+          <t>ctcNPC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fit for a Queen</t>
+          <t>Capture the Castle</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Did you hear Queen Eleanor is coming to stay at Conwy Castle soon? We need to make sure everything is perfect for her visit! Use the buttons below to find out what needs to be prepared. </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>setblock 10150 45 10206 minecraft:air</t>
-        </is>
-      </c>
+          <t>Conwy Castle was seized by the Welsh on April 1, 1401, during the early stages of the Glyndŵr Rising, also known as the Welsh Revolt, a significant revolt led by Owain Glyndŵr against English rule. The seizure of the castle was a symbolic and strategic victory for the Welsh rebels. Click on the buttons to learn more!</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>The Letter</t>
+          <t>Owain Glyndwr</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url0</t>
+          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url0</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Plan a Garden</t>
+          <t>Castle Capture</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url1</t>
+          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5183,33 +5262,32 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yn gywir i Frenhines   </t>
+          <t xml:space="preserve">Cipio’r Castell </t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>A glywsoch chi fod y Frenhines Eleanor yn dod i aros yng Nghastell Conwy yn fuan? Mae angen i ni sicrhau bod popeth yn berffaith ar gyfer ei hymweliad!
-Defnyddiwch y botymau isod i ddarganfod beth sydd angen ei baratoi.</t>
+          <t>Cipiwyd Castell Conwy gan y Cymry ar Ebrill 1, 1401, yn ystod cyfnodau cynnar Gwrthryfel Glyndŵr, a adwaenir hefyd fel Gwrthryfel Cymru, gwrthryfel arwyddocaol a arweiniwyd gan Owain Glyndŵr yn erbyn rheolaeth Lloegr. Roedd cipio’r castell yn fuddugoliaeth symbolaidd a strategol i’r gwrthryfelwyr Cymreig. Cliciwch ar y botymau i ddysgu mwy!</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Llythyr </t>
+          <t xml:space="preserve">Owain Glyndŵr </t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url2</t>
+          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url2</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cynlluniwch Ardd </t>
+          <t xml:space="preserve">Cipio Castell </t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ffqNPC] @p ffqNPC2url3</t>
+          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url3</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5237,121 +5315,36 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>flfNPC1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>flfNPC</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Flying the Flag</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Hey, did you see that when you walked up to the castle from the West Barbican, both the North-West Tower and the South-West Tower were supposed to have flags flying on them? But today, one of the flags is missing. Click on the buttons to learn more!</t>
-        </is>
-      </c>
+          <t>Misc NPCS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Missing Flag</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Flags Flown</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url1</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Design a Flag</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url2</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chwifio’r Fanner </t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>Hei, a welsoch chi, wrth gerdded i fyny i'r castell o Farbican y Gorllewin, fod Tŵr y Gogledd-Orllewin a Thŵr y De-orllewin i fod i gael baneri yn chwifio arnynt? Ond heddiw, mae un o'r baneri ar goll.
-Cliciwch ar y botymau i ddysgu mwy!</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Y Fanner Goll </t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url3</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baneri’n Chwifio  </t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url4</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynlluniwch Faner </t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=flfNPC] @p flfNPC1url5</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
-        </is>
-      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
@@ -5365,103 +5358,54 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ctcNPC1</t>
+          <t>hiddendragonNPC1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ctcNPC</t>
+          <t>hiddendragonNPC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Capture the Castle</t>
+          <t>Hidden Lleu</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Conwy Castle was seized by the Welsh on April 1, 1401, during the early stages of the Glyndŵr Rising, also known as the Welsh Revolt, a significant revolt led by Owain Glyndŵr against English rule. The seizure of the castle was a symbolic and strategic victory for the Welsh rebels. Click on the buttons to learn more!</t>
+          <t>Rawr</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Owain Glyndwr</t>
+          <t>Huh?</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Castle Capture</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url1</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
-        </is>
-      </c>
+          <t>dialogue open @e[tag=hiddendragon] @p hiddendragonNPC2</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipio’r Castell </t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Cipiwyd Castell Conwy gan y Cymry ar Ebrill 1, 1401, yn ystod cyfnodau cynnar Gwrthryfel Glyndŵr, a adwaenir hefyd fel Gwrthryfel Cymru, gwrthryfel arwyddocaol a arweiniwyd gan Owain Glyndŵr yn erbyn rheolaeth Lloegr. Roedd cipio’r castell yn fuddugoliaeth symbolaidd a strategol i’r gwrthryfelwyr Cymreig.
-Cliciwch ar y botymau i ddysgu mwy!</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Owain Glyndŵr </t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url2</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipio Castell </t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>dialogue open @e[tag=ctcNPC] @p ctcNPC1url3</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>Taliesin</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>tp @p 9883 29 10191 facing 9883 29 10196</t>
-        </is>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
@@ -5477,15 +5421,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Misc NPCS</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>hiddendragonNPC2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>hiddendragonNPC</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Hidden Lleu</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>You found me! Well done! Please remember to take my picture and add it to your ‘field journal.’</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Will Do</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -5497,9 +5457,21 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Lleu</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Rydych wedi fy narganfod! Cofiwch dynnu llun ohonof ac ychwanegu i’ch dyddiadur.</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Gwnaf</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -5520,39 +5492,55 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hiddendragonNPC1</t>
+          <t>compassNPC1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>hiddendragonNPC</t>
+          <t>compassNPC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hidden Lleu</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rawr</t>
+          <t xml:space="preserve">I am here to help! Would you like to:
+Go back to the galleri
+Go back the start of Conwy Castle
+Stay where you are
+</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Huh?</t>
+          <t>Galeri</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>dialogue open @e[tag=hiddendragon] @p hiddendragonNPC2</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+          <t>tp @p 79934 -42 80020 facing 79934 -42 80013</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Conwy</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>function conwyreturn</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Stay</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -5581,33 +5569,13 @@
       <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>hiddendragonNPC2</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>hiddendragonNPC</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Hidden Lleu</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>You found me! Well done! Please remember to take my picture and add it to your ‘field journal.’</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Will Do</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -5619,21 +5587,9 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Lleu</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>Rydych wedi fy narganfod! Cofiwch dynnu llun ohonof ac ychwanegu i’ch dyddiadur.</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Gwnaf</t>
-        </is>
-      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -5652,57 +5608,17 @@
       <c r="AK55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>compassNPC1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>compassNPC</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I am here to help! Would you like to:
-Go back to the galleri
-Go back the start of Conwy Castle
-Stay where you are
-</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Galeri</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>tp @p 79934 -42 80020 facing 79934 -42 80013</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Conwy</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>function conwyreturn</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Stay</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -5809,7 +5725,11 @@
       <c r="AK58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Old dialogue</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -5848,24 +5768,95 @@
       <c r="AK59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>taliesinendNPC2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choose from the below quests! 
+Dragon vs. Lion
+Master Medieval Builder
+Stained Glass Window
+Fit for a Queen
+Flying the Flag
+Capture the Castle
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>D vs L</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>function dragonvlion</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Master Builder</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>function masterbuilder</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Stained Glass</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>function stainedgpre</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Fit for a Queen</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>function queenpre</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Flying the Flag</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>function flagpre</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Capture</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -5889,18 +5880,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Old dialogue</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t>taliesinNPC1url0</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>taliesinNPC</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>What language would you like to view the video in?</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch_popup?v=MlzTMeEtZbI</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8 </t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -5909,11 +5928,27 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -5923,7 +5958,11 @@
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
@@ -5932,12 +5971,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>taliesinendNPC2</t>
+          <t>taliesinNPC1url1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>taliesinendNPC</t>
+          <t>taliesinNPC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5947,83 +5986,60 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Choose from the below quests! 
-Dragon vs. Lion
-Master Medieval Builder
-Stained Glass Window
-Fit for a Queen
-Flying the Flag
-Capture the Castle
-</t>
+          <t>What language would you like to view the video in?</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>D vs L</t>
+          <t>English</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>function dragonvlion</t>
+          <t>https://www.youtube.com/watch_popup?v=oAjC8Ry3Pe8</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Master Builder</t>
+          <t>Cymraeg</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>function masterbuilder</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Stained Glass</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>function stainedgpre</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Fit for a Queen</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>function queenpre</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Flying the Flag</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>function flagpre</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Capture</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc </t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -6033,7 +6049,11 @@
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
@@ -6042,11 +6062,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>taliesinNPC1url0</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+          <t>pcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>pcNPC</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portcullis Custodian</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6061,7 +6089,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=oajc8ry3pe8</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8VnNMdrF8xQ </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -6071,7 +6099,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=hmWzvGu3N4A </t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -6084,12 +6112,12 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Ceidwad Porthwlis</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6125,11 +6153,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>taliesinNPCurl1url0</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+          <t>wbNPC1url0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>wbNPC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>West Barbican Custodian</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6144,7 +6180,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=mlztmeetzbi</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4MR0oEiq7pA </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6154,7 +6190,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=MlzTMeEtZbI</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw </t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -6167,12 +6203,12 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t>Ceidwad Barbican Gorllewinol</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -6208,11 +6244,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>taliesinNPCurl1url1</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+          <t>mgNPC1url0</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mgNPC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Main Gate Custodian</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6227,7 +6271,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8ytweho-wa8 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=RpqqINFdVhg </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6237,7 +6281,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=12B2IYOJDnw </t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -6250,12 +6294,12 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t xml:space="preserve">Ceidwad y Prif Borth </t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -6291,11 +6335,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>pcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+          <t>owNPC1url0</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>owNPC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Outer Ward Custodian</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6310,7 +6362,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8vnnmdrf8xq </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=oYB2UeXA75k </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6320,7 +6372,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=hmWzvGu3N4A </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FGxhtFeKAxA </t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -6333,12 +6385,12 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Ceidwad Porthwlis</t>
+          <t>Ceidwad Ward Allanol</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -6374,11 +6426,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>wbNPC1url0</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+          <t>nwtNPC1url0</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>nwtNPC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>North-West Tower Custodian</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6393,7 +6453,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4mr0oeiq7pa </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=I9MGNyv2tfE </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6403,7 +6463,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -6416,12 +6476,12 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Ceidwad Barbican Gorllewinol</t>
+          <t xml:space="preserve">Ceidwad Tŵr y Gogledd-Orllewin </t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -6457,11 +6517,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mgNPC1url0</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+          <t>swtNPC1url0</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>swtNPC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>South-West Tower Custodian</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6476,7 +6544,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rpqqinfdvhg </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m072INWcFXU </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6486,7 +6554,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=12B2IYOJDnw </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rmOew_MSHo0 </t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -6499,12 +6567,12 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Prif Borth </t>
+          <t xml:space="preserve">Ceidwad Tŵr y De-Orllewin </t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -6540,11 +6608,19 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>owNPC1url0</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>cghNPC1url0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cghNPC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chapel &amp; Great Hall Custodian</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6559,7 +6635,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=oyb2uexa75k </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wcp6sMJGSiY </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6569,7 +6645,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FGxhtFeKAxA </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JjkXGwGUjnM </t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -6582,12 +6658,12 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Ceidwad Ward Allanol</t>
+          <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -6623,11 +6699,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nwtNPC1url0</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+          <t>ptNPC1url0</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ptNPC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Prison Tower Custodian</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6642,7 +6726,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=i9mgnyv2tfe </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6QjdNgVNl3Y </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6652,7 +6736,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Fk4yKbs8bh8 </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -6665,12 +6749,12 @@
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Gogledd-Orllewin </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Carchar </t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -6706,11 +6790,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>swtNPC1url0</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+          <t>kitchNPC1url0</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>kitchNPC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Kitchen Custodian</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6725,7 +6817,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m072inwcfxu </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rAUH5OxitHg </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6735,7 +6827,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rmOew_MSHo0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=EPRkmH1UcRs </t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -6748,12 +6840,12 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y De-Orllewin </t>
+          <t xml:space="preserve">Ceidwad y Gegin </t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -6789,11 +6881,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>cghNPC1url0</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+          <t>wellNPC1url0</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>wellNPC</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The Well Custodian</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6808,7 +6908,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wcp6smjgsiy </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=-VNjPjVOSBk </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6818,7 +6918,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JjkXGwGUjnM </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9vw1epEJZfk </t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -6831,12 +6931,12 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capel &amp; Ceidwad y Neuadd Fawr </t>
+          <t xml:space="preserve">Ceidwad y Ffynnon </t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -6872,11 +6972,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ptNPC1url0</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>midgNPC1url0</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>midgNPC</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Middle Gate Custodian</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6891,7 +6999,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6qjdngvnl3y </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=C0t6duLUpXk </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6901,7 +7009,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Fk4yKbs8bh8 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4VWRwmfvS14 </t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -6914,12 +7022,12 @@
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Carchar </t>
+          <t xml:space="preserve">Ceidwad y Porth Canol </t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
@@ -6955,11 +7063,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>kitchNPC1url0</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+          <t>iwNPC1url0</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>iwNPC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Inner Ward Custodian</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -6974,7 +7090,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rauh5oxithg </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wyhtG0XJlR0 </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6984,7 +7100,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=EPRkmH1UcRs </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9Lb2bOrvwQ4 </t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -6997,12 +7113,12 @@
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Gegin </t>
+          <t xml:space="preserve">Ceidwad y Wal Mewnol </t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -7038,11 +7154,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>wellNPC1url0</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+          <t>cgcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cgcNPC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>King's Great Chamber Custodian</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7057,7 +7181,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=-vnjpjvosbk </t>
+          <t>https://www.youtube.com/watch_popup?v=8IRhOP6QlAM</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7067,7 +7191,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9vw1epEJZfk </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=GsX2KAv3n24 </t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -7080,12 +7204,12 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Ffynnon </t>
+          <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -7121,11 +7245,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>midgNPC1url0</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>ctNPC1url0</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ctNPC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chapel Tower Custodian</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7140,7 +7272,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=c0t6dulupxk </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XPeHvT114Jw </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7150,7 +7282,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4VWRwmfvS14 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BCLEkB_VpoQ </t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -7163,12 +7295,12 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Porth Canol </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Capel </t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -7204,11 +7336,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>iwNPC1url0</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+          <t>ctNPC2url0</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ctNPC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chapel Tower Custodian</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7223,7 +7363,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=wyhtg0xjlr0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lb1Sn3CXvqM </t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7233,7 +7373,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9Lb2bOrvwQ4 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=so4YnmfCyRM </t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -7246,12 +7386,12 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Wal Mewnol </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
@@ -7287,11 +7427,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>cgcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+          <t>wcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>wcNPC</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Watching Chamber Custodian</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7306,7 +7454,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=8irhop6qlam</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=O9FxxAnED94 </t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7316,7 +7464,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=GsX2KAv3n24 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=V9YfzmsILiQ </t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -7329,12 +7477,12 @@
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr Fawr y Brenin </t>
+          <t xml:space="preserve">Ceidwad y Siambr Gwylio </t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -7370,11 +7518,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ctNPC1url0</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>ktNPC1url0</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ktNPC</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>King's Tower Custodian</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7389,7 +7545,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xpehvt114jw </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g-rLr7Xl36s </t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7399,7 +7555,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BCLEkB_VpoQ </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fNXnaRnsMPs </t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -7412,12 +7568,12 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Capel </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Brenin </t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -7453,11 +7609,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ctNPC2url0</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+          <t>kcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>kcNPC</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>King's Chamber Custodian</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7472,7 +7636,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lb1sn3cxvqm </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=M5QJdQC93JY </t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7482,7 +7646,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=so4YnmfCyRM </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=HrCZQz6tZM0 </t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -7495,12 +7659,12 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Capel         </t>
+          <t xml:space="preserve">Ceidwad Siambr y Brenin         </t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
@@ -7536,11 +7700,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>wcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+          <t>qcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>qcNPC</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Queen's Chamber Custodian</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7555,7 +7727,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=o9fxxaned94 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=MvMeRIXN7ZQ </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7565,7 +7737,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=V9YfzmsILiQ </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xgritMV1-yc </t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -7578,12 +7750,12 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad y Siambr Gwylio </t>
+          <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -7619,11 +7791,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ktNPC1url0</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+          <t>bhNPC1url0</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bhNPC</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Bakehouse Tower Custodian</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7638,7 +7818,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g-rlr7xl36s </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Q1d-5AelzCU </t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7648,7 +7828,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fNXnaRnsMPs </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ybA8Uq2faf8 </t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -7661,12 +7841,12 @@
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Brenin </t>
+          <t xml:space="preserve">Ceidwad Tŵr y Popty         </t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -7702,11 +7882,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+          <t>ebNPC1url0</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ebNPC</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>East Barbican Custodian</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7721,7 +7909,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m5qjdqc93jy </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BMyyKu5FZtI </t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7731,7 +7919,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=HrCZQz6tZM0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tSrz6r5LQik </t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -7744,12 +7932,12 @@
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr y Brenin         </t>
+          <t xml:space="preserve">Ceidwad Barbican y Dwyrain         </t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -7785,11 +7973,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>qcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+          <t>wwNPC1url0</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>wwNPC</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Wall-Walk Custodian</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7804,7 +8000,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=mvmerixn7zq </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XEWl_ZHleYw </t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7814,7 +8010,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xgritMV1-yc </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Uw6jWa_HHf4 </t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -7827,12 +8023,12 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Siambr y Frenhines         </t>
+          <t xml:space="preserve">Ceidwad Taith Wal  </t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -7868,11 +8064,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bhNPC1url0</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+          <t>twNPC1url0</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>twNPC</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Town Wall Custodian</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7887,7 +8091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=q1d-5aelzcu </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UD8oBbkY954 </t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7897,7 +8101,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ybA8Uq2faf8 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=AzjyNRz2_Bo </t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -7910,12 +8114,12 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Tŵr y Popty         </t>
+          <t>Ceidwad Wal y Dref</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
@@ -7951,11 +8155,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ebNPC1url0</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+          <t>twNPC1url1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>twNPC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Town Wall Custodian</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -7970,7 +8182,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=bmyyku5fzti </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8abdKAJcd5o </t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7980,7 +8192,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tSrz6r5LQik </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=VUsJlr1hezI </t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -7993,12 +8205,12 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Barbican y Dwyrain         </t>
+          <t>Ceidwad Wal y Dref</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -8034,11 +8246,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>wwNPC1url0</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+          <t>twNPC1url2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>twNPC</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Town Wall Custodian</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8053,7 +8273,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xewl_zhleyw </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JiboQeuNw3U </t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8063,7 +8283,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Uw6jWa_HHf4 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BPfR0OeyJpQ </t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -8076,12 +8296,12 @@
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Taith Wal  </t>
+          <t>Ceidwad Wal y Dref</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -8117,11 +8337,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>twNPC1url0</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+          <t>taliesinendNPC1url0</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8136,7 +8364,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ud8obbky954 </t>
+          <t>https://www.youtube.com/watch_popup?v=4j6ArBa7jzg</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8146,7 +8374,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=AzjyNRz2_Bo </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=e90k7FlJuJ0 </t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -8159,12 +8387,12 @@
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Wal y Dreg </t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -8200,11 +8428,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>twNPC1url1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+          <t>taliesinendNPC4url0</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8219,7 +8455,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8abdkajcd5o </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tKalNcCY9yI </t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8229,7 +8465,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=VUsJlr1hezI </t>
+          <t>https://www.youtube.com/watch_popup?v=xli79AKBnnY</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -8242,12 +8478,12 @@
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Wal y Dreg </t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -8283,11 +8519,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>twNPC1url2</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+          <t>taliesinendNPC5url0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8302,7 +8546,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=jiboqeunw3u </t>
+          <t>https://www.youtube.com/watch_popup?v=0YBwnulSZzU</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8312,7 +8556,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BPfR0OeyJpQ </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=beuv42HlpbA </t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -8325,12 +8569,12 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ceidwad Wal y Dreg </t>
+          <t>Taliesin</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -8366,11 +8610,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>taliesinendNPC1url0</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+          <t>taliesinendNPC6url0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8385,7 +8637,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=4j6arba7jzg</t>
+          <t>https://www.youtube.com/watch_popup?v=B3qNfkopTz4</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8395,7 +8647,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=e90k7FlJuJ0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=2ey6ON0Ik7I </t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -8413,7 +8665,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -8449,11 +8701,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>taliesinendNPC4url0</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+          <t>taliesinendNPC7url0</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8468,7 +8728,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tkalnccy9yi </t>
+          <t>https://www.youtube.com/watch_popup?v=VNIYTnkKsVk</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8478,7 +8738,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=xli79AKBnnY</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=0lECZey9-IA </t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -8496,7 +8756,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -8532,11 +8792,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>taliesinendNPC5url0</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+          <t>taliesinendNPC8url0</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8551,7 +8819,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=0ybwnulszzu</t>
+          <t>https://www.youtube.com/watch_popup?v=UBHFQQBFeD0</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8561,7 +8829,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=beuv42HlpbA </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UqvHuyEwo1g </t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -8579,7 +8847,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -8615,11 +8883,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>taliesinendNPC6url0</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+          <t>taliesinendNPC9url0</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>taliesinendNPC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Taliesin</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8634,7 +8910,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=b3qnfkoptz4</t>
+          <t>https://www.youtube.com/watch_popup?v=FdOJqP7ds_0</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8644,7 +8920,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=2ey6ON0Ik7I </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Yic4np31Flk </t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -8662,7 +8938,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -8698,11 +8974,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>taliesinendNPC7url0</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t>dvlNPC2url0</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8717,7 +9001,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=vniytnkksvk</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=IRXZIDdQFiM </t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8727,7 +9011,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=0lECZey9-IA </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=DNPQ8xD2xi8 </t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -8740,12 +9024,12 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
@@ -8781,11 +9065,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>taliesinendNPC8url0</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+          <t>dvlNPC2url1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8800,7 +9092,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=ubhfqqbfed0</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=np6VMf7puhY </t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8810,7 +9102,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UqvHuyEwo1g </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=YbO8jQD8lXE </t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -8823,12 +9115,12 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
@@ -8864,11 +9156,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>taliesinendNPC9url0</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+          <t>dvlNPC2url2</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8883,7 +9183,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=fdojqp7ds_0</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=cjw8XsGHscA </t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8893,7 +9193,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Yic4np31Flk </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=h1SvxuP9Q-k </t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -8906,12 +9206,12 @@
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>Taliesin</t>
+          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -8947,11 +9247,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dvlNPC2url0</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+          <t>dvlNPC2url3</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -8966,7 +9274,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=irxziddqfim </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=gN0kMp1CAkw </t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8976,7 +9284,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=DNPQ8xD2xi8 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4-RIrkS_2YY </t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -8994,7 +9302,7 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
@@ -9030,11 +9338,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dvlNPC2url1</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+          <t>dvlNPC2url4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>dvlNPC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Dragon vs. Lion</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9049,7 +9365,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=np6vmf7puhy </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=LsVC2Nm6MJs </t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9059,7 +9375,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=YbO8jQD8lXE </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Mak69hjejw0 </t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -9077,7 +9393,7 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -9113,11 +9429,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dvlNPC2url2</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+          <t>mmbNPC2url0</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>mmbNPC</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Master Medieval Builder</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9132,7 +9456,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=cjw8xsghsca </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=U2YBGPeKxaQ </t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9142,7 +9466,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=h1SvxuP9Q-k </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=K2pzYWqkwm0 </t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -9155,12 +9479,12 @@
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -9196,11 +9520,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dvlNPC2url3</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t>mmbNPC2url1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>mmbNPC</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Master Medieval Builder</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9215,7 +9547,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=gn0kmp1cakw </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ONzrxHcTG9w </t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9225,7 +9557,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4-RIrkS_2YY </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=WWBpn9vPZwE </t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -9238,12 +9570,12 @@
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
@@ -9279,11 +9611,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dvlNPC2url4</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+          <t>mmbNPC3url0</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>mmbNPC</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Master Medieval Builder</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9298,7 +9638,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lsvc2nm6mjs </t>
+          <t>https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9308,7 +9648,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Mak69hjejw0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6lZ7qT-g5dM  </t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -9321,12 +9661,12 @@
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y Ddraig yn erbyn y Llew   </t>
+          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
@@ -9362,11 +9702,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mmbNPC2url0</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+          <t>sgNPC2url0</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>sgNPC</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Stained Glass Window</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9381,7 +9729,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=u2ybgpekxaq </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=W0rGmmGmP8U </t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9391,7 +9739,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=K2pzYWqkwm0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g9sB8U-V32c </t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -9404,12 +9752,12 @@
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
+          <t xml:space="preserve">Ffenestr Gwydr Lliw   </t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
@@ -9445,11 +9793,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mmbNPC2url1</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+          <t>ffqNPC2url0</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ffqNPC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Fit for a Queen</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9464,7 +9820,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=onzrxhctg9w </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=H5CZJ9YOR3M </t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9474,7 +9830,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=WWBpn9vPZwE </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8ebN-3yfATs </t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -9487,12 +9843,12 @@
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dod yn Feistr Adeiladwr Canoloesol   </t>
+          <t xml:space="preserve">Yn gywir i Frenhines   </t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -9528,11 +9884,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mmbNPC3url0</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+          <t>ffqNPC2url1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ffqNPC</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Fit for a Queen</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9547,7 +9911,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch_popup?v=y7zuu_zfiv8</t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=nPhdQqyLyzo </t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -9557,7 +9921,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6lZ7qT-g5dM  </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=sjYbBZeyNBU </t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -9570,12 +9934,12 @@
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr">
         <is>
-          <t>Meistr Medieval Builder</t>
+          <t xml:space="preserve">Yn gywir i Frenhines   </t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
@@ -9611,11 +9975,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sgNPC2url0</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+          <t>flfNPC1url0</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>flfNPC</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Flying the Flag</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9630,7 +10002,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=w0rgmmgmp8u </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6h3nrSTeXMQ </t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -9640,7 +10012,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g9sB8U-V32c </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=NwLimldTi9U </t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -9653,12 +10025,12 @@
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ffenestr Gwydr Lliw   </t>
+          <t xml:space="preserve">Chwifio’r Fanner </t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
@@ -9694,11 +10066,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ffqNPC2url0</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+          <t>flfNPC1url1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>flfNPC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Flying the Flag</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9713,7 +10093,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=h5czj9yor3m </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ls6s-ipIoIU </t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -9723,7 +10103,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8ebN-3yfATs </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y6rCTGg7Tn0 </t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -9736,12 +10116,12 @@
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yn gywir i Frenhines   </t>
+          <t xml:space="preserve">Chwifio’r Fanner </t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
@@ -9777,11 +10157,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ffqNPC2url1</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+          <t>flfNPC1url2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>flfNPC</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Flying the Flag</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9796,7 +10184,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=nphdqqylyzo </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=KyfXVZ2Sz0U </t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -9806,7 +10194,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=sjYbBZeyNBU </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ghuiaCTgu1w </t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -9819,12 +10207,12 @@
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yn gywir i Frenhines   </t>
+          <t xml:space="preserve">Chwifio’r Fanner </t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U108" t="inlineStr">
@@ -9860,11 +10248,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>flfNPC1url0</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+          <t>ctcNPC1url0</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ctcNPC</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Capture the Castle</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9879,7 +10275,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6h3nrstexmq </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=kqEl5tOswhU </t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -9889,7 +10285,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=NwLimldTi9U </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fgIZt2-Nx_w </t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -9902,12 +10298,12 @@
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chwifio’r Fanner </t>
+          <t xml:space="preserve">Cipio’r Castell </t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
@@ -9943,11 +10339,19 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>flfNPC1url1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+          <t>ctcNPC1url1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ctcNPC</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Capture the Castle</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>What language would you like to view the video in?</t>
@@ -9962,7 +10366,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ls6s-ipioiu </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=SC5YhDa2c7Y </t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9972,7 +10376,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y6rCTGg7Tn0 </t>
+          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=OCILZG5lh_A </t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -9985,12 +10389,12 @@
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chwifio’r Fanner </t>
+          <t xml:space="preserve">Cipio’r Castell </t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>Whatever it is in welsh</t>
+          <t>Ym mha iaith yr hoffech wylio'r fideo?</t>
         </is>
       </c>
       <c r="U110" t="inlineStr">
@@ -10023,255 +10427,6 @@
       <c r="AJ110" t="inlineStr"/>
       <c r="AK110" t="inlineStr"/>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>flfNPC1url2</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>What language would you like to view the video in?</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=kyfxvz2sz0u </t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ghuiaCTgu1w </t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chwifio’r Fanner </t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>Whatever it is in welsh</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ctcNPC1url0</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>What language would you like to view the video in?</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=kqel5toswhu </t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fgIZt2-Nx_w </t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipio’r Castell </t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>Whatever it is in welsh</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ctcNPC1url1</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>What language would you like to view the video in?</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=sc5yhda2c7y </t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.youtube.com/watch_popup?v=OCILZG5lh_A </t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cipio’r Castell </t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>Whatever it is in welsh</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
-      <c r="AK113" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK110"/>
+  <dimension ref="A1:AR110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,27 +596,62 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Button Name Welsh 2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Button Name Welsh 3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>Button Name 2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Button Name 3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Button Name 4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Button Name Welsh 4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Command Button Welsh 4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Button Name 5</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Button Name Welsh 5</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Command Button Welsh 5</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Button Name 6</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Button Name Welsh 6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Command Button Welsh 6</t>
         </is>
       </c>
     </row>
@@ -662,6 +697,13 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -705,6 +747,13 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -808,6 +857,13 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,6 +935,13 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -974,6 +1037,13 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1069,6 +1139,13 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1164,6 +1241,13 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,6 +1343,13 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1354,6 +1445,13 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1449,6 +1547,13 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1544,6 +1649,13 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1639,6 +1751,13 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1735,6 +1854,13 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1830,6 +1956,13 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1909,6 +2042,13 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1988,6 +2128,13 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2083,6 +2230,13 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2178,6 +2332,13 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2273,6 +2434,13 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2368,6 +2536,13 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2463,6 +2638,13 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2558,6 +2740,13 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2653,6 +2842,13 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2748,6 +2944,13 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2843,6 +3046,13 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2922,6 +3132,13 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3017,6 +3234,13 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3112,6 +3336,13 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3239,6 +3470,13 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3354,6 +3592,13 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3513,6 +3758,13 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3624,6 +3876,13 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3735,6 +3994,13 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3846,6 +4112,13 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3957,6 +4230,13 @@
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4068,6 +4348,13 @@
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4179,6 +4466,13 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4222,6 +4516,13 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4293,6 +4594,13 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4452,6 +4760,13 @@
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4523,6 +4838,13 @@
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4634,6 +4956,13 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4729,6 +5058,13 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4800,6 +5136,13 @@
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4887,6 +5230,13 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4958,6 +5308,13 @@
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5073,6 +5430,13 @@
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5200,6 +5564,13 @@
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5311,6 +5682,13 @@
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5354,6 +5732,13 @@
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5417,6 +5802,13 @@
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5488,6 +5880,13 @@
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5567,6 +5966,13 @@
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -5606,6 +6012,13 @@
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -5645,6 +6058,13 @@
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -5684,6 +6104,13 @@
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -5723,6 +6150,13 @@
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5766,6 +6200,13 @@
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5876,6 +6317,13 @@
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5920,8 +6368,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8YTWeHO-Wa8 </t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinNPC] taliesinNPC1</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -5944,11 +6400,7 @@
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
@@ -5963,10 +6415,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6011,8 +6478,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=03QngMoJ3pc </t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinNPC] taliesinNPC1</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -6035,11 +6510,7 @@
         </is>
       </c>
       <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -6054,10 +6525,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6102,8 +6588,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=hmWzvGu3N4A </t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=pcNPC] pcNPC1</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -6126,11 +6620,7 @@
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
@@ -6145,10 +6635,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6193,8 +6698,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Ck8mqnSioQw </t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=wbNPC] wbNPC1</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -6217,11 +6730,7 @@
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
@@ -6236,10 +6745,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6284,8 +6808,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=12B2IYOJDnw </t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mgNPC] mgNPC1</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -6308,11 +6840,7 @@
         </is>
       </c>
       <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
@@ -6327,10 +6855,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6375,8 +6918,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=FGxhtFeKAxA </t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=owNPC] owNPC1</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -6399,11 +6950,7 @@
         </is>
       </c>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -6418,10 +6965,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6466,8 +7028,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=nwtNPC] nwtNPC1</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -6490,11 +7060,7 @@
         </is>
       </c>
       <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
@@ -6509,10 +7075,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6557,8 +7138,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=rmOew_MSHo0 </t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=swtNPC] swtNPC1</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -6581,11 +7170,7 @@
         </is>
       </c>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
@@ -6600,10 +7185,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6648,8 +7248,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JjkXGwGUjnM </t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=cghNPC] cghNPC1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -6672,11 +7280,7 @@
         </is>
       </c>
       <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
@@ -6691,10 +7295,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH69" t="inlineStr"/>
-      <c r="AI69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6739,8 +7358,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Fk4yKbs8bh8 </t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ptNPC] ptNPC1</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -6763,11 +7390,7 @@
         </is>
       </c>
       <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
@@ -6782,10 +7405,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH70" t="inlineStr"/>
-      <c r="AI70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6830,8 +7468,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=EPRkmH1UcRs </t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=kitchNPC] kitchNPC1</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -6854,11 +7500,7 @@
         </is>
       </c>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
@@ -6873,10 +7515,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6921,8 +7578,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9vw1epEJZfk </t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=wellNPC] wellNPC1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -6945,11 +7610,7 @@
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -6964,10 +7625,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7012,8 +7688,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4VWRwmfvS14 </t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=midgNPC] midgNPC1</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -7036,11 +7720,7 @@
         </is>
       </c>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
@@ -7055,10 +7735,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7103,8 +7798,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=9Lb2bOrvwQ4 </t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=iwNPC] iwNPC1</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -7127,11 +7830,7 @@
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
@@ -7146,10 +7845,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7194,8 +7908,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=GsX2KAv3n24 </t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=cgcNPC] cgcNPC1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -7218,11 +7940,7 @@
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
@@ -7237,10 +7955,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH75" t="inlineStr"/>
-      <c r="AI75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7285,8 +8018,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BCLEkB_VpoQ </t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ctNPC] ctNPC1</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -7309,11 +8050,7 @@
         </is>
       </c>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
@@ -7328,10 +8065,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH76" t="inlineStr"/>
-      <c r="AI76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7376,8 +8128,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=so4YnmfCyRM </t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ctNPC] ctNPC2</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -7400,11 +8160,7 @@
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
@@ -7419,10 +8175,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7467,8 +8238,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=V9YfzmsILiQ </t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=wcNPC] wcNPC1</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -7491,11 +8270,7 @@
         </is>
       </c>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
@@ -7510,10 +8285,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7558,8 +8348,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fNXnaRnsMPs </t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ktNPC] ktNPC1</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -7582,11 +8380,7 @@
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
@@ -7601,10 +8395,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH79" t="inlineStr"/>
-      <c r="AI79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7649,8 +8458,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=HrCZQz6tZM0 </t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=kcNPC] kcNPC1</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -7673,11 +8490,7 @@
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
@@ -7692,10 +8505,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH80" t="inlineStr"/>
-      <c r="AI80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7740,8 +8568,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=xgritMV1-yc </t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=qcNPC] qcNPC1</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -7764,11 +8600,7 @@
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
@@ -7783,10 +8615,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
+      <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7831,8 +8678,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ybA8Uq2faf8 </t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=bhNPC] bhNPC1</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -7855,11 +8710,7 @@
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
@@ -7874,10 +8725,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
+      <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7922,8 +8788,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=tSrz6r5LQik </t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ebNPC] ebNPC1</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -7946,11 +8820,7 @@
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
@@ -7965,10 +8835,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH83" t="inlineStr"/>
-      <c r="AI83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ83" t="inlineStr"/>
       <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8013,8 +8898,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Uw6jWa_HHf4 </t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=wwNPC] wwNPC1</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -8037,11 +8930,7 @@
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
@@ -8056,10 +8945,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8104,8 +9008,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=AzjyNRz2_Bo </t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=twNPC] twNPC1</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -8128,11 +9040,7 @@
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
@@ -8147,10 +9055,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ85" t="inlineStr"/>
       <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8195,8 +9118,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=VUsJlr1hezI </t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=twNPC] twNPC1</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -8219,11 +9150,7 @@
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
@@ -8238,10 +9165,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH86" t="inlineStr"/>
-      <c r="AI86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8286,8 +9228,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BPfR0OeyJpQ </t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=twNPC] twNPC1</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -8310,11 +9260,7 @@
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
@@ -8329,10 +9275,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8377,8 +9338,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=e90k7FlJuJ0 </t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC1</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -8401,11 +9370,7 @@
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
@@ -8420,10 +9385,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ88" t="inlineStr"/>
       <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8468,8 +9448,16 @@
           <t>https://www.youtube.com/watch_popup?v=xli79AKBnnY</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC4</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -8492,11 +9480,7 @@
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
@@ -8511,10 +9495,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8559,8 +9558,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=beuv42HlpbA </t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC5</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -8583,11 +9590,7 @@
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
@@ -8602,10 +9605,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8650,8 +9668,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=2ey6ON0Ik7I </t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC6</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -8674,11 +9700,7 @@
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
@@ -8693,10 +9715,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ91" t="inlineStr"/>
       <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8741,8 +9778,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=0lECZey9-IA </t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC7</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -8765,11 +9810,7 @@
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
@@ -8784,10 +9825,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH92" t="inlineStr"/>
-      <c r="AI92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ92" t="inlineStr"/>
       <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8832,8 +9888,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=UqvHuyEwo1g </t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC8</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -8856,11 +9920,7 @@
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
@@ -8875,10 +9935,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH93" t="inlineStr"/>
-      <c r="AI93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ93" t="inlineStr"/>
       <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8923,8 +9998,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Yic4np31Flk </t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=taliesinendNPC] taliesinendNPC9</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -8947,11 +10030,7 @@
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
@@ -8966,10 +10045,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH94" t="inlineStr"/>
-      <c r="AI94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ94" t="inlineStr"/>
       <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9014,8 +10108,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=DNPQ8xD2xi8 </t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] dvlNPC2</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -9038,11 +10140,7 @@
         </is>
       </c>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
@@ -9057,10 +10155,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ95" t="inlineStr"/>
       <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9105,8 +10218,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=YbO8jQD8lXE </t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] dvlNPC2</t>
+        </is>
+      </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -9129,11 +10250,7 @@
         </is>
       </c>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
@@ -9148,10 +10265,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH96" t="inlineStr"/>
-      <c r="AI96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ96" t="inlineStr"/>
       <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9196,8 +10328,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=h1SvxuP9Q-k </t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] dvlNPC2</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
@@ -9220,11 +10360,7 @@
         </is>
       </c>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -9239,10 +10375,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH97" t="inlineStr"/>
-      <c r="AI97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ97" t="inlineStr"/>
       <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9287,8 +10438,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=4-RIrkS_2YY </t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] dvlNPC2</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -9311,11 +10470,7 @@
         </is>
       </c>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
@@ -9330,10 +10485,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH98" t="inlineStr"/>
-      <c r="AI98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI98" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ98" t="inlineStr"/>
       <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
+      <c r="AO98" t="inlineStr"/>
+      <c r="AP98" t="inlineStr"/>
+      <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9378,8 +10548,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=Mak69hjejw0 </t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=dvlNPC] dvlNPC2</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -9402,11 +10580,7 @@
         </is>
       </c>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
@@ -9421,10 +10595,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
+      <c r="AO99" t="inlineStr"/>
+      <c r="AP99" t="inlineStr"/>
+      <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9469,8 +10658,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=K2pzYWqkwm0 </t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mmbNPC] mmbNPC2</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -9493,11 +10690,7 @@
         </is>
       </c>
       <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
@@ -9512,10 +10705,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI100" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ100" t="inlineStr"/>
       <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
+      <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9560,8 +10768,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=WWBpn9vPZwE </t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mmbNPC] mmbNPC2</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -9584,11 +10800,7 @@
         </is>
       </c>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
@@ -9603,10 +10815,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI101" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
+      <c r="AO101" t="inlineStr"/>
+      <c r="AP101" t="inlineStr"/>
+      <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9651,8 +10878,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6lZ7qT-g5dM  </t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=mmbNPC] mmbNPC3</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -9675,11 +10910,7 @@
         </is>
       </c>
       <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
@@ -9694,10 +10925,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH102" t="inlineStr"/>
-      <c r="AI102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ102" t="inlineStr"/>
       <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9742,8 +10988,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=g9sB8U-V32c </t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=sgNPC] sgNPC2</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -9766,11 +11020,7 @@
         </is>
       </c>
       <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
@@ -9785,10 +11035,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH103" t="inlineStr"/>
-      <c r="AI103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI103" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
+      <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9833,8 +11098,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=8ebN-3yfATs </t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ffqNPC] ffqNPC2</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -9857,11 +11130,7 @@
         </is>
       </c>
       <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
@@ -9876,10 +11145,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI104" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ104" t="inlineStr"/>
       <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr"/>
+      <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9924,8 +11208,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=sjYbBZeyNBU </t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ffqNPC] ffqNPC2</t>
+        </is>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -9948,11 +11240,7 @@
         </is>
       </c>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr"/>
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
@@ -9967,10 +11255,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI105" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ105" t="inlineStr"/>
       <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10015,8 +11318,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=NwLimldTi9U </t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] flfNPC1</t>
+        </is>
+      </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -10039,11 +11350,7 @@
         </is>
       </c>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
@@ -10058,10 +11365,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH106" t="inlineStr"/>
-      <c r="AI106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI106" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ106" t="inlineStr"/>
       <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10106,8 +11428,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=y6rCTGg7Tn0 </t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] flfNPC1</t>
+        </is>
+      </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -10130,11 +11460,7 @@
         </is>
       </c>
       <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
@@ -10149,10 +11475,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ107" t="inlineStr"/>
       <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr"/>
+      <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10197,8 +11538,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ghuiaCTgu1w </t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=flfNPC] flfNPC1</t>
+        </is>
+      </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -10221,11 +11570,7 @@
         </is>
       </c>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W108" t="inlineStr"/>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
@@ -10240,10 +11585,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH108" t="inlineStr"/>
-      <c r="AI108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI108" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ108" t="inlineStr"/>
       <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr"/>
+      <c r="AP108" t="inlineStr"/>
+      <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10288,8 +11648,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=fgIZt2-Nx_w </t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ctcNPC] ctcNPC1</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -10312,11 +11680,7 @@
         </is>
       </c>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
@@ -10331,10 +11695,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH109" t="inlineStr"/>
-      <c r="AI109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI109" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ109" t="inlineStr"/>
       <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr"/>
+      <c r="AP109" t="inlineStr"/>
+      <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10379,8 +11758,16 @@
           <t xml:space="preserve">https://www.youtube.com/watch_popup?v=OCILZG5lh_A </t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Back</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>dialogue open @e[tag=ctcNPC] ctcNPC1</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -10403,11 +11790,7 @@
         </is>
       </c>
       <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Cymraeg</t>
-        </is>
-      </c>
+      <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr"/>
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
@@ -10422,10 +11805,25 @@
           <t>Cymraeg</t>
         </is>
       </c>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr">
+        <is>
+          <t>Yn ôl</t>
+        </is>
+      </c>
+      <c r="AI110" t="inlineStr">
+        <is>
+          <t>Cymraeg</t>
+        </is>
+      </c>
       <c r="AJ110" t="inlineStr"/>
       <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr"/>
+      <c r="AP110" t="inlineStr"/>
+      <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -6417,7 +6417,7 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="AH74" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI74" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI75" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="AH76" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI76" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
@@ -8287,7 +8287,7 @@
       </c>
       <c r="AH78" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI78" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="AH80" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI80" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="AH81" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI81" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI83" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="AH84" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI84" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="AH85" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI85" t="inlineStr">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="AH86" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI86" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr">
@@ -9497,7 +9497,7 @@
       </c>
       <c r="AH89" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr">
@@ -9607,7 +9607,7 @@
       </c>
       <c r="AH90" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI90" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="AH91" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI91" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="AH93" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI93" t="inlineStr">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="AH94" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI94" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="AH95" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI95" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="AH96" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI96" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="AH98" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI98" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="AH99" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI99" t="inlineStr">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="AH100" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI100" t="inlineStr">
@@ -10817,7 +10817,7 @@
       </c>
       <c r="AH101" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI101" t="inlineStr">
@@ -10927,7 +10927,7 @@
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="AH103" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI103" t="inlineStr">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="AH104" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI104" t="inlineStr">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="AH105" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI105" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="AH106" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI106" t="inlineStr">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="AH108" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI108" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="AH109" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI109" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="AH110" t="inlineStr">
         <is>
-          <t>Yn ôl</t>
+          <t>Cefn</t>
         </is>
       </c>
       <c r="AI110" t="inlineStr">

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283E04A-4C0E-A347-B0EE-E59AADE17778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0520EC05-0CF8-E94B-8A12-0C67600A56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="900" windowWidth="34240" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="752">
   <si>
     <t>Scene</t>
   </si>
@@ -427,21 +427,12 @@
     <t xml:space="preserve">Tŵr y De-Orllewin </t>
   </si>
   <si>
-    <t>swtNPC1</t>
-  </si>
-  <si>
-    <t>swtNPC</t>
-  </si>
-  <si>
     <t>South-West Tower Custodian</t>
   </si>
   <si>
     <t>Click the 'Find Out More' button to learn more about the South-West Tower and its role within the castle's bustling community. Then you should walk along the castle's south-west side and investigate the Chapel and Great Hall. Walk over or be teleported by clicking the 'Chapel’ button.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=swtNPC] @p swtNPC1url0</t>
-  </si>
-  <si>
     <t>Chapel</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
     <t>Cliciwch ar y botwm ‘Darganfod Mwy’ i ddysgu mwy am Dŵr y De-Orllewin a’i rôl o fewn cymuned brysur y castell. Yna dylech chi gerdded ar hyd ochr dde-orllewinol y castell ac archwilio'r Capel a'r Neuadd Fawr. Cerddwch drosodd neu gewch eich telegludo trwy glicio ar y botwm ‘Capel’.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=swtNPC] @p swtNPC1url1</t>
-  </si>
-  <si>
     <t>Capel</t>
   </si>
   <si>
@@ -491,12 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tŵr y Carchar </t>
-  </si>
-  <si>
-    <t>ptNPC1</t>
-  </si>
-  <si>
-    <t>ptNPC</t>
   </si>
   <si>
     <t>Prison Tower Custodian</t>
@@ -506,9 +488,6 @@
 Once you have looked around the Prison Tower, walk over to the Kitchen or click the Kitchen button to be teleported.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ptNPC] @p ptNPC1url0</t>
-  </si>
-  <si>
     <t>Kitchen</t>
   </si>
   <si>
@@ -521,9 +500,6 @@
     <t>Mae gan y tŵr hwn hanes iasoer a dyluniad pensaernïol unigryw! Darganfyddwch y cyfrinachau diddorol trwy glicio ar y botwm ‘Darganfod Mwy’. Unwaith y byddwch wedi edrych o gwmpas Tŵr y Carchar, cerddwch draw i'r Gegin neu gliciwch ar y botwm Cegin i gael eich telegludo.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ptNPC] @p ptNPC1url1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y Gegin </t>
   </si>
   <si>
@@ -674,21 +650,12 @@
     <t xml:space="preserve">Tŵr y Capel </t>
   </si>
   <si>
-    <t>ctNPC1</t>
-  </si>
-  <si>
-    <t>ctNPC</t>
-  </si>
-  <si>
     <t>Chapel Tower Custodian</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to the Chapel Tower. You should click the ‘Find Out More’ button to investigate this tower. Take your time to wander through the passageways, and then when you are ready to delve deeper into the castle's history, click the 'Inside Chapel Tower' button to be teleported inside the Chapel Tower. I will meet you there. </t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC1url0</t>
-  </si>
-  <si>
     <t>Inside Chapel</t>
   </si>
   <si>
@@ -701,21 +668,12 @@
     <t>Croeso i Dŵr y Capel. Dylech chi glicio ar y botwm ‘Darganfod Mwy’ i ymchwilio i’r tŵr hwn. Cymerwch eich amser i grwydro drwy'r tramwyfeydd, ac yna pan fyddwch chi'n barod i dreiddio'n ddyfnach i hanes y castell, cliciwch ar y botwm 'Tu Mewn i Dŵr y Capel' i gael eich telegludo y tu mewn i Dŵr y Capel. Byddaf yn cwrdd â chi yno.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC1url1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tu Mewn i Dŵr y Capel </t>
   </si>
   <si>
-    <t>ctNPC2</t>
-  </si>
-  <si>
     <t>Now that you are inside the Chapel Tower, you have reached one of the most exciting features in any surviving medieval castle chapel complex! Click the ‘Find Out More’ button to examine its unique features. You can also access the Watching Chamber by clicking the ‘Watching Chamber’ button below to be teleported.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC2url0</t>
-  </si>
-  <si>
     <t>Watching Chamber</t>
   </si>
   <si>
@@ -728,9 +686,6 @@
     <t>Nawr eich bod y tu mewn i Dŵr y Capel, rydych chi wedi cyrraedd un o'r nodweddion mwyaf cyffrous mewn unrhyw gyfadeilad capeli castell canoloesol sydd wedi goroesi! Cliciwch ar y botwm ‘Darganfod Mwy’ i archwilio ei nodweddion unigryw. Gallwch hefyd gael mynediad i’r Siambr Gwylio drwy glicio ar y botwm ‘Siambr Gwylio’ isod i gael eich telegludo.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC2url1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siambr Gwylio </t>
   </si>
   <si>
@@ -1445,9 +1400,6 @@
     <t>It’s time for you to embark on this quest! Click on the ‘Your Quest’ button so I can provide detailed guidance on completing this quest successfully.</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url0</t>
-  </si>
-  <si>
     <t>function taliesinreturn</t>
   </si>
   <si>
@@ -1457,9 +1409,6 @@
     <t>Eich Cwest</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url1</t>
-  </si>
-  <si>
     <t>sgNPC1</t>
   </si>
   <si>
@@ -1494,12 +1443,6 @@
   </si>
   <si>
     <t>Am gwest wych sy'n aros amdanoch chi! Mae dylunio ac adeiladu ffenestr liw yn Minecraft i ddarlunio stori o Gastell Conwy yn sicr o fod yn brofiad difyr a gwerth chweil. Cliciwch ar y botwm isod i ddarganfod sut y gallwch fynd ati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gwydr Lliw </t>
-  </si>
-  <si>
-    <t>dialogue open @e[tag=sgNPC] @p sgNPC2url1</t>
   </si>
   <si>
     <t>ffqNPC1</t>
@@ -1710,34 +1653,6 @@
     <t>Stay</t>
   </si>
   <si>
-    <t>Old dialogue</t>
-  </si>
-  <si>
-    <t>taliesinendNPC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose from the below quests! 
-Dragon vs. Lion
-Master Medieval Builder
-Stained Glass Window
-Fit for a Queen
-Flying the Flag
-Capture the Castle
-</t>
-  </si>
-  <si>
-    <t>D vs L</t>
-  </si>
-  <si>
-    <t>Master Builder</t>
-  </si>
-  <si>
-    <t>Capture</t>
-  </si>
-  <si>
-    <t>tp @p 10024 43 10277 facing 10027 43 10281</t>
-  </si>
-  <si>
     <t>taliesinNPC1url0</t>
   </si>
   <si>
@@ -1813,9 +1728,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=ltjz9fCDelY </t>
   </si>
   <si>
-    <t>swtNPC1url0</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=m072INWcFXU </t>
   </si>
   <si>
@@ -1831,9 +1743,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=JjkXGwGUjnM </t>
   </si>
   <si>
-    <t>ptNPC1url0</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=6QjdNgVNl3Y </t>
   </si>
   <si>
@@ -1885,18 +1794,12 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=GsX2KAv3n24 </t>
   </si>
   <si>
-    <t>ctNPC1url0</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=XPeHvT114Jw </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=BCLEkB_VpoQ </t>
   </si>
   <si>
-    <t>ctNPC2url0</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=lb1Sn3CXvqM </t>
   </si>
   <si>
@@ -2119,9 +2022,6 @@
     <t xml:space="preserve">https://www.youtube.com/watch_popup?v=WWBpn9vPZwE </t>
   </si>
   <si>
-    <t>mmbNPC3url0</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch_popup?v=y7zuU_ZFiV8</t>
   </si>
   <si>
@@ -2218,15 +2118,9 @@
     <t>dialogue open @e[tag=nwtNPC] @p nwtNPC1</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=swtNPC] @p swtNPC1</t>
-  </si>
-  <si>
     <t>dialogue open @e[tag=cghNPC] @p cghNPC1</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ptNPC] @p ptNPC1</t>
-  </si>
-  <si>
     <t>dialogue open @e[tag=kitchNPC] @p kitchNPC1</t>
   </si>
   <si>
@@ -2242,12 +2136,6 @@
     <t>dialogue open @e[tag=cgcNPC] @p cgcNPC1</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC1</t>
-  </si>
-  <si>
-    <t>dialogue open @e[tag=ctNPC] @p ctNPC2</t>
-  </si>
-  <si>
     <t>dialogue open @e[tag=wcNPC] @p wcNPC1</t>
   </si>
   <si>
@@ -2297,6 +2185,102 @@
   </si>
   <si>
     <t>Parhau</t>
+  </si>
+  <si>
+    <t>southNPC1</t>
+  </si>
+  <si>
+    <t>southtNPC</t>
+  </si>
+  <si>
+    <t>southNPC1url0</t>
+  </si>
+  <si>
+    <t>southNPC</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=southNPC] @p southNPC1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=southNPC] @p southNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=southNPC] @p southNPC1url1</t>
+  </si>
+  <si>
+    <t>prisonNPC1</t>
+  </si>
+  <si>
+    <t>prisonNPC</t>
+  </si>
+  <si>
+    <t>prisonNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=prisonNPC] @p prisonNPC1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=prisonNPC] @p prisonNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=prisonNPC] @p prisonNPC1url1</t>
+  </si>
+  <si>
+    <t>chapelNPC1</t>
+  </si>
+  <si>
+    <t>chapelNPC</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=chapelNPC] @p chapelNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=chapelNPC] @p chapelNPC1url1</t>
+  </si>
+  <si>
+    <t>chapelNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=chapelNPC] @p chapelNPC1</t>
+  </si>
+  <si>
+    <t>inchapNPC1</t>
+  </si>
+  <si>
+    <t>inchapNPC</t>
+  </si>
+  <si>
+    <t>inchapNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=inchapNPC] @p inchapNPC1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=inchapNPC] @p inchapNPC1url0</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=inchapNPC] @p inchapNPC1url1</t>
+  </si>
+  <si>
+    <t>dvlNPC2url5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=eHNU8VzL5l0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch_popup?v=MUtg-AuUQn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwydr Lliw </t>
+  </si>
+  <si>
+    <t>mmbNPC3url2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url1</t>
   </si>
 </sst>
 </file>
@@ -2660,22 +2644,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR110"/>
+  <dimension ref="A1:AR106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="50" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="10" max="10" width="54.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="46.6640625" customWidth="1"/>
     <col min="19" max="19" width="30.1640625" customWidth="1"/>
@@ -3172,870 +3157,870 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B12" t="s">
+        <v>721</v>
+      </c>
+      <c r="C12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
+        <v>725</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" t="s">
         <v>139</v>
       </c>
-      <c r="I12" t="s">
+      <c r="T12" t="s">
         <v>140</v>
-      </c>
-      <c r="J12" t="s">
-        <v>141</v>
-      </c>
-      <c r="S12" t="s">
-        <v>142</v>
-      </c>
-      <c r="T12" t="s">
-        <v>143</v>
       </c>
       <c r="U12" t="s">
         <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>144</v>
+        <v>726</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S13" t="s">
+        <v>149</v>
+      </c>
+      <c r="T13" t="s">
         <v>150</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" t="s">
-        <v>152</v>
-      </c>
-      <c r="S13" t="s">
-        <v>153</v>
-      </c>
-      <c r="T13" t="s">
-        <v>154</v>
       </c>
       <c r="U13" t="s">
         <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>727</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>728</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>731</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="T14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="U14" t="s">
         <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>166</v>
+        <v>732</v>
       </c>
       <c r="W14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="S15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="T15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="U15" t="s">
         <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="W15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I16" t="s">
         <v>54</v>
       </c>
       <c r="S16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="T16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="U16" t="s">
         <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="W16" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
         <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="T17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
         <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="W17" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="T18" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="U18" t="s">
         <v>89</v>
       </c>
       <c r="V18" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="S19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="T19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="U19" t="s">
         <v>89</v>
       </c>
       <c r="V19" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>734</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>735</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="S20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="T20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="U20" t="s">
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>226</v>
+        <v>736</v>
       </c>
       <c r="W20" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>739</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>740</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>230</v>
+        <v>743</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="S21" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="T21" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="U21" t="s">
         <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>235</v>
+        <v>744</v>
       </c>
       <c r="W21" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="X21" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="S22" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="T22" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="U22" t="s">
         <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="W22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="S23" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="T23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="U23" t="s">
         <v>89</v>
       </c>
       <c r="V23" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="W23" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="X23" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G24" t="s">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="S24" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="T24" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="U24" t="s">
         <v>89</v>
       </c>
       <c r="V24" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="W24" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="X24" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I25" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="S25" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="T25" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="U25" t="s">
         <v>89</v>
       </c>
       <c r="V25" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="W25" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="S26" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="T26" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="U26" t="s">
         <v>89</v>
       </c>
       <c r="V26" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="W26" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="X26" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H27" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="S27" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="T27" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="U27" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="V27" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="S28" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="T28" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="U28" t="s">
         <v>89</v>
       </c>
       <c r="V28" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="W28" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
         <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="I29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="S29" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="T29" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="U29" t="s">
         <v>89</v>
       </c>
       <c r="V29" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="W29" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="X29" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H30" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I30" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s">
         <v>48</v>
       </c>
       <c r="N30" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="S30" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="T30" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="U30" t="s">
+        <v>307</v>
+      </c>
+      <c r="V30" t="s">
+        <v>320</v>
+      </c>
+      <c r="W30" t="s">
+        <v>321</v>
+      </c>
+      <c r="X30" t="s">
         <v>322</v>
       </c>
-      <c r="V30" t="s">
-        <v>335</v>
-      </c>
-      <c r="W30" t="s">
-        <v>336</v>
-      </c>
-      <c r="X30" t="s">
-        <v>337</v>
-      </c>
       <c r="Y30" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="Z30" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="AA30" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AB30" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H31" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I31" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="K31" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
         <v>75</v>
@@ -4044,19 +4029,19 @@
         <v>48</v>
       </c>
       <c r="T31" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="U31" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="V31" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="W31" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="X31" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="Y31" t="s">
         <v>74</v>
@@ -4067,3587 +4052,3588 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C32" t="s">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G32" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H32" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="I32" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="J32" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K32" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="L32" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="O32" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="P32" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="Q32" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="R32" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="S32" t="s">
         <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="U32" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="V32" t="s">
+        <v>342</v>
+      </c>
+      <c r="W32" t="s">
+        <v>355</v>
+      </c>
+      <c r="X32" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA32" t="s">
         <v>357</v>
       </c>
-      <c r="W32" t="s">
-        <v>370</v>
-      </c>
-      <c r="X32" t="s">
+      <c r="AB32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE32" t="s">
         <v>359</v>
       </c>
-      <c r="Y32" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>374</v>
-      </c>
       <c r="AF32" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="G33" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H33" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J33" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="K33" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L33" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S33" t="s">
         <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="U33" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="V33" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="W33" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X33" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="Y33" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z33" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H34" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J34" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L34" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S34" t="s">
         <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="U34" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="V34" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="W34" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X34" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="Y34" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z34" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G35" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H35" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="I35" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J35" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K35" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S35" t="s">
         <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="U35" t="s">
+        <v>368</v>
+      </c>
+      <c r="V35" t="s">
         <v>383</v>
       </c>
-      <c r="V35" t="s">
-        <v>398</v>
-      </c>
       <c r="W35" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X35" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="Y35" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z35" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G36" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="I36" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J36" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K36" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S36" t="s">
         <v>48</v>
       </c>
       <c r="T36" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="U36" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="V36" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="W36" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X36" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="Y36" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z36" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G37" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="I37" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K37" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S37" t="s">
         <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="U37" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="V37" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="W37" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X37" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="Y37" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z37" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G38" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="H38" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="K38" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="S38" t="s">
         <v>48</v>
       </c>
       <c r="T38" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="U38" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="V38" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="W38" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="Y38" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="Z38" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C40" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D40" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="S40" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="T40" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="U40" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
+      <c r="D41" t="s">
+        <v>412</v>
+      </c>
+      <c r="G41" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" t="s">
+        <v>414</v>
+      </c>
+      <c r="I41" t="s">
+        <v>415</v>
+      </c>
+      <c r="J41" t="s">
+        <v>416</v>
+      </c>
+      <c r="K41" t="s">
+        <v>417</v>
+      </c>
+      <c r="L41" t="s">
+        <v>418</v>
+      </c>
+      <c r="M41" t="s">
+        <v>419</v>
+      </c>
+      <c r="N41" t="s">
+        <v>420</v>
+      </c>
+      <c r="O41" t="s">
+        <v>421</v>
+      </c>
+      <c r="P41" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>423</v>
+      </c>
+      <c r="R41" t="s">
+        <v>424</v>
+      </c>
+      <c r="S41" t="s">
+        <v>408</v>
+      </c>
+      <c r="T41" t="s">
+        <v>425</v>
+      </c>
+      <c r="U41" t="s">
         <v>426</v>
       </c>
-      <c r="B41" t="s">
-        <v>419</v>
-      </c>
-      <c r="C41" t="s">
-        <v>420</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="V41" t="s">
         <v>427</v>
       </c>
-      <c r="G41" t="s">
+      <c r="W41" t="s">
         <v>428</v>
       </c>
-      <c r="H41" t="s">
+      <c r="X41" t="s">
         <v>429</v>
       </c>
-      <c r="I41" t="s">
+      <c r="Y41" t="s">
         <v>430</v>
       </c>
-      <c r="J41" t="s">
+      <c r="Z41" t="s">
         <v>431</v>
       </c>
-      <c r="K41" t="s">
+      <c r="AA41" t="s">
         <v>432</v>
       </c>
-      <c r="L41" t="s">
+      <c r="AB41" t="s">
         <v>433</v>
       </c>
-      <c r="M41" t="s">
+      <c r="AC41" t="s">
         <v>434</v>
       </c>
-      <c r="N41" t="s">
+      <c r="AD41" t="s">
         <v>435</v>
       </c>
-      <c r="O41" t="s">
+      <c r="AE41" t="s">
         <v>436</v>
       </c>
-      <c r="P41" t="s">
+      <c r="AF41" t="s">
         <v>437</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>438</v>
-      </c>
-      <c r="R41" t="s">
-        <v>439</v>
-      </c>
-      <c r="S41" t="s">
-        <v>423</v>
-      </c>
-      <c r="T41" t="s">
-        <v>440</v>
-      </c>
-      <c r="U41" t="s">
-        <v>441</v>
-      </c>
-      <c r="V41" t="s">
-        <v>442</v>
-      </c>
-      <c r="W41" t="s">
-        <v>443</v>
-      </c>
-      <c r="X41" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>445</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>447</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>449</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>451</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B42" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G42" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="S42" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="T42" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="U42" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" t="s">
+        <v>444</v>
+      </c>
+      <c r="G43" t="s">
+        <v>445</v>
+      </c>
+      <c r="H43" t="s">
+        <v>446</v>
+      </c>
+      <c r="I43" t="s">
+        <v>447</v>
+      </c>
+      <c r="J43" t="s">
+        <v>448</v>
+      </c>
+      <c r="K43" t="s">
+        <v>449</v>
+      </c>
+      <c r="L43" t="s">
+        <v>450</v>
+      </c>
+      <c r="S43" t="s">
+        <v>441</v>
+      </c>
+      <c r="T43" t="s">
+        <v>451</v>
+      </c>
+      <c r="U43" t="s">
+        <v>452</v>
+      </c>
+      <c r="V43" t="s">
+        <v>453</v>
+      </c>
+      <c r="W43" t="s">
         <v>454</v>
       </c>
-      <c r="C43" t="s">
+      <c r="X43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" t="s">
-        <v>459</v>
-      </c>
-      <c r="G43" t="s">
-        <v>460</v>
-      </c>
-      <c r="H43" t="s">
-        <v>461</v>
-      </c>
-      <c r="I43" t="s">
-        <v>462</v>
-      </c>
-      <c r="J43" t="s">
-        <v>463</v>
-      </c>
-      <c r="K43" t="s">
-        <v>464</v>
-      </c>
-      <c r="L43" t="s">
-        <v>465</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="Y43" t="s">
         <v>456</v>
       </c>
-      <c r="T43" t="s">
-        <v>466</v>
-      </c>
-      <c r="U43" t="s">
-        <v>467</v>
-      </c>
-      <c r="V43" t="s">
-        <v>468</v>
-      </c>
-      <c r="W43" t="s">
-        <v>469</v>
-      </c>
-      <c r="X43" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>471</v>
-      </c>
       <c r="Z43" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D44" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="G44" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H44" t="s">
-        <v>474</v>
+        <v>750</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
       </c>
       <c r="J44" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="S44" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="T44" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="U44" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="V44" t="s">
-        <v>478</v>
+        <v>751</v>
       </c>
       <c r="W44" t="s">
         <v>48</v>
       </c>
       <c r="X44" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C45" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="S45" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="T45" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="U45" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B46" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D46" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="G46" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="H46" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="S46" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="T46" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="U46" t="s">
-        <v>491</v>
+        <v>748</v>
       </c>
       <c r="V46" t="s">
-        <v>492</v>
+        <v>470</v>
+      </c>
+      <c r="W46" t="s">
+        <v>48</v>
+      </c>
+      <c r="X46" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B47" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C47" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D47" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="S47" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="T47" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="U47" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B48" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C48" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D48" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E48" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G48" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H48" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="I48" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="J48" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="K48" t="s">
         <v>48</v>
       </c>
       <c r="L48" t="s">
+        <v>471</v>
+      </c>
+      <c r="S48" t="s">
+        <v>477</v>
+      </c>
+      <c r="T48" t="s">
+        <v>485</v>
+      </c>
+      <c r="U48" t="s">
+        <v>486</v>
+      </c>
+      <c r="V48" t="s">
+        <v>487</v>
+      </c>
+      <c r="W48" t="s">
         <v>488</v>
       </c>
-      <c r="S48" t="s">
-        <v>496</v>
-      </c>
-      <c r="T48" t="s">
-        <v>504</v>
-      </c>
-      <c r="U48" t="s">
-        <v>505</v>
-      </c>
-      <c r="V48" t="s">
-        <v>506</v>
-      </c>
-      <c r="W48" t="s">
-        <v>507</v>
-      </c>
       <c r="X48" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="Y48" t="s">
         <v>48</v>
       </c>
       <c r="Z48" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="B49" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="C49" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D49" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="H49" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="I49" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="J49" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="K49" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="L49" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="M49" t="s">
         <v>48</v>
       </c>
       <c r="N49" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="S49" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="T49" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="U49" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="V49" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="W49" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="X49" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="Y49" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="Z49" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="AA49" t="s">
         <v>48</v>
       </c>
       <c r="AB49" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="B50" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C50" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D50" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="G50" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H50" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="I50" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="J50" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="K50" t="s">
         <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="S50" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="T50" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="U50" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="V50" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="W50" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="X50" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="Y50" t="s">
         <v>48</v>
       </c>
       <c r="Z50" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B52" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C52" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D52" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="G52" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="H52" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B53" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C53" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D53" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="G53" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="S53" t="s">
         <v>63</v>
       </c>
       <c r="T53" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="U53" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B54" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C54" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="G54" t="s">
         <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="I54" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="J54" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="K54" t="s">
-        <v>560</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>542</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>543</v>
+      </c>
+      <c r="G56" t="s">
+        <v>544</v>
+      </c>
+      <c r="H56" t="s">
+        <v>545</v>
+      </c>
+      <c r="I56" t="s">
+        <v>546</v>
+      </c>
+      <c r="J56" t="s">
+        <v>547</v>
+      </c>
+      <c r="K56" t="s">
+        <v>366</v>
+      </c>
+      <c r="L56" t="s">
+        <v>691</v>
+      </c>
+      <c r="S56" t="s">
+        <v>48</v>
+      </c>
+      <c r="T56" t="s">
+        <v>548</v>
+      </c>
+      <c r="U56" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>549</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>543</v>
+      </c>
+      <c r="G57" t="s">
+        <v>544</v>
+      </c>
+      <c r="H57" t="s">
+        <v>550</v>
+      </c>
+      <c r="I57" t="s">
+        <v>546</v>
+      </c>
+      <c r="J57" t="s">
+        <v>551</v>
+      </c>
+      <c r="K57" t="s">
+        <v>366</v>
+      </c>
+      <c r="L57" t="s">
+        <v>691</v>
+      </c>
+      <c r="S57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T57" t="s">
+        <v>548</v>
+      </c>
+      <c r="U57" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>552</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>543</v>
+      </c>
+      <c r="G58" t="s">
+        <v>544</v>
+      </c>
+      <c r="H58" t="s">
+        <v>553</v>
+      </c>
+      <c r="I58" t="s">
+        <v>546</v>
+      </c>
+      <c r="J58" t="s">
+        <v>554</v>
+      </c>
+      <c r="K58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L58" t="s">
+        <v>692</v>
+      </c>
+      <c r="S58" t="s">
+        <v>87</v>
+      </c>
+      <c r="T58" t="s">
+        <v>548</v>
+      </c>
+      <c r="U58" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>561</v>
+        <v>555</v>
+      </c>
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>543</v>
+      </c>
+      <c r="G59" t="s">
+        <v>544</v>
+      </c>
+      <c r="H59" t="s">
+        <v>556</v>
+      </c>
+      <c r="I59" t="s">
+        <v>546</v>
+      </c>
+      <c r="J59" t="s">
+        <v>557</v>
+      </c>
+      <c r="K59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L59" t="s">
+        <v>693</v>
+      </c>
+      <c r="S59" t="s">
+        <v>98</v>
+      </c>
+      <c r="T59" t="s">
+        <v>548</v>
+      </c>
+      <c r="U59" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="G60" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="H60" t="s">
-        <v>380</v>
+        <v>559</v>
       </c>
       <c r="I60" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="J60" t="s">
-        <v>390</v>
+        <v>560</v>
       </c>
       <c r="K60" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s">
-        <v>396</v>
-      </c>
-      <c r="M60" t="s">
-        <v>495</v>
-      </c>
-      <c r="N60" t="s">
-        <v>402</v>
-      </c>
-      <c r="O60" t="s">
-        <v>511</v>
-      </c>
-      <c r="P60" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>566</v>
-      </c>
-      <c r="R60" t="s">
-        <v>567</v>
+        <v>694</v>
+      </c>
+      <c r="S60" t="s">
+        <v>109</v>
+      </c>
+      <c r="T60" t="s">
+        <v>548</v>
+      </c>
+      <c r="U60" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>546</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G61" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="I61" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J61" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="K61" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L61" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="S61" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="T61" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U61" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG61" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH61" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI61" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G62" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H62" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="I62" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J62" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="K62" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L62" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="S62" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="T62" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U62" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG62" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH62" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI62" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>578</v>
+        <v>722</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>723</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G63" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="I63" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J63" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="K63" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="S63" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="T63" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U63" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG63" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH63" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI63" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G64" t="s">
+        <v>544</v>
+      </c>
+      <c r="H64" t="s">
         <v>570</v>
       </c>
-      <c r="H64" t="s">
-        <v>582</v>
-      </c>
       <c r="I64" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J64" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="K64" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L64" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="S64" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="T64" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U64" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG64" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH64" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI64" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>584</v>
+        <v>729</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>728</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G65" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H65" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="I65" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J65" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="K65" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L65" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="S65" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="T65" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U65" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG65" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH65" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI65" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G66" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H66" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="I66" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J66" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="K66" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L66" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="S66" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="T66" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U66" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG66" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH66" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI66" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G67" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H67" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="I67" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J67" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="K67" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L67" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="S67" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="T67" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U67" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG67" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH67" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI67" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G68" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H68" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="I68" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J68" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="K68" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L68" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="S68" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="T68" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U68" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG68" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH68" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI68" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G69" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H69" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="I69" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="K69" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="S69" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="T69" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U69" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG69" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH69" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI69" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G70" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H70" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="I70" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J70" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="K70" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L70" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="S70" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="T70" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U70" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG70" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH70" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI70" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>602</v>
+        <v>737</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>734</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G71" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H71" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="I71" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J71" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="K71" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L71" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="S71" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="T71" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U71" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG71" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH71" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI71" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>605</v>
+        <v>741</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>740</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D72" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G72" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H72" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="I72" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J72" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="K72" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L72" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="S72" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="T72" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U72" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG72" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH72" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI72" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="D73" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G73" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H73" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="I73" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J73" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="K73" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L73" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="S73" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="T73" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U73" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG73" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH73" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI73" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G74" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H74" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I74" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J74" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="K74" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L74" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="S74" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="T74" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U74" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG74" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH74" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI74" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G75" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H75" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="I75" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J75" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="K75" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L75" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="S75" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="T75" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U75" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG75" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH75" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI75" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G76" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H76" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="I76" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J76" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="K76" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L76" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="S76" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="T76" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U76" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG76" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH76" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI76" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G77" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H77" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="I77" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J77" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="K77" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L77" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="S77" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="T77" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U77" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG77" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH77" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI77" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B78" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H78" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="I78" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J78" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="K78" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L78" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="S78" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="T78" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U78" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG78" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH78" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI78" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G79" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H79" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="I79" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J79" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="K79" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L79" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="S79" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="T79" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U79" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG79" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH79" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI79" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="D80" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G80" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H80" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="I80" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J80" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="K80" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L80" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="S80" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="T80" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U80" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG80" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH80" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI80" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G81" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H81" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="I81" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J81" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="K81" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L81" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="S81" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="T81" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U81" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG81" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH81" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI81" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B82" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C82" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="D82" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G82" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H82" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="I82" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J82" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="K82" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L82" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="S82" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="T82" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U82" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG82" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH82" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI82" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G83" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H83" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="I83" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J83" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="K83" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L83" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="S83" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="T83" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U83" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG83" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH83" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI83" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B84" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G84" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H84" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="I84" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J84" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="K84" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L84" t="s">
-        <v>744</v>
+        <v>342</v>
       </c>
       <c r="S84" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="T84" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U84" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG84" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH84" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI84" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G85" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H85" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="I85" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J85" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="K85" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L85" t="s">
-        <v>745</v>
+        <v>344</v>
       </c>
       <c r="S85" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="T85" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U85" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG85" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH85" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI85" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G86" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H86" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="I86" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J86" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="K86" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L86" t="s">
-        <v>745</v>
+        <v>346</v>
       </c>
       <c r="S86" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="T86" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U86" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG86" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH86" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI86" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>325</v>
+        <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G87" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H87" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J87" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="K87" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L87" t="s">
-        <v>745</v>
+        <v>348</v>
       </c>
       <c r="S87" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="T87" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U87" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG87" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH87" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI87" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C88" t="s">
         <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G88" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H88" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="I88" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J88" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="K88" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L88" t="s">
-        <v>746</v>
+        <v>350</v>
       </c>
       <c r="S88" t="s">
         <v>48</v>
       </c>
       <c r="T88" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U88" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH88" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI88" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s">
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G89" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H89" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="I89" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J89" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="K89" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L89" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="S89" t="s">
         <v>48</v>
       </c>
       <c r="T89" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U89" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG89" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH89" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI89" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="D90" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G90" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H90" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="I90" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J90" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="K90" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L90" t="s">
-        <v>359</v>
+        <v>712</v>
       </c>
       <c r="S90" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="T90" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U90" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG90" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH90" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI90" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="D91" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G91" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H91" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="I91" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J91" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="K91" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L91" t="s">
-        <v>361</v>
+        <v>712</v>
       </c>
       <c r="S91" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="T91" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U91" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG91" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH91" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI91" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="D92" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G92" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H92" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="I92" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J92" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="K92" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L92" t="s">
-        <v>363</v>
+        <v>712</v>
       </c>
       <c r="S92" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="T92" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U92" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG92" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH92" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI92" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G93" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H93" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="I93" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J93" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="K93" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L93" t="s">
-        <v>365</v>
+        <v>712</v>
       </c>
       <c r="S93" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="T93" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U93" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG93" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH93" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI93" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>405</v>
       </c>
       <c r="D94" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G94" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H94" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="I94" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J94" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="K94" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L94" t="s">
-        <v>367</v>
+        <v>712</v>
       </c>
       <c r="S94" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="T94" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U94" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG94" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH94" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI94" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>674</v>
+        <v>745</v>
       </c>
       <c r="B95" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D95" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G95" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H95" t="s">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="I95" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J95" t="s">
-        <v>676</v>
+        <v>747</v>
       </c>
       <c r="K95" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L95" t="s">
-        <v>747</v>
+        <v>712</v>
       </c>
       <c r="S95" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="T95" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U95" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG95" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH95" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI95" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="B96" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C96" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D96" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G96" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H96" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="I96" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J96" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="K96" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L96" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="S96" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="T96" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U96" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG96" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH96" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI96" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="B97" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D97" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G97" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H97" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="I97" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J97" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="K97" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L97" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="S97" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="T97" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U97" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG97" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH97" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI97" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>683</v>
+        <v>749</v>
       </c>
       <c r="B98" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C98" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D98" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G98" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H98" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="I98" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J98" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="K98" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L98" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="S98" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="T98" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U98" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG98" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH98" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI98" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="B99" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="D99" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G99" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H99" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="I99" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J99" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="K99" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L99" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="S99" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="T99" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U99" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG99" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH99" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI99" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="B100" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C100" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="D100" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G100" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H100" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="I100" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J100" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="K100" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L100" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="S100" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="T100" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U100" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG100" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH100" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI100" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="B101" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="C101" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G101" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H101" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="I101" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J101" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="K101" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L101" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="S101" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="T101" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U101" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG101" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH101" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI101" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
       <c r="B102" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C102" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="D102" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G102" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H102" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="I102" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J102" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="K102" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L102" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="S102" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="T102" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U102" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG102" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH102" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI102" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="B103" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C103" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D103" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G103" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H103" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="I103" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J103" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="K103" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L103" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="S103" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="T103" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U103" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG103" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH103" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI103" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="B104" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C104" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G104" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H104" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="I104" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J104" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="K104" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L104" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="S104" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="T104" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U104" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG104" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH104" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI104" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="B105" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C105" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G105" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H105" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="I105" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J105" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="K105" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L105" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="S105" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="T105" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U105" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG105" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH105" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI105" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="B106" t="s">
+        <v>509</v>
+      </c>
+      <c r="C106" t="s">
         <v>510</v>
       </c>
-      <c r="C106" t="s">
-        <v>511</v>
-      </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="G106" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="H106" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="I106" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="J106" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="K106" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L106" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="S106" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T106" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="U106" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="AG106" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="AH106" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="AI106" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>710</v>
-      </c>
-      <c r="B107" t="s">
-        <v>510</v>
-      </c>
-      <c r="C107" t="s">
-        <v>511</v>
-      </c>
-      <c r="D107" t="s">
-        <v>569</v>
-      </c>
-      <c r="G107" t="s">
-        <v>570</v>
-      </c>
-      <c r="H107" t="s">
-        <v>711</v>
-      </c>
-      <c r="I107" t="s">
-        <v>572</v>
-      </c>
-      <c r="J107" t="s">
-        <v>712</v>
-      </c>
-      <c r="K107" t="s">
-        <v>381</v>
-      </c>
-      <c r="L107" t="s">
-        <v>752</v>
-      </c>
-      <c r="S107" t="s">
-        <v>519</v>
-      </c>
-      <c r="T107" t="s">
-        <v>574</v>
-      </c>
-      <c r="U107" t="s">
-        <v>570</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH107" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>713</v>
-      </c>
-      <c r="B108" t="s">
-        <v>510</v>
-      </c>
-      <c r="C108" t="s">
-        <v>511</v>
-      </c>
-      <c r="D108" t="s">
-        <v>569</v>
-      </c>
-      <c r="G108" t="s">
-        <v>570</v>
-      </c>
-      <c r="H108" t="s">
-        <v>714</v>
-      </c>
-      <c r="I108" t="s">
-        <v>572</v>
-      </c>
-      <c r="J108" t="s">
-        <v>715</v>
-      </c>
-      <c r="K108" t="s">
-        <v>381</v>
-      </c>
-      <c r="L108" t="s">
-        <v>752</v>
-      </c>
-      <c r="S108" t="s">
-        <v>519</v>
-      </c>
-      <c r="T108" t="s">
-        <v>574</v>
-      </c>
-      <c r="U108" t="s">
-        <v>570</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH108" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>716</v>
-      </c>
-      <c r="B109" t="s">
-        <v>528</v>
-      </c>
-      <c r="C109" t="s">
-        <v>529</v>
-      </c>
-      <c r="D109" t="s">
-        <v>569</v>
-      </c>
-      <c r="G109" t="s">
-        <v>570</v>
-      </c>
-      <c r="H109" t="s">
-        <v>717</v>
-      </c>
-      <c r="I109" t="s">
-        <v>572</v>
-      </c>
-      <c r="J109" t="s">
-        <v>718</v>
-      </c>
-      <c r="K109" t="s">
-        <v>381</v>
-      </c>
-      <c r="L109" t="s">
-        <v>753</v>
-      </c>
-      <c r="S109" t="s">
-        <v>535</v>
-      </c>
-      <c r="T109" t="s">
-        <v>574</v>
-      </c>
-      <c r="U109" t="s">
-        <v>570</v>
-      </c>
-      <c r="AG109" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH109" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI109" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>719</v>
-      </c>
-      <c r="B110" t="s">
-        <v>528</v>
-      </c>
-      <c r="C110" t="s">
-        <v>529</v>
-      </c>
-      <c r="D110" t="s">
-        <v>569</v>
-      </c>
-      <c r="G110" t="s">
-        <v>570</v>
-      </c>
-      <c r="H110" t="s">
-        <v>720</v>
-      </c>
-      <c r="I110" t="s">
-        <v>572</v>
-      </c>
-      <c r="J110" t="s">
-        <v>721</v>
-      </c>
-      <c r="K110" t="s">
-        <v>381</v>
-      </c>
-      <c r="L110" t="s">
-        <v>753</v>
-      </c>
-      <c r="S110" t="s">
-        <v>535</v>
-      </c>
-      <c r="T110" t="s">
-        <v>574</v>
-      </c>
-      <c r="U110" t="s">
-        <v>570</v>
-      </c>
-      <c r="AG110" t="s">
-        <v>572</v>
-      </c>
-      <c r="AH110" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI110" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0520EC05-0CF8-E94B-8A12-0C67600A56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8632AA-B82E-0642-9146-EFC654092034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="900" windowWidth="34240" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="34240" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="753">
   <si>
     <t>Scene</t>
   </si>
@@ -2169,9 +2169,6 @@
     <t>dialogue open @e[tag=mmbNPC] @p mmbNPC2</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3</t>
-  </si>
-  <si>
     <t>dialogue open @e[tag=sgNPC] @p sgNPC2</t>
   </si>
   <si>
@@ -2277,10 +2274,16 @@
     <t>mmbNPC3url2</t>
   </si>
   <si>
-    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url2</t>
-  </si>
-  <si>
-    <t>dialogue open @e[tag=mmbNPC] @p mmbNPC3url1</t>
+    <t>mmbNPCstart</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mmbNPCstart] @p mmbNPC3url2</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mmbNPCstart] @p mmbNPC3url1</t>
+  </si>
+  <si>
+    <t>dialogue open @e[tag=mmbNPCstart] @p mmbNPC3</t>
   </si>
 </sst>
 </file>
@@ -2646,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3157,10 +3160,10 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" t="s">
         <v>720</v>
-      </c>
-      <c r="B12" t="s">
-        <v>721</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
@@ -3172,7 +3175,7 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I12" t="s">
         <v>137</v>
@@ -3190,7 +3193,7 @@
         <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W12" t="s">
         <v>141</v>
@@ -3245,10 +3248,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>726</v>
+      </c>
+      <c r="B14" t="s">
         <v>727</v>
-      </c>
-      <c r="B14" t="s">
-        <v>728</v>
       </c>
       <c r="C14" t="s">
         <v>153</v>
@@ -3260,7 +3263,7 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I14" t="s">
         <v>155</v>
@@ -3278,7 +3281,7 @@
         <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W14" t="s">
         <v>159</v>
@@ -3366,7 +3369,7 @@
         <v>178</v>
       </c>
       <c r="W16" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
@@ -3404,7 +3407,7 @@
         <v>186</v>
       </c>
       <c r="W17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -3497,10 +3500,10 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" t="s">
         <v>733</v>
-      </c>
-      <c r="B20" t="s">
-        <v>734</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -3512,7 +3515,7 @@
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I20" t="s">
         <v>211</v>
@@ -3530,7 +3533,7 @@
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="W20" t="s">
         <v>215</v>
@@ -3541,10 +3544,10 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" t="s">
         <v>739</v>
-      </c>
-      <c r="B21" t="s">
-        <v>740</v>
       </c>
       <c r="C21" t="s">
         <v>209</v>
@@ -3556,7 +3559,7 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I21" t="s">
         <v>217</v>
@@ -3574,7 +3577,7 @@
         <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W21" t="s">
         <v>221</v>
@@ -4688,7 +4691,7 @@
         <v>457</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>749</v>
       </c>
       <c r="C44" t="s">
         <v>440</v>
@@ -4785,7 +4788,7 @@
         <v>473</v>
       </c>
       <c r="U46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V46" t="s">
         <v>470</v>
@@ -4887,7 +4890,7 @@
         <v>490</v>
       </c>
       <c r="B49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C49" t="s">
         <v>492</v>
@@ -5438,10 +5441,10 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>721</v>
+      </c>
+      <c r="B63" t="s">
         <v>722</v>
-      </c>
-      <c r="B63" t="s">
-        <v>723</v>
       </c>
       <c r="C63" t="s">
         <v>135</v>
@@ -5465,7 +5468,7 @@
         <v>366</v>
       </c>
       <c r="L63" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="S63" t="s">
         <v>139</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C65" t="s">
         <v>153</v>
@@ -5565,7 +5568,7 @@
         <v>366</v>
       </c>
       <c r="L65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="S65" t="s">
         <v>157</v>
@@ -5838,10 +5841,10 @@
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B71" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C71" t="s">
         <v>209</v>
@@ -5865,7 +5868,7 @@
         <v>366</v>
       </c>
       <c r="L71" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S71" t="s">
         <v>213</v>
@@ -5888,10 +5891,10 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C72" t="s">
         <v>209</v>
@@ -5915,7 +5918,7 @@
         <v>366</v>
       </c>
       <c r="L72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S72" t="s">
         <v>219</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B95" t="s">
         <v>404</v>
@@ -7053,13 +7056,13 @@
         <v>544</v>
       </c>
       <c r="H95" t="s">
+        <v>745</v>
+      </c>
+      <c r="I95" t="s">
+        <v>546</v>
+      </c>
+      <c r="J95" t="s">
         <v>746</v>
-      </c>
-      <c r="I95" t="s">
-        <v>546</v>
-      </c>
-      <c r="J95" t="s">
-        <v>747</v>
       </c>
       <c r="K95" t="s">
         <v>366</v>
@@ -7188,10 +7191,10 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>748</v>
+      </c>
+      <c r="B98" t="s">
         <v>749</v>
-      </c>
-      <c r="B98" t="s">
-        <v>439</v>
       </c>
       <c r="C98" t="s">
         <v>440</v>
@@ -7215,7 +7218,7 @@
         <v>366</v>
       </c>
       <c r="L98" t="s">
-        <v>714</v>
+        <v>752</v>
       </c>
       <c r="S98" t="s">
         <v>441</v>
@@ -7265,7 +7268,7 @@
         <v>366</v>
       </c>
       <c r="L99" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S99" t="s">
         <v>472</v>
@@ -7315,7 +7318,7 @@
         <v>366</v>
       </c>
       <c r="L100" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S100" t="s">
         <v>477</v>
@@ -7365,7 +7368,7 @@
         <v>366</v>
       </c>
       <c r="L101" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S101" t="s">
         <v>477</v>
@@ -7415,7 +7418,7 @@
         <v>366</v>
       </c>
       <c r="L102" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S102" t="s">
         <v>500</v>
@@ -7465,7 +7468,7 @@
         <v>366</v>
       </c>
       <c r="L103" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S103" t="s">
         <v>500</v>
@@ -7515,7 +7518,7 @@
         <v>366</v>
       </c>
       <c r="L104" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S104" t="s">
         <v>500</v>
@@ -7565,7 +7568,7 @@
         <v>366</v>
       </c>
       <c r="L105" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S105" t="s">
         <v>516</v>
@@ -7615,7 +7618,7 @@
         <v>366</v>
       </c>
       <c r="L106" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S106" t="s">
         <v>516</v>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8632AA-B82E-0642-9146-EFC654092034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602AED4-8BD2-ED43-88B2-291C6DF62143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="34240" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="960" windowWidth="27520" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1043,9 +1043,6 @@
     <t>taliesinendNPC3</t>
   </si>
   <si>
-    <t>These are just some of the quests that await you in Cast Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
-  </si>
-  <si>
     <t>Quest 1</t>
   </si>
   <si>
@@ -2284,6 +2281,9 @@
   </si>
   <si>
     <t>dialogue open @e[tag=mmbNPCstart] @p mmbNPC3</t>
+  </si>
+  <si>
+    <t>These are just some of the quests that await you in Castell Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
   </si>
 </sst>
 </file>
@@ -2649,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3160,10 +3160,10 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B12" t="s">
         <v>719</v>
-      </c>
-      <c r="B12" t="s">
-        <v>720</v>
       </c>
       <c r="C12" t="s">
         <v>135</v>
@@ -3175,7 +3175,7 @@
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I12" t="s">
         <v>137</v>
@@ -3193,7 +3193,7 @@
         <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W12" t="s">
         <v>141</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B14" t="s">
         <v>726</v>
-      </c>
-      <c r="B14" t="s">
-        <v>727</v>
       </c>
       <c r="C14" t="s">
         <v>153</v>
@@ -3263,7 +3263,7 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I14" t="s">
         <v>155</v>
@@ -3281,7 +3281,7 @@
         <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="W14" t="s">
         <v>159</v>
@@ -3369,7 +3369,7 @@
         <v>178</v>
       </c>
       <c r="W16" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
@@ -3407,7 +3407,7 @@
         <v>186</v>
       </c>
       <c r="W17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -3500,10 +3500,10 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B20" t="s">
         <v>732</v>
-      </c>
-      <c r="B20" t="s">
-        <v>733</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -3515,7 +3515,7 @@
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I20" t="s">
         <v>211</v>
@@ -3533,7 +3533,7 @@
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="W20" t="s">
         <v>215</v>
@@ -3544,10 +3544,10 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" t="s">
         <v>738</v>
-      </c>
-      <c r="B21" t="s">
-        <v>739</v>
       </c>
       <c r="C21" t="s">
         <v>209</v>
@@ -3559,7 +3559,7 @@
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I21" t="s">
         <v>217</v>
@@ -3577,7 +3577,7 @@
         <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="W21" t="s">
         <v>221</v>
@@ -4064,90 +4064,90 @@
         <v>48</v>
       </c>
       <c r="D32" t="s">
+        <v>752</v>
+      </c>
+      <c r="G32" t="s">
         <v>340</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>341</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>342</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>343</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>344</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>345</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>346</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>347</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>348</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>349</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>350</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>351</v>
-      </c>
-      <c r="R32" t="s">
-        <v>352</v>
       </c>
       <c r="S32" t="s">
         <v>48</v>
       </c>
       <c r="T32" t="s">
+        <v>352</v>
+      </c>
+      <c r="U32" t="s">
         <v>353</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
+        <v>341</v>
+      </c>
+      <c r="W32" t="s">
         <v>354</v>
       </c>
-      <c r="V32" t="s">
-        <v>342</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y32" t="s">
         <v>355</v>
       </c>
-      <c r="X32" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA32" t="s">
         <v>356</v>
       </c>
-      <c r="Z32" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC32" t="s">
         <v>357</v>
       </c>
-      <c r="AB32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE32" t="s">
         <v>358</v>
       </c>
-      <c r="AD32" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>359</v>
-      </c>
       <c r="AF32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s">
         <v>327</v>
@@ -4156,22 +4156,22 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
+        <v>360</v>
+      </c>
+      <c r="G33" t="s">
         <v>361</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>362</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>363</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>364</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>365</v>
-      </c>
-      <c r="K33" t="s">
-        <v>366</v>
       </c>
       <c r="L33" t="s">
         <v>333</v>
@@ -4180,22 +4180,22 @@
         <v>48</v>
       </c>
       <c r="T33" t="s">
+        <v>366</v>
+      </c>
+      <c r="U33" t="s">
         <v>367</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>368</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>369</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y33" t="s">
         <v>370</v>
-      </c>
-      <c r="X33" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>371</v>
       </c>
       <c r="Z33" t="s">
         <v>333</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
         <v>327</v>
@@ -4212,22 +4212,22 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34" t="s">
+        <v>361</v>
+      </c>
+      <c r="H34" t="s">
         <v>373</v>
       </c>
-      <c r="G34" t="s">
-        <v>362</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
+        <v>363</v>
+      </c>
+      <c r="J34" t="s">
         <v>374</v>
       </c>
-      <c r="I34" t="s">
-        <v>364</v>
-      </c>
-      <c r="J34" t="s">
-        <v>375</v>
-      </c>
       <c r="K34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s">
         <v>333</v>
@@ -4236,22 +4236,22 @@
         <v>48</v>
       </c>
       <c r="T34" t="s">
+        <v>375</v>
+      </c>
+      <c r="U34" t="s">
+        <v>367</v>
+      </c>
+      <c r="V34" t="s">
         <v>376</v>
       </c>
-      <c r="U34" t="s">
-        <v>368</v>
-      </c>
-      <c r="V34" t="s">
-        <v>377</v>
-      </c>
       <c r="W34" t="s">
+        <v>369</v>
+      </c>
+      <c r="X34" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y34" t="s">
         <v>370</v>
-      </c>
-      <c r="X34" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>371</v>
       </c>
       <c r="Z34" t="s">
         <v>333</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" t="s">
         <v>327</v>
@@ -4268,22 +4268,22 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H35" t="s">
         <v>379</v>
       </c>
-      <c r="G35" t="s">
-        <v>362</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>363</v>
+      </c>
+      <c r="J35" t="s">
         <v>380</v>
       </c>
-      <c r="I35" t="s">
-        <v>364</v>
-      </c>
-      <c r="J35" t="s">
-        <v>381</v>
-      </c>
       <c r="K35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L35" t="s">
         <v>333</v>
@@ -4292,22 +4292,22 @@
         <v>48</v>
       </c>
       <c r="T35" t="s">
+        <v>381</v>
+      </c>
+      <c r="U35" t="s">
+        <v>367</v>
+      </c>
+      <c r="V35" t="s">
         <v>382</v>
       </c>
-      <c r="U35" t="s">
-        <v>368</v>
-      </c>
-      <c r="V35" t="s">
-        <v>383</v>
-      </c>
       <c r="W35" t="s">
+        <v>369</v>
+      </c>
+      <c r="X35" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y35" t="s">
         <v>370</v>
-      </c>
-      <c r="X35" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>371</v>
       </c>
       <c r="Z35" t="s">
         <v>333</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B36" t="s">
         <v>327</v>
@@ -4324,22 +4324,22 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H36" t="s">
         <v>385</v>
       </c>
-      <c r="G36" t="s">
-        <v>362</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>363</v>
+      </c>
+      <c r="J36" t="s">
         <v>386</v>
       </c>
-      <c r="I36" t="s">
-        <v>364</v>
-      </c>
-      <c r="J36" t="s">
-        <v>387</v>
-      </c>
       <c r="K36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s">
         <v>333</v>
@@ -4348,22 +4348,22 @@
         <v>48</v>
       </c>
       <c r="T36" t="s">
+        <v>387</v>
+      </c>
+      <c r="U36" t="s">
+        <v>367</v>
+      </c>
+      <c r="V36" t="s">
         <v>388</v>
       </c>
-      <c r="U36" t="s">
-        <v>368</v>
-      </c>
-      <c r="V36" t="s">
-        <v>389</v>
-      </c>
       <c r="W36" t="s">
+        <v>369</v>
+      </c>
+      <c r="X36" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y36" t="s">
         <v>370</v>
-      </c>
-      <c r="X36" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>371</v>
       </c>
       <c r="Z36" t="s">
         <v>333</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B37" t="s">
         <v>327</v>
@@ -4380,22 +4380,22 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
+        <v>390</v>
+      </c>
+      <c r="G37" t="s">
+        <v>361</v>
+      </c>
+      <c r="H37" t="s">
         <v>391</v>
       </c>
-      <c r="G37" t="s">
-        <v>362</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>363</v>
+      </c>
+      <c r="J37" t="s">
         <v>392</v>
       </c>
-      <c r="I37" t="s">
-        <v>364</v>
-      </c>
-      <c r="J37" t="s">
-        <v>393</v>
-      </c>
       <c r="K37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L37" t="s">
         <v>333</v>
@@ -4404,22 +4404,22 @@
         <v>48</v>
       </c>
       <c r="T37" t="s">
+        <v>393</v>
+      </c>
+      <c r="U37" t="s">
+        <v>367</v>
+      </c>
+      <c r="V37" t="s">
         <v>394</v>
       </c>
-      <c r="U37" t="s">
-        <v>368</v>
-      </c>
-      <c r="V37" t="s">
-        <v>395</v>
-      </c>
       <c r="W37" t="s">
+        <v>369</v>
+      </c>
+      <c r="X37" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y37" t="s">
         <v>370</v>
-      </c>
-      <c r="X37" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>371</v>
       </c>
       <c r="Z37" t="s">
         <v>333</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B38" t="s">
         <v>327</v>
@@ -4436,22 +4436,22 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
+        <v>396</v>
+      </c>
+      <c r="G38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H38" t="s">
         <v>397</v>
       </c>
-      <c r="G38" t="s">
-        <v>362</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>363</v>
+      </c>
+      <c r="J38" t="s">
         <v>398</v>
       </c>
-      <c r="I38" t="s">
-        <v>364</v>
-      </c>
-      <c r="J38" t="s">
-        <v>399</v>
-      </c>
       <c r="K38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s">
         <v>333</v>
@@ -4460,22 +4460,22 @@
         <v>48</v>
       </c>
       <c r="T38" t="s">
+        <v>399</v>
+      </c>
+      <c r="U38" t="s">
+        <v>367</v>
+      </c>
+      <c r="V38" t="s">
         <v>400</v>
       </c>
-      <c r="U38" t="s">
-        <v>368</v>
-      </c>
-      <c r="V38" t="s">
-        <v>401</v>
-      </c>
       <c r="W38" t="s">
+        <v>369</v>
+      </c>
+      <c r="X38" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y38" t="s">
         <v>370</v>
-      </c>
-      <c r="X38" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>371</v>
       </c>
       <c r="Z38" t="s">
         <v>333</v>
@@ -4483,615 +4483,615 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" t="s">
         <v>403</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>404</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>405</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>406</v>
       </c>
-      <c r="G40" t="s">
+      <c r="S40" t="s">
         <v>407</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>408</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>409</v>
-      </c>
-      <c r="U40" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" t="s">
+        <v>403</v>
+      </c>
+      <c r="C41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" t="s">
         <v>411</v>
       </c>
-      <c r="B41" t="s">
-        <v>404</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>412</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>413</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>414</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>415</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>416</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>417</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>418</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>419</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>420</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>421</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>422</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>423</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
+        <v>407</v>
+      </c>
+      <c r="T41" t="s">
         <v>424</v>
       </c>
-      <c r="S41" t="s">
-        <v>408</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>425</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>426</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>427</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>428</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>429</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>430</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>431</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>432</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>433</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>434</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>435</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>436</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>437</v>
+      </c>
+      <c r="B42" t="s">
         <v>438</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>439</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>405</v>
+      </c>
+      <c r="G42" t="s">
+        <v>406</v>
+      </c>
+      <c r="S42" t="s">
         <v>440</v>
       </c>
-      <c r="D42" t="s">
-        <v>406</v>
-      </c>
-      <c r="G42" t="s">
-        <v>407</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>441</v>
       </c>
-      <c r="T42" t="s">
-        <v>442</v>
-      </c>
       <c r="U42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" t="s">
         <v>443</v>
       </c>
-      <c r="B43" t="s">
-        <v>439</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
+        <v>444</v>
+      </c>
+      <c r="H43" t="s">
+        <v>445</v>
+      </c>
+      <c r="I43" t="s">
+        <v>446</v>
+      </c>
+      <c r="J43" t="s">
+        <v>447</v>
+      </c>
+      <c r="K43" t="s">
+        <v>448</v>
+      </c>
+      <c r="L43" t="s">
+        <v>449</v>
+      </c>
+      <c r="S43" t="s">
         <v>440</v>
       </c>
-      <c r="D43" t="s">
-        <v>444</v>
-      </c>
-      <c r="G43" t="s">
-        <v>445</v>
-      </c>
-      <c r="H43" t="s">
-        <v>446</v>
-      </c>
-      <c r="I43" t="s">
-        <v>447</v>
-      </c>
-      <c r="J43" t="s">
-        <v>448</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="T43" t="s">
+        <v>450</v>
+      </c>
+      <c r="U43" t="s">
+        <v>451</v>
+      </c>
+      <c r="V43" t="s">
+        <v>452</v>
+      </c>
+      <c r="W43" t="s">
+        <v>453</v>
+      </c>
+      <c r="X43" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z43" t="s">
         <v>449</v>
-      </c>
-      <c r="L43" t="s">
-        <v>450</v>
-      </c>
-      <c r="S43" t="s">
-        <v>441</v>
-      </c>
-      <c r="T43" t="s">
-        <v>451</v>
-      </c>
-      <c r="U43" t="s">
-        <v>452</v>
-      </c>
-      <c r="V43" t="s">
-        <v>453</v>
-      </c>
-      <c r="W43" t="s">
-        <v>454</v>
-      </c>
-      <c r="X43" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>456</v>
+      </c>
+      <c r="B44" t="s">
+        <v>748</v>
+      </c>
+      <c r="C44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D44" t="s">
         <v>457</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
+        <v>448</v>
+      </c>
+      <c r="H44" t="s">
         <v>749</v>
-      </c>
-      <c r="C44" t="s">
-        <v>440</v>
-      </c>
-      <c r="D44" t="s">
-        <v>458</v>
-      </c>
-      <c r="G44" t="s">
-        <v>449</v>
-      </c>
-      <c r="H44" t="s">
-        <v>750</v>
       </c>
       <c r="I44" t="s">
         <v>48</v>
       </c>
       <c r="J44" t="s">
+        <v>458</v>
+      </c>
+      <c r="S44" t="s">
+        <v>440</v>
+      </c>
+      <c r="T44" t="s">
         <v>459</v>
       </c>
-      <c r="S44" t="s">
-        <v>441</v>
-      </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>460</v>
       </c>
-      <c r="U44" t="s">
-        <v>461</v>
-      </c>
       <c r="V44" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="W44" t="s">
         <v>48</v>
       </c>
       <c r="X44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>461</v>
+      </c>
+      <c r="B45" t="s">
         <v>462</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>463</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>405</v>
+      </c>
+      <c r="G45" t="s">
+        <v>406</v>
+      </c>
+      <c r="S45" t="s">
         <v>464</v>
       </c>
-      <c r="D45" t="s">
-        <v>406</v>
-      </c>
-      <c r="G45" t="s">
-        <v>407</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>465</v>
       </c>
-      <c r="T45" t="s">
-        <v>466</v>
-      </c>
       <c r="U45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B46" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" t="s">
         <v>467</v>
       </c>
-      <c r="B46" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" t="s">
-        <v>464</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>468</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>469</v>
-      </c>
-      <c r="H46" t="s">
-        <v>470</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
       </c>
       <c r="J46" t="s">
+        <v>470</v>
+      </c>
+      <c r="S46" t="s">
         <v>471</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>472</v>
       </c>
-      <c r="T46" t="s">
-        <v>473</v>
-      </c>
       <c r="U46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W46" t="s">
         <v>48</v>
       </c>
       <c r="X46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" t="s">
         <v>474</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>475</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>406</v>
+      </c>
+      <c r="S47" t="s">
         <v>476</v>
       </c>
-      <c r="D47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" t="s">
-        <v>407</v>
-      </c>
-      <c r="S47" t="s">
-        <v>477</v>
-      </c>
       <c r="T47" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>477</v>
+      </c>
+      <c r="B48" t="s">
+        <v>474</v>
+      </c>
+      <c r="C48" t="s">
+        <v>475</v>
+      </c>
+      <c r="D48" t="s">
         <v>478</v>
       </c>
-      <c r="B48" t="s">
-        <v>475</v>
-      </c>
-      <c r="C48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>479</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>480</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>481</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>482</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>483</v>
-      </c>
-      <c r="J48" t="s">
-        <v>484</v>
       </c>
       <c r="K48" t="s">
         <v>48</v>
       </c>
       <c r="L48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T48" t="s">
+        <v>484</v>
+      </c>
+      <c r="U48" t="s">
         <v>485</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>486</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>487</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>488</v>
-      </c>
-      <c r="X48" t="s">
-        <v>489</v>
       </c>
       <c r="Y48" t="s">
         <v>48</v>
       </c>
       <c r="Z48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B49" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C49" t="s">
+        <v>491</v>
+      </c>
+      <c r="D49" t="s">
         <v>492</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
         <v>493</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>494</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>495</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>496</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>497</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>498</v>
-      </c>
-      <c r="L49" t="s">
-        <v>499</v>
       </c>
       <c r="M49" t="s">
         <v>48</v>
       </c>
       <c r="N49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S49" t="s">
+        <v>499</v>
+      </c>
+      <c r="T49" t="s">
         <v>500</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>501</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>502</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>503</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>504</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>505</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>506</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>507</v>
       </c>
       <c r="AA49" t="s">
         <v>48</v>
       </c>
       <c r="AB49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>507</v>
+      </c>
+      <c r="B50" t="s">
         <v>508</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>509</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>510</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
         <v>511</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>512</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>513</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>514</v>
-      </c>
-      <c r="J50" t="s">
-        <v>515</v>
       </c>
       <c r="K50" t="s">
         <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S50" t="s">
+        <v>515</v>
+      </c>
+      <c r="T50" t="s">
         <v>516</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>517</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>518</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>519</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>520</v>
-      </c>
-      <c r="X50" t="s">
-        <v>521</v>
       </c>
       <c r="Y50" t="s">
         <v>48</v>
       </c>
       <c r="Z50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" t="s">
         <v>523</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>524</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>525</v>
       </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
         <v>526</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>527</v>
-      </c>
-      <c r="H52" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>528</v>
+      </c>
+      <c r="B53" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" t="s">
+        <v>524</v>
+      </c>
+      <c r="D53" t="s">
         <v>529</v>
       </c>
-      <c r="B53" t="s">
-        <v>524</v>
-      </c>
-      <c r="C53" t="s">
-        <v>525</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>530</v>
-      </c>
-      <c r="G53" t="s">
-        <v>531</v>
       </c>
       <c r="S53" t="s">
         <v>63</v>
       </c>
       <c r="T53" t="s">
+        <v>531</v>
+      </c>
+      <c r="U53" t="s">
         <v>532</v>
-      </c>
-      <c r="U53" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>533</v>
+      </c>
+      <c r="B54" t="s">
         <v>534</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>535</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>536</v>
-      </c>
-      <c r="D54" t="s">
-        <v>537</v>
       </c>
       <c r="G54" t="s">
         <v>74</v>
       </c>
       <c r="H54" t="s">
+        <v>537</v>
+      </c>
+      <c r="I54" t="s">
         <v>538</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>539</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>540</v>
-      </c>
-      <c r="K54" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -5100,48 +5100,48 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G56" t="s">
+        <v>543</v>
+      </c>
+      <c r="H56" t="s">
         <v>544</v>
       </c>
-      <c r="H56" t="s">
-        <v>545</v>
-      </c>
       <c r="I56" t="s">
+        <v>545</v>
+      </c>
+      <c r="J56" t="s">
         <v>546</v>
       </c>
-      <c r="J56" t="s">
-        <v>547</v>
-      </c>
       <c r="K56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S56" t="s">
         <v>48</v>
       </c>
       <c r="T56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -5150,48 +5150,48 @@
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H57" t="s">
+        <v>549</v>
+      </c>
+      <c r="I57" t="s">
+        <v>545</v>
+      </c>
+      <c r="J57" t="s">
         <v>550</v>
       </c>
-      <c r="I57" t="s">
-        <v>546</v>
-      </c>
-      <c r="J57" t="s">
-        <v>551</v>
-      </c>
       <c r="K57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L57" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S57" t="s">
         <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B58" t="s">
         <v>81</v>
@@ -5200,48 +5200,48 @@
         <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H58" t="s">
+        <v>552</v>
+      </c>
+      <c r="I58" t="s">
+        <v>545</v>
+      </c>
+      <c r="J58" t="s">
         <v>553</v>
       </c>
-      <c r="I58" t="s">
-        <v>546</v>
-      </c>
-      <c r="J58" t="s">
-        <v>554</v>
-      </c>
       <c r="K58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L58" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S58" t="s">
         <v>87</v>
       </c>
       <c r="T58" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B59" t="s">
         <v>92</v>
@@ -5250,48 +5250,48 @@
         <v>93</v>
       </c>
       <c r="D59" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H59" t="s">
+        <v>555</v>
+      </c>
+      <c r="I59" t="s">
+        <v>545</v>
+      </c>
+      <c r="J59" t="s">
         <v>556</v>
       </c>
-      <c r="I59" t="s">
-        <v>546</v>
-      </c>
-      <c r="J59" t="s">
-        <v>557</v>
-      </c>
       <c r="K59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S59" t="s">
         <v>98</v>
       </c>
       <c r="T59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI59" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B60" t="s">
         <v>103</v>
@@ -5300,48 +5300,48 @@
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H60" t="s">
+        <v>558</v>
+      </c>
+      <c r="I60" t="s">
+        <v>545</v>
+      </c>
+      <c r="J60" t="s">
         <v>559</v>
       </c>
-      <c r="I60" t="s">
-        <v>546</v>
-      </c>
-      <c r="J60" t="s">
-        <v>560</v>
-      </c>
       <c r="K60" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S60" t="s">
         <v>109</v>
       </c>
       <c r="T60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH60" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI60" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B61" t="s">
         <v>114</v>
@@ -5350,48 +5350,48 @@
         <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H61" t="s">
+        <v>561</v>
+      </c>
+      <c r="I61" t="s">
+        <v>545</v>
+      </c>
+      <c r="J61" t="s">
         <v>562</v>
       </c>
-      <c r="I61" t="s">
-        <v>546</v>
-      </c>
-      <c r="J61" t="s">
-        <v>563</v>
-      </c>
       <c r="K61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L61" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S61" t="s">
         <v>120</v>
       </c>
       <c r="T61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B62" t="s">
         <v>125</v>
@@ -5400,98 +5400,98 @@
         <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G62" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H62" t="s">
+        <v>564</v>
+      </c>
+      <c r="I62" t="s">
+        <v>545</v>
+      </c>
+      <c r="J62" t="s">
         <v>565</v>
       </c>
-      <c r="I62" t="s">
-        <v>546</v>
-      </c>
-      <c r="J62" t="s">
-        <v>566</v>
-      </c>
       <c r="K62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L62" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S62" t="s">
         <v>131</v>
       </c>
       <c r="T62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U62" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>720</v>
+      </c>
+      <c r="B63" t="s">
         <v>721</v>
-      </c>
-      <c r="B63" t="s">
-        <v>722</v>
       </c>
       <c r="C63" t="s">
         <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H63" t="s">
+        <v>566</v>
+      </c>
+      <c r="I63" t="s">
+        <v>545</v>
+      </c>
+      <c r="J63" t="s">
         <v>567</v>
       </c>
-      <c r="I63" t="s">
-        <v>546</v>
-      </c>
-      <c r="J63" t="s">
-        <v>568</v>
-      </c>
       <c r="K63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="S63" t="s">
         <v>139</v>
       </c>
       <c r="T63" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U63" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI63" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -5500,98 +5500,98 @@
         <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H64" t="s">
+        <v>569</v>
+      </c>
+      <c r="I64" t="s">
+        <v>545</v>
+      </c>
+      <c r="J64" t="s">
         <v>570</v>
       </c>
-      <c r="I64" t="s">
-        <v>546</v>
-      </c>
-      <c r="J64" t="s">
-        <v>571</v>
-      </c>
       <c r="K64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S64" t="s">
         <v>149</v>
       </c>
       <c r="T64" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C65" t="s">
         <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G65" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H65" t="s">
+        <v>571</v>
+      </c>
+      <c r="I65" t="s">
+        <v>545</v>
+      </c>
+      <c r="J65" t="s">
         <v>572</v>
       </c>
-      <c r="I65" t="s">
-        <v>546</v>
-      </c>
-      <c r="J65" t="s">
-        <v>573</v>
-      </c>
       <c r="K65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="S65" t="s">
         <v>157</v>
       </c>
       <c r="T65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U65" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B66" t="s">
         <v>161</v>
@@ -5600,48 +5600,48 @@
         <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H66" t="s">
+        <v>574</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
         <v>575</v>
       </c>
-      <c r="I66" t="s">
-        <v>546</v>
-      </c>
-      <c r="J66" t="s">
-        <v>576</v>
-      </c>
       <c r="K66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L66" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="S66" t="s">
         <v>167</v>
       </c>
       <c r="T66" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG66" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI66" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B67" t="s">
         <v>172</v>
@@ -5650,48 +5650,48 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H67" t="s">
+        <v>577</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
         <v>578</v>
       </c>
-      <c r="I67" t="s">
-        <v>546</v>
-      </c>
-      <c r="J67" t="s">
-        <v>579</v>
-      </c>
       <c r="K67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L67" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="S67" t="s">
         <v>176</v>
       </c>
       <c r="T67" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH67" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B68" t="s">
         <v>180</v>
@@ -5700,48 +5700,48 @@
         <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H68" t="s">
+        <v>580</v>
+      </c>
+      <c r="I68" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" t="s">
         <v>581</v>
       </c>
-      <c r="I68" t="s">
-        <v>546</v>
-      </c>
-      <c r="J68" t="s">
-        <v>582</v>
-      </c>
       <c r="K68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L68" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S68" t="s">
         <v>184</v>
       </c>
       <c r="T68" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG68" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI68" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B69" t="s">
         <v>188</v>
@@ -5750,48 +5750,48 @@
         <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H69" t="s">
+        <v>583</v>
+      </c>
+      <c r="I69" t="s">
+        <v>545</v>
+      </c>
+      <c r="J69" t="s">
         <v>584</v>
       </c>
-      <c r="I69" t="s">
-        <v>546</v>
-      </c>
-      <c r="J69" t="s">
-        <v>585</v>
-      </c>
       <c r="K69" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L69" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S69" t="s">
         <v>194</v>
       </c>
       <c r="T69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B70" t="s">
         <v>199</v>
@@ -5800,148 +5800,148 @@
         <v>200</v>
       </c>
       <c r="D70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H70" t="s">
+        <v>586</v>
+      </c>
+      <c r="I70" t="s">
+        <v>545</v>
+      </c>
+      <c r="J70" t="s">
         <v>587</v>
       </c>
-      <c r="I70" t="s">
-        <v>546</v>
-      </c>
-      <c r="J70" t="s">
-        <v>588</v>
-      </c>
       <c r="K70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L70" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S70" t="s">
         <v>205</v>
       </c>
       <c r="T70" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U70" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI70" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C71" t="s">
         <v>209</v>
       </c>
       <c r="D71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H71" t="s">
+        <v>588</v>
+      </c>
+      <c r="I71" t="s">
+        <v>545</v>
+      </c>
+      <c r="J71" t="s">
         <v>589</v>
       </c>
-      <c r="I71" t="s">
-        <v>546</v>
-      </c>
-      <c r="J71" t="s">
-        <v>590</v>
-      </c>
       <c r="K71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L71" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="S71" t="s">
         <v>213</v>
       </c>
       <c r="T71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG71" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI71" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C72" t="s">
         <v>209</v>
       </c>
       <c r="D72" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H72" t="s">
+        <v>590</v>
+      </c>
+      <c r="I72" t="s">
+        <v>545</v>
+      </c>
+      <c r="J72" t="s">
         <v>591</v>
       </c>
-      <c r="I72" t="s">
-        <v>546</v>
-      </c>
-      <c r="J72" t="s">
-        <v>592</v>
-      </c>
       <c r="K72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="S72" t="s">
         <v>219</v>
       </c>
       <c r="T72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI72" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B73" t="s">
         <v>223</v>
@@ -5950,48 +5950,48 @@
         <v>224</v>
       </c>
       <c r="D73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H73" t="s">
+        <v>593</v>
+      </c>
+      <c r="I73" t="s">
+        <v>545</v>
+      </c>
+      <c r="J73" t="s">
         <v>594</v>
       </c>
-      <c r="I73" t="s">
-        <v>546</v>
-      </c>
-      <c r="J73" t="s">
-        <v>595</v>
-      </c>
       <c r="K73" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L73" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="S73" t="s">
         <v>229</v>
       </c>
       <c r="T73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B74" t="s">
         <v>234</v>
@@ -6000,48 +6000,48 @@
         <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H74" t="s">
+        <v>596</v>
+      </c>
+      <c r="I74" t="s">
+        <v>545</v>
+      </c>
+      <c r="J74" t="s">
         <v>597</v>
       </c>
-      <c r="I74" t="s">
-        <v>546</v>
-      </c>
-      <c r="J74" t="s">
-        <v>598</v>
-      </c>
       <c r="K74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L74" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="S74" t="s">
         <v>240</v>
       </c>
       <c r="T74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B75" t="s">
         <v>245</v>
@@ -6050,48 +6050,48 @@
         <v>246</v>
       </c>
       <c r="D75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H75" t="s">
+        <v>599</v>
+      </c>
+      <c r="I75" t="s">
+        <v>545</v>
+      </c>
+      <c r="J75" t="s">
         <v>600</v>
       </c>
-      <c r="I75" t="s">
-        <v>546</v>
-      </c>
-      <c r="J75" t="s">
-        <v>601</v>
-      </c>
       <c r="K75" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L75" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S75" t="s">
         <v>251</v>
       </c>
       <c r="T75" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U75" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI75" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B76" t="s">
         <v>256</v>
@@ -6100,48 +6100,48 @@
         <v>257</v>
       </c>
       <c r="D76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H76" t="s">
+        <v>602</v>
+      </c>
+      <c r="I76" t="s">
+        <v>545</v>
+      </c>
+      <c r="J76" t="s">
         <v>603</v>
       </c>
-      <c r="I76" t="s">
-        <v>546</v>
-      </c>
-      <c r="J76" t="s">
-        <v>604</v>
-      </c>
       <c r="K76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S76" t="s">
         <v>262</v>
       </c>
       <c r="T76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B77" t="s">
         <v>267</v>
@@ -6150,48 +6150,48 @@
         <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H77" t="s">
+        <v>605</v>
+      </c>
+      <c r="I77" t="s">
+        <v>545</v>
+      </c>
+      <c r="J77" t="s">
         <v>606</v>
       </c>
-      <c r="I77" t="s">
-        <v>546</v>
-      </c>
-      <c r="J77" t="s">
-        <v>607</v>
-      </c>
       <c r="K77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L77" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S77" t="s">
         <v>273</v>
       </c>
       <c r="T77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI77" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B78" t="s">
         <v>287</v>
@@ -6200,48 +6200,48 @@
         <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H78" t="s">
+        <v>608</v>
+      </c>
+      <c r="I78" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" t="s">
         <v>609</v>
       </c>
-      <c r="I78" t="s">
-        <v>546</v>
-      </c>
-      <c r="J78" t="s">
-        <v>610</v>
-      </c>
       <c r="K78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L78" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S78" t="s">
         <v>293</v>
       </c>
       <c r="T78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH78" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B79" t="s">
         <v>298</v>
@@ -6250,48 +6250,48 @@
         <v>299</v>
       </c>
       <c r="D79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G79" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H79" t="s">
+        <v>611</v>
+      </c>
+      <c r="I79" t="s">
+        <v>545</v>
+      </c>
+      <c r="J79" t="s">
         <v>612</v>
       </c>
-      <c r="I79" t="s">
-        <v>546</v>
-      </c>
-      <c r="J79" t="s">
-        <v>613</v>
-      </c>
       <c r="K79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L79" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S79" t="s">
         <v>304</v>
       </c>
       <c r="T79" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U79" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B80" t="s">
         <v>309</v>
@@ -6300,48 +6300,48 @@
         <v>310</v>
       </c>
       <c r="D80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H80" t="s">
+        <v>614</v>
+      </c>
+      <c r="I80" t="s">
+        <v>545</v>
+      </c>
+      <c r="J80" t="s">
         <v>615</v>
       </c>
-      <c r="I80" t="s">
-        <v>546</v>
-      </c>
-      <c r="J80" t="s">
-        <v>616</v>
-      </c>
       <c r="K80" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L80" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S80" t="s">
         <v>318</v>
       </c>
       <c r="T80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B81" t="s">
         <v>309</v>
@@ -6350,48 +6350,48 @@
         <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H81" t="s">
+        <v>617</v>
+      </c>
+      <c r="I81" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" t="s">
         <v>618</v>
       </c>
-      <c r="I81" t="s">
-        <v>546</v>
-      </c>
-      <c r="J81" t="s">
-        <v>619</v>
-      </c>
       <c r="K81" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L81" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S81" t="s">
         <v>318</v>
       </c>
       <c r="T81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG81" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI81" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B82" t="s">
         <v>309</v>
@@ -6400,48 +6400,48 @@
         <v>310</v>
       </c>
       <c r="D82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H82" t="s">
+        <v>620</v>
+      </c>
+      <c r="I82" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" t="s">
         <v>621</v>
       </c>
-      <c r="I82" t="s">
-        <v>546</v>
-      </c>
-      <c r="J82" t="s">
-        <v>622</v>
-      </c>
       <c r="K82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S82" t="s">
         <v>318</v>
       </c>
       <c r="T82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH82" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B83" t="s">
         <v>327</v>
@@ -6450,48 +6450,48 @@
         <v>48</v>
       </c>
       <c r="D83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H83" t="s">
+        <v>623</v>
+      </c>
+      <c r="I83" t="s">
+        <v>545</v>
+      </c>
+      <c r="J83" t="s">
         <v>624</v>
       </c>
-      <c r="I83" t="s">
-        <v>546</v>
-      </c>
-      <c r="J83" t="s">
-        <v>625</v>
-      </c>
       <c r="K83" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L83" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S83" t="s">
         <v>48</v>
       </c>
       <c r="T83" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U83" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH83" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84" t="s">
         <v>327</v>
@@ -6500,48 +6500,48 @@
         <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H84" t="s">
+        <v>626</v>
+      </c>
+      <c r="I84" t="s">
+        <v>545</v>
+      </c>
+      <c r="J84" t="s">
         <v>627</v>
       </c>
-      <c r="I84" t="s">
-        <v>546</v>
-      </c>
-      <c r="J84" t="s">
-        <v>628</v>
-      </c>
       <c r="K84" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S84" t="s">
         <v>48</v>
       </c>
       <c r="T84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B85" t="s">
         <v>327</v>
@@ -6550,48 +6550,48 @@
         <v>48</v>
       </c>
       <c r="D85" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H85" t="s">
+        <v>629</v>
+      </c>
+      <c r="I85" t="s">
+        <v>545</v>
+      </c>
+      <c r="J85" t="s">
         <v>630</v>
       </c>
-      <c r="I85" t="s">
-        <v>546</v>
-      </c>
-      <c r="J85" t="s">
-        <v>631</v>
-      </c>
       <c r="K85" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S85" t="s">
         <v>48</v>
       </c>
       <c r="T85" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U85" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG85" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI85" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B86" t="s">
         <v>327</v>
@@ -6600,48 +6600,48 @@
         <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H86" t="s">
+        <v>632</v>
+      </c>
+      <c r="I86" t="s">
+        <v>545</v>
+      </c>
+      <c r="J86" t="s">
         <v>633</v>
       </c>
-      <c r="I86" t="s">
-        <v>546</v>
-      </c>
-      <c r="J86" t="s">
-        <v>634</v>
-      </c>
       <c r="K86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S86" t="s">
         <v>48</v>
       </c>
       <c r="T86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG86" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH86" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI86" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s">
         <v>327</v>
@@ -6650,48 +6650,48 @@
         <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H87" t="s">
+        <v>635</v>
+      </c>
+      <c r="I87" t="s">
+        <v>545</v>
+      </c>
+      <c r="J87" t="s">
         <v>636</v>
       </c>
-      <c r="I87" t="s">
-        <v>546</v>
-      </c>
-      <c r="J87" t="s">
-        <v>637</v>
-      </c>
       <c r="K87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S87" t="s">
         <v>48</v>
       </c>
       <c r="T87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG87" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI87" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B88" t="s">
         <v>327</v>
@@ -6700,48 +6700,48 @@
         <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G88" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H88" t="s">
+        <v>638</v>
+      </c>
+      <c r="I88" t="s">
+        <v>545</v>
+      </c>
+      <c r="J88" t="s">
         <v>639</v>
       </c>
-      <c r="I88" t="s">
-        <v>546</v>
-      </c>
-      <c r="J88" t="s">
-        <v>640</v>
-      </c>
       <c r="K88" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S88" t="s">
         <v>48</v>
       </c>
       <c r="T88" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U88" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG88" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI88" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B89" t="s">
         <v>327</v>
@@ -6750,893 +6750,893 @@
         <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H89" t="s">
+        <v>641</v>
+      </c>
+      <c r="I89" t="s">
+        <v>545</v>
+      </c>
+      <c r="J89" t="s">
         <v>642</v>
       </c>
-      <c r="I89" t="s">
-        <v>546</v>
-      </c>
-      <c r="J89" t="s">
-        <v>643</v>
-      </c>
       <c r="K89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S89" t="s">
         <v>48</v>
       </c>
       <c r="T89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH89" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" t="s">
+        <v>403</v>
+      </c>
+      <c r="C90" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" t="s">
+        <v>542</v>
+      </c>
+      <c r="G90" t="s">
+        <v>543</v>
+      </c>
+      <c r="H90" t="s">
         <v>644</v>
       </c>
-      <c r="B90" t="s">
-        <v>404</v>
-      </c>
-      <c r="C90" t="s">
-        <v>405</v>
-      </c>
-      <c r="D90" t="s">
-        <v>543</v>
-      </c>
-      <c r="G90" t="s">
-        <v>544</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
+        <v>545</v>
+      </c>
+      <c r="J90" t="s">
         <v>645</v>
       </c>
-      <c r="I90" t="s">
-        <v>546</v>
-      </c>
-      <c r="J90" t="s">
-        <v>646</v>
-      </c>
       <c r="K90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L90" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T90" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U90" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG90" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI90" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>646</v>
+      </c>
+      <c r="B91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" t="s">
+        <v>404</v>
+      </c>
+      <c r="D91" t="s">
+        <v>542</v>
+      </c>
+      <c r="G91" t="s">
+        <v>543</v>
+      </c>
+      <c r="H91" t="s">
         <v>647</v>
       </c>
-      <c r="B91" t="s">
-        <v>404</v>
-      </c>
-      <c r="C91" t="s">
-        <v>405</v>
-      </c>
-      <c r="D91" t="s">
-        <v>543</v>
-      </c>
-      <c r="G91" t="s">
-        <v>544</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
+        <v>545</v>
+      </c>
+      <c r="J91" t="s">
         <v>648</v>
       </c>
-      <c r="I91" t="s">
-        <v>546</v>
-      </c>
-      <c r="J91" t="s">
-        <v>649</v>
-      </c>
       <c r="K91" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L91" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T91" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U91" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI91" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>649</v>
+      </c>
+      <c r="B92" t="s">
+        <v>403</v>
+      </c>
+      <c r="C92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D92" t="s">
+        <v>542</v>
+      </c>
+      <c r="G92" t="s">
+        <v>543</v>
+      </c>
+      <c r="H92" t="s">
         <v>650</v>
       </c>
-      <c r="B92" t="s">
-        <v>404</v>
-      </c>
-      <c r="C92" t="s">
-        <v>405</v>
-      </c>
-      <c r="D92" t="s">
-        <v>543</v>
-      </c>
-      <c r="G92" t="s">
-        <v>544</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
+        <v>545</v>
+      </c>
+      <c r="J92" t="s">
         <v>651</v>
       </c>
-      <c r="I92" t="s">
-        <v>546</v>
-      </c>
-      <c r="J92" t="s">
-        <v>652</v>
-      </c>
       <c r="K92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L92" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T92" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U92" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>652</v>
+      </c>
+      <c r="B93" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" t="s">
+        <v>404</v>
+      </c>
+      <c r="D93" t="s">
+        <v>542</v>
+      </c>
+      <c r="G93" t="s">
+        <v>543</v>
+      </c>
+      <c r="H93" t="s">
         <v>653</v>
       </c>
-      <c r="B93" t="s">
-        <v>404</v>
-      </c>
-      <c r="C93" t="s">
-        <v>405</v>
-      </c>
-      <c r="D93" t="s">
-        <v>543</v>
-      </c>
-      <c r="G93" t="s">
-        <v>544</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
+        <v>545</v>
+      </c>
+      <c r="J93" t="s">
         <v>654</v>
       </c>
-      <c r="I93" t="s">
-        <v>546</v>
-      </c>
-      <c r="J93" t="s">
-        <v>655</v>
-      </c>
       <c r="K93" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L93" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH93" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>655</v>
+      </c>
+      <c r="B94" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" t="s">
+        <v>404</v>
+      </c>
+      <c r="D94" t="s">
+        <v>542</v>
+      </c>
+      <c r="G94" t="s">
+        <v>543</v>
+      </c>
+      <c r="H94" t="s">
         <v>656</v>
       </c>
-      <c r="B94" t="s">
-        <v>404</v>
-      </c>
-      <c r="C94" t="s">
-        <v>405</v>
-      </c>
-      <c r="D94" t="s">
-        <v>543</v>
-      </c>
-      <c r="G94" t="s">
-        <v>544</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>545</v>
+      </c>
+      <c r="J94" t="s">
         <v>657</v>
       </c>
-      <c r="I94" t="s">
-        <v>546</v>
-      </c>
-      <c r="J94" t="s">
-        <v>658</v>
-      </c>
       <c r="K94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L94" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T94" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U94" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG94" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI94" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B95" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" t="s">
+        <v>542</v>
+      </c>
+      <c r="G95" t="s">
+        <v>543</v>
+      </c>
+      <c r="H95" t="s">
         <v>744</v>
       </c>
-      <c r="B95" t="s">
-        <v>404</v>
-      </c>
-      <c r="C95" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>543</v>
-      </c>
-      <c r="G95" t="s">
-        <v>544</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
+        <v>545</v>
+      </c>
+      <c r="J95" t="s">
         <v>745</v>
       </c>
-      <c r="I95" t="s">
-        <v>546</v>
-      </c>
-      <c r="J95" t="s">
-        <v>746</v>
-      </c>
       <c r="K95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L95" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U95" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>658</v>
+      </c>
+      <c r="B96" t="s">
+        <v>438</v>
+      </c>
+      <c r="C96" t="s">
+        <v>439</v>
+      </c>
+      <c r="D96" t="s">
+        <v>542</v>
+      </c>
+      <c r="G96" t="s">
+        <v>543</v>
+      </c>
+      <c r="H96" t="s">
         <v>659</v>
       </c>
-      <c r="B96" t="s">
-        <v>439</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="I96" t="s">
+        <v>545</v>
+      </c>
+      <c r="J96" t="s">
+        <v>660</v>
+      </c>
+      <c r="K96" t="s">
+        <v>365</v>
+      </c>
+      <c r="L96" t="s">
+        <v>712</v>
+      </c>
+      <c r="S96" t="s">
         <v>440</v>
       </c>
-      <c r="D96" t="s">
-        <v>543</v>
-      </c>
-      <c r="G96" t="s">
-        <v>544</v>
-      </c>
-      <c r="H96" t="s">
-        <v>660</v>
-      </c>
-      <c r="I96" t="s">
-        <v>546</v>
-      </c>
-      <c r="J96" t="s">
-        <v>661</v>
-      </c>
-      <c r="K96" t="s">
-        <v>366</v>
-      </c>
-      <c r="L96" t="s">
-        <v>713</v>
-      </c>
-      <c r="S96" t="s">
-        <v>441</v>
-      </c>
       <c r="T96" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U96" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH96" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI96" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>661</v>
+      </c>
+      <c r="B97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" t="s">
+        <v>542</v>
+      </c>
+      <c r="G97" t="s">
+        <v>543</v>
+      </c>
+      <c r="H97" t="s">
         <v>662</v>
       </c>
-      <c r="B97" t="s">
-        <v>439</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="I97" t="s">
+        <v>545</v>
+      </c>
+      <c r="J97" t="s">
+        <v>663</v>
+      </c>
+      <c r="K97" t="s">
+        <v>365</v>
+      </c>
+      <c r="L97" t="s">
+        <v>712</v>
+      </c>
+      <c r="S97" t="s">
         <v>440</v>
       </c>
-      <c r="D97" t="s">
-        <v>543</v>
-      </c>
-      <c r="G97" t="s">
-        <v>544</v>
-      </c>
-      <c r="H97" t="s">
-        <v>663</v>
-      </c>
-      <c r="I97" t="s">
-        <v>546</v>
-      </c>
-      <c r="J97" t="s">
-        <v>664</v>
-      </c>
-      <c r="K97" t="s">
-        <v>366</v>
-      </c>
-      <c r="L97" t="s">
-        <v>713</v>
-      </c>
-      <c r="S97" t="s">
-        <v>441</v>
-      </c>
       <c r="T97" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U97" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG97" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI97" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>747</v>
+      </c>
+      <c r="B98" t="s">
         <v>748</v>
       </c>
-      <c r="B98" t="s">
-        <v>749</v>
-      </c>
       <c r="C98" t="s">
+        <v>439</v>
+      </c>
+      <c r="D98" t="s">
+        <v>542</v>
+      </c>
+      <c r="G98" t="s">
+        <v>543</v>
+      </c>
+      <c r="H98" t="s">
+        <v>664</v>
+      </c>
+      <c r="I98" t="s">
+        <v>545</v>
+      </c>
+      <c r="J98" t="s">
+        <v>665</v>
+      </c>
+      <c r="K98" t="s">
+        <v>365</v>
+      </c>
+      <c r="L98" t="s">
+        <v>751</v>
+      </c>
+      <c r="S98" t="s">
         <v>440</v>
       </c>
-      <c r="D98" t="s">
-        <v>543</v>
-      </c>
-      <c r="G98" t="s">
-        <v>544</v>
-      </c>
-      <c r="H98" t="s">
-        <v>665</v>
-      </c>
-      <c r="I98" t="s">
-        <v>546</v>
-      </c>
-      <c r="J98" t="s">
-        <v>666</v>
-      </c>
-      <c r="K98" t="s">
-        <v>366</v>
-      </c>
-      <c r="L98" t="s">
-        <v>752</v>
-      </c>
-      <c r="S98" t="s">
-        <v>441</v>
-      </c>
       <c r="T98" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U98" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH98" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI98" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>666</v>
+      </c>
+      <c r="B99" t="s">
+        <v>462</v>
+      </c>
+      <c r="C99" t="s">
+        <v>463</v>
+      </c>
+      <c r="D99" t="s">
+        <v>542</v>
+      </c>
+      <c r="G99" t="s">
+        <v>543</v>
+      </c>
+      <c r="H99" t="s">
         <v>667</v>
       </c>
-      <c r="B99" t="s">
-        <v>463</v>
-      </c>
-      <c r="C99" t="s">
-        <v>464</v>
-      </c>
-      <c r="D99" t="s">
-        <v>543</v>
-      </c>
-      <c r="G99" t="s">
-        <v>544</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
+        <v>545</v>
+      </c>
+      <c r="J99" t="s">
         <v>668</v>
       </c>
-      <c r="I99" t="s">
-        <v>546</v>
-      </c>
-      <c r="J99" t="s">
-        <v>669</v>
-      </c>
       <c r="K99" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L99" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>669</v>
+      </c>
+      <c r="B100" t="s">
+        <v>474</v>
+      </c>
+      <c r="C100" t="s">
+        <v>475</v>
+      </c>
+      <c r="D100" t="s">
+        <v>542</v>
+      </c>
+      <c r="G100" t="s">
+        <v>543</v>
+      </c>
+      <c r="H100" t="s">
         <v>670</v>
       </c>
-      <c r="B100" t="s">
-        <v>475</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="I100" t="s">
+        <v>545</v>
+      </c>
+      <c r="J100" t="s">
+        <v>671</v>
+      </c>
+      <c r="K100" t="s">
+        <v>365</v>
+      </c>
+      <c r="L100" t="s">
+        <v>714</v>
+      </c>
+      <c r="S100" t="s">
         <v>476</v>
       </c>
-      <c r="D100" t="s">
-        <v>543</v>
-      </c>
-      <c r="G100" t="s">
-        <v>544</v>
-      </c>
-      <c r="H100" t="s">
-        <v>671</v>
-      </c>
-      <c r="I100" t="s">
-        <v>546</v>
-      </c>
-      <c r="J100" t="s">
-        <v>672</v>
-      </c>
-      <c r="K100" t="s">
-        <v>366</v>
-      </c>
-      <c r="L100" t="s">
-        <v>715</v>
-      </c>
-      <c r="S100" t="s">
-        <v>477</v>
-      </c>
       <c r="T100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>672</v>
+      </c>
+      <c r="B101" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" t="s">
+        <v>542</v>
+      </c>
+      <c r="G101" t="s">
+        <v>543</v>
+      </c>
+      <c r="H101" t="s">
         <v>673</v>
       </c>
-      <c r="B101" t="s">
-        <v>475</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="I101" t="s">
+        <v>545</v>
+      </c>
+      <c r="J101" t="s">
+        <v>674</v>
+      </c>
+      <c r="K101" t="s">
+        <v>365</v>
+      </c>
+      <c r="L101" t="s">
+        <v>714</v>
+      </c>
+      <c r="S101" t="s">
         <v>476</v>
       </c>
-      <c r="D101" t="s">
-        <v>543</v>
-      </c>
-      <c r="G101" t="s">
-        <v>544</v>
-      </c>
-      <c r="H101" t="s">
-        <v>674</v>
-      </c>
-      <c r="I101" t="s">
-        <v>546</v>
-      </c>
-      <c r="J101" t="s">
-        <v>675</v>
-      </c>
-      <c r="K101" t="s">
-        <v>366</v>
-      </c>
-      <c r="L101" t="s">
-        <v>715</v>
-      </c>
-      <c r="S101" t="s">
-        <v>477</v>
-      </c>
       <c r="T101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U101" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI101" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>675</v>
+      </c>
+      <c r="B102" t="s">
+        <v>490</v>
+      </c>
+      <c r="C102" t="s">
+        <v>491</v>
+      </c>
+      <c r="D102" t="s">
+        <v>542</v>
+      </c>
+      <c r="G102" t="s">
+        <v>543</v>
+      </c>
+      <c r="H102" t="s">
         <v>676</v>
       </c>
-      <c r="B102" t="s">
-        <v>491</v>
-      </c>
-      <c r="C102" t="s">
-        <v>492</v>
-      </c>
-      <c r="D102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G102" t="s">
-        <v>544</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
+        <v>545</v>
+      </c>
+      <c r="J102" t="s">
         <v>677</v>
       </c>
-      <c r="I102" t="s">
-        <v>546</v>
-      </c>
-      <c r="J102" t="s">
-        <v>678</v>
-      </c>
       <c r="K102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L102" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S102" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG102" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH102" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI102" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>678</v>
+      </c>
+      <c r="B103" t="s">
+        <v>490</v>
+      </c>
+      <c r="C103" t="s">
+        <v>491</v>
+      </c>
+      <c r="D103" t="s">
+        <v>542</v>
+      </c>
+      <c r="G103" t="s">
+        <v>543</v>
+      </c>
+      <c r="H103" t="s">
         <v>679</v>
       </c>
-      <c r="B103" t="s">
-        <v>491</v>
-      </c>
-      <c r="C103" t="s">
-        <v>492</v>
-      </c>
-      <c r="D103" t="s">
-        <v>543</v>
-      </c>
-      <c r="G103" t="s">
-        <v>544</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
+        <v>545</v>
+      </c>
+      <c r="J103" t="s">
         <v>680</v>
       </c>
-      <c r="I103" t="s">
-        <v>546</v>
-      </c>
-      <c r="J103" t="s">
-        <v>681</v>
-      </c>
       <c r="K103" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L103" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S103" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T103" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U103" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH103" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>681</v>
+      </c>
+      <c r="B104" t="s">
+        <v>490</v>
+      </c>
+      <c r="C104" t="s">
+        <v>491</v>
+      </c>
+      <c r="D104" t="s">
+        <v>542</v>
+      </c>
+      <c r="G104" t="s">
+        <v>543</v>
+      </c>
+      <c r="H104" t="s">
         <v>682</v>
       </c>
-      <c r="B104" t="s">
-        <v>491</v>
-      </c>
-      <c r="C104" t="s">
-        <v>492</v>
-      </c>
-      <c r="D104" t="s">
-        <v>543</v>
-      </c>
-      <c r="G104" t="s">
-        <v>544</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
+        <v>545</v>
+      </c>
+      <c r="J104" t="s">
         <v>683</v>
       </c>
-      <c r="I104" t="s">
-        <v>546</v>
-      </c>
-      <c r="J104" t="s">
-        <v>684</v>
-      </c>
       <c r="K104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T104" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH104" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>684</v>
+      </c>
+      <c r="B105" t="s">
+        <v>508</v>
+      </c>
+      <c r="C105" t="s">
+        <v>509</v>
+      </c>
+      <c r="D105" t="s">
+        <v>542</v>
+      </c>
+      <c r="G105" t="s">
+        <v>543</v>
+      </c>
+      <c r="H105" t="s">
         <v>685</v>
       </c>
-      <c r="B105" t="s">
-        <v>509</v>
-      </c>
-      <c r="C105" t="s">
-        <v>510</v>
-      </c>
-      <c r="D105" t="s">
-        <v>543</v>
-      </c>
-      <c r="G105" t="s">
-        <v>544</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>545</v>
+      </c>
+      <c r="J105" t="s">
         <v>686</v>
       </c>
-      <c r="I105" t="s">
-        <v>546</v>
-      </c>
-      <c r="J105" t="s">
-        <v>687</v>
-      </c>
       <c r="K105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L105" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T105" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U105" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>687</v>
+      </c>
+      <c r="B106" t="s">
+        <v>508</v>
+      </c>
+      <c r="C106" t="s">
+        <v>509</v>
+      </c>
+      <c r="D106" t="s">
+        <v>542</v>
+      </c>
+      <c r="G106" t="s">
+        <v>543</v>
+      </c>
+      <c r="H106" t="s">
         <v>688</v>
       </c>
-      <c r="B106" t="s">
-        <v>509</v>
-      </c>
-      <c r="C106" t="s">
-        <v>510</v>
-      </c>
-      <c r="D106" t="s">
-        <v>543</v>
-      </c>
-      <c r="G106" t="s">
-        <v>544</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
+        <v>545</v>
+      </c>
+      <c r="J106" t="s">
         <v>689</v>
       </c>
-      <c r="I106" t="s">
-        <v>546</v>
-      </c>
-      <c r="J106" t="s">
-        <v>690</v>
-      </c>
       <c r="K106" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L106" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="S106" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="T106" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="U106" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AH106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AI106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602AED4-8BD2-ED43-88B2-291C6DF62143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82035123-BDA4-494F-84B5-6B7E68CD0EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="960" windowWidth="27520" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="767">
   <si>
     <t>Scene</t>
   </si>
@@ -2284,6 +2284,48 @@
   </si>
   <si>
     <t>These are just some of the quests that await you in Castell Conwy! Whichever quests you undertake, you will deepen your connection to Conwy Castle and the land of Wales, forging memories that will last a lifetime. So, choose your quest and embark on a journey of discovery within the walls of Conwy Castle.</t>
+  </si>
+  <si>
+    <t>tretowerNPC1</t>
+  </si>
+  <si>
+    <t>tretowerNPC</t>
+  </si>
+  <si>
+    <t>Tretower</t>
+  </si>
+  <si>
+    <t>You can now head to Tretower. Resources for this site will be coming soon, but for now you can explore the site, press the button to head there.</t>
+  </si>
+  <si>
+    <t>Go!</t>
+  </si>
+  <si>
+    <t>tp @p -20101 3 -19599 facing -20096 3 -19601</t>
+  </si>
+  <si>
+    <t>Nawr gallwch fynd i Dretower. Bydd adnoddau ar gyfer y wefan hon yn dod yn fuan, ond am y tro gallwch archwilio'r wefan, pwyswch y botwm i fynd yno.</t>
+  </si>
+  <si>
+    <t>Mynd</t>
+  </si>
+  <si>
+    <t>Aros</t>
+  </si>
+  <si>
+    <t>tretowerwelcNPC</t>
+  </si>
+  <si>
+    <t>tretowerwelcNPC1</t>
+  </si>
+  <si>
+    <t>Welcome to Tretower, soon we will have lots of resources to help you learn all about this amazing site. For now you can explore the area!</t>
+  </si>
+  <si>
+    <t>Back to Galeri</t>
+  </si>
+  <si>
+    <t>Croeso i Tretower, cyn bo hir bydd gennym lawer o adnoddau i'ch helpu i ddysgu popeth am y safle anhygoel hwn. Ar hyn o bryd gallwch archwilio'r ardal!</t>
   </si>
 </sst>
 </file>
@@ -2647,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR106"/>
+  <dimension ref="A1:AR108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2713,7 @@
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="54.83203125" customWidth="1"/>
     <col min="23" max="23" width="21.1640625" customWidth="1"/>
-    <col min="24" max="24" width="36.33203125" customWidth="1"/>
+    <col min="24" max="24" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
@@ -2896,1258 +2938,1183 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>753</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>754</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>755</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>756</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>757</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>758</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
+        <v>540</v>
       </c>
       <c r="S6" t="s">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="T6" t="s">
-        <v>77</v>
+        <v>759</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>758</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
-        <v>75</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>763</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>762</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>755</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>764</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>765</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>755</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>766</v>
       </c>
       <c r="U7" t="s">
-        <v>89</v>
-      </c>
-      <c r="V7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="W8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="U9" t="s">
         <v>89</v>
       </c>
       <c r="V9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="S10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="U10" t="s">
         <v>89</v>
       </c>
       <c r="V10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="S11" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="T11" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="U11" t="s">
         <v>89</v>
       </c>
       <c r="V11" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>719</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>723</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="S12" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="T12" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="U12" t="s">
         <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>724</v>
+        <v>122</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="S13" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="U13" t="s">
         <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B14" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="S14" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="T14" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="U14" t="s">
         <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="S15" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="T15" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="U15" t="s">
         <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="W15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>725</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>726</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>729</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
       </c>
       <c r="S16" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="T16" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="U16" t="s">
         <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>178</v>
+        <v>730</v>
       </c>
       <c r="W16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="T17" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="U17" t="s">
         <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="W17" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="S18" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="T18" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="U18" t="s">
         <v>89</v>
       </c>
       <c r="V18" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="W18" t="s">
-        <v>197</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="S19" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="T19" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
         <v>89</v>
       </c>
       <c r="V19" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="W19" t="s">
-        <v>208</v>
-      </c>
-      <c r="X19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>731</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>732</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>733</v>
+        <v>191</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="S20" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="T20" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="U20" t="s">
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>734</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>737</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>738</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>741</v>
+        <v>202</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="S21" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="T21" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="U21" t="s">
         <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>742</v>
+        <v>207</v>
       </c>
       <c r="W21" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>731</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>732</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>733</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="S22" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="T22" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="U22" t="s">
         <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>231</v>
+        <v>734</v>
       </c>
       <c r="W22" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>737</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>738</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>741</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="S23" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="T23" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="U23" t="s">
         <v>89</v>
       </c>
       <c r="V23" t="s">
-        <v>242</v>
+        <v>742</v>
       </c>
       <c r="W23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="S24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="T24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="U24" t="s">
         <v>89</v>
       </c>
       <c r="V24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="W24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="S25" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="T25" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s">
         <v>89</v>
       </c>
       <c r="V25" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="W25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="S26" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="T26" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="U26" t="s">
         <v>89</v>
       </c>
       <c r="V26" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="W26" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>259</v>
+      </c>
+      <c r="I27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J27" t="s">
+        <v>261</v>
       </c>
       <c r="S27" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="T27" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="U27" t="s">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="S28" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="T28" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="U28" t="s">
         <v>89</v>
       </c>
       <c r="V28" t="s">
+        <v>275</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" t="s">
+        <v>282</v>
+      </c>
+      <c r="S29" t="s">
+        <v>283</v>
+      </c>
+      <c r="T29" t="s">
+        <v>284</v>
+      </c>
+      <c r="U29" t="s">
+        <v>285</v>
+      </c>
+      <c r="V29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" t="s">
+        <v>290</v>
+      </c>
+      <c r="I30" t="s">
+        <v>291</v>
+      </c>
+      <c r="J30" t="s">
+        <v>292</v>
+      </c>
+      <c r="S30" t="s">
+        <v>293</v>
+      </c>
+      <c r="T30" t="s">
+        <v>294</v>
+      </c>
+      <c r="U30" t="s">
+        <v>89</v>
+      </c>
+      <c r="V30" t="s">
         <v>295</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W30" t="s">
         <v>296</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>297</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>298</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>299</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>300</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H31" t="s">
         <v>301</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I31" t="s">
         <v>302</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J31" t="s">
         <v>303</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S31" t="s">
         <v>304</v>
       </c>
-      <c r="T29" t="s">
+      <c r="T31" t="s">
         <v>305</v>
       </c>
-      <c r="U29" t="s">
+      <c r="U31" t="s">
         <v>89</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V31" t="s">
         <v>306</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W31" t="s">
         <v>307</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X31" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>308</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>309</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>310</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>311</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>302</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H32" t="s">
         <v>312</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I32" t="s">
         <v>313</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J32" t="s">
         <v>314</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K32" t="s">
         <v>315</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L32" t="s">
         <v>316</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M32" t="s">
         <v>48</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N32" t="s">
         <v>317</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S32" t="s">
         <v>318</v>
       </c>
-      <c r="T30" t="s">
+      <c r="T32" t="s">
         <v>319</v>
       </c>
-      <c r="U30" t="s">
+      <c r="U32" t="s">
         <v>307</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V32" t="s">
         <v>320</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W32" t="s">
         <v>321</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X32" t="s">
         <v>322</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y32" t="s">
         <v>323</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Z32" t="s">
         <v>324</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AA32" t="s">
         <v>325</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB32" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>328</v>
-      </c>
-      <c r="E31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G31" t="s">
-        <v>330</v>
-      </c>
-      <c r="H31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I31" t="s">
-        <v>332</v>
-      </c>
-      <c r="J31" t="s">
-        <v>333</v>
-      </c>
-      <c r="K31" t="s">
-        <v>334</v>
-      </c>
-      <c r="L31" t="s">
-        <v>75</v>
-      </c>
-      <c r="S31" t="s">
-        <v>48</v>
-      </c>
-      <c r="T31" t="s">
-        <v>335</v>
-      </c>
-      <c r="U31" t="s">
-        <v>336</v>
-      </c>
-      <c r="V31" t="s">
-        <v>337</v>
-      </c>
-      <c r="W31" t="s">
-        <v>338</v>
-      </c>
-      <c r="X31" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>339</v>
-      </c>
-      <c r="B32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>752</v>
-      </c>
-      <c r="G32" t="s">
-        <v>340</v>
-      </c>
-      <c r="H32" t="s">
-        <v>341</v>
-      </c>
-      <c r="I32" t="s">
-        <v>342</v>
-      </c>
-      <c r="J32" t="s">
-        <v>343</v>
-      </c>
-      <c r="K32" t="s">
-        <v>344</v>
-      </c>
-      <c r="L32" t="s">
-        <v>345</v>
-      </c>
-      <c r="M32" t="s">
-        <v>346</v>
-      </c>
-      <c r="N32" t="s">
-        <v>347</v>
-      </c>
-      <c r="O32" t="s">
-        <v>348</v>
-      </c>
-      <c r="P32" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>350</v>
-      </c>
-      <c r="R32" t="s">
-        <v>351</v>
-      </c>
-      <c r="S32" t="s">
-        <v>48</v>
-      </c>
-      <c r="T32" t="s">
-        <v>352</v>
-      </c>
-      <c r="U32" t="s">
-        <v>353</v>
-      </c>
-      <c r="V32" t="s">
-        <v>341</v>
-      </c>
-      <c r="W32" t="s">
-        <v>354</v>
-      </c>
-      <c r="X32" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>355</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
         <v>327</v>
@@ -4156,54 +4123,57 @@
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>328</v>
+      </c>
+      <c r="E33" t="s">
+        <v>329</v>
       </c>
       <c r="G33" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="H33" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="J33" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="K33" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="L33" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s">
         <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="U33" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="V33" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="W33" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="X33" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="Y33" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s">
         <v>327</v>
@@ -4212,54 +4182,90 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>752</v>
       </c>
       <c r="G34" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="H34" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="M34" t="s">
+        <v>346</v>
+      </c>
+      <c r="N34" t="s">
+        <v>347</v>
+      </c>
+      <c r="O34" t="s">
+        <v>348</v>
+      </c>
+      <c r="P34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>350</v>
+      </c>
+      <c r="R34" t="s">
+        <v>351</v>
       </c>
       <c r="S34" t="s">
         <v>48</v>
       </c>
       <c r="T34" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="U34" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="V34" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="W34" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="X34" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="Y34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="Z34" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s">
         <v>327</v>
@@ -4268,19 +4274,19 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G35" t="s">
         <v>361</v>
       </c>
       <c r="H35" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="I35" t="s">
         <v>363</v>
       </c>
       <c r="J35" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K35" t="s">
         <v>365</v>
@@ -4292,19 +4298,19 @@
         <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="U35" t="s">
         <v>367</v>
       </c>
       <c r="V35" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="W35" t="s">
         <v>369</v>
       </c>
       <c r="X35" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="Y35" t="s">
         <v>370</v>
@@ -4315,7 +4321,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
         <v>327</v>
@@ -4324,19 +4330,19 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G36" t="s">
         <v>361</v>
       </c>
       <c r="H36" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="I36" t="s">
         <v>363</v>
       </c>
       <c r="J36" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s">
         <v>365</v>
@@ -4348,19 +4354,19 @@
         <v>48</v>
       </c>
       <c r="T36" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="U36" t="s">
         <v>367</v>
       </c>
       <c r="V36" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="W36" t="s">
         <v>369</v>
       </c>
       <c r="X36" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="Y36" t="s">
         <v>370</v>
@@ -4371,7 +4377,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B37" t="s">
         <v>327</v>
@@ -4380,19 +4386,19 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G37" t="s">
         <v>361</v>
       </c>
       <c r="H37" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I37" t="s">
         <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
         <v>365</v>
@@ -4404,19 +4410,19 @@
         <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="U37" t="s">
         <v>367</v>
       </c>
       <c r="V37" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="W37" t="s">
         <v>369</v>
       </c>
       <c r="X37" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Y37" t="s">
         <v>370</v>
@@ -4427,7 +4433,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s">
         <v>327</v>
@@ -4436,19 +4442,19 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G38" t="s">
         <v>361</v>
       </c>
       <c r="H38" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I38" t="s">
         <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
         <v>365</v>
@@ -4460,19 +4466,19 @@
         <v>48</v>
       </c>
       <c r="T38" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="U38" t="s">
         <v>367</v>
       </c>
       <c r="V38" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="W38" t="s">
         <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Y38" t="s">
         <v>370</v>
@@ -4483,136 +4489,130 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>389</v>
+      </c>
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>390</v>
+      </c>
+      <c r="G39" t="s">
+        <v>361</v>
+      </c>
+      <c r="H39" t="s">
+        <v>391</v>
+      </c>
+      <c r="I39" t="s">
+        <v>363</v>
+      </c>
+      <c r="J39" t="s">
+        <v>392</v>
+      </c>
+      <c r="K39" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="S39" t="s">
+        <v>48</v>
+      </c>
+      <c r="T39" t="s">
+        <v>393</v>
+      </c>
+      <c r="U39" t="s">
+        <v>367</v>
+      </c>
+      <c r="V39" t="s">
+        <v>394</v>
+      </c>
+      <c r="W39" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G40" t="s">
-        <v>406</v>
+        <v>361</v>
+      </c>
+      <c r="H40" t="s">
+        <v>397</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>398</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
       </c>
       <c r="S40" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="T40" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="U40" t="s">
-        <v>409</v>
+        <v>367</v>
+      </c>
+      <c r="V40" t="s">
+        <v>400</v>
+      </c>
+      <c r="W40" t="s">
+        <v>369</v>
+      </c>
+      <c r="X40" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>410</v>
-      </c>
-      <c r="B41" t="s">
-        <v>403</v>
-      </c>
-      <c r="C41" t="s">
-        <v>404</v>
-      </c>
-      <c r="D41" t="s">
-        <v>411</v>
-      </c>
-      <c r="G41" t="s">
-        <v>412</v>
-      </c>
-      <c r="H41" t="s">
-        <v>413</v>
-      </c>
-      <c r="I41" t="s">
-        <v>414</v>
-      </c>
-      <c r="J41" t="s">
-        <v>415</v>
-      </c>
-      <c r="K41" t="s">
-        <v>416</v>
-      </c>
-      <c r="L41" t="s">
-        <v>417</v>
-      </c>
-      <c r="M41" t="s">
-        <v>418</v>
-      </c>
-      <c r="N41" t="s">
-        <v>419</v>
-      </c>
-      <c r="O41" t="s">
-        <v>420</v>
-      </c>
-      <c r="P41" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>422</v>
-      </c>
-      <c r="R41" t="s">
-        <v>423</v>
-      </c>
-      <c r="S41" t="s">
-        <v>407</v>
-      </c>
-      <c r="T41" t="s">
-        <v>424</v>
-      </c>
-      <c r="U41" t="s">
-        <v>425</v>
-      </c>
-      <c r="V41" t="s">
-        <v>426</v>
-      </c>
-      <c r="W41" t="s">
-        <v>427</v>
-      </c>
-      <c r="X41" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>431</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D42" t="s">
         <v>405</v>
@@ -4621,10 +4621,10 @@
         <v>406</v>
       </c>
       <c r="S42" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T42" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="U42" t="s">
         <v>409</v>
@@ -4632,183 +4632,231 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="B43" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D43" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="G43" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="H43" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="I43" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>449</v>
+        <v>417</v>
+      </c>
+      <c r="M43" t="s">
+        <v>418</v>
+      </c>
+      <c r="N43" t="s">
+        <v>419</v>
+      </c>
+      <c r="O43" t="s">
+        <v>420</v>
+      </c>
+      <c r="P43" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>422</v>
+      </c>
+      <c r="R43" t="s">
+        <v>423</v>
       </c>
       <c r="S43" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T43" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="U43" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="V43" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="W43" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="X43" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="Z43" t="s">
-        <v>449</v>
+        <v>430</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s">
-        <v>748</v>
+        <v>438</v>
       </c>
       <c r="C44" t="s">
         <v>439</v>
       </c>
       <c r="D44" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>448</v>
-      </c>
-      <c r="H44" t="s">
-        <v>749</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="S44" t="s">
         <v>440</v>
       </c>
       <c r="T44" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="U44" t="s">
-        <v>460</v>
-      </c>
-      <c r="V44" t="s">
-        <v>750</v>
-      </c>
-      <c r="W44" t="s">
-        <v>48</v>
-      </c>
-      <c r="X44" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C45" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D45" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>406</v>
+        <v>444</v>
+      </c>
+      <c r="H45" t="s">
+        <v>445</v>
+      </c>
+      <c r="I45" t="s">
+        <v>446</v>
+      </c>
+      <c r="J45" t="s">
+        <v>447</v>
+      </c>
+      <c r="K45" t="s">
+        <v>448</v>
+      </c>
+      <c r="L45" t="s">
+        <v>449</v>
       </c>
       <c r="S45" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="T45" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="U45" t="s">
-        <v>409</v>
+        <v>451</v>
+      </c>
+      <c r="V45" t="s">
+        <v>452</v>
+      </c>
+      <c r="W45" t="s">
+        <v>453</v>
+      </c>
+      <c r="X45" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B46" t="s">
-        <v>462</v>
+        <v>748</v>
       </c>
       <c r="C46" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D46" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G46" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="H46" t="s">
-        <v>469</v>
+        <v>749</v>
       </c>
       <c r="I46" t="s">
         <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="S46" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="T46" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="U46" t="s">
-        <v>746</v>
+        <v>460</v>
       </c>
       <c r="V46" t="s">
-        <v>469</v>
+        <v>750</v>
       </c>
       <c r="W46" t="s">
         <v>48</v>
       </c>
       <c r="X46" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B47" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D47" t="s">
         <v>405</v>
@@ -4817,7 +4865,7 @@
         <v>406</v>
       </c>
       <c r="S47" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="T47" t="s">
         <v>465</v>
@@ -4828,155 +4876,101 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C48" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D48" t="s">
-        <v>478</v>
-      </c>
-      <c r="E48" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G48" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H48" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="I48" t="s">
-        <v>482</v>
+        <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>483</v>
-      </c>
-      <c r="K48" t="s">
+        <v>470</v>
+      </c>
+      <c r="S48" t="s">
+        <v>471</v>
+      </c>
+      <c r="T48" t="s">
+        <v>472</v>
+      </c>
+      <c r="U48" t="s">
+        <v>746</v>
+      </c>
+      <c r="V48" t="s">
+        <v>469</v>
+      </c>
+      <c r="W48" t="s">
         <v>48</v>
       </c>
-      <c r="L48" t="s">
-        <v>470</v>
-      </c>
-      <c r="S48" t="s">
-        <v>476</v>
-      </c>
-      <c r="T48" t="s">
-        <v>484</v>
-      </c>
-      <c r="U48" t="s">
-        <v>485</v>
-      </c>
-      <c r="V48" t="s">
-        <v>486</v>
-      </c>
-      <c r="W48" t="s">
-        <v>487</v>
-      </c>
       <c r="X48" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z48" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B49" t="s">
-        <v>717</v>
+        <v>474</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D49" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="G49" t="s">
-        <v>493</v>
-      </c>
-      <c r="H49" t="s">
-        <v>494</v>
-      </c>
-      <c r="I49" t="s">
-        <v>495</v>
-      </c>
-      <c r="J49" t="s">
-        <v>496</v>
-      </c>
-      <c r="K49" t="s">
-        <v>497</v>
-      </c>
-      <c r="L49" t="s">
-        <v>498</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="S49" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="T49" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="U49" t="s">
-        <v>501</v>
-      </c>
-      <c r="V49" t="s">
-        <v>502</v>
-      </c>
-      <c r="W49" t="s">
-        <v>503</v>
-      </c>
-      <c r="X49" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="D50" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="E50" t="s">
+        <v>479</v>
       </c>
       <c r="G50" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="H50" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="I50" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="J50" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="K50" t="s">
         <v>48</v>
@@ -4985,22 +4979,22 @@
         <v>470</v>
       </c>
       <c r="S50" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="T50" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="U50" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="V50" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="W50" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="X50" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="Y50" t="s">
         <v>48</v>
@@ -5011,193 +5005,217 @@
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>521</v>
+        <v>489</v>
+      </c>
+      <c r="B51" t="s">
+        <v>717</v>
+      </c>
+      <c r="C51" t="s">
+        <v>491</v>
+      </c>
+      <c r="D51" t="s">
+        <v>492</v>
+      </c>
+      <c r="G51" t="s">
+        <v>493</v>
+      </c>
+      <c r="H51" t="s">
+        <v>494</v>
+      </c>
+      <c r="I51" t="s">
+        <v>495</v>
+      </c>
+      <c r="J51" t="s">
+        <v>496</v>
+      </c>
+      <c r="K51" t="s">
+        <v>497</v>
+      </c>
+      <c r="L51" t="s">
+        <v>498</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" t="s">
+        <v>470</v>
+      </c>
+      <c r="S51" t="s">
+        <v>499</v>
+      </c>
+      <c r="T51" t="s">
+        <v>500</v>
+      </c>
+      <c r="U51" t="s">
+        <v>501</v>
+      </c>
+      <c r="V51" t="s">
+        <v>502</v>
+      </c>
+      <c r="W51" t="s">
+        <v>503</v>
+      </c>
+      <c r="X51" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B52" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C52" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G52" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H52" t="s">
-        <v>527</v>
+        <v>512</v>
+      </c>
+      <c r="I52" t="s">
+        <v>513</v>
+      </c>
+      <c r="J52" t="s">
+        <v>514</v>
+      </c>
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
+        <v>470</v>
+      </c>
+      <c r="S52" t="s">
+        <v>515</v>
+      </c>
+      <c r="T52" t="s">
+        <v>516</v>
+      </c>
+      <c r="U52" t="s">
+        <v>517</v>
+      </c>
+      <c r="V52" t="s">
+        <v>518</v>
+      </c>
+      <c r="W52" t="s">
+        <v>519</v>
+      </c>
+      <c r="X52" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>528</v>
-      </c>
-      <c r="B53" t="s">
-        <v>523</v>
-      </c>
-      <c r="C53" t="s">
-        <v>524</v>
-      </c>
-      <c r="D53" t="s">
-        <v>529</v>
-      </c>
-      <c r="G53" t="s">
-        <v>530</v>
-      </c>
-      <c r="S53" t="s">
-        <v>63</v>
-      </c>
-      <c r="T53" t="s">
-        <v>531</v>
-      </c>
-      <c r="U53" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B54" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C54" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D54" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>526</v>
       </c>
       <c r="H54" t="s">
-        <v>537</v>
-      </c>
-      <c r="I54" t="s">
-        <v>538</v>
-      </c>
-      <c r="J54" t="s">
-        <v>539</v>
-      </c>
-      <c r="K54" t="s">
-        <v>540</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>528</v>
+      </c>
+      <c r="B55" t="s">
+        <v>523</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
+      <c r="D55" t="s">
+        <v>529</v>
+      </c>
+      <c r="G55" t="s">
+        <v>530</v>
+      </c>
+      <c r="S55" t="s">
+        <v>63</v>
+      </c>
+      <c r="T55" t="s">
+        <v>531</v>
+      </c>
+      <c r="U55" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G56" t="s">
-        <v>543</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="I56" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J56" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>365</v>
-      </c>
-      <c r="L56" t="s">
-        <v>690</v>
-      </c>
-      <c r="S56" t="s">
-        <v>48</v>
-      </c>
-      <c r="T56" t="s">
-        <v>547</v>
-      </c>
-      <c r="U56" t="s">
-        <v>543</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>548</v>
-      </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>542</v>
-      </c>
-      <c r="G57" t="s">
-        <v>543</v>
-      </c>
-      <c r="H57" t="s">
-        <v>549</v>
-      </c>
-      <c r="I57" t="s">
-        <v>545</v>
-      </c>
-      <c r="J57" t="s">
-        <v>550</v>
-      </c>
-      <c r="K57" t="s">
-        <v>365</v>
-      </c>
-      <c r="L57" t="s">
-        <v>690</v>
-      </c>
-      <c r="S57" t="s">
-        <v>48</v>
-      </c>
-      <c r="T57" t="s">
-        <v>547</v>
-      </c>
-      <c r="U57" t="s">
-        <v>543</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
         <v>542</v>
@@ -5206,22 +5224,22 @@
         <v>543</v>
       </c>
       <c r="H58" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I58" t="s">
         <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
         <v>365</v>
       </c>
       <c r="L58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S58" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="T58" t="s">
         <v>547</v>
@@ -5241,13 +5259,13 @@
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
         <v>542</v>
@@ -5256,22 +5274,22 @@
         <v>543</v>
       </c>
       <c r="H59" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I59" t="s">
         <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K59" t="s">
         <v>365</v>
       </c>
       <c r="L59" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S59" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="T59" t="s">
         <v>547</v>
@@ -5291,13 +5309,13 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D60" t="s">
         <v>542</v>
@@ -5306,22 +5324,22 @@
         <v>543</v>
       </c>
       <c r="H60" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I60" t="s">
         <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K60" t="s">
         <v>365</v>
       </c>
       <c r="L60" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="S60" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T60" t="s">
         <v>547</v>
@@ -5341,13 +5359,13 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
         <v>542</v>
@@ -5356,22 +5374,22 @@
         <v>543</v>
       </c>
       <c r="H61" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I61" t="s">
         <v>545</v>
       </c>
       <c r="J61" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K61" t="s">
         <v>365</v>
       </c>
       <c r="L61" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S61" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T61" t="s">
         <v>547</v>
@@ -5391,13 +5409,13 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
         <v>542</v>
@@ -5406,22 +5424,22 @@
         <v>543</v>
       </c>
       <c r="H62" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I62" t="s">
         <v>545</v>
       </c>
       <c r="J62" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K62" t="s">
         <v>365</v>
       </c>
       <c r="L62" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="S62" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="T62" t="s">
         <v>547</v>
@@ -5441,13 +5459,13 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="B63" t="s">
-        <v>721</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
         <v>542</v>
@@ -5456,22 +5474,22 @@
         <v>543</v>
       </c>
       <c r="H63" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I63" t="s">
         <v>545</v>
       </c>
       <c r="J63" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K63" t="s">
         <v>365</v>
       </c>
       <c r="L63" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="S63" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="T63" t="s">
         <v>547</v>
@@ -5491,13 +5509,13 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
         <v>542</v>
@@ -5506,22 +5524,22 @@
         <v>543</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I64" t="s">
         <v>545</v>
       </c>
       <c r="J64" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K64" t="s">
         <v>365</v>
       </c>
       <c r="L64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S64" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="T64" t="s">
         <v>547</v>
@@ -5541,13 +5559,13 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B65" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
         <v>542</v>
@@ -5556,22 +5574,22 @@
         <v>543</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I65" t="s">
         <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
         <v>365</v>
       </c>
       <c r="L65" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="S65" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="T65" t="s">
         <v>547</v>
@@ -5591,13 +5609,13 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
         <v>542</v>
@@ -5606,22 +5624,22 @@
         <v>543</v>
       </c>
       <c r="H66" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I66" t="s">
         <v>545</v>
       </c>
       <c r="J66" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K66" t="s">
         <v>365</v>
       </c>
       <c r="L66" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S66" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="T66" t="s">
         <v>547</v>
@@ -5641,13 +5659,13 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>576</v>
+        <v>727</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>726</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
         <v>542</v>
@@ -5656,22 +5674,22 @@
         <v>543</v>
       </c>
       <c r="H67" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I67" t="s">
         <v>545</v>
       </c>
       <c r="J67" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K67" t="s">
         <v>365</v>
       </c>
       <c r="L67" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="S67" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="T67" t="s">
         <v>547</v>
@@ -5691,13 +5709,13 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
         <v>542</v>
@@ -5706,22 +5724,22 @@
         <v>543</v>
       </c>
       <c r="H68" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I68" t="s">
         <v>545</v>
       </c>
       <c r="J68" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K68" t="s">
         <v>365</v>
       </c>
       <c r="L68" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S68" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="T68" t="s">
         <v>547</v>
@@ -5741,13 +5759,13 @@
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
         <v>542</v>
@@ -5756,22 +5774,22 @@
         <v>543</v>
       </c>
       <c r="H69" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I69" t="s">
         <v>545</v>
       </c>
       <c r="J69" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K69" t="s">
         <v>365</v>
       </c>
       <c r="L69" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S69" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="T69" t="s">
         <v>547</v>
@@ -5791,13 +5809,13 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
         <v>542</v>
@@ -5806,22 +5824,22 @@
         <v>543</v>
       </c>
       <c r="H70" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I70" t="s">
         <v>545</v>
       </c>
       <c r="J70" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K70" t="s">
         <v>365</v>
       </c>
       <c r="L70" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S70" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="T70" t="s">
         <v>547</v>
@@ -5841,13 +5859,13 @@
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>735</v>
+        <v>582</v>
       </c>
       <c r="B71" t="s">
-        <v>732</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
         <v>542</v>
@@ -5856,22 +5874,22 @@
         <v>543</v>
       </c>
       <c r="H71" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I71" t="s">
         <v>545</v>
       </c>
       <c r="J71" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K71" t="s">
         <v>365</v>
       </c>
       <c r="L71" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="S71" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="T71" t="s">
         <v>547</v>
@@ -5891,13 +5909,13 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>739</v>
+        <v>585</v>
       </c>
       <c r="B72" t="s">
-        <v>738</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
         <v>542</v>
@@ -5906,22 +5924,22 @@
         <v>543</v>
       </c>
       <c r="H72" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I72" t="s">
         <v>545</v>
       </c>
       <c r="J72" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K72" t="s">
         <v>365</v>
       </c>
       <c r="L72" t="s">
-        <v>740</v>
+        <v>701</v>
       </c>
       <c r="S72" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="T72" t="s">
         <v>547</v>
@@ -5941,13 +5959,13 @@
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>592</v>
+        <v>735</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>732</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
         <v>542</v>
@@ -5956,22 +5974,22 @@
         <v>543</v>
       </c>
       <c r="H73" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I73" t="s">
         <v>545</v>
       </c>
       <c r="J73" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K73" t="s">
         <v>365</v>
       </c>
       <c r="L73" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="S73" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="T73" t="s">
         <v>547</v>
@@ -5991,13 +6009,13 @@
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>595</v>
+        <v>739</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>738</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
         <v>542</v>
@@ -6006,22 +6024,22 @@
         <v>543</v>
       </c>
       <c r="H74" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I74" t="s">
         <v>545</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="K74" t="s">
         <v>365</v>
       </c>
       <c r="L74" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="S74" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="T74" t="s">
         <v>547</v>
@@ -6041,13 +6059,13 @@
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B75" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
         <v>542</v>
@@ -6056,22 +6074,22 @@
         <v>543</v>
       </c>
       <c r="H75" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I75" t="s">
         <v>545</v>
       </c>
       <c r="J75" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K75" t="s">
         <v>365</v>
       </c>
       <c r="L75" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S75" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="T75" t="s">
         <v>547</v>
@@ -6091,13 +6109,13 @@
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
         <v>542</v>
@@ -6106,22 +6124,22 @@
         <v>543</v>
       </c>
       <c r="H76" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="I76" t="s">
         <v>545</v>
       </c>
       <c r="J76" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="K76" t="s">
         <v>365</v>
       </c>
       <c r="L76" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="S76" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="T76" t="s">
         <v>547</v>
@@ -6141,13 +6159,13 @@
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
         <v>542</v>
@@ -6156,22 +6174,22 @@
         <v>543</v>
       </c>
       <c r="H77" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="I77" t="s">
         <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s">
         <v>365</v>
       </c>
       <c r="L77" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="S77" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="T77" t="s">
         <v>547</v>
@@ -6191,13 +6209,13 @@
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="D78" t="s">
         <v>542</v>
@@ -6206,22 +6224,22 @@
         <v>543</v>
       </c>
       <c r="H78" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I78" t="s">
         <v>545</v>
       </c>
       <c r="J78" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K78" t="s">
         <v>365</v>
       </c>
       <c r="L78" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="S78" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="T78" t="s">
         <v>547</v>
@@ -6241,13 +6259,13 @@
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
         <v>542</v>
@@ -6256,22 +6274,22 @@
         <v>543</v>
       </c>
       <c r="H79" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I79" t="s">
         <v>545</v>
       </c>
       <c r="J79" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K79" t="s">
         <v>365</v>
       </c>
       <c r="L79" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S79" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="T79" t="s">
         <v>547</v>
@@ -6291,13 +6309,13 @@
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s">
         <v>542</v>
@@ -6306,22 +6324,22 @@
         <v>543</v>
       </c>
       <c r="H80" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="I80" t="s">
         <v>545</v>
       </c>
       <c r="J80" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K80" t="s">
         <v>365</v>
       </c>
       <c r="L80" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="S80" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="T80" t="s">
         <v>547</v>
@@ -6341,13 +6359,13 @@
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
         <v>542</v>
@@ -6356,22 +6374,22 @@
         <v>543</v>
       </c>
       <c r="H81" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="I81" t="s">
         <v>545</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K81" t="s">
         <v>365</v>
       </c>
       <c r="L81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S81" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="T81" t="s">
         <v>547</v>
@@ -6391,7 +6409,7 @@
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B82" t="s">
         <v>309</v>
@@ -6406,13 +6424,13 @@
         <v>543</v>
       </c>
       <c r="H82" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I82" t="s">
         <v>545</v>
       </c>
       <c r="J82" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="K82" t="s">
         <v>365</v>
@@ -6441,13 +6459,13 @@
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
         <v>542</v>
@@ -6456,22 +6474,22 @@
         <v>543</v>
       </c>
       <c r="H83" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="I83" t="s">
         <v>545</v>
       </c>
       <c r="J83" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K83" t="s">
         <v>365</v>
       </c>
       <c r="L83" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S83" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="T83" t="s">
         <v>547</v>
@@ -6491,13 +6509,13 @@
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B84" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
         <v>542</v>
@@ -6506,22 +6524,22 @@
         <v>543</v>
       </c>
       <c r="H84" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I84" t="s">
         <v>545</v>
       </c>
       <c r="J84" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K84" t="s">
         <v>365</v>
       </c>
       <c r="L84" t="s">
-        <v>341</v>
+        <v>709</v>
       </c>
       <c r="S84" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="T84" t="s">
         <v>547</v>
@@ -6541,7 +6559,7 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B85" t="s">
         <v>327</v>
@@ -6556,19 +6574,19 @@
         <v>543</v>
       </c>
       <c r="H85" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="I85" t="s">
         <v>545</v>
       </c>
       <c r="J85" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K85" t="s">
         <v>365</v>
       </c>
       <c r="L85" t="s">
-        <v>343</v>
+        <v>710</v>
       </c>
       <c r="S85" t="s">
         <v>48</v>
@@ -6591,7 +6609,7 @@
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B86" t="s">
         <v>327</v>
@@ -6606,19 +6624,19 @@
         <v>543</v>
       </c>
       <c r="H86" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I86" t="s">
         <v>545</v>
       </c>
       <c r="J86" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="K86" t="s">
         <v>365</v>
       </c>
       <c r="L86" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S86" t="s">
         <v>48</v>
@@ -6641,7 +6659,7 @@
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B87" t="s">
         <v>327</v>
@@ -6656,19 +6674,19 @@
         <v>543</v>
       </c>
       <c r="H87" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="I87" t="s">
         <v>545</v>
       </c>
       <c r="J87" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="K87" t="s">
         <v>365</v>
       </c>
       <c r="L87" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S87" t="s">
         <v>48</v>
@@ -6691,7 +6709,7 @@
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B88" t="s">
         <v>327</v>
@@ -6706,19 +6724,19 @@
         <v>543</v>
       </c>
       <c r="H88" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I88" t="s">
         <v>545</v>
       </c>
       <c r="J88" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K88" t="s">
         <v>365</v>
       </c>
       <c r="L88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="S88" t="s">
         <v>48</v>
@@ -6741,7 +6759,7 @@
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B89" t="s">
         <v>327</v>
@@ -6756,19 +6774,19 @@
         <v>543</v>
       </c>
       <c r="H89" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I89" t="s">
         <v>545</v>
       </c>
       <c r="J89" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="K89" t="s">
         <v>365</v>
       </c>
       <c r="L89" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="S89" t="s">
         <v>48</v>
@@ -6791,13 +6809,13 @@
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="C90" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
         <v>542</v>
@@ -6806,22 +6824,22 @@
         <v>543</v>
       </c>
       <c r="H90" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I90" t="s">
         <v>545</v>
       </c>
       <c r="J90" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="K90" t="s">
         <v>365</v>
       </c>
       <c r="L90" t="s">
-        <v>711</v>
+        <v>349</v>
       </c>
       <c r="S90" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="T90" t="s">
         <v>547</v>
@@ -6841,13 +6859,13 @@
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B91" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="C91" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
         <v>542</v>
@@ -6856,22 +6874,22 @@
         <v>543</v>
       </c>
       <c r="H91" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="I91" t="s">
         <v>545</v>
       </c>
       <c r="J91" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K91" t="s">
         <v>365</v>
       </c>
       <c r="L91" t="s">
-        <v>711</v>
+        <v>351</v>
       </c>
       <c r="S91" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="T91" t="s">
         <v>547</v>
@@ -6891,7 +6909,7 @@
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B92" t="s">
         <v>403</v>
@@ -6906,13 +6924,13 @@
         <v>543</v>
       </c>
       <c r="H92" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I92" t="s">
         <v>545</v>
       </c>
       <c r="J92" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="K92" t="s">
         <v>365</v>
@@ -6941,7 +6959,7 @@
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B93" t="s">
         <v>403</v>
@@ -6956,13 +6974,13 @@
         <v>543</v>
       </c>
       <c r="H93" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="I93" t="s">
         <v>545</v>
       </c>
       <c r="J93" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K93" t="s">
         <v>365</v>
@@ -6991,7 +7009,7 @@
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B94" t="s">
         <v>403</v>
@@ -7006,13 +7024,13 @@
         <v>543</v>
       </c>
       <c r="H94" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I94" t="s">
         <v>545</v>
       </c>
       <c r="J94" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="K94" t="s">
         <v>365</v>
@@ -7041,7 +7059,7 @@
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>743</v>
+        <v>652</v>
       </c>
       <c r="B95" t="s">
         <v>403</v>
@@ -7056,13 +7074,13 @@
         <v>543</v>
       </c>
       <c r="H95" t="s">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="I95" t="s">
         <v>545</v>
       </c>
       <c r="J95" t="s">
-        <v>745</v>
+        <v>654</v>
       </c>
       <c r="K95" t="s">
         <v>365</v>
@@ -7091,13 +7109,13 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B96" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C96" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
         <v>542</v>
@@ -7106,22 +7124,22 @@
         <v>543</v>
       </c>
       <c r="H96" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I96" t="s">
         <v>545</v>
       </c>
       <c r="J96" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K96" t="s">
         <v>365</v>
       </c>
       <c r="L96" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S96" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T96" t="s">
         <v>547</v>
@@ -7141,13 +7159,13 @@
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="B97" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C97" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D97" t="s">
         <v>542</v>
@@ -7156,22 +7174,22 @@
         <v>543</v>
       </c>
       <c r="H97" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="I97" t="s">
         <v>545</v>
       </c>
       <c r="J97" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="K97" t="s">
         <v>365</v>
       </c>
       <c r="L97" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S97" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T97" t="s">
         <v>547</v>
@@ -7191,10 +7209,10 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>747</v>
+        <v>658</v>
       </c>
       <c r="B98" t="s">
-        <v>748</v>
+        <v>438</v>
       </c>
       <c r="C98" t="s">
         <v>439</v>
@@ -7206,19 +7224,19 @@
         <v>543</v>
       </c>
       <c r="H98" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="I98" t="s">
         <v>545</v>
       </c>
       <c r="J98" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K98" t="s">
         <v>365</v>
       </c>
       <c r="L98" t="s">
-        <v>751</v>
+        <v>712</v>
       </c>
       <c r="S98" t="s">
         <v>440</v>
@@ -7241,13 +7259,13 @@
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B99" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C99" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D99" t="s">
         <v>542</v>
@@ -7256,22 +7274,22 @@
         <v>543</v>
       </c>
       <c r="H99" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I99" t="s">
         <v>545</v>
       </c>
       <c r="J99" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K99" t="s">
         <v>365</v>
       </c>
       <c r="L99" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S99" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="T99" t="s">
         <v>547</v>
@@ -7291,13 +7309,13 @@
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="B100" t="s">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="C100" t="s">
-        <v>475</v>
+        <v>439</v>
       </c>
       <c r="D100" t="s">
         <v>542</v>
@@ -7306,22 +7324,22 @@
         <v>543</v>
       </c>
       <c r="H100" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I100" t="s">
         <v>545</v>
       </c>
       <c r="J100" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="K100" t="s">
         <v>365</v>
       </c>
       <c r="L100" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="S100" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="T100" t="s">
         <v>547</v>
@@ -7341,13 +7359,13 @@
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B101" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C101" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D101" t="s">
         <v>542</v>
@@ -7356,22 +7374,22 @@
         <v>543</v>
       </c>
       <c r="H101" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I101" t="s">
         <v>545</v>
       </c>
       <c r="J101" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K101" t="s">
         <v>365</v>
       </c>
       <c r="L101" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="S101" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T101" t="s">
         <v>547</v>
@@ -7391,13 +7409,13 @@
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B102" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C102" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D102" t="s">
         <v>542</v>
@@ -7406,22 +7424,22 @@
         <v>543</v>
       </c>
       <c r="H102" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="I102" t="s">
         <v>545</v>
       </c>
       <c r="J102" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="K102" t="s">
         <v>365</v>
       </c>
       <c r="L102" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S102" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="T102" t="s">
         <v>547</v>
@@ -7441,13 +7459,13 @@
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B103" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D103" t="s">
         <v>542</v>
@@ -7456,22 +7474,22 @@
         <v>543</v>
       </c>
       <c r="H103" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I103" t="s">
         <v>545</v>
       </c>
       <c r="J103" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K103" t="s">
         <v>365</v>
       </c>
       <c r="L103" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S103" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="T103" t="s">
         <v>547</v>
@@ -7491,7 +7509,7 @@
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B104" t="s">
         <v>490</v>
@@ -7506,13 +7524,13 @@
         <v>543</v>
       </c>
       <c r="H104" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="I104" t="s">
         <v>545</v>
       </c>
       <c r="J104" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K104" t="s">
         <v>365</v>
@@ -7541,13 +7559,13 @@
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B105" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C105" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D105" t="s">
         <v>542</v>
@@ -7556,22 +7574,22 @@
         <v>543</v>
       </c>
       <c r="H105" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I105" t="s">
         <v>545</v>
       </c>
       <c r="J105" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K105" t="s">
         <v>365</v>
       </c>
       <c r="L105" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S105" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="T105" t="s">
         <v>547</v>
@@ -7591,13 +7609,13 @@
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B106" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C106" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="D106" t="s">
         <v>542</v>
@@ -7606,22 +7624,22 @@
         <v>543</v>
       </c>
       <c r="H106" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="I106" t="s">
         <v>545</v>
       </c>
       <c r="J106" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="K106" t="s">
         <v>365</v>
       </c>
       <c r="L106" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="S106" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="T106" t="s">
         <v>547</v>
@@ -7636,6 +7654,106 @@
         <v>370</v>
       </c>
       <c r="AI106" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>684</v>
+      </c>
+      <c r="B107" t="s">
+        <v>508</v>
+      </c>
+      <c r="C107" t="s">
+        <v>509</v>
+      </c>
+      <c r="D107" t="s">
+        <v>542</v>
+      </c>
+      <c r="G107" t="s">
+        <v>543</v>
+      </c>
+      <c r="H107" t="s">
+        <v>685</v>
+      </c>
+      <c r="I107" t="s">
+        <v>545</v>
+      </c>
+      <c r="J107" t="s">
+        <v>686</v>
+      </c>
+      <c r="K107" t="s">
+        <v>365</v>
+      </c>
+      <c r="L107" t="s">
+        <v>716</v>
+      </c>
+      <c r="S107" t="s">
+        <v>515</v>
+      </c>
+      <c r="T107" t="s">
+        <v>547</v>
+      </c>
+      <c r="U107" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>687</v>
+      </c>
+      <c r="B108" t="s">
+        <v>508</v>
+      </c>
+      <c r="C108" t="s">
+        <v>509</v>
+      </c>
+      <c r="D108" t="s">
+        <v>542</v>
+      </c>
+      <c r="G108" t="s">
+        <v>543</v>
+      </c>
+      <c r="H108" t="s">
+        <v>688</v>
+      </c>
+      <c r="I108" t="s">
+        <v>545</v>
+      </c>
+      <c r="J108" t="s">
+        <v>689</v>
+      </c>
+      <c r="K108" t="s">
+        <v>365</v>
+      </c>
+      <c r="L108" t="s">
+        <v>716</v>
+      </c>
+      <c r="S108" t="s">
+        <v>515</v>
+      </c>
+      <c r="T108" t="s">
+        <v>547</v>
+      </c>
+      <c r="U108" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI108" t="s">
         <v>545</v>
       </c>
     </row>

--- a/education/cadw_bp/dialogue/npc.xlsx
+++ b/education/cadw_bp/dialogue/npc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganindia/Library/Application Support/minecraftpe/games/com.mojang/development_behavior_packs/cadw/dialogue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82035123-BDA4-494F-84B5-6B7E68CD0EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44410350-E92F-7F47-8B0E-2B921446CC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="779">
   <si>
     <t>Scene</t>
   </si>
@@ -2327,12 +2327,48 @@
   <si>
     <t>Croeso i Tretower, cyn bo hir bydd gennym lawer o adnoddau i'ch helpu i ddysgu popeth am y safle anhygoel hwn. Ar hyn o bryd gallwch archwilio'r ardal!</t>
   </si>
+  <si>
+    <t>davidsNPC1</t>
+  </si>
+  <si>
+    <t>davidsNPC</t>
+  </si>
+  <si>
+    <t>St. Davids</t>
+  </si>
+  <si>
+    <t>You can now head to St Davids Bishop's Palace. Resources for this site will be coming soon, but for now you can explore the site, press the button to head there.</t>
+  </si>
+  <si>
+    <t>tp @p -40303 -16 -40004 facing -40310 -14 -39999</t>
+  </si>
+  <si>
+    <t>davidswelcNPC1</t>
+  </si>
+  <si>
+    <t>davidswelcNPC</t>
+  </si>
+  <si>
+    <t>Welcome to St. Davids Bishop's Palace, soon we will have lots of resources to help you learn all about this amazing site. For now you can explore the area!</t>
+  </si>
+  <si>
+    <t>Nawr gallwch fynd i St. Davids. Bydd adnoddau ar gyfer y wefan hon yn dod yn fuan, ond am y tro gallwch archwilio'r wefan, pwyswch y botwm i fynd yno.</t>
+  </si>
+  <si>
+    <t>Croeso i St. Davids, cyn bo hir bydd gennym lawer o adnoddau i'ch helpu i ddysgu popeth am y safle anhygoel hwn. Ar hyn o bryd gallwch archwilio'r ardal!</t>
+  </si>
+  <si>
+    <t>Galari</t>
+  </si>
+  <si>
+    <t>TRETOWER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2345,6 +2381,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2382,10 +2437,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR108"/>
+  <dimension ref="A1:AR113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2850,8 +2915,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3014,1258 +3079,1183 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>767</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>768</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>769</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>770</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>757</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
+        <v>540</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>769</v>
       </c>
       <c r="T8" t="s">
-        <v>77</v>
+        <v>775</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>760</v>
       </c>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>75</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>773</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>769</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>774</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>765</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>769</v>
       </c>
       <c r="T9" t="s">
-        <v>88</v>
+        <v>776</v>
       </c>
       <c r="U9" t="s">
-        <v>89</v>
-      </c>
-      <c r="V9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="W9" t="s">
-        <v>85</v>
+        <v>777</v>
       </c>
       <c r="X9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="W10" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
         <v>89</v>
       </c>
       <c r="V11" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
         <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T12" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="U12" t="s">
         <v>89</v>
       </c>
       <c r="V12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="S13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="T13" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="U13" t="s">
         <v>89</v>
       </c>
       <c r="V13" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>718</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>723</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="U14" t="s">
         <v>89</v>
       </c>
       <c r="V14" t="s">
-        <v>724</v>
+        <v>122</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="S15" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="T15" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="U15" t="s">
         <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B16" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="S16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="U16" t="s">
         <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="S17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="T17" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="U17" t="s">
         <v>89</v>
       </c>
       <c r="V17" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>725</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>726</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>729</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
       </c>
       <c r="S18" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="T18" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="U18" t="s">
         <v>89</v>
       </c>
       <c r="V18" t="s">
-        <v>178</v>
+        <v>730</v>
       </c>
       <c r="W18" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
       </c>
       <c r="S19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="U19" t="s">
         <v>89</v>
       </c>
       <c r="V19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="W19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="S20" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="T20" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="U20" t="s">
         <v>89</v>
       </c>
       <c r="V20" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
-      </c>
-      <c r="X20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="S21" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="U21" t="s">
         <v>89</v>
       </c>
       <c r="V21" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
-      </c>
-      <c r="X21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>731</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>732</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>733</v>
+        <v>191</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="S22" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="U22" t="s">
         <v>89</v>
       </c>
       <c r="V22" t="s">
-        <v>734</v>
+        <v>196</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>737</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>50</v>
       </c>
       <c r="H23" t="s">
-        <v>741</v>
+        <v>202</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="S23" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="T23" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="U23" t="s">
         <v>89</v>
       </c>
       <c r="V23" t="s">
-        <v>742</v>
+        <v>207</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>731</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>732</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>733</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="S24" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="T24" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="U24" t="s">
         <v>89</v>
       </c>
       <c r="V24" t="s">
-        <v>231</v>
+        <v>734</v>
       </c>
       <c r="W24" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>737</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>738</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>741</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="S25" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="T25" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="U25" t="s">
         <v>89</v>
       </c>
       <c r="V25" t="s">
-        <v>242</v>
+        <v>742</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="S26" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="T26" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="U26" t="s">
         <v>89</v>
       </c>
       <c r="V26" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="S27" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="T27" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="U27" t="s">
         <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="S28" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="T28" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="U28" t="s">
         <v>89</v>
       </c>
       <c r="V28" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>259</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
       </c>
       <c r="S29" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="T29" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="U29" t="s">
-        <v>285</v>
+        <v>89</v>
       </c>
       <c r="V29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
         <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="S30" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="T30" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="U30" t="s">
         <v>89</v>
       </c>
       <c r="V30" t="s">
+        <v>275</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>281</v>
+      </c>
+      <c r="H31" t="s">
+        <v>282</v>
+      </c>
+      <c r="S31" t="s">
+        <v>283</v>
+      </c>
+      <c r="T31" t="s">
+        <v>284</v>
+      </c>
+      <c r="U31" t="s">
+        <v>285</v>
+      </c>
+      <c r="V31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="S32" t="s">
+        <v>293</v>
+      </c>
+      <c r="T32" t="s">
+        <v>294</v>
+      </c>
+      <c r="U32" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" t="s">
         <v>295</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W32" t="s">
         <v>296</v>
       </c>
-      <c r="X30" t="s">
+      <c r="X32" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" t="s">
-        <v>298</v>
-      </c>
-      <c r="C31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" t="s">
-        <v>300</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" t="s">
-        <v>301</v>
-      </c>
-      <c r="I31" t="s">
-        <v>302</v>
-      </c>
-      <c r="J31" t="s">
-        <v>303</v>
-      </c>
-      <c r="S31" t="s">
-        <v>304</v>
-      </c>
-      <c r="T31" t="s">
-        <v>305</v>
-      </c>
-      <c r="U31" t="s">
-        <v>89</v>
-      </c>
-      <c r="V31" t="s">
-        <v>306</v>
-      </c>
-      <c r="W31" t="s">
-        <v>307</v>
-      </c>
-      <c r="X31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>308</v>
-      </c>
-      <c r="B32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" t="s">
-        <v>311</v>
-      </c>
-      <c r="G32" t="s">
-        <v>302</v>
-      </c>
-      <c r="H32" t="s">
-        <v>312</v>
-      </c>
-      <c r="I32" t="s">
-        <v>313</v>
-      </c>
-      <c r="J32" t="s">
-        <v>314</v>
-      </c>
-      <c r="K32" t="s">
-        <v>315</v>
-      </c>
-      <c r="L32" t="s">
-        <v>316</v>
-      </c>
-      <c r="M32" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" t="s">
-        <v>317</v>
-      </c>
-      <c r="S32" t="s">
-        <v>318</v>
-      </c>
-      <c r="T32" t="s">
-        <v>319</v>
-      </c>
-      <c r="U32" t="s">
-        <v>307</v>
-      </c>
-      <c r="V32" t="s">
-        <v>320</v>
-      </c>
-      <c r="W32" t="s">
-        <v>321</v>
-      </c>
-      <c r="X32" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
-        <v>328</v>
-      </c>
-      <c r="E33" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>333</v>
-      </c>
-      <c r="K33" t="s">
-        <v>334</v>
-      </c>
-      <c r="L33" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="S33" t="s">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="T33" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="U33" t="s">
-        <v>336</v>
+        <v>89</v>
       </c>
       <c r="V33" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="W33" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="X33" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" t="s">
+        <v>311</v>
+      </c>
+      <c r="G34" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" t="s">
+        <v>312</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
-        <v>752</v>
-      </c>
-      <c r="G34" t="s">
-        <v>340</v>
-      </c>
-      <c r="H34" t="s">
-        <v>341</v>
-      </c>
-      <c r="I34" t="s">
-        <v>342</v>
-      </c>
-      <c r="J34" t="s">
-        <v>343</v>
-      </c>
-      <c r="K34" t="s">
-        <v>344</v>
-      </c>
-      <c r="L34" t="s">
-        <v>345</v>
-      </c>
-      <c r="M34" t="s">
-        <v>346</v>
-      </c>
       <c r="N34" t="s">
-        <v>347</v>
-      </c>
-      <c r="O34" t="s">
-        <v>348</v>
-      </c>
-      <c r="P34" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>350</v>
-      </c>
-      <c r="R34" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="S34" t="s">
-        <v>48</v>
+        <v>318</v>
       </c>
       <c r="T34" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="U34" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="V34" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="W34" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="X34" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="Y34" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="Z34" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AA34" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="AB34" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s">
         <v>327</v>
@@ -4274,54 +4264,57 @@
         <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>328</v>
+      </c>
+      <c r="E35" t="s">
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="H35" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="I35" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s">
         <v>48</v>
       </c>
       <c r="T35" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="U35" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="V35" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="W35" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="X35" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="B36" t="s">
         <v>327</v>
@@ -4330,54 +4323,90 @@
         <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>372</v>
+        <v>752</v>
       </c>
       <c r="G36" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="H36" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="I36" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="M36" t="s">
+        <v>346</v>
+      </c>
+      <c r="N36" t="s">
+        <v>347</v>
+      </c>
+      <c r="O36" t="s">
+        <v>348</v>
+      </c>
+      <c r="P36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>350</v>
+      </c>
+      <c r="R36" t="s">
+        <v>351</v>
       </c>
       <c r="S36" t="s">
         <v>48</v>
       </c>
       <c r="T36" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="U36" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="V36" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="W36" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="Y36" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="Z36" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
         <v>327</v>
@@ -4386,19 +4415,19 @@
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G37" t="s">
         <v>361</v>
       </c>
       <c r="H37" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
         <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
         <v>365</v>
@@ -4410,19 +4439,19 @@
         <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="U37" t="s">
         <v>367</v>
       </c>
       <c r="V37" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="W37" t="s">
         <v>369</v>
       </c>
       <c r="X37" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="Y37" t="s">
         <v>370</v>
@@ -4433,7 +4462,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
         <v>327</v>
@@ -4442,19 +4471,19 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G38" t="s">
         <v>361</v>
       </c>
       <c r="H38" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="I38" t="s">
         <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K38" t="s">
         <v>365</v>
@@ -4466,19 +4495,19 @@
         <v>48</v>
       </c>
       <c r="T38" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="U38" t="s">
         <v>367</v>
       </c>
       <c r="V38" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="W38" t="s">
         <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="Y38" t="s">
         <v>370</v>
@@ -4489,7 +4518,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s">
         <v>327</v>
@@ -4498,19 +4527,19 @@
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G39" t="s">
         <v>361</v>
       </c>
       <c r="H39" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I39" t="s">
         <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K39" t="s">
         <v>365</v>
@@ -4522,19 +4551,19 @@
         <v>48</v>
       </c>
       <c r="T39" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="U39" t="s">
         <v>367</v>
       </c>
       <c r="V39" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="W39" t="s">
         <v>369</v>
       </c>
       <c r="X39" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
         <v>370</v>
@@ -4545,7 +4574,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
         <v>327</v>
@@ -4554,19 +4583,19 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G40" t="s">
         <v>361</v>
       </c>
       <c r="H40" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I40" t="s">
         <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
         <v>365</v>
@@ -4578,19 +4607,19 @@
         <v>48</v>
       </c>
       <c r="T40" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="U40" t="s">
         <v>367</v>
       </c>
       <c r="V40" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="W40" t="s">
         <v>369</v>
       </c>
       <c r="X40" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Y40" t="s">
         <v>370</v>
@@ -4601,136 +4630,130 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>389</v>
+      </c>
+      <c r="B41" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>390</v>
+      </c>
+      <c r="G41" t="s">
+        <v>361</v>
+      </c>
+      <c r="H41" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>392</v>
+      </c>
+      <c r="K41" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="S41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" t="s">
+        <v>393</v>
+      </c>
+      <c r="U41" t="s">
+        <v>367</v>
+      </c>
+      <c r="V41" t="s">
+        <v>394</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G42" t="s">
-        <v>406</v>
+        <v>361</v>
+      </c>
+      <c r="H42" t="s">
+        <v>397</v>
+      </c>
+      <c r="I42" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" t="s">
+        <v>398</v>
+      </c>
+      <c r="K42" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
       </c>
       <c r="S42" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="T42" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="U42" t="s">
-        <v>409</v>
+        <v>367</v>
+      </c>
+      <c r="V42" t="s">
+        <v>400</v>
+      </c>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>410</v>
-      </c>
-      <c r="B43" t="s">
-        <v>403</v>
-      </c>
-      <c r="C43" t="s">
-        <v>404</v>
-      </c>
-      <c r="D43" t="s">
-        <v>411</v>
-      </c>
-      <c r="G43" t="s">
-        <v>412</v>
-      </c>
-      <c r="H43" t="s">
-        <v>413</v>
-      </c>
-      <c r="I43" t="s">
-        <v>414</v>
-      </c>
-      <c r="J43" t="s">
-        <v>415</v>
-      </c>
-      <c r="K43" t="s">
-        <v>416</v>
-      </c>
-      <c r="L43" t="s">
-        <v>417</v>
-      </c>
-      <c r="M43" t="s">
-        <v>418</v>
-      </c>
-      <c r="N43" t="s">
-        <v>419</v>
-      </c>
-      <c r="O43" t="s">
-        <v>420</v>
-      </c>
-      <c r="P43" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>422</v>
-      </c>
-      <c r="R43" t="s">
-        <v>423</v>
-      </c>
-      <c r="S43" t="s">
-        <v>407</v>
-      </c>
-      <c r="T43" t="s">
-        <v>424</v>
-      </c>
-      <c r="U43" t="s">
-        <v>425</v>
-      </c>
-      <c r="V43" t="s">
-        <v>426</v>
-      </c>
-      <c r="W43" t="s">
-        <v>427</v>
-      </c>
-      <c r="X43" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>431</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
         <v>405</v>
@@ -4739,10 +4762,10 @@
         <v>406</v>
       </c>
       <c r="S44" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T44" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s">
         <v>409</v>
@@ -4750,183 +4773,231 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="D45" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="H45" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="I45" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="J45" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>449</v>
+        <v>417</v>
+      </c>
+      <c r="M45" t="s">
+        <v>418</v>
+      </c>
+      <c r="N45" t="s">
+        <v>419</v>
+      </c>
+      <c r="O45" t="s">
+        <v>420</v>
+      </c>
+      <c r="P45" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>422</v>
+      </c>
+      <c r="R45" t="s">
+        <v>423</v>
       </c>
       <c r="S45" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="T45" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="U45" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="V45" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="W45" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="Z45" t="s">
-        <v>449</v>
+        <v>430</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B46" t="s">
-        <v>748</v>
+        <v>438</v>
       </c>
       <c r="C46" t="s">
         <v>439</v>
       </c>
       <c r="D46" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="G46" t="s">
-        <v>448</v>
-      </c>
-      <c r="H46" t="s">
-        <v>749</v>
-      </c>
-      <c r="I46" t="s">
-        <v>48</v>
-      </c>
-      <c r="J46" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="S46" t="s">
         <v>440</v>
       </c>
       <c r="T46" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="U46" t="s">
-        <v>460</v>
-      </c>
-      <c r="V46" t="s">
-        <v>750</v>
-      </c>
-      <c r="W46" t="s">
-        <v>48</v>
-      </c>
-      <c r="X46" t="s">
-        <v>458</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D47" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="G47" t="s">
-        <v>406</v>
+        <v>444</v>
+      </c>
+      <c r="H47" t="s">
+        <v>445</v>
+      </c>
+      <c r="I47" t="s">
+        <v>446</v>
+      </c>
+      <c r="J47" t="s">
+        <v>447</v>
+      </c>
+      <c r="K47" t="s">
+        <v>448</v>
+      </c>
+      <c r="L47" t="s">
+        <v>449</v>
       </c>
       <c r="S47" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="T47" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="U47" t="s">
-        <v>409</v>
+        <v>451</v>
+      </c>
+      <c r="V47" t="s">
+        <v>452</v>
+      </c>
+      <c r="W47" t="s">
+        <v>453</v>
+      </c>
+      <c r="X47" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>748</v>
       </c>
       <c r="C48" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D48" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="H48" t="s">
-        <v>469</v>
+        <v>749</v>
       </c>
       <c r="I48" t="s">
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="S48" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="T48" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="U48" t="s">
-        <v>746</v>
+        <v>460</v>
       </c>
       <c r="V48" t="s">
-        <v>469</v>
+        <v>750</v>
       </c>
       <c r="W48" t="s">
         <v>48</v>
       </c>
       <c r="X48" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D49" t="s">
         <v>405</v>
@@ -4935,7 +5006,7 @@
         <v>406</v>
       </c>
       <c r="S49" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="T49" t="s">
         <v>465</v>
@@ -4946,155 +5017,101 @@
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C50" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D50" t="s">
-        <v>478</v>
-      </c>
-      <c r="E50" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G50" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H50" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="I50" t="s">
-        <v>482</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>483</v>
-      </c>
-      <c r="K50" t="s">
+        <v>470</v>
+      </c>
+      <c r="S50" t="s">
+        <v>471</v>
+      </c>
+      <c r="T50" t="s">
+        <v>472</v>
+      </c>
+      <c r="U50" t="s">
+        <v>746</v>
+      </c>
+      <c r="V50" t="s">
+        <v>469</v>
+      </c>
+      <c r="W50" t="s">
         <v>48</v>
       </c>
-      <c r="L50" t="s">
-        <v>470</v>
-      </c>
-      <c r="S50" t="s">
-        <v>476</v>
-      </c>
-      <c r="T50" t="s">
-        <v>484</v>
-      </c>
-      <c r="U50" t="s">
-        <v>485</v>
-      </c>
-      <c r="V50" t="s">
-        <v>486</v>
-      </c>
-      <c r="W50" t="s">
-        <v>487</v>
-      </c>
       <c r="X50" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z50" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s">
-        <v>717</v>
+        <v>474</v>
       </c>
       <c r="C51" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>493</v>
-      </c>
-      <c r="H51" t="s">
-        <v>494</v>
-      </c>
-      <c r="I51" t="s">
-        <v>495</v>
-      </c>
-      <c r="J51" t="s">
-        <v>496</v>
-      </c>
-      <c r="K51" t="s">
-        <v>497</v>
-      </c>
-      <c r="L51" t="s">
-        <v>498</v>
-      </c>
-      <c r="M51" t="s">
-        <v>48</v>
-      </c>
-      <c r="N51" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="S51" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="T51" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="U51" t="s">
-        <v>501</v>
-      </c>
-      <c r="V51" t="s">
-        <v>502</v>
-      </c>
-      <c r="W51" t="s">
-        <v>503</v>
-      </c>
-      <c r="X51" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B52" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="C52" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="D52" t="s">
-        <v>510</v>
+        <v>478</v>
+      </c>
+      <c r="E52" t="s">
+        <v>479</v>
       </c>
       <c r="G52" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="H52" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="I52" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="J52" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="K52" t="s">
         <v>48</v>
@@ -5103,22 +5120,22 @@
         <v>470</v>
       </c>
       <c r="S52" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="T52" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="U52" t="s">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="V52" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="W52" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="X52" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="Y52" t="s">
         <v>48</v>
@@ -5129,193 +5146,217 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>521</v>
+        <v>489</v>
+      </c>
+      <c r="B53" t="s">
+        <v>717</v>
+      </c>
+      <c r="C53" t="s">
+        <v>491</v>
+      </c>
+      <c r="D53" t="s">
+        <v>492</v>
+      </c>
+      <c r="G53" t="s">
+        <v>493</v>
+      </c>
+      <c r="H53" t="s">
+        <v>494</v>
+      </c>
+      <c r="I53" t="s">
+        <v>495</v>
+      </c>
+      <c r="J53" t="s">
+        <v>496</v>
+      </c>
+      <c r="K53" t="s">
+        <v>497</v>
+      </c>
+      <c r="L53" t="s">
+        <v>498</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>470</v>
+      </c>
+      <c r="S53" t="s">
+        <v>499</v>
+      </c>
+      <c r="T53" t="s">
+        <v>500</v>
+      </c>
+      <c r="U53" t="s">
+        <v>501</v>
+      </c>
+      <c r="V53" t="s">
+        <v>502</v>
+      </c>
+      <c r="W53" t="s">
+        <v>503</v>
+      </c>
+      <c r="X53" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B54" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C54" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D54" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="G54" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="H54" t="s">
-        <v>527</v>
+        <v>512</v>
+      </c>
+      <c r="I54" t="s">
+        <v>513</v>
+      </c>
+      <c r="J54" t="s">
+        <v>514</v>
+      </c>
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" t="s">
+        <v>470</v>
+      </c>
+      <c r="S54" t="s">
+        <v>515</v>
+      </c>
+      <c r="T54" t="s">
+        <v>516</v>
+      </c>
+      <c r="U54" t="s">
+        <v>517</v>
+      </c>
+      <c r="V54" t="s">
+        <v>518</v>
+      </c>
+      <c r="W54" t="s">
+        <v>519</v>
+      </c>
+      <c r="X54" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>528</v>
-      </c>
-      <c r="B55" t="s">
-        <v>523</v>
-      </c>
-      <c r="C55" t="s">
-        <v>524</v>
-      </c>
-      <c r="D55" t="s">
-        <v>529</v>
-      </c>
-      <c r="G55" t="s">
-        <v>530</v>
-      </c>
-      <c r="S55" t="s">
-        <v>63</v>
-      </c>
-      <c r="T55" t="s">
-        <v>531</v>
-      </c>
-      <c r="U55" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B56" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C56" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D56" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>526</v>
       </c>
       <c r="H56" t="s">
-        <v>537</v>
-      </c>
-      <c r="I56" t="s">
-        <v>538</v>
-      </c>
-      <c r="J56" t="s">
-        <v>539</v>
-      </c>
-      <c r="K56" t="s">
-        <v>540</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>528</v>
+      </c>
+      <c r="B57" t="s">
+        <v>523</v>
+      </c>
+      <c r="C57" t="s">
+        <v>524</v>
+      </c>
+      <c r="D57" t="s">
+        <v>529</v>
+      </c>
+      <c r="G57" t="s">
+        <v>530</v>
+      </c>
+      <c r="S57" t="s">
+        <v>63</v>
+      </c>
+      <c r="T57" t="s">
+        <v>531</v>
+      </c>
+      <c r="U57" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="D58" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
-        <v>543</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="I58" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J58" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>365</v>
-      </c>
-      <c r="L58" t="s">
-        <v>690</v>
-      </c>
-      <c r="S58" t="s">
-        <v>48</v>
-      </c>
-      <c r="T58" t="s">
-        <v>547</v>
-      </c>
-      <c r="U58" t="s">
-        <v>543</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>548</v>
-      </c>
-      <c r="B59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" t="s">
-        <v>542</v>
-      </c>
-      <c r="G59" t="s">
-        <v>543</v>
-      </c>
-      <c r="H59" t="s">
-        <v>549</v>
-      </c>
-      <c r="I59" t="s">
-        <v>545</v>
-      </c>
-      <c r="J59" t="s">
-        <v>550</v>
-      </c>
-      <c r="K59" t="s">
-        <v>365</v>
-      </c>
-      <c r="L59" t="s">
-        <v>690</v>
-      </c>
-      <c r="S59" t="s">
-        <v>48</v>
-      </c>
-      <c r="T59" t="s">
-        <v>547</v>
-      </c>
-      <c r="U59" t="s">
-        <v>543</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
         <v>542</v>
@@ -5324,22 +5365,22 @@
         <v>543</v>
       </c>
       <c r="H60" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="I60" t="s">
         <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
         <v>365</v>
       </c>
       <c r="L60" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S60" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="T60" t="s">
         <v>547</v>
@@ -5359,13 +5400,13 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
         <v>542</v>
@@ -5374,22 +5415,22 @@
         <v>543</v>
       </c>
       <c r="H61" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I61" t="s">
         <v>545</v>
       </c>
       <c r="J61" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K61" t="s">
         <v>365</v>
       </c>
       <c r="L61" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S61" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="T61" t="s">
         <v>547</v>
@@ -5409,13 +5450,13 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
         <v>542</v>
@@ -5424,22 +5465,22 @@
         <v>543</v>
       </c>
       <c r="H62" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I62" t="s">
         <v>545</v>
       </c>
       <c r="J62" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K62" t="s">
         <v>365</v>
       </c>
       <c r="L62" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="S62" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="T62" t="s">
         <v>547</v>
@@ -5459,13 +5500,13 @@
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
         <v>542</v>
@@ -5474,22 +5515,22 @@
         <v>543</v>
       </c>
       <c r="H63" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I63" t="s">
         <v>545</v>
       </c>
       <c r="J63" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K63" t="s">
         <v>365</v>
       </c>
       <c r="L63" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="S63" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="T63" t="s">
         <v>547</v>
@@ -5509,13 +5550,13 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
         <v>542</v>
@@ -5524,22 +5565,22 @@
         <v>543</v>
       </c>
       <c r="H64" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I64" t="s">
         <v>545</v>
       </c>
       <c r="J64" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K64" t="s">
         <v>365</v>
       </c>
       <c r="L64" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="S64" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="T64" t="s">
         <v>547</v>
@@ -5559,13 +5600,13 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>720</v>
+        <v>560</v>
       </c>
       <c r="B65" t="s">
-        <v>721</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
         <v>542</v>
@@ -5574,22 +5615,22 @@
         <v>543</v>
       </c>
       <c r="H65" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I65" t="s">
         <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="K65" t="s">
         <v>365</v>
       </c>
       <c r="L65" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="S65" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="T65" t="s">
         <v>547</v>
@@ -5609,13 +5650,13 @@
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
         <v>542</v>
@@ -5624,22 +5665,22 @@
         <v>543</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I66" t="s">
         <v>545</v>
       </c>
       <c r="J66" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K66" t="s">
         <v>365</v>
       </c>
       <c r="L66" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S66" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="T66" t="s">
         <v>547</v>
@@ -5659,13 +5700,13 @@
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B67" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>542</v>
@@ -5674,22 +5715,22 @@
         <v>543</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I67" t="s">
         <v>545</v>
       </c>
       <c r="J67" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K67" t="s">
         <v>365</v>
       </c>
       <c r="L67" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="S67" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="T67" t="s">
         <v>547</v>
@@ -5709,13 +5750,13 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
         <v>542</v>
@@ -5724,22 +5765,22 @@
         <v>543</v>
       </c>
       <c r="H68" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I68" t="s">
         <v>545</v>
       </c>
       <c r="J68" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K68" t="s">
         <v>365</v>
       </c>
       <c r="L68" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="S68" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="T68" t="s">
         <v>547</v>
@@ -5759,13 +5800,13 @@
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>576</v>
+        <v>727</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>726</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
         <v>542</v>
@@ -5774,22 +5815,22 @@
         <v>543</v>
       </c>
       <c r="H69" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I69" t="s">
         <v>545</v>
       </c>
       <c r="J69" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K69" t="s">
         <v>365</v>
       </c>
       <c r="L69" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="S69" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="T69" t="s">
         <v>547</v>
@@ -5809,13 +5850,13 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
         <v>542</v>
@@ -5824,22 +5865,22 @@
         <v>543</v>
       </c>
       <c r="H70" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I70" t="s">
         <v>545</v>
       </c>
       <c r="J70" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K70" t="s">
         <v>365</v>
       </c>
       <c r="L70" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="S70" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="T70" t="s">
         <v>547</v>
@@ -5859,13 +5900,13 @@
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
         <v>542</v>
@@ -5874,22 +5915,22 @@
         <v>543</v>
       </c>
       <c r="H71" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I71" t="s">
         <v>545</v>
       </c>
       <c r="J71" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K71" t="s">
         <v>365</v>
       </c>
       <c r="L71" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="S71" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="T71" t="s">
         <v>547</v>
@@ -5909,13 +5950,13 @@
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
         <v>542</v>
@@ -5924,22 +5965,22 @@
         <v>543</v>
       </c>
       <c r="H72" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I72" t="s">
         <v>545</v>
       </c>
       <c r="J72" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K72" t="s">
         <v>365</v>
       </c>
       <c r="L72" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S72" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="T72" t="s">
         <v>547</v>
@@ -5959,13 +6000,13 @@
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2"